--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="612" windowWidth="10236" windowHeight="2076"/>
+    <workbookView xWindow="324" yWindow="612" windowWidth="10236" windowHeight="2076" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
     <sheet name="Functions" sheetId="2" r:id="rId2"/>
-    <sheet name="Files" sheetId="3" r:id="rId3"/>
-    <sheet name="DB_Functions" sheetId="4" r:id="rId4"/>
+    <sheet name="DTO" sheetId="5" r:id="rId3"/>
+    <sheet name="Files" sheetId="3" r:id="rId4"/>
+    <sheet name="DB_Functions" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="118">
   <si>
     <t>Honnan (HTML)</t>
   </si>
@@ -58,17 +59,429 @@
   </si>
   <si>
     <t>Visszatérési érték típusa</t>
+  </si>
+  <si>
+    <t>SCHEMA</t>
+  </si>
+  <si>
+    <t>TABLES</t>
+  </si>
+  <si>
+    <t>COLUMN NAME</t>
+  </si>
+  <si>
+    <t>DATATYPE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">FK </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Foreign Key)</t>
+    </r>
+  </si>
+  <si>
+    <t>REFERENCED TABLE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PK </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Primary Key)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Not Null)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Auto Increment)</t>
+    </r>
+  </si>
+  <si>
+    <t>squashdb</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>changedPwd</t>
+  </si>
+  <si>
+    <t>tinyint</t>
+  </si>
+  <si>
+    <t>loggedin</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>rent/hour (HUF)</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>player1_id</t>
+  </si>
+  <si>
+    <t>player2_id</t>
+  </si>
+  <si>
+    <t>score_player1</t>
+  </si>
+  <si>
+    <t>score_player2</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date </t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Bejelentkező oldal betöltése</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>login.html</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Bejelentkezés</t>
+  </si>
+  <si>
+    <t>name::String
+pwd::String</t>
+  </si>
+  <si>
+    <t>changepwd.html</t>
+  </si>
+  <si>
+    <t>game.html</t>
+  </si>
+  <si>
+    <t>admin.html</t>
+  </si>
+  <si>
+    <t>ErrorDto</t>
+  </si>
+  <si>
+    <t>Név</t>
+  </si>
+  <si>
+    <t>Attribútumok</t>
+  </si>
+  <si>
+    <t>message::String</t>
+  </si>
+  <si>
+    <t>/login/change</t>
+  </si>
+  <si>
+    <t>Új jelszó beállítása</t>
+  </si>
+  <si>
+    <t>userid::int
+newpwd::String</t>
+  </si>
+  <si>
+    <t>UserDto</t>
+  </si>
+  <si>
+    <t>userid::int</t>
+  </si>
+  <si>
+    <t>GameDtoList</t>
+  </si>
+  <si>
+    <t>GameDto</t>
+  </si>
+  <si>
+    <t>/game/search/location</t>
+  </si>
+  <si>
+    <t>players</t>
+  </si>
+  <si>
+    <t>/game/search/player</t>
+  </si>
+  <si>
+    <t>Szűrés helyszínre</t>
+  </si>
+  <si>
+    <t>Szűrés játékosra</t>
+  </si>
+  <si>
+    <t>userid::int
+searchedlocationid::int</t>
+  </si>
+  <si>
+    <t>userid::int
+searchedplayerid::int</t>
+  </si>
+  <si>
+    <t>gameDtos::List&lt;GameDto&gt;
+allPlayers::List&lt;UserDto&gt;
+allLocations::List&lt;LocationDto&gt;
+loggedInUser::UserDto</t>
+  </si>
+  <si>
+    <t>userid::int
+name::String</t>
+  </si>
+  <si>
+    <t>LocationDto</t>
+  </si>
+  <si>
+    <t>locationid::int
+name::String</t>
+  </si>
+  <si>
+    <t>ErroDto</t>
+  </si>
+  <si>
+    <t>/logout</t>
+  </si>
+  <si>
+    <t>Kilépés</t>
+  </si>
+  <si>
+    <t>/admin/reg/player</t>
+  </si>
+  <si>
+    <t>Játékos regisztrációja</t>
+  </si>
+  <si>
+    <t>userid::int
+playername::String</t>
+  </si>
+  <si>
+    <t>AdminDto</t>
+  </si>
+  <si>
+    <t>/admin/reg/location</t>
+  </si>
+  <si>
+    <t>Helyszín regisztrációja</t>
+  </si>
+  <si>
+    <t>/admin/reg/game</t>
+  </si>
+  <si>
+    <t>Mérkőzés regisztrációja</t>
+  </si>
+  <si>
+    <t>userid::int
+locationname::String
+locationaddress::String
+locationfee::int</t>
+  </si>
+  <si>
+    <t>userid::int
+player1Id::int
+player1Score::int
+player2Id::int
+player2Score::int
+locationId::int
+date::LocalDate</t>
+  </si>
+  <si>
+    <t>userid::int
+allPlayers::List&lt;UserDto&gt;
+allLocations::List&lt;LocationDto&gt;</t>
+  </si>
+  <si>
+    <t>player1Name::String
+player1Score::Int
+player2Name::String
+player2Score::Int
+locationName::String
+date::LocalDate</t>
+  </si>
+  <si>
+    <t>Márton</t>
+  </si>
+  <si>
+    <t>Gizella</t>
+  </si>
+  <si>
+    <t>Vivien</t>
+  </si>
+  <si>
+    <t>model package</t>
+  </si>
+  <si>
+    <t>db package</t>
+  </si>
+  <si>
+    <t>dto package</t>
+  </si>
+  <si>
+    <t>service package</t>
+  </si>
+  <si>
+    <t>controller package</t>
+  </si>
+  <si>
+    <t>name, password</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>getPlayerByNameAndPwd</t>
+  </si>
+  <si>
+    <t>getPlayerById</t>
+  </si>
+  <si>
+    <t>savePlayer</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>saveLocation</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>saveGame</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>getAllPlayers</t>
+  </si>
+  <si>
+    <t>List&lt;Player&gt;</t>
+  </si>
+  <si>
+    <t>getAllLocations</t>
+  </si>
+  <si>
+    <t>List&lt;Location&gt;</t>
+  </si>
+  <si>
+    <t>getAllGames</t>
+  </si>
+  <si>
+    <t>List&lt;Game&gt;</t>
+  </si>
+  <si>
+    <t>updatePlayer</t>
+  </si>
+  <si>
+    <t>getLocationById</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,8 +495,67 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,12 +564,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -143,39 +638,2109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Semleges" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>727075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Kép 1" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53753CAD-26BE-B833-671C-3635567F0E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8185150" y="419100"/>
+          <a:ext cx="314325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Kép 2" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF1ED8D1-5721-47EB-9D74-0D03864C68EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9423400" y="431800"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Kép 3" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB20C870-B841-4493-A871-C35FE8425BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10721340" y="411480"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Kép 4" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AC7ED56-1632-4AB9-8197-F13967C87D60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9410700" y="784860"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Kép 5" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{306A1762-7565-428C-91B2-7315C726B44E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9410700" y="1165860"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Kép 6" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFDF75BE-9EDA-4203-98A2-42E798B95BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9410700" y="2308860"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="314325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Kép 7" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF0DA3EE-8BDD-43C5-958E-F307DEB846ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8185150" y="2804160"/>
+          <a:ext cx="314325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Kép 8" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF1545FB-0057-43F8-90C1-E99CB1F0BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9423400" y="2816860"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Kép 9" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E9298D2-1F17-4CAB-85B7-C3DFED6B1E45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10736580" y="2834640"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Kép 10" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BD999F8-ADCC-4D4E-A1EB-FF8E7400E908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9410700" y="3169920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Kép 11" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82416882-1A6F-4D48-ABDF-4C890EFF8385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9410700" y="3550920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Kép 12" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7537781F-2466-4E36-9889-727D9426B9EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9410700" y="3931920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="314325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Kép 13" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24039EA2-7C2D-4408-9126-5BC6111F7B73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8185150" y="4427220"/>
+          <a:ext cx="314325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Kép 14" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAF51AFE-8846-4786-BAD3-BB9D2B7451BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9423400" y="4439920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Kép 15" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A1D7BA9-A2AC-4240-92F0-EE753796A777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10721340" y="4419600"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Kép 16" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{908DADB7-8F99-4E8A-92B6-704F697B8551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9423400" y="4820920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Kép 17" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{322E6C89-6041-4A9A-A158-1881BD909D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9423400" y="5963920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="314325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Kép 18" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3F14B619-859B-4BA0-BAC7-47A8F61C33FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5617210" y="4808220"/>
+          <a:ext cx="314325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Kép 19" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E44A337F-DB02-4A03-89E3-9F411B9945EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9423400" y="5201920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="314325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Kép 20" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5994F8D0-4E26-4C5B-BDBA-69F97B06F4BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5617210" y="5189220"/>
+          <a:ext cx="314325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="314325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Kép 21" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49CF5BFA-51FD-487E-864A-C977F73726F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5617210" y="6332220"/>
+          <a:ext cx="314325" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Kép 22" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{182EC492-090C-4A3A-84A1-C7394B3839B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9423400" y="6725920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Kép 23" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F791CD0-BF85-4529-9C9D-B6717D9AFC0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9423400" y="5582920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Kép 24" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{978CCAC4-C9F5-41F4-B9B0-0206673C7DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9423400" y="6344920"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Kép 25" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFDF75BE-9EDA-4203-98A2-42E798B95BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9410700" y="1927860"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312420" cy="312420"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Kép 26" descr="Pipa ikonra Szabad kép - Public Domain Pictures">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BFDF75BE-9EDA-4203-98A2-42E798B95BD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9410700" y="1546860"/>
+          <a:ext cx="312420" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,52 +2941,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A980"/>
+  <dimension ref="A1:I980"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="63.88671875" customWidth="1"/>
-    <col min="3" max="3" width="70.109375" customWidth="1"/>
-    <col min="4" max="4" width="58.33203125" customWidth="1"/>
-    <col min="5" max="7" width="27.109375" customWidth="1"/>
-    <col min="8" max="26" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+    <col min="10" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1"/>
-    <row r="4" ht="15.75" customHeight="1"/>
-    <row r="5" ht="15.75" customHeight="1"/>
-    <row r="6" ht="15.75" customHeight="1"/>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+    </row>
+    <row r="16" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+    </row>
+    <row r="17" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="1:9" ht="24.6" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="53"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+    </row>
+    <row r="20" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="57"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -1371,3046 +4242,3478 @@
     <row r="979" ht="15.75" customHeight="1"/>
     <row r="980" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B14:B20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H990"/>
+  <dimension ref="A1:H1012"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="59" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="59" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="59" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="59" customWidth="1"/>
     <col min="8" max="8" width="22.88671875" customWidth="1"/>
     <col min="9" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="60" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.4">
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4">
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.4">
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.4">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="14.4">
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B32" s="5"/>
+    <row r="2" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="10.8" customHeight="1">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+    </row>
+    <row r="4" spans="1:8" ht="51" customHeight="1">
+      <c r="A4" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="85"/>
+    </row>
+    <row r="6" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A6" s="67"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A7" s="67"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="84"/>
+    </row>
+    <row r="8" spans="1:8" ht="8.4" customHeight="1">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" customHeight="1">
+      <c r="A9" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="10.199999999999999" customHeight="1">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.8" customHeight="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="1:8" ht="8.4" customHeight="1">
+      <c r="A13" s="70"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" customHeight="1">
+      <c r="A14" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.8" customHeight="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="84"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.6" customHeight="1">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.4">
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="63"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.4">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+    </row>
+    <row r="20" spans="1:8" ht="14.4">
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="63"/>
+    </row>
+    <row r="21" spans="1:8" ht="41.4" customHeight="1">
+      <c r="A21" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31.2" customHeight="1">
+      <c r="A22" s="74"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="84"/>
+    </row>
+    <row r="23" spans="1:8" ht="14.4">
+      <c r="A23" s="70"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="71"/>
+    </row>
+    <row r="24" spans="1:8" ht="75.599999999999994" customHeight="1">
+      <c r="A24" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.2" customHeight="1">
+      <c r="A25" s="74"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="84"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.2" customHeight="1">
+      <c r="A26" s="70"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="71"/>
+    </row>
+    <row r="27" spans="1:8" ht="115.2" customHeight="1">
+      <c r="A27" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="83" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.2" customHeight="1">
+      <c r="A28" s="74"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="84"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.4">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.4">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.4">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.4">
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B33" s="5"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B34" s="5"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B35" s="5"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B36" s="5"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B37" s="5"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B38" s="5"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B39" s="5"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B40" s="5"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B41" s="5"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B42" s="5"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B43" s="5"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B44" s="5"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B45" s="5"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B46" s="5"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B47" s="5"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B48" s="5"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B49" s="5"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B50" s="5"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B51" s="5"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B52" s="5"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B53" s="5"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B54" s="5"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B55" s="5"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B56" s="5"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B57" s="5"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B58" s="5"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B59" s="5"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B60" s="5"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B61" s="5"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B62" s="5"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B63" s="5"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B64" s="5"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B65" s="5"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B66" s="5"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B67" s="5"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B68" s="5"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B69" s="5"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B70" s="5"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B71" s="5"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B72" s="5"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B73" s="5"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B74" s="5"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B75" s="5"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B76" s="5"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B77" s="5"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B78" s="5"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B79" s="5"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B80" s="5"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B81" s="5"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B82" s="5"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B83" s="5"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B84" s="5"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B85" s="5"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B86" s="5"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B87" s="5"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B88" s="5"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B89" s="5"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B90" s="5"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B91" s="5"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B92" s="5"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B93" s="5"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B94" s="5"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B95" s="5"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B96" s="5"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B97" s="5"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B98" s="5"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B99" s="5"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B100" s="5"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B101" s="5"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B102" s="5"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B103" s="5"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B104" s="5"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B105" s="5"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B106" s="5"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B107" s="5"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B108" s="5"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B109" s="5"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B110" s="5"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B111" s="5"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B112" s="5"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B113" s="5"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B114" s="5"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B115" s="5"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B116" s="5"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B117" s="5"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B118" s="5"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B119" s="5"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B120" s="5"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B121" s="5"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B122" s="5"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B123" s="5"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B124" s="5"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B125" s="5"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B126" s="5"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B127" s="5"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B128" s="5"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B129" s="5"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B130" s="5"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B131" s="5"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B132" s="5"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B133" s="5"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B134" s="5"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B135" s="5"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B136" s="5"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B137" s="5"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B138" s="5"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B139" s="5"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B140" s="5"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B141" s="5"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B142" s="5"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B143" s="5"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B144" s="5"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B145" s="5"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B146" s="5"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B147" s="5"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B148" s="5"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B149" s="5"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B150" s="5"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B151" s="5"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B152" s="5"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B153" s="5"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B154" s="5"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B155" s="5"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B156" s="5"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B157" s="5"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B158" s="5"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B159" s="5"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B160" s="5"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B161" s="5"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B162" s="5"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B163" s="5"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B164" s="5"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B165" s="5"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B166" s="5"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B167" s="5"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B168" s="5"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B169" s="5"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B170" s="5"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B171" s="5"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B172" s="5"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B173" s="5"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B174" s="5"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B175" s="5"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B176" s="5"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B177" s="5"/>
+      <c r="B177" s="2"/>
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B178" s="5"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B179" s="5"/>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B180" s="5"/>
+      <c r="B180" s="2"/>
     </row>
     <row r="181" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B181" s="5"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B182" s="5"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B183" s="5"/>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B184" s="5"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B185" s="5"/>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B186" s="5"/>
+      <c r="B186" s="2"/>
     </row>
     <row r="187" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B187" s="5"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B188" s="5"/>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B189" s="5"/>
+      <c r="B189" s="2"/>
     </row>
     <row r="190" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B190" s="5"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B191" s="5"/>
+      <c r="B191" s="2"/>
     </row>
     <row r="192" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B192" s="5"/>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B193" s="5"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B194" s="5"/>
+      <c r="B194" s="2"/>
     </row>
     <row r="195" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B195" s="5"/>
+      <c r="B195" s="2"/>
     </row>
     <row r="196" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B196" s="5"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B197" s="5"/>
+      <c r="B197" s="2"/>
     </row>
     <row r="198" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B198" s="5"/>
+      <c r="B198" s="2"/>
     </row>
     <row r="199" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B199" s="5"/>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B200" s="5"/>
+      <c r="B200" s="2"/>
     </row>
     <row r="201" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B201" s="5"/>
+      <c r="B201" s="2"/>
     </row>
     <row r="202" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B202" s="5"/>
+      <c r="B202" s="2"/>
     </row>
     <row r="203" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B203" s="5"/>
+      <c r="B203" s="2"/>
     </row>
     <row r="204" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B204" s="5"/>
+      <c r="B204" s="2"/>
     </row>
     <row r="205" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B205" s="5"/>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B206" s="5"/>
+      <c r="B206" s="2"/>
     </row>
     <row r="207" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B207" s="5"/>
+      <c r="B207" s="2"/>
     </row>
     <row r="208" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B208" s="5"/>
+      <c r="B208" s="2"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B209" s="5"/>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B210" s="5"/>
+      <c r="B210" s="2"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B211" s="5"/>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B212" s="5"/>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B213" s="5"/>
+      <c r="B213" s="2"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B214" s="5"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B215" s="5"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B216" s="5"/>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B217" s="5"/>
+      <c r="B217" s="2"/>
     </row>
     <row r="218" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B218" s="5"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B219" s="5"/>
+      <c r="B219" s="2"/>
     </row>
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B220" s="5"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B221" s="5"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B222" s="5"/>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B223" s="5"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B224" s="5"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B225" s="5"/>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B226" s="5"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B227" s="5"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B228" s="5"/>
+      <c r="B228" s="2"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B229" s="5"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B230" s="5"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B231" s="5"/>
+      <c r="B231" s="2"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B232" s="5"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B233" s="5"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B234" s="5"/>
+      <c r="B234" s="2"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B235" s="5"/>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B236" s="5"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B237" s="5"/>
+      <c r="B237" s="2"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B238" s="5"/>
+      <c r="B238" s="2"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B239" s="5"/>
+      <c r="B239" s="2"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B240" s="5"/>
+      <c r="B240" s="2"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B241" s="5"/>
+      <c r="B241" s="2"/>
     </row>
     <row r="242" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B242" s="5"/>
+      <c r="B242" s="2"/>
     </row>
     <row r="243" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B243" s="5"/>
+      <c r="B243" s="2"/>
     </row>
     <row r="244" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B244" s="5"/>
+      <c r="B244" s="2"/>
     </row>
     <row r="245" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B245" s="5"/>
+      <c r="B245" s="2"/>
     </row>
     <row r="246" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B246" s="5"/>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B247" s="5"/>
+      <c r="B247" s="2"/>
     </row>
     <row r="248" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B248" s="5"/>
+      <c r="B248" s="2"/>
     </row>
     <row r="249" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B249" s="5"/>
+      <c r="B249" s="2"/>
     </row>
     <row r="250" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B250" s="5"/>
+      <c r="B250" s="2"/>
     </row>
     <row r="251" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B251" s="5"/>
+      <c r="B251" s="2"/>
     </row>
     <row r="252" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B252" s="5"/>
+      <c r="B252" s="2"/>
     </row>
     <row r="253" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B253" s="5"/>
+      <c r="B253" s="2"/>
     </row>
     <row r="254" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B254" s="5"/>
+      <c r="B254" s="2"/>
     </row>
     <row r="255" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B255" s="5"/>
+      <c r="B255" s="2"/>
     </row>
     <row r="256" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B256" s="5"/>
+      <c r="B256" s="2"/>
     </row>
     <row r="257" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B257" s="5"/>
+      <c r="B257" s="2"/>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B258" s="5"/>
+      <c r="B258" s="2"/>
     </row>
     <row r="259" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B259" s="5"/>
+      <c r="B259" s="2"/>
     </row>
     <row r="260" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B260" s="5"/>
+      <c r="B260" s="2"/>
     </row>
     <row r="261" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B261" s="5"/>
+      <c r="B261" s="2"/>
     </row>
     <row r="262" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B262" s="5"/>
+      <c r="B262" s="2"/>
     </row>
     <row r="263" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B263" s="5"/>
+      <c r="B263" s="2"/>
     </row>
     <row r="264" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B264" s="5"/>
+      <c r="B264" s="2"/>
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B265" s="5"/>
+      <c r="B265" s="2"/>
     </row>
     <row r="266" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B266" s="5"/>
+      <c r="B266" s="2"/>
     </row>
     <row r="267" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B267" s="5"/>
+      <c r="B267" s="2"/>
     </row>
     <row r="268" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B268" s="5"/>
+      <c r="B268" s="2"/>
     </row>
     <row r="269" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B269" s="5"/>
+      <c r="B269" s="2"/>
     </row>
     <row r="270" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B270" s="5"/>
+      <c r="B270" s="2"/>
     </row>
     <row r="271" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B271" s="5"/>
+      <c r="B271" s="2"/>
     </row>
     <row r="272" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B272" s="5"/>
+      <c r="B272" s="2"/>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B273" s="5"/>
+      <c r="B273" s="2"/>
     </row>
     <row r="274" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B274" s="5"/>
+      <c r="B274" s="2"/>
     </row>
     <row r="275" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B275" s="5"/>
+      <c r="B275" s="2"/>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B276" s="5"/>
+      <c r="B276" s="2"/>
     </row>
     <row r="277" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B277" s="5"/>
+      <c r="B277" s="2"/>
     </row>
     <row r="278" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B278" s="5"/>
+      <c r="B278" s="2"/>
     </row>
     <row r="279" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B279" s="5"/>
+      <c r="B279" s="2"/>
     </row>
     <row r="280" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B280" s="5"/>
+      <c r="B280" s="2"/>
     </row>
     <row r="281" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B281" s="5"/>
+      <c r="B281" s="2"/>
     </row>
     <row r="282" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B282" s="5"/>
+      <c r="B282" s="2"/>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B283" s="5"/>
+      <c r="B283" s="2"/>
     </row>
     <row r="284" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B284" s="5"/>
+      <c r="B284" s="2"/>
     </row>
     <row r="285" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B285" s="5"/>
+      <c r="B285" s="2"/>
     </row>
     <row r="286" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B286" s="5"/>
+      <c r="B286" s="2"/>
     </row>
     <row r="287" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B287" s="5"/>
+      <c r="B287" s="2"/>
     </row>
     <row r="288" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B288" s="5"/>
+      <c r="B288" s="2"/>
     </row>
     <row r="289" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B289" s="5"/>
+      <c r="B289" s="2"/>
     </row>
     <row r="290" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B290" s="5"/>
+      <c r="B290" s="2"/>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B291" s="5"/>
+      <c r="B291" s="2"/>
     </row>
     <row r="292" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B292" s="5"/>
+      <c r="B292" s="2"/>
     </row>
     <row r="293" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B293" s="5"/>
+      <c r="B293" s="2"/>
     </row>
     <row r="294" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B294" s="5"/>
+      <c r="B294" s="2"/>
     </row>
     <row r="295" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B295" s="5"/>
+      <c r="B295" s="2"/>
     </row>
     <row r="296" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B296" s="5"/>
+      <c r="B296" s="2"/>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B297" s="5"/>
+      <c r="B297" s="2"/>
     </row>
     <row r="298" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B298" s="5"/>
+      <c r="B298" s="2"/>
     </row>
     <row r="299" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B299" s="5"/>
+      <c r="B299" s="2"/>
     </row>
     <row r="300" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B300" s="5"/>
+      <c r="B300" s="2"/>
     </row>
     <row r="301" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B301" s="5"/>
+      <c r="B301" s="2"/>
     </row>
     <row r="302" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B302" s="5"/>
+      <c r="B302" s="2"/>
     </row>
     <row r="303" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B303" s="5"/>
+      <c r="B303" s="2"/>
     </row>
     <row r="304" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B304" s="5"/>
+      <c r="B304" s="2"/>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B305" s="5"/>
+      <c r="B305" s="2"/>
     </row>
     <row r="306" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B306" s="5"/>
+      <c r="B306" s="2"/>
     </row>
     <row r="307" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B307" s="5"/>
+      <c r="B307" s="2"/>
     </row>
     <row r="308" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B308" s="5"/>
+      <c r="B308" s="2"/>
     </row>
     <row r="309" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B309" s="5"/>
+      <c r="B309" s="2"/>
     </row>
     <row r="310" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B310" s="5"/>
+      <c r="B310" s="2"/>
     </row>
     <row r="311" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B311" s="5"/>
+      <c r="B311" s="2"/>
     </row>
     <row r="312" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B312" s="5"/>
+      <c r="B312" s="2"/>
     </row>
     <row r="313" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B313" s="5"/>
+      <c r="B313" s="2"/>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B314" s="5"/>
+      <c r="B314" s="2"/>
     </row>
     <row r="315" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B315" s="5"/>
+      <c r="B315" s="2"/>
     </row>
     <row r="316" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B316" s="5"/>
+      <c r="B316" s="2"/>
     </row>
     <row r="317" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B317" s="5"/>
+      <c r="B317" s="2"/>
     </row>
     <row r="318" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B318" s="5"/>
+      <c r="B318" s="2"/>
     </row>
     <row r="319" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B319" s="5"/>
+      <c r="B319" s="2"/>
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B320" s="5"/>
+      <c r="B320" s="2"/>
     </row>
     <row r="321" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B321" s="5"/>
+      <c r="B321" s="2"/>
     </row>
     <row r="322" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B322" s="5"/>
+      <c r="B322" s="2"/>
     </row>
     <row r="323" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B323" s="5"/>
+      <c r="B323" s="2"/>
     </row>
     <row r="324" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B324" s="5"/>
+      <c r="B324" s="2"/>
     </row>
     <row r="325" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B325" s="5"/>
+      <c r="B325" s="2"/>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B326" s="5"/>
+      <c r="B326" s="2"/>
     </row>
     <row r="327" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B327" s="5"/>
+      <c r="B327" s="2"/>
     </row>
     <row r="328" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B328" s="5"/>
+      <c r="B328" s="2"/>
     </row>
     <row r="329" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B329" s="5"/>
+      <c r="B329" s="2"/>
     </row>
     <row r="330" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B330" s="5"/>
+      <c r="B330" s="2"/>
     </row>
     <row r="331" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B331" s="5"/>
+      <c r="B331" s="2"/>
     </row>
     <row r="332" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B332" s="5"/>
+      <c r="B332" s="2"/>
     </row>
     <row r="333" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B333" s="5"/>
+      <c r="B333" s="2"/>
     </row>
     <row r="334" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B334" s="5"/>
+      <c r="B334" s="2"/>
     </row>
     <row r="335" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B335" s="5"/>
+      <c r="B335" s="2"/>
     </row>
     <row r="336" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B336" s="5"/>
+      <c r="B336" s="2"/>
     </row>
     <row r="337" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B337" s="5"/>
+      <c r="B337" s="2"/>
     </row>
     <row r="338" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B338" s="5"/>
+      <c r="B338" s="2"/>
     </row>
     <row r="339" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B339" s="5"/>
+      <c r="B339" s="2"/>
     </row>
     <row r="340" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B340" s="5"/>
+      <c r="B340" s="2"/>
     </row>
     <row r="341" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B341" s="5"/>
+      <c r="B341" s="2"/>
     </row>
     <row r="342" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B342" s="5"/>
+      <c r="B342" s="2"/>
     </row>
     <row r="343" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B343" s="5"/>
+      <c r="B343" s="2"/>
     </row>
     <row r="344" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B344" s="5"/>
+      <c r="B344" s="2"/>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B345" s="5"/>
+      <c r="B345" s="2"/>
     </row>
     <row r="346" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B346" s="5"/>
+      <c r="B346" s="2"/>
     </row>
     <row r="347" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B347" s="5"/>
+      <c r="B347" s="2"/>
     </row>
     <row r="348" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B348" s="5"/>
+      <c r="B348" s="2"/>
     </row>
     <row r="349" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B349" s="5"/>
+      <c r="B349" s="2"/>
     </row>
     <row r="350" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B350" s="5"/>
+      <c r="B350" s="2"/>
     </row>
     <row r="351" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B351" s="5"/>
+      <c r="B351" s="2"/>
     </row>
     <row r="352" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B352" s="5"/>
+      <c r="B352" s="2"/>
     </row>
     <row r="353" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B353" s="5"/>
+      <c r="B353" s="2"/>
     </row>
     <row r="354" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B354" s="5"/>
+      <c r="B354" s="2"/>
     </row>
     <row r="355" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B355" s="5"/>
+      <c r="B355" s="2"/>
     </row>
     <row r="356" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B356" s="5"/>
+      <c r="B356" s="2"/>
     </row>
     <row r="357" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B357" s="5"/>
+      <c r="B357" s="2"/>
     </row>
     <row r="358" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B358" s="5"/>
+      <c r="B358" s="2"/>
     </row>
     <row r="359" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B359" s="5"/>
+      <c r="B359" s="2"/>
     </row>
     <row r="360" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B360" s="5"/>
+      <c r="B360" s="2"/>
     </row>
     <row r="361" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B361" s="5"/>
+      <c r="B361" s="2"/>
     </row>
     <row r="362" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B362" s="5"/>
+      <c r="B362" s="2"/>
     </row>
     <row r="363" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B363" s="5"/>
+      <c r="B363" s="2"/>
     </row>
     <row r="364" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B364" s="5"/>
+      <c r="B364" s="2"/>
     </row>
     <row r="365" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B365" s="5"/>
+      <c r="B365" s="2"/>
     </row>
     <row r="366" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B366" s="5"/>
+      <c r="B366" s="2"/>
     </row>
     <row r="367" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B367" s="5"/>
+      <c r="B367" s="2"/>
     </row>
     <row r="368" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B368" s="5"/>
+      <c r="B368" s="2"/>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B369" s="5"/>
+      <c r="B369" s="2"/>
     </row>
     <row r="370" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B370" s="5"/>
+      <c r="B370" s="2"/>
     </row>
     <row r="371" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B371" s="5"/>
+      <c r="B371" s="2"/>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B372" s="5"/>
+      <c r="B372" s="2"/>
     </row>
     <row r="373" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B373" s="5"/>
+      <c r="B373" s="2"/>
     </row>
     <row r="374" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B374" s="5"/>
+      <c r="B374" s="2"/>
     </row>
     <row r="375" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B375" s="5"/>
+      <c r="B375" s="2"/>
     </row>
     <row r="376" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B376" s="5"/>
+      <c r="B376" s="2"/>
     </row>
     <row r="377" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B377" s="5"/>
+      <c r="B377" s="2"/>
     </row>
     <row r="378" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B378" s="5"/>
+      <c r="B378" s="2"/>
     </row>
     <row r="379" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B379" s="5"/>
+      <c r="B379" s="2"/>
     </row>
     <row r="380" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B380" s="5"/>
+      <c r="B380" s="2"/>
     </row>
     <row r="381" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B381" s="5"/>
+      <c r="B381" s="2"/>
     </row>
     <row r="382" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B382" s="5"/>
+      <c r="B382" s="2"/>
     </row>
     <row r="383" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B383" s="5"/>
+      <c r="B383" s="2"/>
     </row>
     <row r="384" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B384" s="5"/>
+      <c r="B384" s="2"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B385" s="5"/>
+      <c r="B385" s="2"/>
     </row>
     <row r="386" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B386" s="5"/>
+      <c r="B386" s="2"/>
     </row>
     <row r="387" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B387" s="5"/>
+      <c r="B387" s="2"/>
     </row>
     <row r="388" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B388" s="5"/>
+      <c r="B388" s="2"/>
     </row>
     <row r="389" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B389" s="5"/>
+      <c r="B389" s="2"/>
     </row>
     <row r="390" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B390" s="5"/>
+      <c r="B390" s="2"/>
     </row>
     <row r="391" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B391" s="5"/>
+      <c r="B391" s="2"/>
     </row>
     <row r="392" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B392" s="5"/>
+      <c r="B392" s="2"/>
     </row>
     <row r="393" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B393" s="5"/>
+      <c r="B393" s="2"/>
     </row>
     <row r="394" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B394" s="5"/>
+      <c r="B394" s="2"/>
     </row>
     <row r="395" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B395" s="5"/>
+      <c r="B395" s="2"/>
     </row>
     <row r="396" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B396" s="5"/>
+      <c r="B396" s="2"/>
     </row>
     <row r="397" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B397" s="5"/>
+      <c r="B397" s="2"/>
     </row>
     <row r="398" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B398" s="5"/>
+      <c r="B398" s="2"/>
     </row>
     <row r="399" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B399" s="5"/>
+      <c r="B399" s="2"/>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B400" s="5"/>
+      <c r="B400" s="2"/>
     </row>
     <row r="401" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B401" s="5"/>
+      <c r="B401" s="2"/>
     </row>
     <row r="402" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B402" s="5"/>
+      <c r="B402" s="2"/>
     </row>
     <row r="403" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B403" s="5"/>
+      <c r="B403" s="2"/>
     </row>
     <row r="404" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B404" s="5"/>
+      <c r="B404" s="2"/>
     </row>
     <row r="405" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B405" s="5"/>
+      <c r="B405" s="2"/>
     </row>
     <row r="406" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B406" s="5"/>
+      <c r="B406" s="2"/>
     </row>
     <row r="407" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B407" s="5"/>
+      <c r="B407" s="2"/>
     </row>
     <row r="408" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B408" s="5"/>
+      <c r="B408" s="2"/>
     </row>
     <row r="409" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B409" s="5"/>
+      <c r="B409" s="2"/>
     </row>
     <row r="410" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B410" s="5"/>
+      <c r="B410" s="2"/>
     </row>
     <row r="411" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B411" s="5"/>
+      <c r="B411" s="2"/>
     </row>
     <row r="412" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B412" s="5"/>
+      <c r="B412" s="2"/>
     </row>
     <row r="413" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B413" s="5"/>
+      <c r="B413" s="2"/>
     </row>
     <row r="414" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B414" s="5"/>
+      <c r="B414" s="2"/>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B415" s="5"/>
+      <c r="B415" s="2"/>
     </row>
     <row r="416" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B416" s="5"/>
+      <c r="B416" s="2"/>
     </row>
     <row r="417" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B417" s="5"/>
+      <c r="B417" s="2"/>
     </row>
     <row r="418" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B418" s="5"/>
+      <c r="B418" s="2"/>
     </row>
     <row r="419" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B419" s="5"/>
+      <c r="B419" s="2"/>
     </row>
     <row r="420" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B420" s="5"/>
+      <c r="B420" s="2"/>
     </row>
     <row r="421" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B421" s="5"/>
+      <c r="B421" s="2"/>
     </row>
     <row r="422" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B422" s="5"/>
+      <c r="B422" s="2"/>
     </row>
     <row r="423" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B423" s="5"/>
+      <c r="B423" s="2"/>
     </row>
     <row r="424" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B424" s="5"/>
+      <c r="B424" s="2"/>
     </row>
     <row r="425" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B425" s="5"/>
+      <c r="B425" s="2"/>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B426" s="5"/>
+      <c r="B426" s="2"/>
     </row>
     <row r="427" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B427" s="5"/>
+      <c r="B427" s="2"/>
     </row>
     <row r="428" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B428" s="5"/>
+      <c r="B428" s="2"/>
     </row>
     <row r="429" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B429" s="5"/>
+      <c r="B429" s="2"/>
     </row>
     <row r="430" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B430" s="5"/>
+      <c r="B430" s="2"/>
     </row>
     <row r="431" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B431" s="5"/>
+      <c r="B431" s="2"/>
     </row>
     <row r="432" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B432" s="5"/>
+      <c r="B432" s="2"/>
     </row>
     <row r="433" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B433" s="5"/>
+      <c r="B433" s="2"/>
     </row>
     <row r="434" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B434" s="5"/>
+      <c r="B434" s="2"/>
     </row>
     <row r="435" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B435" s="5"/>
+      <c r="B435" s="2"/>
     </row>
     <row r="436" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B436" s="5"/>
+      <c r="B436" s="2"/>
     </row>
     <row r="437" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B437" s="5"/>
+      <c r="B437" s="2"/>
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B438" s="5"/>
+      <c r="B438" s="2"/>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B439" s="5"/>
+      <c r="B439" s="2"/>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B440" s="5"/>
+      <c r="B440" s="2"/>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B441" s="5"/>
+      <c r="B441" s="2"/>
     </row>
     <row r="442" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B442" s="5"/>
+      <c r="B442" s="2"/>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B443" s="5"/>
+      <c r="B443" s="2"/>
     </row>
     <row r="444" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B444" s="5"/>
+      <c r="B444" s="2"/>
     </row>
     <row r="445" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B445" s="5"/>
+      <c r="B445" s="2"/>
     </row>
     <row r="446" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B446" s="5"/>
+      <c r="B446" s="2"/>
     </row>
     <row r="447" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B447" s="5"/>
+      <c r="B447" s="2"/>
     </row>
     <row r="448" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B448" s="5"/>
+      <c r="B448" s="2"/>
     </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B449" s="5"/>
+      <c r="B449" s="2"/>
     </row>
     <row r="450" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B450" s="5"/>
+      <c r="B450" s="2"/>
     </row>
     <row r="451" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B451" s="5"/>
+      <c r="B451" s="2"/>
     </row>
     <row r="452" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B452" s="5"/>
+      <c r="B452" s="2"/>
     </row>
     <row r="453" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B453" s="5"/>
+      <c r="B453" s="2"/>
     </row>
     <row r="454" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B454" s="5"/>
+      <c r="B454" s="2"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B455" s="5"/>
+      <c r="B455" s="2"/>
     </row>
     <row r="456" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B456" s="5"/>
+      <c r="B456" s="2"/>
     </row>
     <row r="457" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B457" s="5"/>
+      <c r="B457" s="2"/>
     </row>
     <row r="458" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B458" s="5"/>
+      <c r="B458" s="2"/>
     </row>
     <row r="459" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B459" s="5"/>
+      <c r="B459" s="2"/>
     </row>
     <row r="460" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B460" s="5"/>
+      <c r="B460" s="2"/>
     </row>
     <row r="461" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B461" s="5"/>
+      <c r="B461" s="2"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B462" s="5"/>
+      <c r="B462" s="2"/>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B463" s="5"/>
+      <c r="B463" s="2"/>
     </row>
     <row r="464" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B464" s="5"/>
+      <c r="B464" s="2"/>
     </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B465" s="5"/>
+      <c r="B465" s="2"/>
     </row>
     <row r="466" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B466" s="5"/>
+      <c r="B466" s="2"/>
     </row>
     <row r="467" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B467" s="5"/>
+      <c r="B467" s="2"/>
     </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B468" s="5"/>
+      <c r="B468" s="2"/>
     </row>
     <row r="469" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B469" s="5"/>
+      <c r="B469" s="2"/>
     </row>
     <row r="470" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B470" s="5"/>
+      <c r="B470" s="2"/>
     </row>
     <row r="471" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B471" s="5"/>
+      <c r="B471" s="2"/>
     </row>
     <row r="472" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B472" s="5"/>
+      <c r="B472" s="2"/>
     </row>
     <row r="473" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B473" s="5"/>
+      <c r="B473" s="2"/>
     </row>
     <row r="474" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B474" s="5"/>
+      <c r="B474" s="2"/>
     </row>
     <row r="475" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B475" s="5"/>
+      <c r="B475" s="2"/>
     </row>
     <row r="476" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B476" s="5"/>
+      <c r="B476" s="2"/>
     </row>
     <row r="477" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B477" s="5"/>
+      <c r="B477" s="2"/>
     </row>
     <row r="478" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B478" s="5"/>
+      <c r="B478" s="2"/>
     </row>
     <row r="479" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B479" s="5"/>
+      <c r="B479" s="2"/>
     </row>
     <row r="480" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B480" s="5"/>
+      <c r="B480" s="2"/>
     </row>
     <row r="481" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B481" s="5"/>
+      <c r="B481" s="2"/>
     </row>
     <row r="482" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B482" s="5"/>
+      <c r="B482" s="2"/>
     </row>
     <row r="483" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B483" s="5"/>
+      <c r="B483" s="2"/>
     </row>
     <row r="484" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B484" s="5"/>
+      <c r="B484" s="2"/>
     </row>
     <row r="485" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B485" s="5"/>
+      <c r="B485" s="2"/>
     </row>
     <row r="486" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B486" s="5"/>
+      <c r="B486" s="2"/>
     </row>
     <row r="487" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B487" s="5"/>
+      <c r="B487" s="2"/>
     </row>
     <row r="488" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B488" s="5"/>
+      <c r="B488" s="2"/>
     </row>
     <row r="489" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B489" s="5"/>
+      <c r="B489" s="2"/>
     </row>
     <row r="490" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B490" s="5"/>
+      <c r="B490" s="2"/>
     </row>
     <row r="491" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B491" s="5"/>
+      <c r="B491" s="2"/>
     </row>
     <row r="492" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B492" s="5"/>
+      <c r="B492" s="2"/>
     </row>
     <row r="493" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B493" s="5"/>
+      <c r="B493" s="2"/>
     </row>
     <row r="494" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B494" s="5"/>
+      <c r="B494" s="2"/>
     </row>
     <row r="495" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B495" s="5"/>
+      <c r="B495" s="2"/>
     </row>
     <row r="496" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B496" s="5"/>
+      <c r="B496" s="2"/>
     </row>
     <row r="497" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B497" s="5"/>
+      <c r="B497" s="2"/>
     </row>
     <row r="498" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B498" s="5"/>
+      <c r="B498" s="2"/>
     </row>
     <row r="499" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B499" s="5"/>
+      <c r="B499" s="2"/>
     </row>
     <row r="500" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B500" s="5"/>
+      <c r="B500" s="2"/>
     </row>
     <row r="501" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B501" s="5"/>
+      <c r="B501" s="2"/>
     </row>
     <row r="502" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B502" s="5"/>
+      <c r="B502" s="2"/>
     </row>
     <row r="503" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B503" s="5"/>
+      <c r="B503" s="2"/>
     </row>
     <row r="504" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B504" s="5"/>
+      <c r="B504" s="2"/>
     </row>
     <row r="505" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B505" s="5"/>
+      <c r="B505" s="2"/>
     </row>
     <row r="506" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B506" s="5"/>
+      <c r="B506" s="2"/>
     </row>
     <row r="507" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B507" s="5"/>
+      <c r="B507" s="2"/>
     </row>
     <row r="508" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B508" s="5"/>
+      <c r="B508" s="2"/>
     </row>
     <row r="509" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B509" s="5"/>
+      <c r="B509" s="2"/>
     </row>
     <row r="510" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B510" s="5"/>
+      <c r="B510" s="2"/>
     </row>
     <row r="511" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B511" s="5"/>
+      <c r="B511" s="2"/>
     </row>
     <row r="512" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B512" s="5"/>
+      <c r="B512" s="2"/>
     </row>
     <row r="513" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B513" s="5"/>
+      <c r="B513" s="2"/>
     </row>
     <row r="514" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B514" s="5"/>
+      <c r="B514" s="2"/>
     </row>
     <row r="515" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B515" s="5"/>
+      <c r="B515" s="2"/>
     </row>
     <row r="516" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B516" s="5"/>
+      <c r="B516" s="2"/>
     </row>
     <row r="517" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B517" s="5"/>
+      <c r="B517" s="2"/>
     </row>
     <row r="518" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B518" s="5"/>
+      <c r="B518" s="2"/>
     </row>
     <row r="519" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B519" s="5"/>
+      <c r="B519" s="2"/>
     </row>
     <row r="520" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B520" s="5"/>
+      <c r="B520" s="2"/>
     </row>
     <row r="521" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B521" s="5"/>
+      <c r="B521" s="2"/>
     </row>
     <row r="522" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B522" s="5"/>
+      <c r="B522" s="2"/>
     </row>
     <row r="523" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B523" s="5"/>
+      <c r="B523" s="2"/>
     </row>
     <row r="524" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B524" s="5"/>
+      <c r="B524" s="2"/>
     </row>
     <row r="525" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B525" s="5"/>
+      <c r="B525" s="2"/>
     </row>
     <row r="526" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B526" s="5"/>
+      <c r="B526" s="2"/>
     </row>
     <row r="527" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B527" s="5"/>
+      <c r="B527" s="2"/>
     </row>
     <row r="528" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B528" s="5"/>
+      <c r="B528" s="2"/>
     </row>
     <row r="529" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B529" s="5"/>
+      <c r="B529" s="2"/>
     </row>
     <row r="530" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B530" s="5"/>
+      <c r="B530" s="2"/>
     </row>
     <row r="531" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B531" s="5"/>
+      <c r="B531" s="2"/>
     </row>
     <row r="532" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B532" s="5"/>
+      <c r="B532" s="2"/>
     </row>
     <row r="533" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B533" s="5"/>
+      <c r="B533" s="2"/>
     </row>
     <row r="534" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B534" s="5"/>
+      <c r="B534" s="2"/>
     </row>
     <row r="535" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B535" s="5"/>
+      <c r="B535" s="2"/>
     </row>
     <row r="536" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B536" s="5"/>
+      <c r="B536" s="2"/>
     </row>
     <row r="537" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B537" s="5"/>
+      <c r="B537" s="2"/>
     </row>
     <row r="538" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B538" s="5"/>
+      <c r="B538" s="2"/>
     </row>
     <row r="539" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B539" s="5"/>
+      <c r="B539" s="2"/>
     </row>
     <row r="540" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B540" s="5"/>
+      <c r="B540" s="2"/>
     </row>
     <row r="541" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B541" s="5"/>
+      <c r="B541" s="2"/>
     </row>
     <row r="542" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B542" s="5"/>
+      <c r="B542" s="2"/>
     </row>
     <row r="543" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B543" s="5"/>
+      <c r="B543" s="2"/>
     </row>
     <row r="544" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B544" s="5"/>
+      <c r="B544" s="2"/>
     </row>
     <row r="545" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B545" s="5"/>
+      <c r="B545" s="2"/>
     </row>
     <row r="546" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B546" s="5"/>
+      <c r="B546" s="2"/>
     </row>
     <row r="547" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B547" s="5"/>
+      <c r="B547" s="2"/>
     </row>
     <row r="548" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B548" s="5"/>
+      <c r="B548" s="2"/>
     </row>
     <row r="549" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B549" s="5"/>
+      <c r="B549" s="2"/>
     </row>
     <row r="550" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B550" s="5"/>
+      <c r="B550" s="2"/>
     </row>
     <row r="551" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B551" s="5"/>
+      <c r="B551" s="2"/>
     </row>
     <row r="552" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B552" s="5"/>
+      <c r="B552" s="2"/>
     </row>
     <row r="553" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B553" s="5"/>
+      <c r="B553" s="2"/>
     </row>
     <row r="554" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B554" s="5"/>
+      <c r="B554" s="2"/>
     </row>
     <row r="555" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B555" s="5"/>
+      <c r="B555" s="2"/>
     </row>
     <row r="556" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B556" s="5"/>
+      <c r="B556" s="2"/>
     </row>
     <row r="557" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B557" s="5"/>
+      <c r="B557" s="2"/>
     </row>
     <row r="558" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B558" s="5"/>
+      <c r="B558" s="2"/>
     </row>
     <row r="559" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B559" s="5"/>
+      <c r="B559" s="2"/>
     </row>
     <row r="560" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B560" s="5"/>
+      <c r="B560" s="2"/>
     </row>
     <row r="561" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B561" s="5"/>
+      <c r="B561" s="2"/>
     </row>
     <row r="562" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B562" s="5"/>
+      <c r="B562" s="2"/>
     </row>
     <row r="563" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B563" s="5"/>
+      <c r="B563" s="2"/>
     </row>
     <row r="564" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B564" s="5"/>
+      <c r="B564" s="2"/>
     </row>
     <row r="565" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B565" s="5"/>
+      <c r="B565" s="2"/>
     </row>
     <row r="566" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B566" s="5"/>
+      <c r="B566" s="2"/>
     </row>
     <row r="567" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B567" s="5"/>
+      <c r="B567" s="2"/>
     </row>
     <row r="568" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B568" s="5"/>
+      <c r="B568" s="2"/>
     </row>
     <row r="569" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B569" s="5"/>
+      <c r="B569" s="2"/>
     </row>
     <row r="570" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B570" s="5"/>
+      <c r="B570" s="2"/>
     </row>
     <row r="571" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B571" s="5"/>
+      <c r="B571" s="2"/>
     </row>
     <row r="572" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B572" s="5"/>
+      <c r="B572" s="2"/>
     </row>
     <row r="573" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B573" s="5"/>
+      <c r="B573" s="2"/>
     </row>
     <row r="574" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B574" s="5"/>
+      <c r="B574" s="2"/>
     </row>
     <row r="575" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B575" s="5"/>
+      <c r="B575" s="2"/>
     </row>
     <row r="576" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B576" s="5"/>
+      <c r="B576" s="2"/>
     </row>
     <row r="577" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B577" s="5"/>
+      <c r="B577" s="2"/>
     </row>
     <row r="578" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B578" s="5"/>
+      <c r="B578" s="2"/>
     </row>
     <row r="579" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B579" s="5"/>
+      <c r="B579" s="2"/>
     </row>
     <row r="580" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B580" s="5"/>
+      <c r="B580" s="2"/>
     </row>
     <row r="581" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B581" s="5"/>
+      <c r="B581" s="2"/>
     </row>
     <row r="582" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B582" s="5"/>
+      <c r="B582" s="2"/>
     </row>
     <row r="583" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B583" s="5"/>
+      <c r="B583" s="2"/>
     </row>
     <row r="584" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B584" s="5"/>
+      <c r="B584" s="2"/>
     </row>
     <row r="585" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B585" s="5"/>
+      <c r="B585" s="2"/>
     </row>
     <row r="586" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B586" s="5"/>
+      <c r="B586" s="2"/>
     </row>
     <row r="587" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B587" s="5"/>
+      <c r="B587" s="2"/>
     </row>
     <row r="588" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B588" s="5"/>
+      <c r="B588" s="2"/>
     </row>
     <row r="589" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B589" s="5"/>
+      <c r="B589" s="2"/>
     </row>
     <row r="590" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B590" s="5"/>
+      <c r="B590" s="2"/>
     </row>
     <row r="591" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B591" s="5"/>
+      <c r="B591" s="2"/>
     </row>
     <row r="592" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B592" s="5"/>
+      <c r="B592" s="2"/>
     </row>
     <row r="593" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B593" s="5"/>
+      <c r="B593" s="2"/>
     </row>
     <row r="594" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B594" s="5"/>
+      <c r="B594" s="2"/>
     </row>
     <row r="595" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B595" s="5"/>
+      <c r="B595" s="2"/>
     </row>
     <row r="596" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B596" s="5"/>
+      <c r="B596" s="2"/>
     </row>
     <row r="597" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B597" s="5"/>
+      <c r="B597" s="2"/>
     </row>
     <row r="598" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B598" s="5"/>
+      <c r="B598" s="2"/>
     </row>
     <row r="599" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B599" s="5"/>
+      <c r="B599" s="2"/>
     </row>
     <row r="600" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B600" s="5"/>
+      <c r="B600" s="2"/>
     </row>
     <row r="601" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B601" s="5"/>
+      <c r="B601" s="2"/>
     </row>
     <row r="602" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B602" s="5"/>
+      <c r="B602" s="2"/>
     </row>
     <row r="603" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B603" s="5"/>
+      <c r="B603" s="2"/>
     </row>
     <row r="604" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B604" s="5"/>
+      <c r="B604" s="2"/>
     </row>
     <row r="605" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B605" s="5"/>
+      <c r="B605" s="2"/>
     </row>
     <row r="606" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B606" s="5"/>
+      <c r="B606" s="2"/>
     </row>
     <row r="607" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B607" s="5"/>
+      <c r="B607" s="2"/>
     </row>
     <row r="608" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B608" s="5"/>
+      <c r="B608" s="2"/>
     </row>
     <row r="609" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B609" s="5"/>
+      <c r="B609" s="2"/>
     </row>
     <row r="610" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B610" s="5"/>
+      <c r="B610" s="2"/>
     </row>
     <row r="611" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B611" s="5"/>
+      <c r="B611" s="2"/>
     </row>
     <row r="612" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B612" s="5"/>
+      <c r="B612" s="2"/>
     </row>
     <row r="613" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B613" s="5"/>
+      <c r="B613" s="2"/>
     </row>
     <row r="614" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B614" s="5"/>
+      <c r="B614" s="2"/>
     </row>
     <row r="615" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B615" s="5"/>
+      <c r="B615" s="2"/>
     </row>
     <row r="616" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B616" s="5"/>
+      <c r="B616" s="2"/>
     </row>
     <row r="617" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B617" s="5"/>
+      <c r="B617" s="2"/>
     </row>
     <row r="618" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B618" s="5"/>
+      <c r="B618" s="2"/>
     </row>
     <row r="619" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B619" s="5"/>
+      <c r="B619" s="2"/>
     </row>
     <row r="620" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B620" s="5"/>
+      <c r="B620" s="2"/>
     </row>
     <row r="621" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B621" s="5"/>
+      <c r="B621" s="2"/>
     </row>
     <row r="622" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B622" s="5"/>
+      <c r="B622" s="2"/>
     </row>
     <row r="623" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B623" s="5"/>
+      <c r="B623" s="2"/>
     </row>
     <row r="624" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B624" s="5"/>
+      <c r="B624" s="2"/>
     </row>
     <row r="625" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B625" s="5"/>
+      <c r="B625" s="2"/>
     </row>
     <row r="626" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B626" s="5"/>
+      <c r="B626" s="2"/>
     </row>
     <row r="627" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B627" s="5"/>
+      <c r="B627" s="2"/>
     </row>
     <row r="628" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B628" s="5"/>
+      <c r="B628" s="2"/>
     </row>
     <row r="629" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B629" s="5"/>
+      <c r="B629" s="2"/>
     </row>
     <row r="630" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B630" s="5"/>
+      <c r="B630" s="2"/>
     </row>
     <row r="631" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B631" s="5"/>
+      <c r="B631" s="2"/>
     </row>
     <row r="632" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B632" s="5"/>
+      <c r="B632" s="2"/>
     </row>
     <row r="633" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B633" s="5"/>
+      <c r="B633" s="2"/>
     </row>
     <row r="634" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B634" s="5"/>
+      <c r="B634" s="2"/>
     </row>
     <row r="635" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B635" s="5"/>
+      <c r="B635" s="2"/>
     </row>
     <row r="636" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B636" s="5"/>
+      <c r="B636" s="2"/>
     </row>
     <row r="637" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B637" s="5"/>
+      <c r="B637" s="2"/>
     </row>
     <row r="638" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B638" s="5"/>
+      <c r="B638" s="2"/>
     </row>
     <row r="639" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B639" s="5"/>
+      <c r="B639" s="2"/>
     </row>
     <row r="640" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B640" s="5"/>
+      <c r="B640" s="2"/>
     </row>
     <row r="641" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B641" s="5"/>
+      <c r="B641" s="2"/>
     </row>
     <row r="642" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B642" s="5"/>
+      <c r="B642" s="2"/>
     </row>
     <row r="643" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B643" s="5"/>
+      <c r="B643" s="2"/>
     </row>
     <row r="644" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B644" s="5"/>
+      <c r="B644" s="2"/>
     </row>
     <row r="645" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B645" s="5"/>
+      <c r="B645" s="2"/>
     </row>
     <row r="646" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B646" s="5"/>
+      <c r="B646" s="2"/>
     </row>
     <row r="647" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B647" s="5"/>
+      <c r="B647" s="2"/>
     </row>
     <row r="648" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B648" s="5"/>
+      <c r="B648" s="2"/>
     </row>
     <row r="649" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B649" s="5"/>
+      <c r="B649" s="2"/>
     </row>
     <row r="650" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B650" s="5"/>
+      <c r="B650" s="2"/>
     </row>
     <row r="651" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B651" s="5"/>
+      <c r="B651" s="2"/>
     </row>
     <row r="652" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B652" s="5"/>
+      <c r="B652" s="2"/>
     </row>
     <row r="653" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B653" s="5"/>
+      <c r="B653" s="2"/>
     </row>
     <row r="654" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B654" s="5"/>
+      <c r="B654" s="2"/>
     </row>
     <row r="655" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B655" s="5"/>
+      <c r="B655" s="2"/>
     </row>
     <row r="656" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B656" s="5"/>
+      <c r="B656" s="2"/>
     </row>
     <row r="657" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B657" s="5"/>
+      <c r="B657" s="2"/>
     </row>
     <row r="658" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B658" s="5"/>
+      <c r="B658" s="2"/>
     </row>
     <row r="659" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B659" s="5"/>
+      <c r="B659" s="2"/>
     </row>
     <row r="660" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B660" s="5"/>
+      <c r="B660" s="2"/>
     </row>
     <row r="661" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B661" s="5"/>
+      <c r="B661" s="2"/>
     </row>
     <row r="662" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B662" s="5"/>
+      <c r="B662" s="2"/>
     </row>
     <row r="663" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B663" s="5"/>
+      <c r="B663" s="2"/>
     </row>
     <row r="664" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B664" s="5"/>
+      <c r="B664" s="2"/>
     </row>
     <row r="665" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B665" s="5"/>
+      <c r="B665" s="2"/>
     </row>
     <row r="666" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B666" s="5"/>
+      <c r="B666" s="2"/>
     </row>
     <row r="667" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B667" s="5"/>
+      <c r="B667" s="2"/>
     </row>
     <row r="668" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B668" s="5"/>
+      <c r="B668" s="2"/>
     </row>
     <row r="669" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B669" s="5"/>
+      <c r="B669" s="2"/>
     </row>
     <row r="670" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B670" s="5"/>
+      <c r="B670" s="2"/>
     </row>
     <row r="671" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B671" s="5"/>
+      <c r="B671" s="2"/>
     </row>
     <row r="672" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B672" s="5"/>
+      <c r="B672" s="2"/>
     </row>
     <row r="673" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B673" s="5"/>
+      <c r="B673" s="2"/>
     </row>
     <row r="674" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B674" s="5"/>
+      <c r="B674" s="2"/>
     </row>
     <row r="675" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B675" s="5"/>
+      <c r="B675" s="2"/>
     </row>
     <row r="676" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B676" s="5"/>
+      <c r="B676" s="2"/>
     </row>
     <row r="677" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B677" s="5"/>
+      <c r="B677" s="2"/>
     </row>
     <row r="678" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B678" s="5"/>
+      <c r="B678" s="2"/>
     </row>
     <row r="679" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B679" s="5"/>
+      <c r="B679" s="2"/>
     </row>
     <row r="680" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B680" s="5"/>
+      <c r="B680" s="2"/>
     </row>
     <row r="681" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B681" s="5"/>
+      <c r="B681" s="2"/>
     </row>
     <row r="682" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B682" s="5"/>
+      <c r="B682" s="2"/>
     </row>
     <row r="683" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B683" s="5"/>
+      <c r="B683" s="2"/>
     </row>
     <row r="684" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B684" s="5"/>
+      <c r="B684" s="2"/>
     </row>
     <row r="685" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B685" s="5"/>
+      <c r="B685" s="2"/>
     </row>
     <row r="686" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B686" s="5"/>
+      <c r="B686" s="2"/>
     </row>
     <row r="687" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B687" s="5"/>
+      <c r="B687" s="2"/>
     </row>
     <row r="688" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B688" s="5"/>
+      <c r="B688" s="2"/>
     </row>
     <row r="689" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B689" s="5"/>
+      <c r="B689" s="2"/>
     </row>
     <row r="690" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B690" s="5"/>
+      <c r="B690" s="2"/>
     </row>
     <row r="691" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B691" s="5"/>
+      <c r="B691" s="2"/>
     </row>
     <row r="692" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B692" s="5"/>
+      <c r="B692" s="2"/>
     </row>
     <row r="693" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B693" s="5"/>
+      <c r="B693" s="2"/>
     </row>
     <row r="694" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B694" s="5"/>
+      <c r="B694" s="2"/>
     </row>
     <row r="695" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B695" s="5"/>
+      <c r="B695" s="2"/>
     </row>
     <row r="696" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B696" s="5"/>
+      <c r="B696" s="2"/>
     </row>
     <row r="697" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B697" s="5"/>
+      <c r="B697" s="2"/>
     </row>
     <row r="698" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B698" s="5"/>
+      <c r="B698" s="2"/>
     </row>
     <row r="699" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B699" s="5"/>
+      <c r="B699" s="2"/>
     </row>
     <row r="700" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B700" s="5"/>
+      <c r="B700" s="2"/>
     </row>
     <row r="701" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B701" s="5"/>
+      <c r="B701" s="2"/>
     </row>
     <row r="702" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B702" s="5"/>
+      <c r="B702" s="2"/>
     </row>
     <row r="703" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B703" s="5"/>
+      <c r="B703" s="2"/>
     </row>
     <row r="704" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B704" s="5"/>
+      <c r="B704" s="2"/>
     </row>
     <row r="705" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B705" s="5"/>
+      <c r="B705" s="2"/>
     </row>
     <row r="706" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B706" s="5"/>
+      <c r="B706" s="2"/>
     </row>
     <row r="707" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B707" s="5"/>
+      <c r="B707" s="2"/>
     </row>
     <row r="708" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B708" s="5"/>
+      <c r="B708" s="2"/>
     </row>
     <row r="709" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B709" s="5"/>
+      <c r="B709" s="2"/>
     </row>
     <row r="710" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B710" s="5"/>
+      <c r="B710" s="2"/>
     </row>
     <row r="711" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B711" s="5"/>
+      <c r="B711" s="2"/>
     </row>
     <row r="712" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B712" s="5"/>
+      <c r="B712" s="2"/>
     </row>
     <row r="713" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B713" s="5"/>
+      <c r="B713" s="2"/>
     </row>
     <row r="714" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B714" s="5"/>
+      <c r="B714" s="2"/>
     </row>
     <row r="715" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B715" s="5"/>
+      <c r="B715" s="2"/>
     </row>
     <row r="716" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B716" s="5"/>
+      <c r="B716" s="2"/>
     </row>
     <row r="717" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B717" s="5"/>
+      <c r="B717" s="2"/>
     </row>
     <row r="718" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B718" s="5"/>
+      <c r="B718" s="2"/>
     </row>
     <row r="719" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B719" s="5"/>
+      <c r="B719" s="2"/>
     </row>
     <row r="720" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B720" s="5"/>
+      <c r="B720" s="2"/>
     </row>
     <row r="721" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B721" s="5"/>
+      <c r="B721" s="2"/>
     </row>
     <row r="722" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B722" s="5"/>
+      <c r="B722" s="2"/>
     </row>
     <row r="723" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B723" s="5"/>
+      <c r="B723" s="2"/>
     </row>
     <row r="724" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B724" s="5"/>
+      <c r="B724" s="2"/>
     </row>
     <row r="725" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B725" s="5"/>
+      <c r="B725" s="2"/>
     </row>
     <row r="726" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B726" s="5"/>
+      <c r="B726" s="2"/>
     </row>
     <row r="727" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B727" s="5"/>
+      <c r="B727" s="2"/>
     </row>
     <row r="728" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B728" s="5"/>
+      <c r="B728" s="2"/>
     </row>
     <row r="729" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B729" s="5"/>
+      <c r="B729" s="2"/>
     </row>
     <row r="730" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B730" s="5"/>
+      <c r="B730" s="2"/>
     </row>
     <row r="731" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B731" s="5"/>
+      <c r="B731" s="2"/>
     </row>
     <row r="732" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B732" s="5"/>
+      <c r="B732" s="2"/>
     </row>
     <row r="733" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B733" s="5"/>
+      <c r="B733" s="2"/>
     </row>
     <row r="734" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B734" s="5"/>
+      <c r="B734" s="2"/>
     </row>
     <row r="735" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B735" s="5"/>
+      <c r="B735" s="2"/>
     </row>
     <row r="736" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B736" s="5"/>
+      <c r="B736" s="2"/>
     </row>
     <row r="737" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B737" s="5"/>
+      <c r="B737" s="2"/>
     </row>
     <row r="738" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B738" s="5"/>
+      <c r="B738" s="2"/>
     </row>
     <row r="739" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B739" s="5"/>
+      <c r="B739" s="2"/>
     </row>
     <row r="740" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B740" s="5"/>
+      <c r="B740" s="2"/>
     </row>
     <row r="741" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B741" s="5"/>
+      <c r="B741" s="2"/>
     </row>
     <row r="742" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B742" s="5"/>
+      <c r="B742" s="2"/>
     </row>
     <row r="743" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B743" s="5"/>
+      <c r="B743" s="2"/>
     </row>
     <row r="744" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B744" s="5"/>
+      <c r="B744" s="2"/>
     </row>
     <row r="745" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B745" s="5"/>
+      <c r="B745" s="2"/>
     </row>
     <row r="746" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B746" s="5"/>
+      <c r="B746" s="2"/>
     </row>
     <row r="747" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B747" s="5"/>
+      <c r="B747" s="2"/>
     </row>
     <row r="748" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B748" s="5"/>
+      <c r="B748" s="2"/>
     </row>
     <row r="749" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B749" s="5"/>
+      <c r="B749" s="2"/>
     </row>
     <row r="750" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B750" s="5"/>
+      <c r="B750" s="2"/>
     </row>
     <row r="751" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B751" s="5"/>
+      <c r="B751" s="2"/>
     </row>
     <row r="752" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B752" s="5"/>
+      <c r="B752" s="2"/>
     </row>
     <row r="753" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B753" s="5"/>
+      <c r="B753" s="2"/>
     </row>
     <row r="754" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B754" s="5"/>
+      <c r="B754" s="2"/>
     </row>
     <row r="755" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B755" s="5"/>
+      <c r="B755" s="2"/>
     </row>
     <row r="756" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B756" s="5"/>
+      <c r="B756" s="2"/>
     </row>
     <row r="757" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B757" s="5"/>
+      <c r="B757" s="2"/>
     </row>
     <row r="758" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B758" s="5"/>
+      <c r="B758" s="2"/>
     </row>
     <row r="759" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B759" s="5"/>
+      <c r="B759" s="2"/>
     </row>
     <row r="760" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B760" s="5"/>
+      <c r="B760" s="2"/>
     </row>
     <row r="761" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B761" s="5"/>
+      <c r="B761" s="2"/>
     </row>
     <row r="762" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B762" s="5"/>
+      <c r="B762" s="2"/>
     </row>
     <row r="763" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B763" s="5"/>
+      <c r="B763" s="2"/>
     </row>
     <row r="764" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B764" s="5"/>
+      <c r="B764" s="2"/>
     </row>
     <row r="765" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B765" s="5"/>
+      <c r="B765" s="2"/>
     </row>
     <row r="766" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B766" s="5"/>
+      <c r="B766" s="2"/>
     </row>
     <row r="767" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B767" s="5"/>
+      <c r="B767" s="2"/>
     </row>
     <row r="768" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B768" s="5"/>
+      <c r="B768" s="2"/>
     </row>
     <row r="769" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B769" s="5"/>
+      <c r="B769" s="2"/>
     </row>
     <row r="770" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B770" s="5"/>
+      <c r="B770" s="2"/>
     </row>
     <row r="771" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B771" s="5"/>
+      <c r="B771" s="2"/>
     </row>
     <row r="772" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B772" s="5"/>
+      <c r="B772" s="2"/>
     </row>
     <row r="773" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B773" s="5"/>
+      <c r="B773" s="2"/>
     </row>
     <row r="774" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B774" s="5"/>
+      <c r="B774" s="2"/>
     </row>
     <row r="775" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B775" s="5"/>
+      <c r="B775" s="2"/>
     </row>
     <row r="776" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B776" s="5"/>
+      <c r="B776" s="2"/>
     </row>
     <row r="777" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B777" s="5"/>
+      <c r="B777" s="2"/>
     </row>
     <row r="778" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B778" s="5"/>
+      <c r="B778" s="2"/>
     </row>
     <row r="779" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B779" s="5"/>
+      <c r="B779" s="2"/>
     </row>
     <row r="780" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B780" s="5"/>
+      <c r="B780" s="2"/>
     </row>
     <row r="781" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B781" s="5"/>
+      <c r="B781" s="2"/>
     </row>
     <row r="782" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B782" s="5"/>
+      <c r="B782" s="2"/>
     </row>
     <row r="783" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B783" s="5"/>
+      <c r="B783" s="2"/>
     </row>
     <row r="784" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B784" s="5"/>
+      <c r="B784" s="2"/>
     </row>
     <row r="785" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B785" s="5"/>
+      <c r="B785" s="2"/>
     </row>
     <row r="786" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B786" s="5"/>
+      <c r="B786" s="2"/>
     </row>
     <row r="787" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B787" s="5"/>
+      <c r="B787" s="2"/>
     </row>
     <row r="788" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B788" s="5"/>
+      <c r="B788" s="2"/>
     </row>
     <row r="789" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B789" s="5"/>
+      <c r="B789" s="2"/>
     </row>
     <row r="790" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B790" s="5"/>
+      <c r="B790" s="2"/>
     </row>
     <row r="791" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B791" s="5"/>
+      <c r="B791" s="2"/>
     </row>
     <row r="792" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B792" s="5"/>
+      <c r="B792" s="2"/>
     </row>
     <row r="793" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B793" s="5"/>
+      <c r="B793" s="2"/>
     </row>
     <row r="794" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B794" s="5"/>
+      <c r="B794" s="2"/>
     </row>
     <row r="795" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B795" s="5"/>
+      <c r="B795" s="2"/>
     </row>
     <row r="796" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B796" s="5"/>
+      <c r="B796" s="2"/>
     </row>
     <row r="797" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B797" s="5"/>
+      <c r="B797" s="2"/>
     </row>
     <row r="798" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B798" s="5"/>
+      <c r="B798" s="2"/>
     </row>
     <row r="799" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B799" s="5"/>
+      <c r="B799" s="2"/>
     </row>
     <row r="800" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B800" s="5"/>
+      <c r="B800" s="2"/>
     </row>
     <row r="801" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B801" s="5"/>
+      <c r="B801" s="2"/>
     </row>
     <row r="802" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B802" s="5"/>
+      <c r="B802" s="2"/>
     </row>
     <row r="803" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B803" s="5"/>
+      <c r="B803" s="2"/>
     </row>
     <row r="804" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B804" s="5"/>
+      <c r="B804" s="2"/>
     </row>
     <row r="805" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B805" s="5"/>
+      <c r="B805" s="2"/>
     </row>
     <row r="806" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B806" s="5"/>
+      <c r="B806" s="2"/>
     </row>
     <row r="807" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B807" s="5"/>
+      <c r="B807" s="2"/>
     </row>
     <row r="808" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B808" s="5"/>
+      <c r="B808" s="2"/>
     </row>
     <row r="809" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B809" s="5"/>
+      <c r="B809" s="2"/>
     </row>
     <row r="810" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B810" s="5"/>
+      <c r="B810" s="2"/>
     </row>
     <row r="811" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B811" s="5"/>
+      <c r="B811" s="2"/>
     </row>
     <row r="812" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B812" s="5"/>
+      <c r="B812" s="2"/>
     </row>
     <row r="813" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B813" s="5"/>
+      <c r="B813" s="2"/>
     </row>
     <row r="814" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B814" s="5"/>
+      <c r="B814" s="2"/>
     </row>
     <row r="815" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B815" s="5"/>
+      <c r="B815" s="2"/>
     </row>
     <row r="816" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B816" s="5"/>
+      <c r="B816" s="2"/>
     </row>
     <row r="817" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B817" s="5"/>
+      <c r="B817" s="2"/>
     </row>
     <row r="818" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B818" s="5"/>
+      <c r="B818" s="2"/>
     </row>
     <row r="819" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B819" s="5"/>
+      <c r="B819" s="2"/>
     </row>
     <row r="820" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B820" s="5"/>
+      <c r="B820" s="2"/>
     </row>
     <row r="821" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B821" s="5"/>
+      <c r="B821" s="2"/>
     </row>
     <row r="822" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B822" s="5"/>
+      <c r="B822" s="2"/>
     </row>
     <row r="823" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B823" s="5"/>
+      <c r="B823" s="2"/>
     </row>
     <row r="824" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B824" s="5"/>
+      <c r="B824" s="2"/>
     </row>
     <row r="825" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B825" s="5"/>
+      <c r="B825" s="2"/>
     </row>
     <row r="826" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B826" s="5"/>
+      <c r="B826" s="2"/>
     </row>
     <row r="827" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B827" s="5"/>
+      <c r="B827" s="2"/>
     </row>
     <row r="828" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B828" s="5"/>
+      <c r="B828" s="2"/>
     </row>
     <row r="829" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B829" s="5"/>
+      <c r="B829" s="2"/>
     </row>
     <row r="830" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B830" s="5"/>
+      <c r="B830" s="2"/>
     </row>
     <row r="831" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B831" s="5"/>
+      <c r="B831" s="2"/>
     </row>
     <row r="832" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B832" s="5"/>
+      <c r="B832" s="2"/>
     </row>
     <row r="833" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B833" s="5"/>
+      <c r="B833" s="2"/>
     </row>
     <row r="834" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B834" s="5"/>
+      <c r="B834" s="2"/>
     </row>
     <row r="835" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B835" s="5"/>
+      <c r="B835" s="2"/>
     </row>
     <row r="836" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B836" s="5"/>
+      <c r="B836" s="2"/>
     </row>
     <row r="837" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B837" s="5"/>
+      <c r="B837" s="2"/>
     </row>
     <row r="838" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B838" s="5"/>
+      <c r="B838" s="2"/>
     </row>
     <row r="839" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B839" s="5"/>
+      <c r="B839" s="2"/>
     </row>
     <row r="840" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B840" s="5"/>
+      <c r="B840" s="2"/>
     </row>
     <row r="841" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B841" s="5"/>
+      <c r="B841" s="2"/>
     </row>
     <row r="842" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B842" s="5"/>
+      <c r="B842" s="2"/>
     </row>
     <row r="843" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B843" s="5"/>
+      <c r="B843" s="2"/>
     </row>
     <row r="844" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B844" s="5"/>
+      <c r="B844" s="2"/>
     </row>
     <row r="845" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B845" s="5"/>
+      <c r="B845" s="2"/>
     </row>
     <row r="846" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B846" s="5"/>
+      <c r="B846" s="2"/>
     </row>
     <row r="847" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B847" s="5"/>
+      <c r="B847" s="2"/>
     </row>
     <row r="848" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B848" s="5"/>
+      <c r="B848" s="2"/>
     </row>
     <row r="849" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B849" s="5"/>
+      <c r="B849" s="2"/>
     </row>
     <row r="850" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B850" s="5"/>
+      <c r="B850" s="2"/>
     </row>
     <row r="851" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B851" s="5"/>
+      <c r="B851" s="2"/>
     </row>
     <row r="852" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B852" s="5"/>
+      <c r="B852" s="2"/>
     </row>
     <row r="853" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B853" s="5"/>
+      <c r="B853" s="2"/>
     </row>
     <row r="854" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B854" s="5"/>
+      <c r="B854" s="2"/>
     </row>
     <row r="855" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B855" s="5"/>
+      <c r="B855" s="2"/>
     </row>
     <row r="856" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B856" s="5"/>
+      <c r="B856" s="2"/>
     </row>
     <row r="857" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B857" s="5"/>
+      <c r="B857" s="2"/>
     </row>
     <row r="858" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B858" s="5"/>
+      <c r="B858" s="2"/>
     </row>
     <row r="859" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B859" s="5"/>
+      <c r="B859" s="2"/>
     </row>
     <row r="860" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B860" s="5"/>
+      <c r="B860" s="2"/>
     </row>
     <row r="861" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B861" s="5"/>
+      <c r="B861" s="2"/>
     </row>
     <row r="862" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B862" s="5"/>
+      <c r="B862" s="2"/>
     </row>
     <row r="863" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B863" s="5"/>
+      <c r="B863" s="2"/>
     </row>
     <row r="864" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B864" s="5"/>
+      <c r="B864" s="2"/>
     </row>
     <row r="865" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B865" s="5"/>
+      <c r="B865" s="2"/>
     </row>
     <row r="866" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B866" s="5"/>
+      <c r="B866" s="2"/>
     </row>
     <row r="867" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B867" s="5"/>
+      <c r="B867" s="2"/>
     </row>
     <row r="868" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B868" s="5"/>
+      <c r="B868" s="2"/>
     </row>
     <row r="869" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B869" s="5"/>
+      <c r="B869" s="2"/>
     </row>
     <row r="870" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B870" s="5"/>
+      <c r="B870" s="2"/>
     </row>
     <row r="871" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B871" s="5"/>
+      <c r="B871" s="2"/>
     </row>
     <row r="872" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B872" s="5"/>
+      <c r="B872" s="2"/>
     </row>
     <row r="873" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B873" s="5"/>
+      <c r="B873" s="2"/>
     </row>
     <row r="874" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B874" s="5"/>
+      <c r="B874" s="2"/>
     </row>
     <row r="875" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B875" s="5"/>
+      <c r="B875" s="2"/>
     </row>
     <row r="876" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B876" s="5"/>
+      <c r="B876" s="2"/>
     </row>
     <row r="877" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B877" s="5"/>
+      <c r="B877" s="2"/>
     </row>
     <row r="878" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B878" s="5"/>
+      <c r="B878" s="2"/>
     </row>
     <row r="879" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B879" s="5"/>
+      <c r="B879" s="2"/>
     </row>
     <row r="880" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B880" s="5"/>
+      <c r="B880" s="2"/>
     </row>
     <row r="881" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B881" s="5"/>
+      <c r="B881" s="2"/>
     </row>
     <row r="882" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B882" s="5"/>
+      <c r="B882" s="2"/>
     </row>
     <row r="883" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B883" s="5"/>
+      <c r="B883" s="2"/>
     </row>
     <row r="884" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B884" s="5"/>
+      <c r="B884" s="2"/>
     </row>
     <row r="885" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B885" s="5"/>
+      <c r="B885" s="2"/>
     </row>
     <row r="886" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B886" s="5"/>
+      <c r="B886" s="2"/>
     </row>
     <row r="887" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B887" s="5"/>
+      <c r="B887" s="2"/>
     </row>
     <row r="888" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B888" s="5"/>
+      <c r="B888" s="2"/>
     </row>
     <row r="889" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B889" s="5"/>
+      <c r="B889" s="2"/>
     </row>
     <row r="890" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B890" s="5"/>
+      <c r="B890" s="2"/>
     </row>
     <row r="891" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B891" s="5"/>
+      <c r="B891" s="2"/>
     </row>
     <row r="892" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B892" s="5"/>
+      <c r="B892" s="2"/>
     </row>
     <row r="893" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B893" s="5"/>
+      <c r="B893" s="2"/>
     </row>
     <row r="894" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B894" s="5"/>
+      <c r="B894" s="2"/>
     </row>
     <row r="895" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B895" s="5"/>
+      <c r="B895" s="2"/>
     </row>
     <row r="896" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B896" s="5"/>
+      <c r="B896" s="2"/>
     </row>
     <row r="897" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B897" s="5"/>
+      <c r="B897" s="2"/>
     </row>
     <row r="898" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B898" s="5"/>
+      <c r="B898" s="2"/>
     </row>
     <row r="899" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B899" s="5"/>
+      <c r="B899" s="2"/>
     </row>
     <row r="900" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B900" s="5"/>
+      <c r="B900" s="2"/>
     </row>
     <row r="901" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B901" s="5"/>
+      <c r="B901" s="2"/>
     </row>
     <row r="902" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B902" s="5"/>
+      <c r="B902" s="2"/>
     </row>
     <row r="903" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B903" s="5"/>
+      <c r="B903" s="2"/>
     </row>
     <row r="904" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B904" s="5"/>
+      <c r="B904" s="2"/>
     </row>
     <row r="905" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B905" s="5"/>
+      <c r="B905" s="2"/>
     </row>
     <row r="906" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B906" s="5"/>
+      <c r="B906" s="2"/>
     </row>
     <row r="907" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B907" s="5"/>
+      <c r="B907" s="2"/>
     </row>
     <row r="908" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B908" s="5"/>
+      <c r="B908" s="2"/>
     </row>
     <row r="909" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B909" s="5"/>
+      <c r="B909" s="2"/>
     </row>
     <row r="910" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B910" s="5"/>
+      <c r="B910" s="2"/>
     </row>
     <row r="911" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B911" s="5"/>
+      <c r="B911" s="2"/>
     </row>
     <row r="912" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B912" s="5"/>
+      <c r="B912" s="2"/>
     </row>
     <row r="913" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B913" s="5"/>
+      <c r="B913" s="2"/>
     </row>
     <row r="914" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B914" s="5"/>
+      <c r="B914" s="2"/>
     </row>
     <row r="915" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B915" s="5"/>
+      <c r="B915" s="2"/>
     </row>
     <row r="916" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B916" s="5"/>
+      <c r="B916" s="2"/>
     </row>
     <row r="917" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B917" s="5"/>
+      <c r="B917" s="2"/>
     </row>
     <row r="918" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B918" s="5"/>
+      <c r="B918" s="2"/>
     </row>
     <row r="919" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B919" s="5"/>
+      <c r="B919" s="2"/>
     </row>
     <row r="920" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B920" s="5"/>
+      <c r="B920" s="2"/>
     </row>
     <row r="921" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B921" s="5"/>
+      <c r="B921" s="2"/>
     </row>
     <row r="922" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B922" s="5"/>
+      <c r="B922" s="2"/>
     </row>
     <row r="923" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B923" s="5"/>
+      <c r="B923" s="2"/>
     </row>
     <row r="924" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B924" s="5"/>
+      <c r="B924" s="2"/>
     </row>
     <row r="925" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B925" s="5"/>
+      <c r="B925" s="2"/>
     </row>
     <row r="926" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B926" s="5"/>
+      <c r="B926" s="2"/>
     </row>
     <row r="927" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B927" s="5"/>
+      <c r="B927" s="2"/>
     </row>
     <row r="928" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B928" s="5"/>
+      <c r="B928" s="2"/>
     </row>
     <row r="929" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B929" s="5"/>
+      <c r="B929" s="2"/>
     </row>
     <row r="930" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B930" s="5"/>
+      <c r="B930" s="2"/>
     </row>
     <row r="931" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B931" s="5"/>
+      <c r="B931" s="2"/>
     </row>
     <row r="932" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B932" s="5"/>
+      <c r="B932" s="2"/>
     </row>
     <row r="933" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B933" s="5"/>
+      <c r="B933" s="2"/>
     </row>
     <row r="934" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B934" s="5"/>
+      <c r="B934" s="2"/>
     </row>
     <row r="935" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B935" s="5"/>
+      <c r="B935" s="2"/>
     </row>
     <row r="936" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B936" s="5"/>
+      <c r="B936" s="2"/>
     </row>
     <row r="937" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B937" s="5"/>
+      <c r="B937" s="2"/>
     </row>
     <row r="938" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B938" s="5"/>
+      <c r="B938" s="2"/>
     </row>
     <row r="939" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B939" s="5"/>
+      <c r="B939" s="2"/>
     </row>
     <row r="940" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B940" s="5"/>
+      <c r="B940" s="2"/>
     </row>
     <row r="941" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B941" s="5"/>
+      <c r="B941" s="2"/>
     </row>
     <row r="942" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B942" s="5"/>
+      <c r="B942" s="2"/>
     </row>
     <row r="943" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B943" s="5"/>
+      <c r="B943" s="2"/>
     </row>
     <row r="944" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B944" s="5"/>
+      <c r="B944" s="2"/>
     </row>
     <row r="945" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B945" s="5"/>
+      <c r="B945" s="2"/>
     </row>
     <row r="946" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B946" s="5"/>
+      <c r="B946" s="2"/>
     </row>
     <row r="947" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B947" s="5"/>
+      <c r="B947" s="2"/>
     </row>
     <row r="948" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B948" s="5"/>
+      <c r="B948" s="2"/>
     </row>
     <row r="949" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B949" s="5"/>
+      <c r="B949" s="2"/>
     </row>
     <row r="950" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B950" s="5"/>
+      <c r="B950" s="2"/>
     </row>
     <row r="951" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B951" s="5"/>
+      <c r="B951" s="2"/>
     </row>
     <row r="952" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B952" s="5"/>
+      <c r="B952" s="2"/>
     </row>
     <row r="953" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B953" s="5"/>
+      <c r="B953" s="2"/>
     </row>
     <row r="954" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B954" s="5"/>
+      <c r="B954" s="2"/>
     </row>
     <row r="955" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B955" s="5"/>
+      <c r="B955" s="2"/>
     </row>
     <row r="956" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B956" s="5"/>
+      <c r="B956" s="2"/>
     </row>
     <row r="957" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B957" s="5"/>
+      <c r="B957" s="2"/>
     </row>
     <row r="958" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B958" s="5"/>
+      <c r="B958" s="2"/>
     </row>
     <row r="959" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B959" s="5"/>
+      <c r="B959" s="2"/>
     </row>
     <row r="960" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B960" s="5"/>
+      <c r="B960" s="2"/>
     </row>
     <row r="961" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B961" s="5"/>
+      <c r="B961" s="2"/>
     </row>
     <row r="962" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B962" s="5"/>
+      <c r="B962" s="2"/>
     </row>
     <row r="963" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B963" s="5"/>
+      <c r="B963" s="2"/>
     </row>
     <row r="964" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B964" s="5"/>
+      <c r="B964" s="2"/>
     </row>
     <row r="965" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B965" s="5"/>
+      <c r="B965" s="2"/>
     </row>
     <row r="966" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B966" s="5"/>
+      <c r="B966" s="2"/>
     </row>
     <row r="967" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B967" s="5"/>
+      <c r="B967" s="2"/>
     </row>
     <row r="968" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B968" s="5"/>
+      <c r="B968" s="2"/>
     </row>
     <row r="969" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B969" s="5"/>
+      <c r="B969" s="2"/>
     </row>
     <row r="970" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B970" s="5"/>
+      <c r="B970" s="2"/>
     </row>
     <row r="971" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B971" s="5"/>
+      <c r="B971" s="2"/>
     </row>
     <row r="972" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B972" s="5"/>
+      <c r="B972" s="2"/>
     </row>
     <row r="973" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B973" s="5"/>
+      <c r="B973" s="2"/>
     </row>
     <row r="974" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B974" s="5"/>
+      <c r="B974" s="2"/>
     </row>
     <row r="975" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B975" s="5"/>
+      <c r="B975" s="2"/>
     </row>
     <row r="976" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B976" s="5"/>
+      <c r="B976" s="2"/>
     </row>
     <row r="977" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B977" s="5"/>
+      <c r="B977" s="2"/>
     </row>
     <row r="978" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B978" s="5"/>
+      <c r="B978" s="2"/>
     </row>
     <row r="979" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B979" s="5"/>
+      <c r="B979" s="2"/>
     </row>
     <row r="980" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B980" s="5"/>
+      <c r="B980" s="2"/>
     </row>
     <row r="981" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B981" s="5"/>
+      <c r="B981" s="2"/>
     </row>
     <row r="982" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B982" s="5"/>
+      <c r="B982" s="2"/>
     </row>
     <row r="983" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B983" s="5"/>
+      <c r="B983" s="2"/>
     </row>
     <row r="984" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B984" s="5"/>
+      <c r="B984" s="2"/>
     </row>
     <row r="985" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B985" s="5"/>
+      <c r="B985" s="2"/>
     </row>
     <row r="986" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B986" s="5"/>
+      <c r="B986" s="2"/>
     </row>
     <row r="987" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B987" s="5"/>
+      <c r="B987" s="2"/>
     </row>
     <row r="988" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B988" s="5"/>
+      <c r="B988" s="2"/>
     </row>
     <row r="989" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B989" s="5"/>
+      <c r="B989" s="2"/>
     </row>
     <row r="990" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B990" s="5"/>
+      <c r="B990" s="2"/>
+    </row>
+    <row r="991" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B991" s="2"/>
+    </row>
+    <row r="992" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B992" s="2"/>
+    </row>
+    <row r="993" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B993" s="2"/>
+    </row>
+    <row r="994" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B994" s="2"/>
+    </row>
+    <row r="995" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B995" s="2"/>
+    </row>
+    <row r="996" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B996" s="2"/>
+    </row>
+    <row r="997" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B997" s="2"/>
+    </row>
+    <row r="998" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B998" s="2"/>
+    </row>
+    <row r="999" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B999" s="2"/>
+    </row>
+    <row r="1000" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1000" s="2"/>
+    </row>
+    <row r="1001" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1001" s="2"/>
+    </row>
+    <row r="1002" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1002" s="2"/>
+    </row>
+    <row r="1003" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1003" s="2"/>
+    </row>
+    <row r="1004" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1004" s="2"/>
+    </row>
+    <row r="1005" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1005" s="2"/>
+    </row>
+    <row r="1006" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1006" s="2"/>
+    </row>
+    <row r="1007" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1007" s="2"/>
+    </row>
+    <row r="1008" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1008" s="2"/>
+    </row>
+    <row r="1009" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1009" s="2"/>
+    </row>
+    <row r="1010" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1010" s="2"/>
+    </row>
+    <row r="1011" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1011" s="2"/>
+    </row>
+    <row r="1012" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B1012" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4418,10 +7721,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="33.6" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40.200000000000003" customHeight="1">
+      <c r="A3" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="88.2" customHeight="1">
+      <c r="A4" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="165" customHeight="1">
+      <c r="A5" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="56.4" customHeight="1">
+      <c r="A6" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="54.6" customHeight="1">
+      <c r="A7" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4440,12 +7819,76 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="29.25" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A2" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1">
+      <c r="A3" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4">
+      <c r="A4" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1">
+      <c r="A5" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1">
+      <c r="A6" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1">
+      <c r="A8" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1">
+      <c r="A9" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1">
+      <c r="A10" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1">
+      <c r="A11" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -5433,46 +8876,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C986"/>
+  <dimension ref="A1:D991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="45.109375" customWidth="1"/>
-    <col min="4" max="26" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" style="59" customWidth="1"/>
+    <col min="5" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="18.600000000000001" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1"/>
+      <c r="D1" s="86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" thickTop="1">
+      <c r="A2" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6443,6 +10021,11 @@
     <row r="984" ht="15.75" customHeight="1"/>
     <row r="985" ht="15.75" customHeight="1"/>
     <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c95b7b4a9a622975/Dokumentumok/GitHub/jht52_squash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47835134-5B99-4427-B671-6BA254D0CAA3}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F1BFA5-F911-4E45-8361-2AB22C23FC73}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -594,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1255,23 +1261,29 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1279,6 +1291,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2955,12 +2972,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor rgb="FF99FF99"/>
   </sheetPr>
   <dimension ref="A1:I980"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4275,7 +4292,7 @@
   <dimension ref="A1:H1012"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="A27:H28"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4318,28 +4335,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="86" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4354,7 +4371,7 @@
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="85" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -4375,12 +4392,12 @@
       <c r="G4" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="82" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="52"/>
@@ -4391,10 +4408,10 @@
       <c r="G5" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="52"/>
@@ -4405,10 +4422,10 @@
       <c r="G6" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="83"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="52"/>
@@ -4419,7 +4436,7 @@
       <c r="G7" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="81"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="1:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
@@ -4468,7 +4485,7 @@
       <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -4489,12 +4506,12 @@
       <c r="G11" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="82" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="52"/>
@@ -4505,7 +4522,7 @@
       <c r="G12" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="81"/>
+      <c r="H12" s="84"/>
     </row>
     <row r="13" spans="1:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
@@ -4518,7 +4535,7 @@
       <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="51" t="s">
@@ -4539,12 +4556,12 @@
       <c r="G14" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="82" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
@@ -4555,7 +4572,7 @@
       <c r="G15" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="81"/>
+      <c r="H15" s="84"/>
     </row>
     <row r="16" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
@@ -4624,7 +4641,7 @@
       <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="51" t="s">
@@ -4645,12 +4662,12 @@
       <c r="G21" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="80" t="s">
+      <c r="H21" s="82" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
+      <c r="A22" s="81"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="63"/>
@@ -4661,7 +4678,7 @@
       <c r="G22" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="81"/>
+      <c r="H22" s="84"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
@@ -4674,7 +4691,7 @@
       <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="51" t="s">
@@ -4695,12 +4712,12 @@
       <c r="G24" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="80" t="s">
+      <c r="H24" s="82" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -4711,7 +4728,7 @@
       <c r="G25" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="81"/>
+      <c r="H25" s="84"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56"/>
@@ -4724,7 +4741,7 @@
       <c r="H26" s="57"/>
     </row>
     <row r="27" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="80" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="51" t="s">
@@ -4745,12 +4762,12 @@
       <c r="G27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="80" t="s">
+      <c r="H27" s="82" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
+      <c r="A28" s="81"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="63"/>
@@ -4761,7 +4778,7 @@
       <c r="G28" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="81"/>
+      <c r="H28" s="84"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
@@ -7815,8 +7832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7843,34 +7860,34 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="88" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="88" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="88" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="88" t="s">
         <v>94</v>
       </c>
     </row>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c95b7b4a9a622975/Dokumentumok/GitHub/jht52_squash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F1BFA5-F911-4E45-8361-2AB22C23FC73}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C07B2EC-BAB2-4D55-B309-34D01DBCB7EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -1033,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,6 +1221,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,12 +1284,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -2977,7 +2980,7 @@
   <dimension ref="A1:I980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3024,10 +3027,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3043,8 +3046,8 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
@@ -3058,8 +3061,8 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
@@ -3073,8 +3076,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="72"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3088,8 +3091,8 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="14" t="s">
         <v>28</v>
       </c>
@@ -3103,8 +3106,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="68"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="17" t="s">
         <v>30</v>
       </c>
@@ -3118,7 +3121,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="68"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -3129,8 +3132,8 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="74" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="78" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -3146,8 +3149,8 @@
       <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="27" t="s">
         <v>24</v>
       </c>
@@ -3161,8 +3164,8 @@
       <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="27" t="s">
         <v>33</v>
       </c>
@@ -3176,8 +3179,8 @@
       <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
       </c>
@@ -3191,7 +3194,7 @@
       <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="33"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -3202,8 +3205,8 @@
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="81" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -3219,8 +3222,8 @@
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="37" t="s">
         <v>36</v>
       </c>
@@ -3236,8 +3239,8 @@
       <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="68"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="37" t="s">
         <v>37</v>
       </c>
@@ -3253,8 +3256,8 @@
       <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="37" t="s">
         <v>38</v>
       </c>
@@ -3268,8 +3271,8 @@
       <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="37" t="s">
         <v>39</v>
       </c>
@@ -3283,8 +3286,8 @@
       <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="41" t="s">
         <v>40</v>
       </c>
@@ -3300,8 +3303,8 @@
       <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="69"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="73"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="43" t="s">
         <v>41</v>
       </c>
@@ -4291,8 +4294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1012"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4335,28 +4338,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="67" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4371,7 +4374,7 @@
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="89" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -4392,12 +4395,12 @@
       <c r="G4" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="H4" s="86" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="52"/>
@@ -4408,10 +4411,10 @@
       <c r="G5" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="87"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="52"/>
@@ -4422,10 +4425,10 @@
       <c r="G6" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="83"/>
+      <c r="H6" s="87"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="52"/>
@@ -4436,7 +4439,7 @@
       <c r="G7" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="84"/>
+      <c r="H7" s="88"/>
     </row>
     <row r="8" spans="1:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
@@ -4485,7 +4488,7 @@
       <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="84" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -4506,12 +4509,12 @@
       <c r="G11" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="82" t="s">
+      <c r="H11" s="86" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="52"/>
@@ -4522,7 +4525,7 @@
       <c r="G12" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="88"/>
     </row>
     <row r="13" spans="1:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
@@ -4535,7 +4538,7 @@
       <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="84" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="51" t="s">
@@ -4556,12 +4559,12 @@
       <c r="G14" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="86" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
@@ -4572,7 +4575,7 @@
       <c r="G15" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="84"/>
+      <c r="H15" s="88"/>
     </row>
     <row r="16" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
@@ -4641,7 +4644,7 @@
       <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="84" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="51" t="s">
@@ -4662,12 +4665,12 @@
       <c r="G21" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="82" t="s">
+      <c r="H21" s="86" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="63"/>
@@ -4678,7 +4681,7 @@
       <c r="G22" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="84"/>
+      <c r="H22" s="88"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
@@ -4691,7 +4694,7 @@
       <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="84" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="51" t="s">
@@ -4712,12 +4715,12 @@
       <c r="G24" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="82" t="s">
+      <c r="H24" s="86" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -4728,7 +4731,7 @@
       <c r="G25" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="84"/>
+      <c r="H25" s="88"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56"/>
@@ -4741,7 +4744,7 @@
       <c r="H26" s="57"/>
     </row>
     <row r="27" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="84" t="s">
         <v>54</v>
       </c>
       <c r="B27" s="51" t="s">
@@ -4762,12 +4765,12 @@
       <c r="G27" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="82" t="s">
+      <c r="H27" s="86" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
+      <c r="A28" s="85"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
       <c r="D28" s="63"/>
@@ -4778,7 +4781,7 @@
       <c r="G28" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="84"/>
+      <c r="H28" s="88"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
@@ -7832,7 +7835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -7860,34 +7863,34 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="69" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8913,8 +8916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D991"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8969,30 +8972,30 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="90" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="90" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9011,16 +9014,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="90" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9039,16 +9042,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="90" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9067,16 +9070,16 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="90" t="s">
         <v>93</v>
       </c>
     </row>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c95b7b4a9a622975/Dokumentumok/GitHub/jht52_squash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C07B2EC-BAB2-4D55-B309-34D01DBCB7EE}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED9EA00A-6861-4350-A899-CFFC0C61B899}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Files" sheetId="3" r:id="rId4"/>
     <sheet name="DB_Functions" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Functions!$A$1:$H$28</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
@@ -561,7 +564,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,10 +1223,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1227,6 +1232,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,9 +1292,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -3027,10 +3053,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -3046,8 +3072,8 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
@@ -3061,8 +3087,8 @@
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
@@ -3076,8 +3102,8 @@
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
@@ -3091,8 +3117,8 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="14" t="s">
         <v>28</v>
       </c>
@@ -3106,8 +3132,8 @@
       <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="72"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="17" t="s">
         <v>30</v>
       </c>
@@ -3121,7 +3147,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="72"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -3132,8 +3158,8 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="77" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -3149,8 +3175,8 @@
       <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="27" t="s">
         <v>24</v>
       </c>
@@ -3164,8 +3190,8 @@
       <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="27" t="s">
         <v>33</v>
       </c>
@@ -3179,8 +3205,8 @@
       <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
-      <c r="B12" s="80"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="30" t="s">
         <v>34</v>
       </c>
@@ -3194,7 +3220,7 @@
       <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="33"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -3205,8 +3231,8 @@
       <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="72"/>
-      <c r="B14" s="81" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="80" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="34" t="s">
@@ -3222,8 +3248,8 @@
       <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="37" t="s">
         <v>36</v>
       </c>
@@ -3239,8 +3265,8 @@
       <c r="I15" s="39"/>
     </row>
     <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="37" t="s">
         <v>37</v>
       </c>
@@ -3256,8 +3282,8 @@
       <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="72"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="37" t="s">
         <v>38</v>
       </c>
@@ -3271,8 +3297,8 @@
       <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="37" t="s">
         <v>39</v>
       </c>
@@ -3286,8 +3312,8 @@
       <c r="I18" s="40"/>
     </row>
     <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="72"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="41" t="s">
         <v>40</v>
       </c>
@@ -3303,8 +3329,8 @@
       <c r="I19" s="39"/>
     </row>
     <row r="20" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="73"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="43" t="s">
         <v>41</v>
       </c>
@@ -4294,8 +4320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1012"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4338,28 +4365,28 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="65" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4374,7 +4401,7 @@
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="88" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="51" t="s">
@@ -4395,12 +4422,12 @@
       <c r="G4" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="85" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="88"/>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="52"/>
@@ -4411,10 +4438,10 @@
       <c r="G5" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="87"/>
+      <c r="H5" s="86"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="52"/>
@@ -4425,10 +4452,10 @@
       <c r="G6" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="87"/>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="52"/>
@@ -4439,7 +4466,7 @@
       <c r="G7" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="88"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="55"/>
@@ -4488,7 +4515,7 @@
       <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="83" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="51" t="s">
@@ -4509,12 +4536,12 @@
       <c r="G11" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="85" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="52"/>
@@ -4525,7 +4552,7 @@
       <c r="G12" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="88"/>
+      <c r="H12" s="87"/>
     </row>
     <row r="13" spans="1:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
@@ -4537,45 +4564,45 @@
       <c r="G13" s="56"/>
       <c r="H13" s="57"/>
     </row>
-    <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84" t="s">
+    <row r="14" spans="1:8" s="94" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="52" t="s">
+    <row r="15" spans="1:8" s="94" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="95"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="96"/>
     </row>
     <row r="16" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="55"/>
@@ -4644,7 +4671,7 @@
       <c r="H20" s="49"/>
     </row>
     <row r="21" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="51" t="s">
@@ -4665,12 +4692,12 @@
       <c r="G21" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="85" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
+      <c r="A22" s="84"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
       <c r="D22" s="63"/>
@@ -4681,7 +4708,7 @@
       <c r="G22" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="88"/>
+      <c r="H22" s="87"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="56"/>
@@ -4694,7 +4721,7 @@
       <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="83" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="51" t="s">
@@ -4715,12 +4742,12 @@
       <c r="G24" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="86" t="s">
+      <c r="H24" s="85" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
       <c r="D25" s="52"/>
@@ -4731,7 +4758,7 @@
       <c r="G25" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="88"/>
+      <c r="H25" s="87"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56"/>
@@ -4743,45 +4770,45 @@
       <c r="G26" s="56"/>
       <c r="H26" s="57"/>
     </row>
-    <row r="27" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84" t="s">
+    <row r="27" spans="1:8" s="94" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="63" t="s">
+      <c r="F27" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="63" t="s">
+    <row r="28" spans="1:8" s="94" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="95"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="90"/>
+      <c r="F28" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="88"/>
+      <c r="H28" s="96"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
@@ -7736,6 +7763,7 @@
       <c r="B1012" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H28" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="12">
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
@@ -7833,10 +7861,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF99FF99"/>
+  </sheetPr>
   <dimension ref="A1:B995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7855,74 +7886,74 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="67" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="67" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="67" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="67" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="67" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="68" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="68" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="68" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8914,10 +8945,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF99FF99"/>
+  </sheetPr>
   <dimension ref="A1:D991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8939,147 +8973,147 @@
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="69" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="69" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="69" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="69" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="69" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="69" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="69" t="s">
         <v>93</v>
       </c>
     </row>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c95b7b4a9a622975/Dokumentumok/GitHub/jht52_squash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED9EA00A-6861-4350-A899-CFFC0C61B899}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF05C536-F49C-433E-9C4D-DF4EF33A2C87}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +497,9 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -563,6 +566,59 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFCC0099"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0066FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF996633"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -613,7 +669,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1037,19 +1093,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1182,59 +1399,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,45 +1467,276 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1322,6 +1746,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF996633"/>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FF009900"/>
+      <color rgb="FF0066FF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFCC0099"/>
       <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
@@ -2802,6 +3232,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -3024,324 +3458,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="71"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="23"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="77" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="60"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="30" t="s">
+      <c r="A12" s="60"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="23"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="80" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="37" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="37"/>
+      <c r="F15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="37" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="37" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="37" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="40"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="37" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="40"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="41" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="41" t="s">
+      <c r="E19" s="37"/>
+      <c r="F19" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="72"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="43" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="45"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="44"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4322,253 +4756,253 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H7"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" style="46" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="46" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="141" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="45" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" style="46" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" style="45" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="46" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="45" customWidth="1"/>
     <col min="8" max="8" width="22.88671875" customWidth="1"/>
     <col min="9" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="104" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+    <row r="2" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="128" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="79" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+    <row r="3" spans="1:8" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="105"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="106"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="84" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="52" t="s">
+      <c r="A5" s="146"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="86"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52" t="s">
+      <c r="A6" s="146"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="86"/>
-    </row>
-    <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52" t="s">
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="147"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="87"/>
-    </row>
-    <row r="8" spans="1:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-    </row>
-    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="H7" s="89"/>
+    </row>
+    <row r="8" spans="1:8" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="107"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="108"/>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="79" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
+    <row r="10" spans="1:8" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="109"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="108"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="52" t="s">
+      <c r="F11" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="122" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="52" t="s">
+    <row r="12" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="153"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="125" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="87"/>
-    </row>
-    <row r="13" spans="1:8" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="57"/>
-    </row>
-    <row r="14" spans="1:8" s="94" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
+      <c r="H12" s="126"/>
+    </row>
+    <row r="13" spans="1:8" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="109"/>
+      <c r="B13" s="133"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="108"/>
+    </row>
+    <row r="14" spans="1:8" s="58" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="136" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="90" t="s">
@@ -4580,3191 +5014,3211 @@
       <c r="E14" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="93" t="s">
+      <c r="H14" s="94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="94" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="95"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="91" t="s">
+    <row r="15" spans="1:8" s="58" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="155"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="90" t="s">
+      <c r="G15" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="96"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="57"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="H15" s="99"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="107"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="108"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="51" t="s">
+      <c r="H17" s="79" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="49"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
-    </row>
-    <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="49"/>
+    <row r="18" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="110"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="113"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="114"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="115"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="110"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="113"/>
     </row>
     <row r="21" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="130" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="63" t="s">
+      <c r="F21" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="85" t="s">
+      <c r="H21" s="84" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="63" t="s">
+    <row r="22" spans="1:8" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="161"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="87"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
+      <c r="H22" s="89"/>
+    </row>
+    <row r="23" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="109"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="108"/>
     </row>
     <row r="24" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="116" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="63" t="s">
+    <row r="25" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="161"/>
+      <c r="B25" s="132"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="87"/>
-    </row>
-    <row r="26" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
-    </row>
-    <row r="27" spans="1:8" s="94" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="89" t="s">
+      <c r="H25" s="117"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="109"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="108"/>
+    </row>
+    <row r="27" spans="1:8" s="58" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="136" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="90" t="s">
         <v>87</v>
       </c>
       <c r="E27" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="97" t="s">
+      <c r="F27" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="90" t="s">
+      <c r="G27" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="93" t="s">
+      <c r="H27" s="94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="94" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="95"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="97" t="s">
+    <row r="28" spans="1:8" s="58" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="164"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="90" t="s">
+      <c r="G28" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="96"/>
+      <c r="H28" s="99"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="B29" s="140"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
+      <c r="B30" s="140"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
+      <c r="B31" s="140"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+      <c r="B32" s="140"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
+      <c r="B33" s="140"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
+      <c r="B34" s="140"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
+      <c r="B35" s="140"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
+      <c r="B36" s="140"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
+      <c r="B37" s="140"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
+      <c r="B38" s="140"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
+      <c r="B39" s="140"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
+      <c r="B40" s="140"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
+      <c r="B41" s="140"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
+      <c r="B42" s="140"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
+      <c r="B43" s="140"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
+      <c r="B44" s="140"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
+      <c r="B45" s="140"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
+      <c r="B46" s="140"/>
     </row>
     <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
+      <c r="B47" s="140"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
+      <c r="B48" s="140"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
+      <c r="B49" s="140"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
+      <c r="B50" s="140"/>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
+      <c r="B51" s="140"/>
     </row>
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
+      <c r="B52" s="140"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
+      <c r="B53" s="140"/>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
+      <c r="B54" s="140"/>
     </row>
     <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
+      <c r="B55" s="140"/>
     </row>
     <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
+      <c r="B56" s="140"/>
     </row>
     <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
+      <c r="B57" s="140"/>
     </row>
     <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
+      <c r="B58" s="140"/>
     </row>
     <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
+      <c r="B59" s="140"/>
     </row>
     <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
+      <c r="B60" s="140"/>
     </row>
     <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
+      <c r="B61" s="140"/>
     </row>
     <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
+      <c r="B62" s="140"/>
     </row>
     <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
+      <c r="B63" s="140"/>
     </row>
     <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
+      <c r="B64" s="140"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
+      <c r="B65" s="140"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
+      <c r="B66" s="140"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
+      <c r="B67" s="140"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
+      <c r="B68" s="140"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
+      <c r="B69" s="140"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
+      <c r="B70" s="140"/>
     </row>
     <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
+      <c r="B71" s="140"/>
     </row>
     <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
+      <c r="B72" s="140"/>
     </row>
     <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
+      <c r="B73" s="140"/>
     </row>
     <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
+      <c r="B74" s="140"/>
     </row>
     <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="2"/>
+      <c r="B75" s="140"/>
     </row>
     <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
+      <c r="B76" s="140"/>
     </row>
     <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="2"/>
+      <c r="B77" s="140"/>
     </row>
     <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
+      <c r="B78" s="140"/>
     </row>
     <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="2"/>
+      <c r="B79" s="140"/>
     </row>
     <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
+      <c r="B80" s="140"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="2"/>
+      <c r="B81" s="140"/>
     </row>
     <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="2"/>
+      <c r="B82" s="140"/>
     </row>
     <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
+      <c r="B83" s="140"/>
     </row>
     <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
+      <c r="B84" s="140"/>
     </row>
     <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
+      <c r="B85" s="140"/>
     </row>
     <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
+      <c r="B86" s="140"/>
     </row>
     <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
+      <c r="B87" s="140"/>
     </row>
     <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
+      <c r="B88" s="140"/>
     </row>
     <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
+      <c r="B89" s="140"/>
     </row>
     <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="2"/>
+      <c r="B90" s="140"/>
     </row>
     <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
+      <c r="B91" s="140"/>
     </row>
     <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="2"/>
+      <c r="B92" s="140"/>
     </row>
     <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="2"/>
+      <c r="B93" s="140"/>
     </row>
     <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="2"/>
+      <c r="B94" s="140"/>
     </row>
     <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="2"/>
+      <c r="B95" s="140"/>
     </row>
     <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="2"/>
+      <c r="B96" s="140"/>
     </row>
     <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="2"/>
+      <c r="B97" s="140"/>
     </row>
     <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="2"/>
+      <c r="B98" s="140"/>
     </row>
     <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="2"/>
+      <c r="B99" s="140"/>
     </row>
     <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="2"/>
+      <c r="B100" s="140"/>
     </row>
     <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="2"/>
+      <c r="B101" s="140"/>
     </row>
     <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="2"/>
+      <c r="B102" s="140"/>
     </row>
     <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="2"/>
+      <c r="B103" s="140"/>
     </row>
     <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="2"/>
+      <c r="B104" s="140"/>
     </row>
     <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="2"/>
+      <c r="B105" s="140"/>
     </row>
     <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
+      <c r="B106" s="140"/>
     </row>
     <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
+      <c r="B107" s="140"/>
     </row>
     <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
+      <c r="B108" s="140"/>
     </row>
     <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
+      <c r="B109" s="140"/>
     </row>
     <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
+      <c r="B110" s="140"/>
     </row>
     <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="2"/>
+      <c r="B111" s="140"/>
     </row>
     <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="2"/>
+      <c r="B112" s="140"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="2"/>
+      <c r="B113" s="140"/>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="2"/>
+      <c r="B114" s="140"/>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="2"/>
+      <c r="B115" s="140"/>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="2"/>
+      <c r="B116" s="140"/>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="2"/>
+      <c r="B117" s="140"/>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="2"/>
+      <c r="B118" s="140"/>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="2"/>
+      <c r="B119" s="140"/>
     </row>
     <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="2"/>
+      <c r="B120" s="140"/>
     </row>
     <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="2"/>
+      <c r="B121" s="140"/>
     </row>
     <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="2"/>
+      <c r="B122" s="140"/>
     </row>
     <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="2"/>
+      <c r="B123" s="140"/>
     </row>
     <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="2"/>
+      <c r="B124" s="140"/>
     </row>
     <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="2"/>
+      <c r="B125" s="140"/>
     </row>
     <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="2"/>
+      <c r="B126" s="140"/>
     </row>
     <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="2"/>
+      <c r="B127" s="140"/>
     </row>
     <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="2"/>
+      <c r="B128" s="140"/>
     </row>
     <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="2"/>
+      <c r="B129" s="140"/>
     </row>
     <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="2"/>
+      <c r="B130" s="140"/>
     </row>
     <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="2"/>
+      <c r="B131" s="140"/>
     </row>
     <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="2"/>
+      <c r="B132" s="140"/>
     </row>
     <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="2"/>
+      <c r="B133" s="140"/>
     </row>
     <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="2"/>
+      <c r="B134" s="140"/>
     </row>
     <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="2"/>
+      <c r="B135" s="140"/>
     </row>
     <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="2"/>
+      <c r="B136" s="140"/>
     </row>
     <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="2"/>
+      <c r="B137" s="140"/>
     </row>
     <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="2"/>
+      <c r="B138" s="140"/>
     </row>
     <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="2"/>
+      <c r="B139" s="140"/>
     </row>
     <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="2"/>
+      <c r="B140" s="140"/>
     </row>
     <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="2"/>
+      <c r="B141" s="140"/>
     </row>
     <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="2"/>
+      <c r="B142" s="140"/>
     </row>
     <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="2"/>
+      <c r="B143" s="140"/>
     </row>
     <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="2"/>
+      <c r="B144" s="140"/>
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="2"/>
+      <c r="B145" s="140"/>
     </row>
     <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="2"/>
+      <c r="B146" s="140"/>
     </row>
     <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="2"/>
+      <c r="B147" s="140"/>
     </row>
     <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="2"/>
+      <c r="B148" s="140"/>
     </row>
     <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="2"/>
+      <c r="B149" s="140"/>
     </row>
     <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="2"/>
+      <c r="B150" s="140"/>
     </row>
     <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="2"/>
+      <c r="B151" s="140"/>
     </row>
     <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="2"/>
+      <c r="B152" s="140"/>
     </row>
     <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="2"/>
+      <c r="B153" s="140"/>
     </row>
     <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="2"/>
+      <c r="B154" s="140"/>
     </row>
     <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="2"/>
+      <c r="B155" s="140"/>
     </row>
     <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="2"/>
+      <c r="B156" s="140"/>
     </row>
     <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="2"/>
+      <c r="B157" s="140"/>
     </row>
     <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="2"/>
+      <c r="B158" s="140"/>
     </row>
     <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="2"/>
+      <c r="B159" s="140"/>
     </row>
     <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="2"/>
+      <c r="B160" s="140"/>
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="2"/>
+      <c r="B161" s="140"/>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="2"/>
+      <c r="B162" s="140"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="2"/>
+      <c r="B163" s="140"/>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="2"/>
+      <c r="B164" s="140"/>
     </row>
     <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="2"/>
+      <c r="B165" s="140"/>
     </row>
     <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="2"/>
+      <c r="B166" s="140"/>
     </row>
     <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="2"/>
+      <c r="B167" s="140"/>
     </row>
     <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="2"/>
+      <c r="B168" s="140"/>
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="2"/>
+      <c r="B169" s="140"/>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="2"/>
+      <c r="B170" s="140"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="2"/>
+      <c r="B171" s="140"/>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="2"/>
+      <c r="B172" s="140"/>
     </row>
     <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="2"/>
+      <c r="B173" s="140"/>
     </row>
     <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="2"/>
+      <c r="B174" s="140"/>
     </row>
     <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="2"/>
+      <c r="B175" s="140"/>
     </row>
     <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="2"/>
+      <c r="B176" s="140"/>
     </row>
     <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="2"/>
+      <c r="B177" s="140"/>
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="2"/>
+      <c r="B178" s="140"/>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="2"/>
+      <c r="B179" s="140"/>
     </row>
     <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="2"/>
+      <c r="B180" s="140"/>
     </row>
     <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="2"/>
+      <c r="B181" s="140"/>
     </row>
     <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="2"/>
+      <c r="B182" s="140"/>
     </row>
     <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="2"/>
+      <c r="B183" s="140"/>
     </row>
     <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="2"/>
+      <c r="B184" s="140"/>
     </row>
     <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="2"/>
+      <c r="B185" s="140"/>
     </row>
     <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="2"/>
+      <c r="B186" s="140"/>
     </row>
     <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="2"/>
+      <c r="B187" s="140"/>
     </row>
     <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="2"/>
+      <c r="B188" s="140"/>
     </row>
     <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="2"/>
+      <c r="B189" s="140"/>
     </row>
     <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="2"/>
+      <c r="B190" s="140"/>
     </row>
     <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="2"/>
+      <c r="B191" s="140"/>
     </row>
     <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="2"/>
+      <c r="B192" s="140"/>
     </row>
     <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="2"/>
+      <c r="B193" s="140"/>
     </row>
     <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="2"/>
+      <c r="B194" s="140"/>
     </row>
     <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="2"/>
+      <c r="B195" s="140"/>
     </row>
     <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="2"/>
+      <c r="B196" s="140"/>
     </row>
     <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="2"/>
+      <c r="B197" s="140"/>
     </row>
     <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="2"/>
+      <c r="B198" s="140"/>
     </row>
     <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="2"/>
+      <c r="B199" s="140"/>
     </row>
     <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="2"/>
+      <c r="B200" s="140"/>
     </row>
     <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="2"/>
+      <c r="B201" s="140"/>
     </row>
     <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="2"/>
+      <c r="B202" s="140"/>
     </row>
     <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="2"/>
+      <c r="B203" s="140"/>
     </row>
     <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="2"/>
+      <c r="B204" s="140"/>
     </row>
     <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="2"/>
+      <c r="B205" s="140"/>
     </row>
     <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="2"/>
+      <c r="B206" s="140"/>
     </row>
     <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="2"/>
+      <c r="B207" s="140"/>
     </row>
     <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="2"/>
+      <c r="B208" s="140"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="2"/>
+      <c r="B209" s="140"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="2"/>
+      <c r="B210" s="140"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="2"/>
+      <c r="B211" s="140"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="2"/>
+      <c r="B212" s="140"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="2"/>
+      <c r="B213" s="140"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="2"/>
+      <c r="B214" s="140"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="2"/>
+      <c r="B215" s="140"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="2"/>
+      <c r="B216" s="140"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="2"/>
+      <c r="B217" s="140"/>
     </row>
     <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="2"/>
+      <c r="B218" s="140"/>
     </row>
     <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="2"/>
+      <c r="B219" s="140"/>
     </row>
     <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="2"/>
+      <c r="B220" s="140"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="2"/>
+      <c r="B221" s="140"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="2"/>
+      <c r="B222" s="140"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="2"/>
+      <c r="B223" s="140"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="2"/>
+      <c r="B224" s="140"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="2"/>
+      <c r="B225" s="140"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="2"/>
+      <c r="B226" s="140"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="2"/>
+      <c r="B227" s="140"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="2"/>
+      <c r="B228" s="140"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="2"/>
+      <c r="B229" s="140"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="2"/>
+      <c r="B230" s="140"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="2"/>
+      <c r="B231" s="140"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="2"/>
+      <c r="B232" s="140"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="2"/>
+      <c r="B233" s="140"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="2"/>
+      <c r="B234" s="140"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="2"/>
+      <c r="B235" s="140"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="2"/>
+      <c r="B236" s="140"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="2"/>
+      <c r="B237" s="140"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="2"/>
+      <c r="B238" s="140"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="2"/>
+      <c r="B239" s="140"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="2"/>
+      <c r="B240" s="140"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="2"/>
+      <c r="B241" s="140"/>
     </row>
     <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="2"/>
+      <c r="B242" s="140"/>
     </row>
     <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="2"/>
+      <c r="B243" s="140"/>
     </row>
     <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="2"/>
+      <c r="B244" s="140"/>
     </row>
     <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="2"/>
+      <c r="B245" s="140"/>
     </row>
     <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="2"/>
+      <c r="B246" s="140"/>
     </row>
     <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="2"/>
+      <c r="B247" s="140"/>
     </row>
     <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="2"/>
+      <c r="B248" s="140"/>
     </row>
     <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="2"/>
+      <c r="B249" s="140"/>
     </row>
     <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="2"/>
+      <c r="B250" s="140"/>
     </row>
     <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="2"/>
+      <c r="B251" s="140"/>
     </row>
     <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="2"/>
+      <c r="B252" s="140"/>
     </row>
     <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="2"/>
+      <c r="B253" s="140"/>
     </row>
     <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="2"/>
+      <c r="B254" s="140"/>
     </row>
     <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="2"/>
+      <c r="B255" s="140"/>
     </row>
     <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="2"/>
+      <c r="B256" s="140"/>
     </row>
     <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="2"/>
+      <c r="B257" s="140"/>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="2"/>
+      <c r="B258" s="140"/>
     </row>
     <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="2"/>
+      <c r="B259" s="140"/>
     </row>
     <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="2"/>
+      <c r="B260" s="140"/>
     </row>
     <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="2"/>
+      <c r="B261" s="140"/>
     </row>
     <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="2"/>
+      <c r="B262" s="140"/>
     </row>
     <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="2"/>
+      <c r="B263" s="140"/>
     </row>
     <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="2"/>
+      <c r="B264" s="140"/>
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="2"/>
+      <c r="B265" s="140"/>
     </row>
     <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="2"/>
+      <c r="B266" s="140"/>
     </row>
     <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="2"/>
+      <c r="B267" s="140"/>
     </row>
     <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="2"/>
+      <c r="B268" s="140"/>
     </row>
     <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="2"/>
+      <c r="B269" s="140"/>
     </row>
     <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="2"/>
+      <c r="B270" s="140"/>
     </row>
     <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="2"/>
+      <c r="B271" s="140"/>
     </row>
     <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="2"/>
+      <c r="B272" s="140"/>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="2"/>
+      <c r="B273" s="140"/>
     </row>
     <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="2"/>
+      <c r="B274" s="140"/>
     </row>
     <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="2"/>
+      <c r="B275" s="140"/>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="2"/>
+      <c r="B276" s="140"/>
     </row>
     <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="2"/>
+      <c r="B277" s="140"/>
     </row>
     <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="2"/>
+      <c r="B278" s="140"/>
     </row>
     <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="2"/>
+      <c r="B279" s="140"/>
     </row>
     <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="2"/>
+      <c r="B280" s="140"/>
     </row>
     <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="2"/>
+      <c r="B281" s="140"/>
     </row>
     <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="2"/>
+      <c r="B282" s="140"/>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="2"/>
+      <c r="B283" s="140"/>
     </row>
     <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="2"/>
+      <c r="B284" s="140"/>
     </row>
     <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="2"/>
+      <c r="B285" s="140"/>
     </row>
     <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="2"/>
+      <c r="B286" s="140"/>
     </row>
     <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="2"/>
+      <c r="B287" s="140"/>
     </row>
     <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="2"/>
+      <c r="B288" s="140"/>
     </row>
     <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="2"/>
+      <c r="B289" s="140"/>
     </row>
     <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B290" s="2"/>
+      <c r="B290" s="140"/>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="2"/>
+      <c r="B291" s="140"/>
     </row>
     <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="2"/>
+      <c r="B292" s="140"/>
     </row>
     <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="2"/>
+      <c r="B293" s="140"/>
     </row>
     <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="2"/>
+      <c r="B294" s="140"/>
     </row>
     <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="2"/>
+      <c r="B295" s="140"/>
     </row>
     <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="2"/>
+      <c r="B296" s="140"/>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="2"/>
+      <c r="B297" s="140"/>
     </row>
     <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="2"/>
+      <c r="B298" s="140"/>
     </row>
     <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="2"/>
+      <c r="B299" s="140"/>
     </row>
     <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B300" s="2"/>
+      <c r="B300" s="140"/>
     </row>
     <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="2"/>
+      <c r="B301" s="140"/>
     </row>
     <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B302" s="2"/>
+      <c r="B302" s="140"/>
     </row>
     <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="2"/>
+      <c r="B303" s="140"/>
     </row>
     <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B304" s="2"/>
+      <c r="B304" s="140"/>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B305" s="2"/>
+      <c r="B305" s="140"/>
     </row>
     <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="2"/>
+      <c r="B306" s="140"/>
     </row>
     <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B307" s="2"/>
+      <c r="B307" s="140"/>
     </row>
     <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B308" s="2"/>
+      <c r="B308" s="140"/>
     </row>
     <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B309" s="2"/>
+      <c r="B309" s="140"/>
     </row>
     <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="2"/>
+      <c r="B310" s="140"/>
     </row>
     <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B311" s="2"/>
+      <c r="B311" s="140"/>
     </row>
     <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="2"/>
+      <c r="B312" s="140"/>
     </row>
     <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B313" s="2"/>
+      <c r="B313" s="140"/>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B314" s="2"/>
+      <c r="B314" s="140"/>
     </row>
     <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B315" s="2"/>
+      <c r="B315" s="140"/>
     </row>
     <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B316" s="2"/>
+      <c r="B316" s="140"/>
     </row>
     <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B317" s="2"/>
+      <c r="B317" s="140"/>
     </row>
     <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="2"/>
+      <c r="B318" s="140"/>
     </row>
     <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B319" s="2"/>
+      <c r="B319" s="140"/>
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B320" s="2"/>
+      <c r="B320" s="140"/>
     </row>
     <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B321" s="2"/>
+      <c r="B321" s="140"/>
     </row>
     <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B322" s="2"/>
+      <c r="B322" s="140"/>
     </row>
     <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B323" s="2"/>
+      <c r="B323" s="140"/>
     </row>
     <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B324" s="2"/>
+      <c r="B324" s="140"/>
     </row>
     <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B325" s="2"/>
+      <c r="B325" s="140"/>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B326" s="2"/>
+      <c r="B326" s="140"/>
     </row>
     <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B327" s="2"/>
+      <c r="B327" s="140"/>
     </row>
     <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B328" s="2"/>
+      <c r="B328" s="140"/>
     </row>
     <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B329" s="2"/>
+      <c r="B329" s="140"/>
     </row>
     <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="2"/>
+      <c r="B330" s="140"/>
     </row>
     <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="2"/>
+      <c r="B331" s="140"/>
     </row>
     <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B332" s="2"/>
+      <c r="B332" s="140"/>
     </row>
     <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B333" s="2"/>
+      <c r="B333" s="140"/>
     </row>
     <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B334" s="2"/>
+      <c r="B334" s="140"/>
     </row>
     <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B335" s="2"/>
+      <c r="B335" s="140"/>
     </row>
     <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B336" s="2"/>
+      <c r="B336" s="140"/>
     </row>
     <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B337" s="2"/>
+      <c r="B337" s="140"/>
     </row>
     <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B338" s="2"/>
+      <c r="B338" s="140"/>
     </row>
     <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B339" s="2"/>
+      <c r="B339" s="140"/>
     </row>
     <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B340" s="2"/>
+      <c r="B340" s="140"/>
     </row>
     <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B341" s="2"/>
+      <c r="B341" s="140"/>
     </row>
     <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B342" s="2"/>
+      <c r="B342" s="140"/>
     </row>
     <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B343" s="2"/>
+      <c r="B343" s="140"/>
     </row>
     <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B344" s="2"/>
+      <c r="B344" s="140"/>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B345" s="2"/>
+      <c r="B345" s="140"/>
     </row>
     <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B346" s="2"/>
+      <c r="B346" s="140"/>
     </row>
     <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B347" s="2"/>
+      <c r="B347" s="140"/>
     </row>
     <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="2"/>
+      <c r="B348" s="140"/>
     </row>
     <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B349" s="2"/>
+      <c r="B349" s="140"/>
     </row>
     <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B350" s="2"/>
+      <c r="B350" s="140"/>
     </row>
     <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B351" s="2"/>
+      <c r="B351" s="140"/>
     </row>
     <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B352" s="2"/>
+      <c r="B352" s="140"/>
     </row>
     <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B353" s="2"/>
+      <c r="B353" s="140"/>
     </row>
     <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B354" s="2"/>
+      <c r="B354" s="140"/>
     </row>
     <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B355" s="2"/>
+      <c r="B355" s="140"/>
     </row>
     <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="2"/>
+      <c r="B356" s="140"/>
     </row>
     <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B357" s="2"/>
+      <c r="B357" s="140"/>
     </row>
     <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="2"/>
+      <c r="B358" s="140"/>
     </row>
     <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="2"/>
+      <c r="B359" s="140"/>
     </row>
     <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B360" s="2"/>
+      <c r="B360" s="140"/>
     </row>
     <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B361" s="2"/>
+      <c r="B361" s="140"/>
     </row>
     <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="2"/>
+      <c r="B362" s="140"/>
     </row>
     <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="2"/>
+      <c r="B363" s="140"/>
     </row>
     <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="2"/>
+      <c r="B364" s="140"/>
     </row>
     <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B365" s="2"/>
+      <c r="B365" s="140"/>
     </row>
     <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="2"/>
+      <c r="B366" s="140"/>
     </row>
     <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="2"/>
+      <c r="B367" s="140"/>
     </row>
     <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="2"/>
+      <c r="B368" s="140"/>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="2"/>
+      <c r="B369" s="140"/>
     </row>
     <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="2"/>
+      <c r="B370" s="140"/>
     </row>
     <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B371" s="2"/>
+      <c r="B371" s="140"/>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="2"/>
+      <c r="B372" s="140"/>
     </row>
     <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="2"/>
+      <c r="B373" s="140"/>
     </row>
     <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B374" s="2"/>
+      <c r="B374" s="140"/>
     </row>
     <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B375" s="2"/>
+      <c r="B375" s="140"/>
     </row>
     <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B376" s="2"/>
+      <c r="B376" s="140"/>
     </row>
     <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B377" s="2"/>
+      <c r="B377" s="140"/>
     </row>
     <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B378" s="2"/>
+      <c r="B378" s="140"/>
     </row>
     <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B379" s="2"/>
+      <c r="B379" s="140"/>
     </row>
     <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B380" s="2"/>
+      <c r="B380" s="140"/>
     </row>
     <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B381" s="2"/>
+      <c r="B381" s="140"/>
     </row>
     <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B382" s="2"/>
+      <c r="B382" s="140"/>
     </row>
     <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B383" s="2"/>
+      <c r="B383" s="140"/>
     </row>
     <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B384" s="2"/>
+      <c r="B384" s="140"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B385" s="2"/>
+      <c r="B385" s="140"/>
     </row>
     <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B386" s="2"/>
+      <c r="B386" s="140"/>
     </row>
     <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B387" s="2"/>
+      <c r="B387" s="140"/>
     </row>
     <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B388" s="2"/>
+      <c r="B388" s="140"/>
     </row>
     <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B389" s="2"/>
+      <c r="B389" s="140"/>
     </row>
     <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="2"/>
+      <c r="B390" s="140"/>
     </row>
     <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B391" s="2"/>
+      <c r="B391" s="140"/>
     </row>
     <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B392" s="2"/>
+      <c r="B392" s="140"/>
     </row>
     <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B393" s="2"/>
+      <c r="B393" s="140"/>
     </row>
     <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B394" s="2"/>
+      <c r="B394" s="140"/>
     </row>
     <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B395" s="2"/>
+      <c r="B395" s="140"/>
     </row>
     <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B396" s="2"/>
+      <c r="B396" s="140"/>
     </row>
     <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="2"/>
+      <c r="B397" s="140"/>
     </row>
     <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B398" s="2"/>
+      <c r="B398" s="140"/>
     </row>
     <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B399" s="2"/>
+      <c r="B399" s="140"/>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B400" s="2"/>
+      <c r="B400" s="140"/>
     </row>
     <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B401" s="2"/>
+      <c r="B401" s="140"/>
     </row>
     <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B402" s="2"/>
+      <c r="B402" s="140"/>
     </row>
     <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B403" s="2"/>
+      <c r="B403" s="140"/>
     </row>
     <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B404" s="2"/>
+      <c r="B404" s="140"/>
     </row>
     <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B405" s="2"/>
+      <c r="B405" s="140"/>
     </row>
     <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B406" s="2"/>
+      <c r="B406" s="140"/>
     </row>
     <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B407" s="2"/>
+      <c r="B407" s="140"/>
     </row>
     <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B408" s="2"/>
+      <c r="B408" s="140"/>
     </row>
     <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B409" s="2"/>
+      <c r="B409" s="140"/>
     </row>
     <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B410" s="2"/>
+      <c r="B410" s="140"/>
     </row>
     <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B411" s="2"/>
+      <c r="B411" s="140"/>
     </row>
     <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B412" s="2"/>
+      <c r="B412" s="140"/>
     </row>
     <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B413" s="2"/>
+      <c r="B413" s="140"/>
     </row>
     <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B414" s="2"/>
+      <c r="B414" s="140"/>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B415" s="2"/>
+      <c r="B415" s="140"/>
     </row>
     <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B416" s="2"/>
+      <c r="B416" s="140"/>
     </row>
     <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B417" s="2"/>
+      <c r="B417" s="140"/>
     </row>
     <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B418" s="2"/>
+      <c r="B418" s="140"/>
     </row>
     <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B419" s="2"/>
+      <c r="B419" s="140"/>
     </row>
     <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B420" s="2"/>
+      <c r="B420" s="140"/>
     </row>
     <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B421" s="2"/>
+      <c r="B421" s="140"/>
     </row>
     <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B422" s="2"/>
+      <c r="B422" s="140"/>
     </row>
     <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B423" s="2"/>
+      <c r="B423" s="140"/>
     </row>
     <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B424" s="2"/>
+      <c r="B424" s="140"/>
     </row>
     <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B425" s="2"/>
+      <c r="B425" s="140"/>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B426" s="2"/>
+      <c r="B426" s="140"/>
     </row>
     <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B427" s="2"/>
+      <c r="B427" s="140"/>
     </row>
     <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B428" s="2"/>
+      <c r="B428" s="140"/>
     </row>
     <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B429" s="2"/>
+      <c r="B429" s="140"/>
     </row>
     <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B430" s="2"/>
+      <c r="B430" s="140"/>
     </row>
     <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B431" s="2"/>
+      <c r="B431" s="140"/>
     </row>
     <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B432" s="2"/>
+      <c r="B432" s="140"/>
     </row>
     <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B433" s="2"/>
+      <c r="B433" s="140"/>
     </row>
     <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B434" s="2"/>
+      <c r="B434" s="140"/>
     </row>
     <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B435" s="2"/>
+      <c r="B435" s="140"/>
     </row>
     <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B436" s="2"/>
+      <c r="B436" s="140"/>
     </row>
     <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B437" s="2"/>
+      <c r="B437" s="140"/>
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B438" s="2"/>
+      <c r="B438" s="140"/>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B439" s="2"/>
+      <c r="B439" s="140"/>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B440" s="2"/>
+      <c r="B440" s="140"/>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B441" s="2"/>
+      <c r="B441" s="140"/>
     </row>
     <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B442" s="2"/>
+      <c r="B442" s="140"/>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B443" s="2"/>
+      <c r="B443" s="140"/>
     </row>
     <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B444" s="2"/>
+      <c r="B444" s="140"/>
     </row>
     <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B445" s="2"/>
+      <c r="B445" s="140"/>
     </row>
     <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B446" s="2"/>
+      <c r="B446" s="140"/>
     </row>
     <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B447" s="2"/>
+      <c r="B447" s="140"/>
     </row>
     <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B448" s="2"/>
+      <c r="B448" s="140"/>
     </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B449" s="2"/>
+      <c r="B449" s="140"/>
     </row>
     <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B450" s="2"/>
+      <c r="B450" s="140"/>
     </row>
     <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B451" s="2"/>
+      <c r="B451" s="140"/>
     </row>
     <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B452" s="2"/>
+      <c r="B452" s="140"/>
     </row>
     <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B453" s="2"/>
+      <c r="B453" s="140"/>
     </row>
     <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B454" s="2"/>
+      <c r="B454" s="140"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B455" s="2"/>
+      <c r="B455" s="140"/>
     </row>
     <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B456" s="2"/>
+      <c r="B456" s="140"/>
     </row>
     <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B457" s="2"/>
+      <c r="B457" s="140"/>
     </row>
     <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B458" s="2"/>
+      <c r="B458" s="140"/>
     </row>
     <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B459" s="2"/>
+      <c r="B459" s="140"/>
     </row>
     <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B460" s="2"/>
+      <c r="B460" s="140"/>
     </row>
     <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B461" s="2"/>
+      <c r="B461" s="140"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B462" s="2"/>
+      <c r="B462" s="140"/>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B463" s="2"/>
+      <c r="B463" s="140"/>
     </row>
     <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B464" s="2"/>
+      <c r="B464" s="140"/>
     </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B465" s="2"/>
+      <c r="B465" s="140"/>
     </row>
     <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B466" s="2"/>
+      <c r="B466" s="140"/>
     </row>
     <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B467" s="2"/>
+      <c r="B467" s="140"/>
     </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B468" s="2"/>
+      <c r="B468" s="140"/>
     </row>
     <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B469" s="2"/>
+      <c r="B469" s="140"/>
     </row>
     <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B470" s="2"/>
+      <c r="B470" s="140"/>
     </row>
     <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B471" s="2"/>
+      <c r="B471" s="140"/>
     </row>
     <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B472" s="2"/>
+      <c r="B472" s="140"/>
     </row>
     <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B473" s="2"/>
+      <c r="B473" s="140"/>
     </row>
     <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B474" s="2"/>
+      <c r="B474" s="140"/>
     </row>
     <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B475" s="2"/>
+      <c r="B475" s="140"/>
     </row>
     <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B476" s="2"/>
+      <c r="B476" s="140"/>
     </row>
     <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B477" s="2"/>
+      <c r="B477" s="140"/>
     </row>
     <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B478" s="2"/>
+      <c r="B478" s="140"/>
     </row>
     <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B479" s="2"/>
+      <c r="B479" s="140"/>
     </row>
     <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B480" s="2"/>
+      <c r="B480" s="140"/>
     </row>
     <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B481" s="2"/>
+      <c r="B481" s="140"/>
     </row>
     <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B482" s="2"/>
+      <c r="B482" s="140"/>
     </row>
     <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B483" s="2"/>
+      <c r="B483" s="140"/>
     </row>
     <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B484" s="2"/>
+      <c r="B484" s="140"/>
     </row>
     <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B485" s="2"/>
+      <c r="B485" s="140"/>
     </row>
     <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B486" s="2"/>
+      <c r="B486" s="140"/>
     </row>
     <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B487" s="2"/>
+      <c r="B487" s="140"/>
     </row>
     <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B488" s="2"/>
+      <c r="B488" s="140"/>
     </row>
     <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B489" s="2"/>
+      <c r="B489" s="140"/>
     </row>
     <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B490" s="2"/>
+      <c r="B490" s="140"/>
     </row>
     <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B491" s="2"/>
+      <c r="B491" s="140"/>
     </row>
     <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B492" s="2"/>
+      <c r="B492" s="140"/>
     </row>
     <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B493" s="2"/>
+      <c r="B493" s="140"/>
     </row>
     <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B494" s="2"/>
+      <c r="B494" s="140"/>
     </row>
     <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B495" s="2"/>
+      <c r="B495" s="140"/>
     </row>
     <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B496" s="2"/>
+      <c r="B496" s="140"/>
     </row>
     <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B497" s="2"/>
+      <c r="B497" s="140"/>
     </row>
     <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B498" s="2"/>
+      <c r="B498" s="140"/>
     </row>
     <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B499" s="2"/>
+      <c r="B499" s="140"/>
     </row>
     <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B500" s="2"/>
+      <c r="B500" s="140"/>
     </row>
     <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B501" s="2"/>
+      <c r="B501" s="140"/>
     </row>
     <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B502" s="2"/>
+      <c r="B502" s="140"/>
     </row>
     <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B503" s="2"/>
+      <c r="B503" s="140"/>
     </row>
     <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B504" s="2"/>
+      <c r="B504" s="140"/>
     </row>
     <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B505" s="2"/>
+      <c r="B505" s="140"/>
     </row>
     <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B506" s="2"/>
+      <c r="B506" s="140"/>
     </row>
     <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B507" s="2"/>
+      <c r="B507" s="140"/>
     </row>
     <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B508" s="2"/>
+      <c r="B508" s="140"/>
     </row>
     <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B509" s="2"/>
+      <c r="B509" s="140"/>
     </row>
     <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B510" s="2"/>
+      <c r="B510" s="140"/>
     </row>
     <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B511" s="2"/>
+      <c r="B511" s="140"/>
     </row>
     <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B512" s="2"/>
+      <c r="B512" s="140"/>
     </row>
     <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B513" s="2"/>
+      <c r="B513" s="140"/>
     </row>
     <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B514" s="2"/>
+      <c r="B514" s="140"/>
     </row>
     <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B515" s="2"/>
+      <c r="B515" s="140"/>
     </row>
     <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B516" s="2"/>
+      <c r="B516" s="140"/>
     </row>
     <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B517" s="2"/>
+      <c r="B517" s="140"/>
     </row>
     <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B518" s="2"/>
+      <c r="B518" s="140"/>
     </row>
     <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B519" s="2"/>
+      <c r="B519" s="140"/>
     </row>
     <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B520" s="2"/>
+      <c r="B520" s="140"/>
     </row>
     <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B521" s="2"/>
+      <c r="B521" s="140"/>
     </row>
     <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B522" s="2"/>
+      <c r="B522" s="140"/>
     </row>
     <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B523" s="2"/>
+      <c r="B523" s="140"/>
     </row>
     <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B524" s="2"/>
+      <c r="B524" s="140"/>
     </row>
     <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B525" s="2"/>
+      <c r="B525" s="140"/>
     </row>
     <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B526" s="2"/>
+      <c r="B526" s="140"/>
     </row>
     <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B527" s="2"/>
+      <c r="B527" s="140"/>
     </row>
     <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B528" s="2"/>
+      <c r="B528" s="140"/>
     </row>
     <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B529" s="2"/>
+      <c r="B529" s="140"/>
     </row>
     <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B530" s="2"/>
+      <c r="B530" s="140"/>
     </row>
     <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B531" s="2"/>
+      <c r="B531" s="140"/>
     </row>
     <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B532" s="2"/>
+      <c r="B532" s="140"/>
     </row>
     <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B533" s="2"/>
+      <c r="B533" s="140"/>
     </row>
     <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B534" s="2"/>
+      <c r="B534" s="140"/>
     </row>
     <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B535" s="2"/>
+      <c r="B535" s="140"/>
     </row>
     <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B536" s="2"/>
+      <c r="B536" s="140"/>
     </row>
     <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B537" s="2"/>
+      <c r="B537" s="140"/>
     </row>
     <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B538" s="2"/>
+      <c r="B538" s="140"/>
     </row>
     <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B539" s="2"/>
+      <c r="B539" s="140"/>
     </row>
     <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B540" s="2"/>
+      <c r="B540" s="140"/>
     </row>
     <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B541" s="2"/>
+      <c r="B541" s="140"/>
     </row>
     <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B542" s="2"/>
+      <c r="B542" s="140"/>
     </row>
     <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B543" s="2"/>
+      <c r="B543" s="140"/>
     </row>
     <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B544" s="2"/>
+      <c r="B544" s="140"/>
     </row>
     <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B545" s="2"/>
+      <c r="B545" s="140"/>
     </row>
     <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B546" s="2"/>
+      <c r="B546" s="140"/>
     </row>
     <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B547" s="2"/>
+      <c r="B547" s="140"/>
     </row>
     <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B548" s="2"/>
+      <c r="B548" s="140"/>
     </row>
     <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B549" s="2"/>
+      <c r="B549" s="140"/>
     </row>
     <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B550" s="2"/>
+      <c r="B550" s="140"/>
     </row>
     <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B551" s="2"/>
+      <c r="B551" s="140"/>
     </row>
     <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B552" s="2"/>
+      <c r="B552" s="140"/>
     </row>
     <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B553" s="2"/>
+      <c r="B553" s="140"/>
     </row>
     <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B554" s="2"/>
+      <c r="B554" s="140"/>
     </row>
     <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B555" s="2"/>
+      <c r="B555" s="140"/>
     </row>
     <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B556" s="2"/>
+      <c r="B556" s="140"/>
     </row>
     <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B557" s="2"/>
+      <c r="B557" s="140"/>
     </row>
     <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B558" s="2"/>
+      <c r="B558" s="140"/>
     </row>
     <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B559" s="2"/>
+      <c r="B559" s="140"/>
     </row>
     <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B560" s="2"/>
+      <c r="B560" s="140"/>
     </row>
     <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B561" s="2"/>
+      <c r="B561" s="140"/>
     </row>
     <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B562" s="2"/>
+      <c r="B562" s="140"/>
     </row>
     <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B563" s="2"/>
+      <c r="B563" s="140"/>
     </row>
     <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B564" s="2"/>
+      <c r="B564" s="140"/>
     </row>
     <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B565" s="2"/>
+      <c r="B565" s="140"/>
     </row>
     <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B566" s="2"/>
+      <c r="B566" s="140"/>
     </row>
     <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B567" s="2"/>
+      <c r="B567" s="140"/>
     </row>
     <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B568" s="2"/>
+      <c r="B568" s="140"/>
     </row>
     <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B569" s="2"/>
+      <c r="B569" s="140"/>
     </row>
     <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B570" s="2"/>
+      <c r="B570" s="140"/>
     </row>
     <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B571" s="2"/>
+      <c r="B571" s="140"/>
     </row>
     <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B572" s="2"/>
+      <c r="B572" s="140"/>
     </row>
     <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B573" s="2"/>
+      <c r="B573" s="140"/>
     </row>
     <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B574" s="2"/>
+      <c r="B574" s="140"/>
     </row>
     <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B575" s="2"/>
+      <c r="B575" s="140"/>
     </row>
     <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B576" s="2"/>
+      <c r="B576" s="140"/>
     </row>
     <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B577" s="2"/>
+      <c r="B577" s="140"/>
     </row>
     <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B578" s="2"/>
+      <c r="B578" s="140"/>
     </row>
     <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B579" s="2"/>
+      <c r="B579" s="140"/>
     </row>
     <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B580" s="2"/>
+      <c r="B580" s="140"/>
     </row>
     <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B581" s="2"/>
+      <c r="B581" s="140"/>
     </row>
     <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B582" s="2"/>
+      <c r="B582" s="140"/>
     </row>
     <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B583" s="2"/>
+      <c r="B583" s="140"/>
     </row>
     <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B584" s="2"/>
+      <c r="B584" s="140"/>
     </row>
     <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B585" s="2"/>
+      <c r="B585" s="140"/>
     </row>
     <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B586" s="2"/>
+      <c r="B586" s="140"/>
     </row>
     <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B587" s="2"/>
+      <c r="B587" s="140"/>
     </row>
     <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B588" s="2"/>
+      <c r="B588" s="140"/>
     </row>
     <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B589" s="2"/>
+      <c r="B589" s="140"/>
     </row>
     <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B590" s="2"/>
+      <c r="B590" s="140"/>
     </row>
     <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B591" s="2"/>
+      <c r="B591" s="140"/>
     </row>
     <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B592" s="2"/>
+      <c r="B592" s="140"/>
     </row>
     <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B593" s="2"/>
+      <c r="B593" s="140"/>
     </row>
     <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B594" s="2"/>
+      <c r="B594" s="140"/>
     </row>
     <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B595" s="2"/>
+      <c r="B595" s="140"/>
     </row>
     <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B596" s="2"/>
+      <c r="B596" s="140"/>
     </row>
     <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B597" s="2"/>
+      <c r="B597" s="140"/>
     </row>
     <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B598" s="2"/>
+      <c r="B598" s="140"/>
     </row>
     <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B599" s="2"/>
+      <c r="B599" s="140"/>
     </row>
     <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B600" s="2"/>
+      <c r="B600" s="140"/>
     </row>
     <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B601" s="2"/>
+      <c r="B601" s="140"/>
     </row>
     <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B602" s="2"/>
+      <c r="B602" s="140"/>
     </row>
     <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B603" s="2"/>
+      <c r="B603" s="140"/>
     </row>
     <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B604" s="2"/>
+      <c r="B604" s="140"/>
     </row>
     <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B605" s="2"/>
+      <c r="B605" s="140"/>
     </row>
     <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B606" s="2"/>
+      <c r="B606" s="140"/>
     </row>
     <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B607" s="2"/>
+      <c r="B607" s="140"/>
     </row>
     <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B608" s="2"/>
+      <c r="B608" s="140"/>
     </row>
     <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B609" s="2"/>
+      <c r="B609" s="140"/>
     </row>
     <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B610" s="2"/>
+      <c r="B610" s="140"/>
     </row>
     <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B611" s="2"/>
+      <c r="B611" s="140"/>
     </row>
     <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B612" s="2"/>
+      <c r="B612" s="140"/>
     </row>
     <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B613" s="2"/>
+      <c r="B613" s="140"/>
     </row>
     <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B614" s="2"/>
+      <c r="B614" s="140"/>
     </row>
     <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B615" s="2"/>
+      <c r="B615" s="140"/>
     </row>
     <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B616" s="2"/>
+      <c r="B616" s="140"/>
     </row>
     <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B617" s="2"/>
+      <c r="B617" s="140"/>
     </row>
     <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B618" s="2"/>
+      <c r="B618" s="140"/>
     </row>
     <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B619" s="2"/>
+      <c r="B619" s="140"/>
     </row>
     <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B620" s="2"/>
+      <c r="B620" s="140"/>
     </row>
     <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B621" s="2"/>
+      <c r="B621" s="140"/>
     </row>
     <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B622" s="2"/>
+      <c r="B622" s="140"/>
     </row>
     <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B623" s="2"/>
+      <c r="B623" s="140"/>
     </row>
     <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B624" s="2"/>
+      <c r="B624" s="140"/>
     </row>
     <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B625" s="2"/>
+      <c r="B625" s="140"/>
     </row>
     <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B626" s="2"/>
+      <c r="B626" s="140"/>
     </row>
     <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B627" s="2"/>
+      <c r="B627" s="140"/>
     </row>
     <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B628" s="2"/>
+      <c r="B628" s="140"/>
     </row>
     <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B629" s="2"/>
+      <c r="B629" s="140"/>
     </row>
     <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B630" s="2"/>
+      <c r="B630" s="140"/>
     </row>
     <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B631" s="2"/>
+      <c r="B631" s="140"/>
     </row>
     <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B632" s="2"/>
+      <c r="B632" s="140"/>
     </row>
     <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B633" s="2"/>
+      <c r="B633" s="140"/>
     </row>
     <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B634" s="2"/>
+      <c r="B634" s="140"/>
     </row>
     <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B635" s="2"/>
+      <c r="B635" s="140"/>
     </row>
     <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B636" s="2"/>
+      <c r="B636" s="140"/>
     </row>
     <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B637" s="2"/>
+      <c r="B637" s="140"/>
     </row>
     <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B638" s="2"/>
+      <c r="B638" s="140"/>
     </row>
     <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B639" s="2"/>
+      <c r="B639" s="140"/>
     </row>
     <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B640" s="2"/>
+      <c r="B640" s="140"/>
     </row>
     <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B641" s="2"/>
+      <c r="B641" s="140"/>
     </row>
     <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B642" s="2"/>
+      <c r="B642" s="140"/>
     </row>
     <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B643" s="2"/>
+      <c r="B643" s="140"/>
     </row>
     <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B644" s="2"/>
+      <c r="B644" s="140"/>
     </row>
     <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B645" s="2"/>
+      <c r="B645" s="140"/>
     </row>
     <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B646" s="2"/>
+      <c r="B646" s="140"/>
     </row>
     <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B647" s="2"/>
+      <c r="B647" s="140"/>
     </row>
     <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B648" s="2"/>
+      <c r="B648" s="140"/>
     </row>
     <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B649" s="2"/>
+      <c r="B649" s="140"/>
     </row>
     <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B650" s="2"/>
+      <c r="B650" s="140"/>
     </row>
     <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B651" s="2"/>
+      <c r="B651" s="140"/>
     </row>
     <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B652" s="2"/>
+      <c r="B652" s="140"/>
     </row>
     <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B653" s="2"/>
+      <c r="B653" s="140"/>
     </row>
     <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B654" s="2"/>
+      <c r="B654" s="140"/>
     </row>
     <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B655" s="2"/>
+      <c r="B655" s="140"/>
     </row>
     <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B656" s="2"/>
+      <c r="B656" s="140"/>
     </row>
     <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B657" s="2"/>
+      <c r="B657" s="140"/>
     </row>
     <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B658" s="2"/>
+      <c r="B658" s="140"/>
     </row>
     <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B659" s="2"/>
+      <c r="B659" s="140"/>
     </row>
     <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B660" s="2"/>
+      <c r="B660" s="140"/>
     </row>
     <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B661" s="2"/>
+      <c r="B661" s="140"/>
     </row>
     <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B662" s="2"/>
+      <c r="B662" s="140"/>
     </row>
     <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B663" s="2"/>
+      <c r="B663" s="140"/>
     </row>
     <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B664" s="2"/>
+      <c r="B664" s="140"/>
     </row>
     <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B665" s="2"/>
+      <c r="B665" s="140"/>
     </row>
     <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B666" s="2"/>
+      <c r="B666" s="140"/>
     </row>
     <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B667" s="2"/>
+      <c r="B667" s="140"/>
     </row>
     <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B668" s="2"/>
+      <c r="B668" s="140"/>
     </row>
     <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B669" s="2"/>
+      <c r="B669" s="140"/>
     </row>
     <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B670" s="2"/>
+      <c r="B670" s="140"/>
     </row>
     <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B671" s="2"/>
+      <c r="B671" s="140"/>
     </row>
     <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B672" s="2"/>
+      <c r="B672" s="140"/>
     </row>
     <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B673" s="2"/>
+      <c r="B673" s="140"/>
     </row>
     <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B674" s="2"/>
+      <c r="B674" s="140"/>
     </row>
     <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B675" s="2"/>
+      <c r="B675" s="140"/>
     </row>
     <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B676" s="2"/>
+      <c r="B676" s="140"/>
     </row>
     <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B677" s="2"/>
+      <c r="B677" s="140"/>
     </row>
     <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B678" s="2"/>
+      <c r="B678" s="140"/>
     </row>
     <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B679" s="2"/>
+      <c r="B679" s="140"/>
     </row>
     <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B680" s="2"/>
+      <c r="B680" s="140"/>
     </row>
     <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B681" s="2"/>
+      <c r="B681" s="140"/>
     </row>
     <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B682" s="2"/>
+      <c r="B682" s="140"/>
     </row>
     <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B683" s="2"/>
+      <c r="B683" s="140"/>
     </row>
     <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B684" s="2"/>
+      <c r="B684" s="140"/>
     </row>
     <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B685" s="2"/>
+      <c r="B685" s="140"/>
     </row>
     <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B686" s="2"/>
+      <c r="B686" s="140"/>
     </row>
     <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B687" s="2"/>
+      <c r="B687" s="140"/>
     </row>
     <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B688" s="2"/>
+      <c r="B688" s="140"/>
     </row>
     <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B689" s="2"/>
+      <c r="B689" s="140"/>
     </row>
     <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B690" s="2"/>
+      <c r="B690" s="140"/>
     </row>
     <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B691" s="2"/>
+      <c r="B691" s="140"/>
     </row>
     <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B692" s="2"/>
+      <c r="B692" s="140"/>
     </row>
     <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B693" s="2"/>
+      <c r="B693" s="140"/>
     </row>
     <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B694" s="2"/>
+      <c r="B694" s="140"/>
     </row>
     <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B695" s="2"/>
+      <c r="B695" s="140"/>
     </row>
     <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B696" s="2"/>
+      <c r="B696" s="140"/>
     </row>
     <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B697" s="2"/>
+      <c r="B697" s="140"/>
     </row>
     <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B698" s="2"/>
+      <c r="B698" s="140"/>
     </row>
     <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B699" s="2"/>
+      <c r="B699" s="140"/>
     </row>
     <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B700" s="2"/>
+      <c r="B700" s="140"/>
     </row>
     <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B701" s="2"/>
+      <c r="B701" s="140"/>
     </row>
     <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B702" s="2"/>
+      <c r="B702" s="140"/>
     </row>
     <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B703" s="2"/>
+      <c r="B703" s="140"/>
     </row>
     <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B704" s="2"/>
+      <c r="B704" s="140"/>
     </row>
     <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B705" s="2"/>
+      <c r="B705" s="140"/>
     </row>
     <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B706" s="2"/>
+      <c r="B706" s="140"/>
     </row>
     <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B707" s="2"/>
+      <c r="B707" s="140"/>
     </row>
     <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B708" s="2"/>
+      <c r="B708" s="140"/>
     </row>
     <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B709" s="2"/>
+      <c r="B709" s="140"/>
     </row>
     <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B710" s="2"/>
+      <c r="B710" s="140"/>
     </row>
     <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B711" s="2"/>
+      <c r="B711" s="140"/>
     </row>
     <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B712" s="2"/>
+      <c r="B712" s="140"/>
     </row>
     <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B713" s="2"/>
+      <c r="B713" s="140"/>
     </row>
     <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B714" s="2"/>
+      <c r="B714" s="140"/>
     </row>
     <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B715" s="2"/>
+      <c r="B715" s="140"/>
     </row>
     <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B716" s="2"/>
+      <c r="B716" s="140"/>
     </row>
     <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B717" s="2"/>
+      <c r="B717" s="140"/>
     </row>
     <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B718" s="2"/>
+      <c r="B718" s="140"/>
     </row>
     <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B719" s="2"/>
+      <c r="B719" s="140"/>
     </row>
     <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B720" s="2"/>
+      <c r="B720" s="140"/>
     </row>
     <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B721" s="2"/>
+      <c r="B721" s="140"/>
     </row>
     <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B722" s="2"/>
+      <c r="B722" s="140"/>
     </row>
     <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B723" s="2"/>
+      <c r="B723" s="140"/>
     </row>
     <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B724" s="2"/>
+      <c r="B724" s="140"/>
     </row>
     <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B725" s="2"/>
+      <c r="B725" s="140"/>
     </row>
     <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B726" s="2"/>
+      <c r="B726" s="140"/>
     </row>
     <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B727" s="2"/>
+      <c r="B727" s="140"/>
     </row>
     <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B728" s="2"/>
+      <c r="B728" s="140"/>
     </row>
     <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B729" s="2"/>
+      <c r="B729" s="140"/>
     </row>
     <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B730" s="2"/>
+      <c r="B730" s="140"/>
     </row>
     <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B731" s="2"/>
+      <c r="B731" s="140"/>
     </row>
     <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B732" s="2"/>
+      <c r="B732" s="140"/>
     </row>
     <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B733" s="2"/>
+      <c r="B733" s="140"/>
     </row>
     <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B734" s="2"/>
+      <c r="B734" s="140"/>
     </row>
     <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B735" s="2"/>
+      <c r="B735" s="140"/>
     </row>
     <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B736" s="2"/>
+      <c r="B736" s="140"/>
     </row>
     <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B737" s="2"/>
+      <c r="B737" s="140"/>
     </row>
     <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B738" s="2"/>
+      <c r="B738" s="140"/>
     </row>
     <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B739" s="2"/>
+      <c r="B739" s="140"/>
     </row>
     <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B740" s="2"/>
+      <c r="B740" s="140"/>
     </row>
     <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B741" s="2"/>
+      <c r="B741" s="140"/>
     </row>
     <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B742" s="2"/>
+      <c r="B742" s="140"/>
     </row>
     <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B743" s="2"/>
+      <c r="B743" s="140"/>
     </row>
     <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B744" s="2"/>
+      <c r="B744" s="140"/>
     </row>
     <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B745" s="2"/>
+      <c r="B745" s="140"/>
     </row>
     <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B746" s="2"/>
+      <c r="B746" s="140"/>
     </row>
     <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B747" s="2"/>
+      <c r="B747" s="140"/>
     </row>
     <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B748" s="2"/>
+      <c r="B748" s="140"/>
     </row>
     <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B749" s="2"/>
+      <c r="B749" s="140"/>
     </row>
     <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B750" s="2"/>
+      <c r="B750" s="140"/>
     </row>
     <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B751" s="2"/>
+      <c r="B751" s="140"/>
     </row>
     <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B752" s="2"/>
+      <c r="B752" s="140"/>
     </row>
     <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B753" s="2"/>
+      <c r="B753" s="140"/>
     </row>
     <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B754" s="2"/>
+      <c r="B754" s="140"/>
     </row>
     <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B755" s="2"/>
+      <c r="B755" s="140"/>
     </row>
     <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B756" s="2"/>
+      <c r="B756" s="140"/>
     </row>
     <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B757" s="2"/>
+      <c r="B757" s="140"/>
     </row>
     <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B758" s="2"/>
+      <c r="B758" s="140"/>
     </row>
     <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B759" s="2"/>
+      <c r="B759" s="140"/>
     </row>
     <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B760" s="2"/>
+      <c r="B760" s="140"/>
     </row>
     <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B761" s="2"/>
+      <c r="B761" s="140"/>
     </row>
     <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B762" s="2"/>
+      <c r="B762" s="140"/>
     </row>
     <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B763" s="2"/>
+      <c r="B763" s="140"/>
     </row>
     <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B764" s="2"/>
+      <c r="B764" s="140"/>
     </row>
     <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B765" s="2"/>
+      <c r="B765" s="140"/>
     </row>
     <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B766" s="2"/>
+      <c r="B766" s="140"/>
     </row>
     <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B767" s="2"/>
+      <c r="B767" s="140"/>
     </row>
     <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B768" s="2"/>
+      <c r="B768" s="140"/>
     </row>
     <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B769" s="2"/>
+      <c r="B769" s="140"/>
     </row>
     <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B770" s="2"/>
+      <c r="B770" s="140"/>
     </row>
     <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B771" s="2"/>
+      <c r="B771" s="140"/>
     </row>
     <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B772" s="2"/>
+      <c r="B772" s="140"/>
     </row>
     <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B773" s="2"/>
+      <c r="B773" s="140"/>
     </row>
     <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B774" s="2"/>
+      <c r="B774" s="140"/>
     </row>
     <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B775" s="2"/>
+      <c r="B775" s="140"/>
     </row>
     <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B776" s="2"/>
+      <c r="B776" s="140"/>
     </row>
     <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B777" s="2"/>
+      <c r="B777" s="140"/>
     </row>
     <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B778" s="2"/>
+      <c r="B778" s="140"/>
     </row>
     <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B779" s="2"/>
+      <c r="B779" s="140"/>
     </row>
     <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B780" s="2"/>
+      <c r="B780" s="140"/>
     </row>
     <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B781" s="2"/>
+      <c r="B781" s="140"/>
     </row>
     <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B782" s="2"/>
+      <c r="B782" s="140"/>
     </row>
     <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B783" s="2"/>
+      <c r="B783" s="140"/>
     </row>
     <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B784" s="2"/>
+      <c r="B784" s="140"/>
     </row>
     <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B785" s="2"/>
+      <c r="B785" s="140"/>
     </row>
     <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B786" s="2"/>
+      <c r="B786" s="140"/>
     </row>
     <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B787" s="2"/>
+      <c r="B787" s="140"/>
     </row>
     <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B788" s="2"/>
+      <c r="B788" s="140"/>
     </row>
     <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B789" s="2"/>
+      <c r="B789" s="140"/>
     </row>
     <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B790" s="2"/>
+      <c r="B790" s="140"/>
     </row>
     <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B791" s="2"/>
+      <c r="B791" s="140"/>
     </row>
     <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B792" s="2"/>
+      <c r="B792" s="140"/>
     </row>
     <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B793" s="2"/>
+      <c r="B793" s="140"/>
     </row>
     <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B794" s="2"/>
+      <c r="B794" s="140"/>
     </row>
     <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B795" s="2"/>
+      <c r="B795" s="140"/>
     </row>
     <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B796" s="2"/>
+      <c r="B796" s="140"/>
     </row>
     <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B797" s="2"/>
+      <c r="B797" s="140"/>
     </row>
     <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B798" s="2"/>
+      <c r="B798" s="140"/>
     </row>
     <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B799" s="2"/>
+      <c r="B799" s="140"/>
     </row>
     <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B800" s="2"/>
+      <c r="B800" s="140"/>
     </row>
     <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B801" s="2"/>
+      <c r="B801" s="140"/>
     </row>
     <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B802" s="2"/>
+      <c r="B802" s="140"/>
     </row>
     <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B803" s="2"/>
+      <c r="B803" s="140"/>
     </row>
     <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B804" s="2"/>
+      <c r="B804" s="140"/>
     </row>
     <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B805" s="2"/>
+      <c r="B805" s="140"/>
     </row>
     <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B806" s="2"/>
+      <c r="B806" s="140"/>
     </row>
     <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B807" s="2"/>
+      <c r="B807" s="140"/>
     </row>
     <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B808" s="2"/>
+      <c r="B808" s="140"/>
     </row>
     <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B809" s="2"/>
+      <c r="B809" s="140"/>
     </row>
     <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B810" s="2"/>
+      <c r="B810" s="140"/>
     </row>
     <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B811" s="2"/>
+      <c r="B811" s="140"/>
     </row>
     <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B812" s="2"/>
+      <c r="B812" s="140"/>
     </row>
     <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B813" s="2"/>
+      <c r="B813" s="140"/>
     </row>
     <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B814" s="2"/>
+      <c r="B814" s="140"/>
     </row>
     <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B815" s="2"/>
+      <c r="B815" s="140"/>
     </row>
     <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B816" s="2"/>
+      <c r="B816" s="140"/>
     </row>
     <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B817" s="2"/>
+      <c r="B817" s="140"/>
     </row>
     <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B818" s="2"/>
+      <c r="B818" s="140"/>
     </row>
     <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B819" s="2"/>
+      <c r="B819" s="140"/>
     </row>
     <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B820" s="2"/>
+      <c r="B820" s="140"/>
     </row>
     <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B821" s="2"/>
+      <c r="B821" s="140"/>
     </row>
     <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B822" s="2"/>
+      <c r="B822" s="140"/>
     </row>
     <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B823" s="2"/>
+      <c r="B823" s="140"/>
     </row>
     <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B824" s="2"/>
+      <c r="B824" s="140"/>
     </row>
     <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B825" s="2"/>
+      <c r="B825" s="140"/>
     </row>
     <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B826" s="2"/>
+      <c r="B826" s="140"/>
     </row>
     <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B827" s="2"/>
+      <c r="B827" s="140"/>
     </row>
     <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B828" s="2"/>
+      <c r="B828" s="140"/>
     </row>
     <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B829" s="2"/>
+      <c r="B829" s="140"/>
     </row>
     <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B830" s="2"/>
+      <c r="B830" s="140"/>
     </row>
     <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B831" s="2"/>
+      <c r="B831" s="140"/>
     </row>
     <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B832" s="2"/>
+      <c r="B832" s="140"/>
     </row>
     <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B833" s="2"/>
+      <c r="B833" s="140"/>
     </row>
     <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B834" s="2"/>
+      <c r="B834" s="140"/>
     </row>
     <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B835" s="2"/>
+      <c r="B835" s="140"/>
     </row>
     <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B836" s="2"/>
+      <c r="B836" s="140"/>
     </row>
     <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B837" s="2"/>
+      <c r="B837" s="140"/>
     </row>
     <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B838" s="2"/>
+      <c r="B838" s="140"/>
     </row>
     <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B839" s="2"/>
+      <c r="B839" s="140"/>
     </row>
     <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B840" s="2"/>
+      <c r="B840" s="140"/>
     </row>
     <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B841" s="2"/>
+      <c r="B841" s="140"/>
     </row>
     <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B842" s="2"/>
+      <c r="B842" s="140"/>
     </row>
     <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B843" s="2"/>
+      <c r="B843" s="140"/>
     </row>
     <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B844" s="2"/>
+      <c r="B844" s="140"/>
     </row>
     <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B845" s="2"/>
+      <c r="B845" s="140"/>
     </row>
     <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B846" s="2"/>
+      <c r="B846" s="140"/>
     </row>
     <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B847" s="2"/>
+      <c r="B847" s="140"/>
     </row>
     <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B848" s="2"/>
+      <c r="B848" s="140"/>
     </row>
     <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B849" s="2"/>
+      <c r="B849" s="140"/>
     </row>
     <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B850" s="2"/>
+      <c r="B850" s="140"/>
     </row>
     <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B851" s="2"/>
+      <c r="B851" s="140"/>
     </row>
     <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B852" s="2"/>
+      <c r="B852" s="140"/>
     </row>
     <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B853" s="2"/>
+      <c r="B853" s="140"/>
     </row>
     <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B854" s="2"/>
+      <c r="B854" s="140"/>
     </row>
     <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B855" s="2"/>
+      <c r="B855" s="140"/>
     </row>
     <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B856" s="2"/>
+      <c r="B856" s="140"/>
     </row>
     <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B857" s="2"/>
+      <c r="B857" s="140"/>
     </row>
     <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B858" s="2"/>
+      <c r="B858" s="140"/>
     </row>
     <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B859" s="2"/>
+      <c r="B859" s="140"/>
     </row>
     <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B860" s="2"/>
+      <c r="B860" s="140"/>
     </row>
     <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B861" s="2"/>
+      <c r="B861" s="140"/>
     </row>
     <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B862" s="2"/>
+      <c r="B862" s="140"/>
     </row>
     <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B863" s="2"/>
+      <c r="B863" s="140"/>
     </row>
     <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B864" s="2"/>
+      <c r="B864" s="140"/>
     </row>
     <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B865" s="2"/>
+      <c r="B865" s="140"/>
     </row>
     <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B866" s="2"/>
+      <c r="B866" s="140"/>
     </row>
     <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B867" s="2"/>
+      <c r="B867" s="140"/>
     </row>
     <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B868" s="2"/>
+      <c r="B868" s="140"/>
     </row>
     <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B869" s="2"/>
+      <c r="B869" s="140"/>
     </row>
     <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B870" s="2"/>
+      <c r="B870" s="140"/>
     </row>
     <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B871" s="2"/>
+      <c r="B871" s="140"/>
     </row>
     <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B872" s="2"/>
+      <c r="B872" s="140"/>
     </row>
     <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B873" s="2"/>
+      <c r="B873" s="140"/>
     </row>
     <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B874" s="2"/>
+      <c r="B874" s="140"/>
     </row>
     <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B875" s="2"/>
+      <c r="B875" s="140"/>
     </row>
     <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B876" s="2"/>
+      <c r="B876" s="140"/>
     </row>
     <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B877" s="2"/>
+      <c r="B877" s="140"/>
     </row>
     <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B878" s="2"/>
+      <c r="B878" s="140"/>
     </row>
     <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B879" s="2"/>
+      <c r="B879" s="140"/>
     </row>
     <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B880" s="2"/>
+      <c r="B880" s="140"/>
     </row>
     <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B881" s="2"/>
+      <c r="B881" s="140"/>
     </row>
     <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B882" s="2"/>
+      <c r="B882" s="140"/>
     </row>
     <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B883" s="2"/>
+      <c r="B883" s="140"/>
     </row>
     <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B884" s="2"/>
+      <c r="B884" s="140"/>
     </row>
     <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B885" s="2"/>
+      <c r="B885" s="140"/>
     </row>
     <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B886" s="2"/>
+      <c r="B886" s="140"/>
     </row>
     <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B887" s="2"/>
+      <c r="B887" s="140"/>
     </row>
     <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B888" s="2"/>
+      <c r="B888" s="140"/>
     </row>
     <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B889" s="2"/>
+      <c r="B889" s="140"/>
     </row>
     <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B890" s="2"/>
+      <c r="B890" s="140"/>
     </row>
     <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B891" s="2"/>
+      <c r="B891" s="140"/>
     </row>
     <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B892" s="2"/>
+      <c r="B892" s="140"/>
     </row>
     <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B893" s="2"/>
+      <c r="B893" s="140"/>
     </row>
     <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B894" s="2"/>
+      <c r="B894" s="140"/>
     </row>
     <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B895" s="2"/>
+      <c r="B895" s="140"/>
     </row>
     <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B896" s="2"/>
+      <c r="B896" s="140"/>
     </row>
     <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B897" s="2"/>
+      <c r="B897" s="140"/>
     </row>
     <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B898" s="2"/>
+      <c r="B898" s="140"/>
     </row>
     <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B899" s="2"/>
+      <c r="B899" s="140"/>
     </row>
     <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B900" s="2"/>
+      <c r="B900" s="140"/>
     </row>
     <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B901" s="2"/>
+      <c r="B901" s="140"/>
     </row>
     <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B902" s="2"/>
+      <c r="B902" s="140"/>
     </row>
     <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B903" s="2"/>
+      <c r="B903" s="140"/>
     </row>
     <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B904" s="2"/>
+      <c r="B904" s="140"/>
     </row>
     <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B905" s="2"/>
+      <c r="B905" s="140"/>
     </row>
     <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B906" s="2"/>
+      <c r="B906" s="140"/>
     </row>
     <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B907" s="2"/>
+      <c r="B907" s="140"/>
     </row>
     <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B908" s="2"/>
+      <c r="B908" s="140"/>
     </row>
     <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B909" s="2"/>
+      <c r="B909" s="140"/>
     </row>
     <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B910" s="2"/>
+      <c r="B910" s="140"/>
     </row>
     <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B911" s="2"/>
+      <c r="B911" s="140"/>
     </row>
     <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B912" s="2"/>
+      <c r="B912" s="140"/>
     </row>
     <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B913" s="2"/>
+      <c r="B913" s="140"/>
     </row>
     <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B914" s="2"/>
+      <c r="B914" s="140"/>
     </row>
     <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B915" s="2"/>
+      <c r="B915" s="140"/>
     </row>
     <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B916" s="2"/>
+      <c r="B916" s="140"/>
     </row>
     <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B917" s="2"/>
+      <c r="B917" s="140"/>
     </row>
     <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B918" s="2"/>
+      <c r="B918" s="140"/>
     </row>
     <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B919" s="2"/>
+      <c r="B919" s="140"/>
     </row>
     <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B920" s="2"/>
+      <c r="B920" s="140"/>
     </row>
     <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B921" s="2"/>
+      <c r="B921" s="140"/>
     </row>
     <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B922" s="2"/>
+      <c r="B922" s="140"/>
     </row>
     <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B923" s="2"/>
+      <c r="B923" s="140"/>
     </row>
     <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B924" s="2"/>
+      <c r="B924" s="140"/>
     </row>
     <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B925" s="2"/>
+      <c r="B925" s="140"/>
     </row>
     <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B926" s="2"/>
+      <c r="B926" s="140"/>
     </row>
     <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B927" s="2"/>
+      <c r="B927" s="140"/>
     </row>
     <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B928" s="2"/>
+      <c r="B928" s="140"/>
     </row>
     <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B929" s="2"/>
+      <c r="B929" s="140"/>
     </row>
     <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B930" s="2"/>
+      <c r="B930" s="140"/>
     </row>
     <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B931" s="2"/>
+      <c r="B931" s="140"/>
     </row>
     <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B932" s="2"/>
+      <c r="B932" s="140"/>
     </row>
     <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B933" s="2"/>
+      <c r="B933" s="140"/>
     </row>
     <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B934" s="2"/>
+      <c r="B934" s="140"/>
     </row>
     <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B935" s="2"/>
+      <c r="B935" s="140"/>
     </row>
     <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B936" s="2"/>
+      <c r="B936" s="140"/>
     </row>
     <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B937" s="2"/>
+      <c r="B937" s="140"/>
     </row>
     <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B938" s="2"/>
+      <c r="B938" s="140"/>
     </row>
     <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B939" s="2"/>
+      <c r="B939" s="140"/>
     </row>
     <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B940" s="2"/>
+      <c r="B940" s="140"/>
     </row>
     <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B941" s="2"/>
+      <c r="B941" s="140"/>
     </row>
     <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B942" s="2"/>
+      <c r="B942" s="140"/>
     </row>
     <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B943" s="2"/>
+      <c r="B943" s="140"/>
     </row>
     <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B944" s="2"/>
+      <c r="B944" s="140"/>
     </row>
     <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B945" s="2"/>
+      <c r="B945" s="140"/>
     </row>
     <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B946" s="2"/>
+      <c r="B946" s="140"/>
     </row>
     <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B947" s="2"/>
+      <c r="B947" s="140"/>
     </row>
     <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B948" s="2"/>
+      <c r="B948" s="140"/>
     </row>
     <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B949" s="2"/>
+      <c r="B949" s="140"/>
     </row>
     <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B950" s="2"/>
+      <c r="B950" s="140"/>
     </row>
     <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B951" s="2"/>
+      <c r="B951" s="140"/>
     </row>
     <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B952" s="2"/>
+      <c r="B952" s="140"/>
     </row>
     <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B953" s="2"/>
+      <c r="B953" s="140"/>
     </row>
     <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B954" s="2"/>
+      <c r="B954" s="140"/>
     </row>
     <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B955" s="2"/>
+      <c r="B955" s="140"/>
     </row>
     <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B956" s="2"/>
+      <c r="B956" s="140"/>
     </row>
     <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B957" s="2"/>
+      <c r="B957" s="140"/>
     </row>
     <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B958" s="2"/>
+      <c r="B958" s="140"/>
     </row>
     <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B959" s="2"/>
+      <c r="B959" s="140"/>
     </row>
     <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B960" s="2"/>
+      <c r="B960" s="140"/>
     </row>
     <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B961" s="2"/>
+      <c r="B961" s="140"/>
     </row>
     <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B962" s="2"/>
+      <c r="B962" s="140"/>
     </row>
     <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B963" s="2"/>
+      <c r="B963" s="140"/>
     </row>
     <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B964" s="2"/>
+      <c r="B964" s="140"/>
     </row>
     <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B965" s="2"/>
+      <c r="B965" s="140"/>
     </row>
     <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B966" s="2"/>
+      <c r="B966" s="140"/>
     </row>
     <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B967" s="2"/>
+      <c r="B967" s="140"/>
     </row>
     <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B968" s="2"/>
+      <c r="B968" s="140"/>
     </row>
     <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B969" s="2"/>
+      <c r="B969" s="140"/>
     </row>
     <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B970" s="2"/>
+      <c r="B970" s="140"/>
     </row>
     <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B971" s="2"/>
+      <c r="B971" s="140"/>
     </row>
     <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B972" s="2"/>
+      <c r="B972" s="140"/>
     </row>
     <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B973" s="2"/>
+      <c r="B973" s="140"/>
     </row>
     <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B974" s="2"/>
+      <c r="B974" s="140"/>
     </row>
     <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B975" s="2"/>
+      <c r="B975" s="140"/>
     </row>
     <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B976" s="2"/>
+      <c r="B976" s="140"/>
     </row>
     <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B977" s="2"/>
+      <c r="B977" s="140"/>
     </row>
     <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B978" s="2"/>
+      <c r="B978" s="140"/>
     </row>
     <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B979" s="2"/>
+      <c r="B979" s="140"/>
     </row>
     <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B980" s="2"/>
+      <c r="B980" s="140"/>
     </row>
     <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B981" s="2"/>
+      <c r="B981" s="140"/>
     </row>
     <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B982" s="2"/>
+      <c r="B982" s="140"/>
     </row>
     <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B983" s="2"/>
+      <c r="B983" s="140"/>
     </row>
     <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B984" s="2"/>
+      <c r="B984" s="140"/>
     </row>
     <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B985" s="2"/>
+      <c r="B985" s="140"/>
     </row>
     <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B986" s="2"/>
+      <c r="B986" s="140"/>
     </row>
     <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B987" s="2"/>
+      <c r="B987" s="140"/>
     </row>
     <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B988" s="2"/>
+      <c r="B988" s="140"/>
     </row>
     <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B989" s="2"/>
+      <c r="B989" s="140"/>
     </row>
     <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B990" s="2"/>
+      <c r="B990" s="140"/>
     </row>
     <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B991" s="2"/>
+      <c r="B991" s="140"/>
     </row>
     <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B992" s="2"/>
+      <c r="B992" s="140"/>
     </row>
     <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B993" s="2"/>
+      <c r="B993" s="140"/>
     </row>
     <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B994" s="2"/>
+      <c r="B994" s="140"/>
     </row>
     <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B995" s="2"/>
+      <c r="B995" s="140"/>
     </row>
     <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B996" s="2"/>
+      <c r="B996" s="140"/>
     </row>
     <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B997" s="2"/>
+      <c r="B997" s="140"/>
     </row>
     <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B998" s="2"/>
+      <c r="B998" s="140"/>
     </row>
     <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B999" s="2"/>
+      <c r="B999" s="140"/>
     </row>
     <row r="1000" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1000" s="2"/>
+      <c r="B1000" s="140"/>
     </row>
     <row r="1001" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1001" s="2"/>
+      <c r="B1001" s="140"/>
     </row>
     <row r="1002" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1002" s="2"/>
+      <c r="B1002" s="140"/>
     </row>
     <row r="1003" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1003" s="2"/>
+      <c r="B1003" s="140"/>
     </row>
     <row r="1004" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1004" s="2"/>
+      <c r="B1004" s="140"/>
     </row>
     <row r="1005" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1005" s="2"/>
+      <c r="B1005" s="140"/>
     </row>
     <row r="1006" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1006" s="2"/>
+      <c r="B1006" s="140"/>
     </row>
     <row r="1007" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1007" s="2"/>
+      <c r="B1007" s="140"/>
     </row>
     <row r="1008" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1008" s="2"/>
+      <c r="B1008" s="140"/>
     </row>
     <row r="1009" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1009" s="2"/>
+      <c r="B1009" s="140"/>
     </row>
     <row r="1010" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1010" s="2"/>
+      <c r="B1010" s="140"/>
     </row>
     <row r="1011" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1011" s="2"/>
+      <c r="B1011" s="140"/>
     </row>
     <row r="1012" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1012" s="2"/>
+      <c r="B1012" s="140"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H28" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <mergeCells count="12">
+  <mergeCells count="36">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="H4:H7"/>
@@ -7777,6 +8231,10 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="H14:H15"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7785,10 +8243,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF99FF99"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7798,58 +8259,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="72" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="74" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="74" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="74" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="74" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="74" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7886,74 +8347,74 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="54" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="54" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="55" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8959,161 +9420,161 @@
     <col min="1" max="1" width="28.5546875" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="50.109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" style="45" customWidth="1"/>
     <col min="5" max="26" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="56" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="56" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="56" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="56" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="56" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="56" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="56" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="56" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="56" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="56" t="s">
         <v>93</v>
       </c>
     </row>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c95b7b4a9a622975/Dokumentumok/GitHub/jht52_squash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF05C536-F49C-433E-9C4D-DF4EF33A2C87}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D5FD43F-F139-4D54-916A-A2008F27720A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,9 +1400,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,56 +1425,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1488,67 +1440,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1583,39 +1484,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1625,29 +1502,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1668,27 +1524,147 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1701,40 +1677,73 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1746,13 +1755,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FF996633"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FF009900"/>
       <color rgb="FF0066FF"/>
       <color rgb="FF00FFFF"/>
       <color rgb="FFCC0099"/>
-      <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3232,10 +3241,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -3487,10 +3492,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="108" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3506,8 +3511,8 @@
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="63"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="109"/>
       <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
@@ -3521,8 +3526,8 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="63"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="109"/>
       <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
@@ -3536,8 +3541,8 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="64"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
@@ -3551,8 +3556,8 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="64"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="110"/>
       <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
@@ -3566,8 +3571,8 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="60"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
@@ -3581,7 +3586,7 @@
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="60"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3592,8 +3597,8 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="112" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -3609,8 +3614,8 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
@@ -3624,8 +3629,8 @@
       <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
@@ -3639,8 +3644,8 @@
       <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="60"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="29" t="s">
         <v>34</v>
       </c>
@@ -3654,7 +3659,7 @@
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="60"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="32"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -3665,8 +3670,8 @@
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="115" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="33" t="s">
@@ -3682,8 +3687,8 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
-      <c r="B15" s="70"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="36" t="s">
         <v>36</v>
       </c>
@@ -3699,8 +3704,8 @@
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
-      <c r="B16" s="70"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="36" t="s">
         <v>37</v>
       </c>
@@ -3716,8 +3721,8 @@
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="70"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="36" t="s">
         <v>38</v>
       </c>
@@ -3731,8 +3736,8 @@
       <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
-      <c r="B18" s="70"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="36" t="s">
         <v>39</v>
       </c>
@@ -3746,8 +3751,8 @@
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="40" t="s">
         <v>40</v>
       </c>
@@ -3763,8 +3768,8 @@
       <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="42" t="s">
         <v>41</v>
       </c>
@@ -4755,14 +4760,14 @@
   <dimension ref="A1:H1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="141" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="93" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" style="45" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" style="45" customWidth="1"/>
@@ -4773,3452 +4778,3432 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="71" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="63" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="106"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="152" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="153" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="150" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="146"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="166" t="s">
+      <c r="A5" s="154"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="85"/>
+      <c r="H5" s="160"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="146"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="149" t="s">
+      <c r="A6" s="154"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="H6" s="160"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="147"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="159" t="s">
+      <c r="A7" s="162"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="89"/>
+      <c r="H7" s="151"/>
     </row>
     <row r="8" spans="1:8" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="107"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="108"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="167" t="s">
+      <c r="A9" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="150" t="s">
+      <c r="F9" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="78" t="s">
+      <c r="G9" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="63" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="108"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="120" t="s">
+      <c r="E11" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="151" t="s">
+      <c r="F11" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="150" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="153"/>
-      <c r="B12" s="135"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="144" t="s">
+      <c r="A12" s="145"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="126"/>
+      <c r="H12" s="151"/>
     </row>
     <row r="13" spans="1:8" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="109"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="108"/>
-    </row>
-    <row r="14" spans="1:8" s="58" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="154" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="75"/>
+    </row>
+    <row r="14" spans="1:8" s="57" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="157" t="s">
+      <c r="F14" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="93" t="s">
+      <c r="G14" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="94" t="s">
+      <c r="H14" s="148" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="58" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="155"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="143" t="s">
+    <row r="15" spans="1:8" s="57" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="147"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="98" t="s">
+      <c r="G15" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="99"/>
+      <c r="H15" s="149"/>
     </row>
     <row r="16" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="108"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="128" t="s">
+      <c r="B17" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="142" t="s">
+      <c r="F17" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="78" t="s">
+      <c r="G17" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="79" t="s">
+      <c r="H17" s="63" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="110"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="113"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="80"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="114"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="115"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="82"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="110"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="113"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="81" t="s">
+      <c r="D21" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="162" t="s">
+      <c r="F21" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="83" t="s">
+      <c r="G21" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="84" t="s">
+      <c r="H21" s="142" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="161"/>
-      <c r="B22" s="132"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="158" t="s">
+      <c r="A22" s="139"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="88" t="s">
+      <c r="G22" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="89"/>
+      <c r="H22" s="143"/>
     </row>
     <row r="23" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="109"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="108"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="164" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="162" t="s">
+      <c r="F24" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="100" t="s">
+      <c r="G24" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="116" t="s">
+      <c r="H24" s="167" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="161"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="158" t="s">
+      <c r="A25" s="168"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="101" t="s">
+      <c r="G25" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="117"/>
+      <c r="H25" s="170"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="109"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="108"/>
-    </row>
-    <row r="27" spans="1:8" s="58" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="163" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" s="57" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="136" t="s">
+      <c r="B27" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="90" t="s">
+      <c r="D27" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="92" t="s">
+      <c r="E27" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="165" t="s">
+      <c r="F27" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="94" t="s">
+      <c r="H27" s="148" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="58" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="164"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="158" t="s">
+    <row r="28" spans="1:8" s="57" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="141"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="99"/>
+      <c r="H28" s="149"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="140"/>
+      <c r="B29" s="92"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="140"/>
+      <c r="B30" s="92"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="140"/>
+      <c r="B31" s="92"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="140"/>
+      <c r="B32" s="92"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="140"/>
+      <c r="B33" s="92"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="140"/>
+      <c r="B34" s="92"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="140"/>
+      <c r="B35" s="92"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="140"/>
+      <c r="B36" s="92"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="140"/>
+      <c r="B37" s="92"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="140"/>
+      <c r="B38" s="92"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="140"/>
+      <c r="B39" s="92"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="140"/>
+      <c r="B40" s="92"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="140"/>
+      <c r="B41" s="92"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="140"/>
+      <c r="B42" s="92"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="140"/>
+      <c r="B43" s="92"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="140"/>
+      <c r="B44" s="92"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="140"/>
+      <c r="B45" s="92"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="140"/>
+      <c r="B46" s="92"/>
     </row>
     <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="140"/>
+      <c r="B47" s="92"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="140"/>
+      <c r="B48" s="92"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="140"/>
+      <c r="B49" s="92"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="140"/>
+      <c r="B50" s="92"/>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="140"/>
+      <c r="B51" s="92"/>
     </row>
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="140"/>
+      <c r="B52" s="92"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="140"/>
+      <c r="B53" s="92"/>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="140"/>
+      <c r="B54" s="92"/>
     </row>
     <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="140"/>
+      <c r="B55" s="92"/>
     </row>
     <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="140"/>
+      <c r="B56" s="92"/>
     </row>
     <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="140"/>
+      <c r="B57" s="92"/>
     </row>
     <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="140"/>
+      <c r="B58" s="92"/>
     </row>
     <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="140"/>
+      <c r="B59" s="92"/>
     </row>
     <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="140"/>
+      <c r="B60" s="92"/>
     </row>
     <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="140"/>
+      <c r="B61" s="92"/>
     </row>
     <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="140"/>
+      <c r="B62" s="92"/>
     </row>
     <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="140"/>
+      <c r="B63" s="92"/>
     </row>
     <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="140"/>
+      <c r="B64" s="92"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="140"/>
+      <c r="B65" s="92"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="140"/>
+      <c r="B66" s="92"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="140"/>
+      <c r="B67" s="92"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="140"/>
+      <c r="B68" s="92"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="140"/>
+      <c r="B69" s="92"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="140"/>
+      <c r="B70" s="92"/>
     </row>
     <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="140"/>
+      <c r="B71" s="92"/>
     </row>
     <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="140"/>
+      <c r="B72" s="92"/>
     </row>
     <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="140"/>
+      <c r="B73" s="92"/>
     </row>
     <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="140"/>
+      <c r="B74" s="92"/>
     </row>
     <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="140"/>
+      <c r="B75" s="92"/>
     </row>
     <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="140"/>
+      <c r="B76" s="92"/>
     </row>
     <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="140"/>
+      <c r="B77" s="92"/>
     </row>
     <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="140"/>
+      <c r="B78" s="92"/>
     </row>
     <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="140"/>
+      <c r="B79" s="92"/>
     </row>
     <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="140"/>
+      <c r="B80" s="92"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="140"/>
+      <c r="B81" s="92"/>
     </row>
     <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="140"/>
+      <c r="B82" s="92"/>
     </row>
     <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="140"/>
+      <c r="B83" s="92"/>
     </row>
     <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="140"/>
+      <c r="B84" s="92"/>
     </row>
     <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="140"/>
+      <c r="B85" s="92"/>
     </row>
     <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="140"/>
+      <c r="B86" s="92"/>
     </row>
     <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="140"/>
+      <c r="B87" s="92"/>
     </row>
     <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="140"/>
+      <c r="B88" s="92"/>
     </row>
     <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="140"/>
+      <c r="B89" s="92"/>
     </row>
     <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="140"/>
+      <c r="B90" s="92"/>
     </row>
     <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="140"/>
+      <c r="B91" s="92"/>
     </row>
     <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="140"/>
+      <c r="B92" s="92"/>
     </row>
     <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="140"/>
+      <c r="B93" s="92"/>
     </row>
     <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="140"/>
+      <c r="B94" s="92"/>
     </row>
     <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="140"/>
+      <c r="B95" s="92"/>
     </row>
     <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="140"/>
+      <c r="B96" s="92"/>
     </row>
     <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="140"/>
+      <c r="B97" s="92"/>
     </row>
     <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="140"/>
+      <c r="B98" s="92"/>
     </row>
     <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="140"/>
+      <c r="B99" s="92"/>
     </row>
     <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="140"/>
+      <c r="B100" s="92"/>
     </row>
     <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="140"/>
+      <c r="B101" s="92"/>
     </row>
     <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="140"/>
+      <c r="B102" s="92"/>
     </row>
     <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="140"/>
+      <c r="B103" s="92"/>
     </row>
     <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="140"/>
+      <c r="B104" s="92"/>
     </row>
     <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="140"/>
+      <c r="B105" s="92"/>
     </row>
     <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="140"/>
+      <c r="B106" s="92"/>
     </row>
     <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="140"/>
+      <c r="B107" s="92"/>
     </row>
     <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="140"/>
+      <c r="B108" s="92"/>
     </row>
     <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="140"/>
+      <c r="B109" s="92"/>
     </row>
     <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="140"/>
+      <c r="B110" s="92"/>
     </row>
     <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="140"/>
+      <c r="B111" s="92"/>
     </row>
     <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="140"/>
+      <c r="B112" s="92"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="140"/>
+      <c r="B113" s="92"/>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="140"/>
+      <c r="B114" s="92"/>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="140"/>
+      <c r="B115" s="92"/>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="140"/>
+      <c r="B116" s="92"/>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="140"/>
+      <c r="B117" s="92"/>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="140"/>
+      <c r="B118" s="92"/>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="140"/>
+      <c r="B119" s="92"/>
     </row>
     <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="140"/>
+      <c r="B120" s="92"/>
     </row>
     <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="140"/>
+      <c r="B121" s="92"/>
     </row>
     <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="140"/>
+      <c r="B122" s="92"/>
     </row>
     <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="140"/>
+      <c r="B123" s="92"/>
     </row>
     <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="140"/>
+      <c r="B124" s="92"/>
     </row>
     <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="140"/>
+      <c r="B125" s="92"/>
     </row>
     <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="140"/>
+      <c r="B126" s="92"/>
     </row>
     <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="140"/>
+      <c r="B127" s="92"/>
     </row>
     <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="140"/>
+      <c r="B128" s="92"/>
     </row>
     <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="140"/>
+      <c r="B129" s="92"/>
     </row>
     <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="140"/>
+      <c r="B130" s="92"/>
     </row>
     <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="140"/>
+      <c r="B131" s="92"/>
     </row>
     <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="140"/>
+      <c r="B132" s="92"/>
     </row>
     <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="140"/>
+      <c r="B133" s="92"/>
     </row>
     <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="140"/>
+      <c r="B134" s="92"/>
     </row>
     <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="140"/>
+      <c r="B135" s="92"/>
     </row>
     <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="140"/>
+      <c r="B136" s="92"/>
     </row>
     <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="140"/>
+      <c r="B137" s="92"/>
     </row>
     <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="140"/>
+      <c r="B138" s="92"/>
     </row>
     <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="140"/>
+      <c r="B139" s="92"/>
     </row>
     <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="140"/>
+      <c r="B140" s="92"/>
     </row>
     <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="140"/>
+      <c r="B141" s="92"/>
     </row>
     <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="140"/>
+      <c r="B142" s="92"/>
     </row>
     <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="140"/>
+      <c r="B143" s="92"/>
     </row>
     <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="140"/>
+      <c r="B144" s="92"/>
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="140"/>
+      <c r="B145" s="92"/>
     </row>
     <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="140"/>
+      <c r="B146" s="92"/>
     </row>
     <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="140"/>
+      <c r="B147" s="92"/>
     </row>
     <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="140"/>
+      <c r="B148" s="92"/>
     </row>
     <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="140"/>
+      <c r="B149" s="92"/>
     </row>
     <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="140"/>
+      <c r="B150" s="92"/>
     </row>
     <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="140"/>
+      <c r="B151" s="92"/>
     </row>
     <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="140"/>
+      <c r="B152" s="92"/>
     </row>
     <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="140"/>
+      <c r="B153" s="92"/>
     </row>
     <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="140"/>
+      <c r="B154" s="92"/>
     </row>
     <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="140"/>
+      <c r="B155" s="92"/>
     </row>
     <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="140"/>
+      <c r="B156" s="92"/>
     </row>
     <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="140"/>
+      <c r="B157" s="92"/>
     </row>
     <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="140"/>
+      <c r="B158" s="92"/>
     </row>
     <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="140"/>
+      <c r="B159" s="92"/>
     </row>
     <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="140"/>
+      <c r="B160" s="92"/>
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="140"/>
+      <c r="B161" s="92"/>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="140"/>
+      <c r="B162" s="92"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="140"/>
+      <c r="B163" s="92"/>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="140"/>
+      <c r="B164" s="92"/>
     </row>
     <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="140"/>
+      <c r="B165" s="92"/>
     </row>
     <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="140"/>
+      <c r="B166" s="92"/>
     </row>
     <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="140"/>
+      <c r="B167" s="92"/>
     </row>
     <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="140"/>
+      <c r="B168" s="92"/>
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="140"/>
+      <c r="B169" s="92"/>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="140"/>
+      <c r="B170" s="92"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="140"/>
+      <c r="B171" s="92"/>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="140"/>
+      <c r="B172" s="92"/>
     </row>
     <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="140"/>
+      <c r="B173" s="92"/>
     </row>
     <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="140"/>
+      <c r="B174" s="92"/>
     </row>
     <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="140"/>
+      <c r="B175" s="92"/>
     </row>
     <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="140"/>
+      <c r="B176" s="92"/>
     </row>
     <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="140"/>
+      <c r="B177" s="92"/>
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="140"/>
+      <c r="B178" s="92"/>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="140"/>
+      <c r="B179" s="92"/>
     </row>
     <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="140"/>
+      <c r="B180" s="92"/>
     </row>
     <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="140"/>
+      <c r="B181" s="92"/>
     </row>
     <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="140"/>
+      <c r="B182" s="92"/>
     </row>
     <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="140"/>
+      <c r="B183" s="92"/>
     </row>
     <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="140"/>
+      <c r="B184" s="92"/>
     </row>
     <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="140"/>
+      <c r="B185" s="92"/>
     </row>
     <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="140"/>
+      <c r="B186" s="92"/>
     </row>
     <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="140"/>
+      <c r="B187" s="92"/>
     </row>
     <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="140"/>
+      <c r="B188" s="92"/>
     </row>
     <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="140"/>
+      <c r="B189" s="92"/>
     </row>
     <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="140"/>
+      <c r="B190" s="92"/>
     </row>
     <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="140"/>
+      <c r="B191" s="92"/>
     </row>
     <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="140"/>
+      <c r="B192" s="92"/>
     </row>
     <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="140"/>
+      <c r="B193" s="92"/>
     </row>
     <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="140"/>
+      <c r="B194" s="92"/>
     </row>
     <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="140"/>
+      <c r="B195" s="92"/>
     </row>
     <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="140"/>
+      <c r="B196" s="92"/>
     </row>
     <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="140"/>
+      <c r="B197" s="92"/>
     </row>
     <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="140"/>
+      <c r="B198" s="92"/>
     </row>
     <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="140"/>
+      <c r="B199" s="92"/>
     </row>
     <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="140"/>
+      <c r="B200" s="92"/>
     </row>
     <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="140"/>
+      <c r="B201" s="92"/>
     </row>
     <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="140"/>
+      <c r="B202" s="92"/>
     </row>
     <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="140"/>
+      <c r="B203" s="92"/>
     </row>
     <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="140"/>
+      <c r="B204" s="92"/>
     </row>
     <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="140"/>
+      <c r="B205" s="92"/>
     </row>
     <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="140"/>
+      <c r="B206" s="92"/>
     </row>
     <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="140"/>
+      <c r="B207" s="92"/>
     </row>
     <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="140"/>
+      <c r="B208" s="92"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="140"/>
+      <c r="B209" s="92"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="140"/>
+      <c r="B210" s="92"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="140"/>
+      <c r="B211" s="92"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="140"/>
+      <c r="B212" s="92"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="140"/>
+      <c r="B213" s="92"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="140"/>
+      <c r="B214" s="92"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="140"/>
+      <c r="B215" s="92"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="140"/>
+      <c r="B216" s="92"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="140"/>
+      <c r="B217" s="92"/>
     </row>
     <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="140"/>
+      <c r="B218" s="92"/>
     </row>
     <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="140"/>
+      <c r="B219" s="92"/>
     </row>
     <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="140"/>
+      <c r="B220" s="92"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="140"/>
+      <c r="B221" s="92"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="140"/>
+      <c r="B222" s="92"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="140"/>
+      <c r="B223" s="92"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="140"/>
+      <c r="B224" s="92"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="140"/>
+      <c r="B225" s="92"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="140"/>
+      <c r="B226" s="92"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="140"/>
+      <c r="B227" s="92"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="140"/>
+      <c r="B228" s="92"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="140"/>
+      <c r="B229" s="92"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="140"/>
+      <c r="B230" s="92"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="140"/>
+      <c r="B231" s="92"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="140"/>
+      <c r="B232" s="92"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="140"/>
+      <c r="B233" s="92"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="140"/>
+      <c r="B234" s="92"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="140"/>
+      <c r="B235" s="92"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="140"/>
+      <c r="B236" s="92"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="140"/>
+      <c r="B237" s="92"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="140"/>
+      <c r="B238" s="92"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="140"/>
+      <c r="B239" s="92"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="140"/>
+      <c r="B240" s="92"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="140"/>
+      <c r="B241" s="92"/>
     </row>
     <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="140"/>
+      <c r="B242" s="92"/>
     </row>
     <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="140"/>
+      <c r="B243" s="92"/>
     </row>
     <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="140"/>
+      <c r="B244" s="92"/>
     </row>
     <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="140"/>
+      <c r="B245" s="92"/>
     </row>
     <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="140"/>
+      <c r="B246" s="92"/>
     </row>
     <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="140"/>
+      <c r="B247" s="92"/>
     </row>
     <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="140"/>
+      <c r="B248" s="92"/>
     </row>
     <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="140"/>
+      <c r="B249" s="92"/>
     </row>
     <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="140"/>
+      <c r="B250" s="92"/>
     </row>
     <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="140"/>
+      <c r="B251" s="92"/>
     </row>
     <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="140"/>
+      <c r="B252" s="92"/>
     </row>
     <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="140"/>
+      <c r="B253" s="92"/>
     </row>
     <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="140"/>
+      <c r="B254" s="92"/>
     </row>
     <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="140"/>
+      <c r="B255" s="92"/>
     </row>
     <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="140"/>
+      <c r="B256" s="92"/>
     </row>
     <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="140"/>
+      <c r="B257" s="92"/>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="140"/>
+      <c r="B258" s="92"/>
     </row>
     <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="140"/>
+      <c r="B259" s="92"/>
     </row>
     <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="140"/>
+      <c r="B260" s="92"/>
     </row>
     <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="140"/>
+      <c r="B261" s="92"/>
     </row>
     <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="140"/>
+      <c r="B262" s="92"/>
     </row>
     <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="140"/>
+      <c r="B263" s="92"/>
     </row>
     <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="140"/>
+      <c r="B264" s="92"/>
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="140"/>
+      <c r="B265" s="92"/>
     </row>
     <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="140"/>
+      <c r="B266" s="92"/>
     </row>
     <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="140"/>
+      <c r="B267" s="92"/>
     </row>
     <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="140"/>
+      <c r="B268" s="92"/>
     </row>
     <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="140"/>
+      <c r="B269" s="92"/>
     </row>
     <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="140"/>
+      <c r="B270" s="92"/>
     </row>
     <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="140"/>
+      <c r="B271" s="92"/>
     </row>
     <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="140"/>
+      <c r="B272" s="92"/>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="140"/>
+      <c r="B273" s="92"/>
     </row>
     <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="140"/>
+      <c r="B274" s="92"/>
     </row>
     <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="140"/>
+      <c r="B275" s="92"/>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="140"/>
+      <c r="B276" s="92"/>
     </row>
     <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="140"/>
+      <c r="B277" s="92"/>
     </row>
     <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="140"/>
+      <c r="B278" s="92"/>
     </row>
     <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="140"/>
+      <c r="B279" s="92"/>
     </row>
     <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="140"/>
+      <c r="B280" s="92"/>
     </row>
     <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="140"/>
+      <c r="B281" s="92"/>
     </row>
     <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="140"/>
+      <c r="B282" s="92"/>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="140"/>
+      <c r="B283" s="92"/>
     </row>
     <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="140"/>
+      <c r="B284" s="92"/>
     </row>
     <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="140"/>
+      <c r="B285" s="92"/>
     </row>
     <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="140"/>
+      <c r="B286" s="92"/>
     </row>
     <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="140"/>
+      <c r="B287" s="92"/>
     </row>
     <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="140"/>
+      <c r="B288" s="92"/>
     </row>
     <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="140"/>
+      <c r="B289" s="92"/>
     </row>
     <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B290" s="140"/>
+      <c r="B290" s="92"/>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="140"/>
+      <c r="B291" s="92"/>
     </row>
     <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="140"/>
+      <c r="B292" s="92"/>
     </row>
     <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="140"/>
+      <c r="B293" s="92"/>
     </row>
     <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="140"/>
+      <c r="B294" s="92"/>
     </row>
     <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="140"/>
+      <c r="B295" s="92"/>
     </row>
     <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="140"/>
+      <c r="B296" s="92"/>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="140"/>
+      <c r="B297" s="92"/>
     </row>
     <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="140"/>
+      <c r="B298" s="92"/>
     </row>
     <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="140"/>
+      <c r="B299" s="92"/>
     </row>
     <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B300" s="140"/>
+      <c r="B300" s="92"/>
     </row>
     <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="140"/>
+      <c r="B301" s="92"/>
     </row>
     <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B302" s="140"/>
+      <c r="B302" s="92"/>
     </row>
     <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="140"/>
+      <c r="B303" s="92"/>
     </row>
     <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B304" s="140"/>
+      <c r="B304" s="92"/>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B305" s="140"/>
+      <c r="B305" s="92"/>
     </row>
     <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="140"/>
+      <c r="B306" s="92"/>
     </row>
     <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B307" s="140"/>
+      <c r="B307" s="92"/>
     </row>
     <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B308" s="140"/>
+      <c r="B308" s="92"/>
     </row>
     <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B309" s="140"/>
+      <c r="B309" s="92"/>
     </row>
     <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="140"/>
+      <c r="B310" s="92"/>
     </row>
     <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B311" s="140"/>
+      <c r="B311" s="92"/>
     </row>
     <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="140"/>
+      <c r="B312" s="92"/>
     </row>
     <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B313" s="140"/>
+      <c r="B313" s="92"/>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B314" s="140"/>
+      <c r="B314" s="92"/>
     </row>
     <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B315" s="140"/>
+      <c r="B315" s="92"/>
     </row>
     <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B316" s="140"/>
+      <c r="B316" s="92"/>
     </row>
     <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B317" s="140"/>
+      <c r="B317" s="92"/>
     </row>
     <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="140"/>
+      <c r="B318" s="92"/>
     </row>
     <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B319" s="140"/>
+      <c r="B319" s="92"/>
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B320" s="140"/>
+      <c r="B320" s="92"/>
     </row>
     <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B321" s="140"/>
+      <c r="B321" s="92"/>
     </row>
     <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B322" s="140"/>
+      <c r="B322" s="92"/>
     </row>
     <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B323" s="140"/>
+      <c r="B323" s="92"/>
     </row>
     <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B324" s="140"/>
+      <c r="B324" s="92"/>
     </row>
     <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B325" s="140"/>
+      <c r="B325" s="92"/>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B326" s="140"/>
+      <c r="B326" s="92"/>
     </row>
     <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B327" s="140"/>
+      <c r="B327" s="92"/>
     </row>
     <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B328" s="140"/>
+      <c r="B328" s="92"/>
     </row>
     <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B329" s="140"/>
+      <c r="B329" s="92"/>
     </row>
     <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="140"/>
+      <c r="B330" s="92"/>
     </row>
     <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="140"/>
+      <c r="B331" s="92"/>
     </row>
     <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B332" s="140"/>
+      <c r="B332" s="92"/>
     </row>
     <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B333" s="140"/>
+      <c r="B333" s="92"/>
     </row>
     <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B334" s="140"/>
+      <c r="B334" s="92"/>
     </row>
     <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B335" s="140"/>
+      <c r="B335" s="92"/>
     </row>
     <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B336" s="140"/>
+      <c r="B336" s="92"/>
     </row>
     <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B337" s="140"/>
+      <c r="B337" s="92"/>
     </row>
     <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B338" s="140"/>
+      <c r="B338" s="92"/>
     </row>
     <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B339" s="140"/>
+      <c r="B339" s="92"/>
     </row>
     <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B340" s="140"/>
+      <c r="B340" s="92"/>
     </row>
     <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B341" s="140"/>
+      <c r="B341" s="92"/>
     </row>
     <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B342" s="140"/>
+      <c r="B342" s="92"/>
     </row>
     <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B343" s="140"/>
+      <c r="B343" s="92"/>
     </row>
     <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B344" s="140"/>
+      <c r="B344" s="92"/>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B345" s="140"/>
+      <c r="B345" s="92"/>
     </row>
     <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B346" s="140"/>
+      <c r="B346" s="92"/>
     </row>
     <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B347" s="140"/>
+      <c r="B347" s="92"/>
     </row>
     <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="140"/>
+      <c r="B348" s="92"/>
     </row>
     <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B349" s="140"/>
+      <c r="B349" s="92"/>
     </row>
     <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B350" s="140"/>
+      <c r="B350" s="92"/>
     </row>
     <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B351" s="140"/>
+      <c r="B351" s="92"/>
     </row>
     <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B352" s="140"/>
+      <c r="B352" s="92"/>
     </row>
     <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B353" s="140"/>
+      <c r="B353" s="92"/>
     </row>
     <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B354" s="140"/>
+      <c r="B354" s="92"/>
     </row>
     <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B355" s="140"/>
+      <c r="B355" s="92"/>
     </row>
     <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="140"/>
+      <c r="B356" s="92"/>
     </row>
     <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B357" s="140"/>
+      <c r="B357" s="92"/>
     </row>
     <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="140"/>
+      <c r="B358" s="92"/>
     </row>
     <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="140"/>
+      <c r="B359" s="92"/>
     </row>
     <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B360" s="140"/>
+      <c r="B360" s="92"/>
     </row>
     <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B361" s="140"/>
+      <c r="B361" s="92"/>
     </row>
     <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="140"/>
+      <c r="B362" s="92"/>
     </row>
     <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="140"/>
+      <c r="B363" s="92"/>
     </row>
     <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="140"/>
+      <c r="B364" s="92"/>
     </row>
     <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B365" s="140"/>
+      <c r="B365" s="92"/>
     </row>
     <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="140"/>
+      <c r="B366" s="92"/>
     </row>
     <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="140"/>
+      <c r="B367" s="92"/>
     </row>
     <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="140"/>
+      <c r="B368" s="92"/>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="140"/>
+      <c r="B369" s="92"/>
     </row>
     <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="140"/>
+      <c r="B370" s="92"/>
     </row>
     <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B371" s="140"/>
+      <c r="B371" s="92"/>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="140"/>
+      <c r="B372" s="92"/>
     </row>
     <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="140"/>
+      <c r="B373" s="92"/>
     </row>
     <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B374" s="140"/>
+      <c r="B374" s="92"/>
     </row>
     <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B375" s="140"/>
+      <c r="B375" s="92"/>
     </row>
     <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B376" s="140"/>
+      <c r="B376" s="92"/>
     </row>
     <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B377" s="140"/>
+      <c r="B377" s="92"/>
     </row>
     <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B378" s="140"/>
+      <c r="B378" s="92"/>
     </row>
     <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B379" s="140"/>
+      <c r="B379" s="92"/>
     </row>
     <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B380" s="140"/>
+      <c r="B380" s="92"/>
     </row>
     <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B381" s="140"/>
+      <c r="B381" s="92"/>
     </row>
     <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B382" s="140"/>
+      <c r="B382" s="92"/>
     </row>
     <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B383" s="140"/>
+      <c r="B383" s="92"/>
     </row>
     <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B384" s="140"/>
+      <c r="B384" s="92"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B385" s="140"/>
+      <c r="B385" s="92"/>
     </row>
     <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B386" s="140"/>
+      <c r="B386" s="92"/>
     </row>
     <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B387" s="140"/>
+      <c r="B387" s="92"/>
     </row>
     <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B388" s="140"/>
+      <c r="B388" s="92"/>
     </row>
     <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B389" s="140"/>
+      <c r="B389" s="92"/>
     </row>
     <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="140"/>
+      <c r="B390" s="92"/>
     </row>
     <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B391" s="140"/>
+      <c r="B391" s="92"/>
     </row>
     <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B392" s="140"/>
+      <c r="B392" s="92"/>
     </row>
     <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B393" s="140"/>
+      <c r="B393" s="92"/>
     </row>
     <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B394" s="140"/>
+      <c r="B394" s="92"/>
     </row>
     <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B395" s="140"/>
+      <c r="B395" s="92"/>
     </row>
     <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B396" s="140"/>
+      <c r="B396" s="92"/>
     </row>
     <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="140"/>
+      <c r="B397" s="92"/>
     </row>
     <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B398" s="140"/>
+      <c r="B398" s="92"/>
     </row>
     <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B399" s="140"/>
+      <c r="B399" s="92"/>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B400" s="140"/>
+      <c r="B400" s="92"/>
     </row>
     <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B401" s="140"/>
+      <c r="B401" s="92"/>
     </row>
     <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B402" s="140"/>
+      <c r="B402" s="92"/>
     </row>
     <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B403" s="140"/>
+      <c r="B403" s="92"/>
     </row>
     <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B404" s="140"/>
+      <c r="B404" s="92"/>
     </row>
     <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B405" s="140"/>
+      <c r="B405" s="92"/>
     </row>
     <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B406" s="140"/>
+      <c r="B406" s="92"/>
     </row>
     <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B407" s="140"/>
+      <c r="B407" s="92"/>
     </row>
     <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B408" s="140"/>
+      <c r="B408" s="92"/>
     </row>
     <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B409" s="140"/>
+      <c r="B409" s="92"/>
     </row>
     <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B410" s="140"/>
+      <c r="B410" s="92"/>
     </row>
     <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B411" s="140"/>
+      <c r="B411" s="92"/>
     </row>
     <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B412" s="140"/>
+      <c r="B412" s="92"/>
     </row>
     <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B413" s="140"/>
+      <c r="B413" s="92"/>
     </row>
     <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B414" s="140"/>
+      <c r="B414" s="92"/>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B415" s="140"/>
+      <c r="B415" s="92"/>
     </row>
     <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B416" s="140"/>
+      <c r="B416" s="92"/>
     </row>
     <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B417" s="140"/>
+      <c r="B417" s="92"/>
     </row>
     <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B418" s="140"/>
+      <c r="B418" s="92"/>
     </row>
     <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B419" s="140"/>
+      <c r="B419" s="92"/>
     </row>
     <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B420" s="140"/>
+      <c r="B420" s="92"/>
     </row>
     <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B421" s="140"/>
+      <c r="B421" s="92"/>
     </row>
     <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B422" s="140"/>
+      <c r="B422" s="92"/>
     </row>
     <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B423" s="140"/>
+      <c r="B423" s="92"/>
     </row>
     <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B424" s="140"/>
+      <c r="B424" s="92"/>
     </row>
     <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B425" s="140"/>
+      <c r="B425" s="92"/>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B426" s="140"/>
+      <c r="B426" s="92"/>
     </row>
     <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B427" s="140"/>
+      <c r="B427" s="92"/>
     </row>
     <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B428" s="140"/>
+      <c r="B428" s="92"/>
     </row>
     <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B429" s="140"/>
+      <c r="B429" s="92"/>
     </row>
     <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B430" s="140"/>
+      <c r="B430" s="92"/>
     </row>
     <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B431" s="140"/>
+      <c r="B431" s="92"/>
     </row>
     <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B432" s="140"/>
+      <c r="B432" s="92"/>
     </row>
     <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B433" s="140"/>
+      <c r="B433" s="92"/>
     </row>
     <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B434" s="140"/>
+      <c r="B434" s="92"/>
     </row>
     <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B435" s="140"/>
+      <c r="B435" s="92"/>
     </row>
     <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B436" s="140"/>
+      <c r="B436" s="92"/>
     </row>
     <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B437" s="140"/>
+      <c r="B437" s="92"/>
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B438" s="140"/>
+      <c r="B438" s="92"/>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B439" s="140"/>
+      <c r="B439" s="92"/>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B440" s="140"/>
+      <c r="B440" s="92"/>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B441" s="140"/>
+      <c r="B441" s="92"/>
     </row>
     <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B442" s="140"/>
+      <c r="B442" s="92"/>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B443" s="140"/>
+      <c r="B443" s="92"/>
     </row>
     <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B444" s="140"/>
+      <c r="B444" s="92"/>
     </row>
     <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B445" s="140"/>
+      <c r="B445" s="92"/>
     </row>
     <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B446" s="140"/>
+      <c r="B446" s="92"/>
     </row>
     <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B447" s="140"/>
+      <c r="B447" s="92"/>
     </row>
     <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B448" s="140"/>
+      <c r="B448" s="92"/>
     </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B449" s="140"/>
+      <c r="B449" s="92"/>
     </row>
     <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B450" s="140"/>
+      <c r="B450" s="92"/>
     </row>
     <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B451" s="140"/>
+      <c r="B451" s="92"/>
     </row>
     <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B452" s="140"/>
+      <c r="B452" s="92"/>
     </row>
     <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B453" s="140"/>
+      <c r="B453" s="92"/>
     </row>
     <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B454" s="140"/>
+      <c r="B454" s="92"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B455" s="140"/>
+      <c r="B455" s="92"/>
     </row>
     <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B456" s="140"/>
+      <c r="B456" s="92"/>
     </row>
     <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B457" s="140"/>
+      <c r="B457" s="92"/>
     </row>
     <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B458" s="140"/>
+      <c r="B458" s="92"/>
     </row>
     <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B459" s="140"/>
+      <c r="B459" s="92"/>
     </row>
     <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B460" s="140"/>
+      <c r="B460" s="92"/>
     </row>
     <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B461" s="140"/>
+      <c r="B461" s="92"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B462" s="140"/>
+      <c r="B462" s="92"/>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B463" s="140"/>
+      <c r="B463" s="92"/>
     </row>
     <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B464" s="140"/>
+      <c r="B464" s="92"/>
     </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B465" s="140"/>
+      <c r="B465" s="92"/>
     </row>
     <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B466" s="140"/>
+      <c r="B466" s="92"/>
     </row>
     <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B467" s="140"/>
+      <c r="B467" s="92"/>
     </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B468" s="140"/>
+      <c r="B468" s="92"/>
     </row>
     <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B469" s="140"/>
+      <c r="B469" s="92"/>
     </row>
     <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B470" s="140"/>
+      <c r="B470" s="92"/>
     </row>
     <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B471" s="140"/>
+      <c r="B471" s="92"/>
     </row>
     <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B472" s="140"/>
+      <c r="B472" s="92"/>
     </row>
     <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B473" s="140"/>
+      <c r="B473" s="92"/>
     </row>
     <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B474" s="140"/>
+      <c r="B474" s="92"/>
     </row>
     <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B475" s="140"/>
+      <c r="B475" s="92"/>
     </row>
     <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B476" s="140"/>
+      <c r="B476" s="92"/>
     </row>
     <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B477" s="140"/>
+      <c r="B477" s="92"/>
     </row>
     <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B478" s="140"/>
+      <c r="B478" s="92"/>
     </row>
     <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B479" s="140"/>
+      <c r="B479" s="92"/>
     </row>
     <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B480" s="140"/>
+      <c r="B480" s="92"/>
     </row>
     <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B481" s="140"/>
+      <c r="B481" s="92"/>
     </row>
     <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B482" s="140"/>
+      <c r="B482" s="92"/>
     </row>
     <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B483" s="140"/>
+      <c r="B483" s="92"/>
     </row>
     <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B484" s="140"/>
+      <c r="B484" s="92"/>
     </row>
     <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B485" s="140"/>
+      <c r="B485" s="92"/>
     </row>
     <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B486" s="140"/>
+      <c r="B486" s="92"/>
     </row>
     <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B487" s="140"/>
+      <c r="B487" s="92"/>
     </row>
     <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B488" s="140"/>
+      <c r="B488" s="92"/>
     </row>
     <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B489" s="140"/>
+      <c r="B489" s="92"/>
     </row>
     <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B490" s="140"/>
+      <c r="B490" s="92"/>
     </row>
     <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B491" s="140"/>
+      <c r="B491" s="92"/>
     </row>
     <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B492" s="140"/>
+      <c r="B492" s="92"/>
     </row>
     <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B493" s="140"/>
+      <c r="B493" s="92"/>
     </row>
     <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B494" s="140"/>
+      <c r="B494" s="92"/>
     </row>
     <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B495" s="140"/>
+      <c r="B495" s="92"/>
     </row>
     <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B496" s="140"/>
+      <c r="B496" s="92"/>
     </row>
     <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B497" s="140"/>
+      <c r="B497" s="92"/>
     </row>
     <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B498" s="140"/>
+      <c r="B498" s="92"/>
     </row>
     <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B499" s="140"/>
+      <c r="B499" s="92"/>
     </row>
     <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B500" s="140"/>
+      <c r="B500" s="92"/>
     </row>
     <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B501" s="140"/>
+      <c r="B501" s="92"/>
     </row>
     <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B502" s="140"/>
+      <c r="B502" s="92"/>
     </row>
     <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B503" s="140"/>
+      <c r="B503" s="92"/>
     </row>
     <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B504" s="140"/>
+      <c r="B504" s="92"/>
     </row>
     <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B505" s="140"/>
+      <c r="B505" s="92"/>
     </row>
     <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B506" s="140"/>
+      <c r="B506" s="92"/>
     </row>
     <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B507" s="140"/>
+      <c r="B507" s="92"/>
     </row>
     <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B508" s="140"/>
+      <c r="B508" s="92"/>
     </row>
     <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B509" s="140"/>
+      <c r="B509" s="92"/>
     </row>
     <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B510" s="140"/>
+      <c r="B510" s="92"/>
     </row>
     <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B511" s="140"/>
+      <c r="B511" s="92"/>
     </row>
     <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B512" s="140"/>
+      <c r="B512" s="92"/>
     </row>
     <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B513" s="140"/>
+      <c r="B513" s="92"/>
     </row>
     <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B514" s="140"/>
+      <c r="B514" s="92"/>
     </row>
     <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B515" s="140"/>
+      <c r="B515" s="92"/>
     </row>
     <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B516" s="140"/>
+      <c r="B516" s="92"/>
     </row>
     <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B517" s="140"/>
+      <c r="B517" s="92"/>
     </row>
     <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B518" s="140"/>
+      <c r="B518" s="92"/>
     </row>
     <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B519" s="140"/>
+      <c r="B519" s="92"/>
     </row>
     <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B520" s="140"/>
+      <c r="B520" s="92"/>
     </row>
     <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B521" s="140"/>
+      <c r="B521" s="92"/>
     </row>
     <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B522" s="140"/>
+      <c r="B522" s="92"/>
     </row>
     <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B523" s="140"/>
+      <c r="B523" s="92"/>
     </row>
     <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B524" s="140"/>
+      <c r="B524" s="92"/>
     </row>
     <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B525" s="140"/>
+      <c r="B525" s="92"/>
     </row>
     <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B526" s="140"/>
+      <c r="B526" s="92"/>
     </row>
     <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B527" s="140"/>
+      <c r="B527" s="92"/>
     </row>
     <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B528" s="140"/>
+      <c r="B528" s="92"/>
     </row>
     <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B529" s="140"/>
+      <c r="B529" s="92"/>
     </row>
     <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B530" s="140"/>
+      <c r="B530" s="92"/>
     </row>
     <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B531" s="140"/>
+      <c r="B531" s="92"/>
     </row>
     <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B532" s="140"/>
+      <c r="B532" s="92"/>
     </row>
     <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B533" s="140"/>
+      <c r="B533" s="92"/>
     </row>
     <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B534" s="140"/>
+      <c r="B534" s="92"/>
     </row>
     <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B535" s="140"/>
+      <c r="B535" s="92"/>
     </row>
     <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B536" s="140"/>
+      <c r="B536" s="92"/>
     </row>
     <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B537" s="140"/>
+      <c r="B537" s="92"/>
     </row>
     <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B538" s="140"/>
+      <c r="B538" s="92"/>
     </row>
     <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B539" s="140"/>
+      <c r="B539" s="92"/>
     </row>
     <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B540" s="140"/>
+      <c r="B540" s="92"/>
     </row>
     <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B541" s="140"/>
+      <c r="B541" s="92"/>
     </row>
     <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B542" s="140"/>
+      <c r="B542" s="92"/>
     </row>
     <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B543" s="140"/>
+      <c r="B543" s="92"/>
     </row>
     <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B544" s="140"/>
+      <c r="B544" s="92"/>
     </row>
     <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B545" s="140"/>
+      <c r="B545" s="92"/>
     </row>
     <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B546" s="140"/>
+      <c r="B546" s="92"/>
     </row>
     <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B547" s="140"/>
+      <c r="B547" s="92"/>
     </row>
     <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B548" s="140"/>
+      <c r="B548" s="92"/>
     </row>
     <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B549" s="140"/>
+      <c r="B549" s="92"/>
     </row>
     <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B550" s="140"/>
+      <c r="B550" s="92"/>
     </row>
     <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B551" s="140"/>
+      <c r="B551" s="92"/>
     </row>
     <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B552" s="140"/>
+      <c r="B552" s="92"/>
     </row>
     <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B553" s="140"/>
+      <c r="B553" s="92"/>
     </row>
     <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B554" s="140"/>
+      <c r="B554" s="92"/>
     </row>
     <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B555" s="140"/>
+      <c r="B555" s="92"/>
     </row>
     <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B556" s="140"/>
+      <c r="B556" s="92"/>
     </row>
     <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B557" s="140"/>
+      <c r="B557" s="92"/>
     </row>
     <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B558" s="140"/>
+      <c r="B558" s="92"/>
     </row>
     <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B559" s="140"/>
+      <c r="B559" s="92"/>
     </row>
     <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B560" s="140"/>
+      <c r="B560" s="92"/>
     </row>
     <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B561" s="140"/>
+      <c r="B561" s="92"/>
     </row>
     <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B562" s="140"/>
+      <c r="B562" s="92"/>
     </row>
     <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B563" s="140"/>
+      <c r="B563" s="92"/>
     </row>
     <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B564" s="140"/>
+      <c r="B564" s="92"/>
     </row>
     <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B565" s="140"/>
+      <c r="B565" s="92"/>
     </row>
     <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B566" s="140"/>
+      <c r="B566" s="92"/>
     </row>
     <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B567" s="140"/>
+      <c r="B567" s="92"/>
     </row>
     <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B568" s="140"/>
+      <c r="B568" s="92"/>
     </row>
     <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B569" s="140"/>
+      <c r="B569" s="92"/>
     </row>
     <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B570" s="140"/>
+      <c r="B570" s="92"/>
     </row>
     <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B571" s="140"/>
+      <c r="B571" s="92"/>
     </row>
     <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B572" s="140"/>
+      <c r="B572" s="92"/>
     </row>
     <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B573" s="140"/>
+      <c r="B573" s="92"/>
     </row>
     <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B574" s="140"/>
+      <c r="B574" s="92"/>
     </row>
     <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B575" s="140"/>
+      <c r="B575" s="92"/>
     </row>
     <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B576" s="140"/>
+      <c r="B576" s="92"/>
     </row>
     <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B577" s="140"/>
+      <c r="B577" s="92"/>
     </row>
     <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B578" s="140"/>
+      <c r="B578" s="92"/>
     </row>
     <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B579" s="140"/>
+      <c r="B579" s="92"/>
     </row>
     <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B580" s="140"/>
+      <c r="B580" s="92"/>
     </row>
     <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B581" s="140"/>
+      <c r="B581" s="92"/>
     </row>
     <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B582" s="140"/>
+      <c r="B582" s="92"/>
     </row>
     <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B583" s="140"/>
+      <c r="B583" s="92"/>
     </row>
     <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B584" s="140"/>
+      <c r="B584" s="92"/>
     </row>
     <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B585" s="140"/>
+      <c r="B585" s="92"/>
     </row>
     <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B586" s="140"/>
+      <c r="B586" s="92"/>
     </row>
     <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B587" s="140"/>
+      <c r="B587" s="92"/>
     </row>
     <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B588" s="140"/>
+      <c r="B588" s="92"/>
     </row>
     <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B589" s="140"/>
+      <c r="B589" s="92"/>
     </row>
     <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B590" s="140"/>
+      <c r="B590" s="92"/>
     </row>
     <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B591" s="140"/>
+      <c r="B591" s="92"/>
     </row>
     <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B592" s="140"/>
+      <c r="B592" s="92"/>
     </row>
     <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B593" s="140"/>
+      <c r="B593" s="92"/>
     </row>
     <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B594" s="140"/>
+      <c r="B594" s="92"/>
     </row>
     <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B595" s="140"/>
+      <c r="B595" s="92"/>
     </row>
     <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B596" s="140"/>
+      <c r="B596" s="92"/>
     </row>
     <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B597" s="140"/>
+      <c r="B597" s="92"/>
     </row>
     <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B598" s="140"/>
+      <c r="B598" s="92"/>
     </row>
     <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B599" s="140"/>
+      <c r="B599" s="92"/>
     </row>
     <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B600" s="140"/>
+      <c r="B600" s="92"/>
     </row>
     <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B601" s="140"/>
+      <c r="B601" s="92"/>
     </row>
     <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B602" s="140"/>
+      <c r="B602" s="92"/>
     </row>
     <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B603" s="140"/>
+      <c r="B603" s="92"/>
     </row>
     <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B604" s="140"/>
+      <c r="B604" s="92"/>
     </row>
     <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B605" s="140"/>
+      <c r="B605" s="92"/>
     </row>
     <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B606" s="140"/>
+      <c r="B606" s="92"/>
     </row>
     <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B607" s="140"/>
+      <c r="B607" s="92"/>
     </row>
     <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B608" s="140"/>
+      <c r="B608" s="92"/>
     </row>
     <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B609" s="140"/>
+      <c r="B609" s="92"/>
     </row>
     <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B610" s="140"/>
+      <c r="B610" s="92"/>
     </row>
     <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B611" s="140"/>
+      <c r="B611" s="92"/>
     </row>
     <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B612" s="140"/>
+      <c r="B612" s="92"/>
     </row>
     <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B613" s="140"/>
+      <c r="B613" s="92"/>
     </row>
     <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B614" s="140"/>
+      <c r="B614" s="92"/>
     </row>
     <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B615" s="140"/>
+      <c r="B615" s="92"/>
     </row>
     <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B616" s="140"/>
+      <c r="B616" s="92"/>
     </row>
     <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B617" s="140"/>
+      <c r="B617" s="92"/>
     </row>
     <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B618" s="140"/>
+      <c r="B618" s="92"/>
     </row>
     <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B619" s="140"/>
+      <c r="B619" s="92"/>
     </row>
     <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B620" s="140"/>
+      <c r="B620" s="92"/>
     </row>
     <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B621" s="140"/>
+      <c r="B621" s="92"/>
     </row>
     <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B622" s="140"/>
+      <c r="B622" s="92"/>
     </row>
     <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B623" s="140"/>
+      <c r="B623" s="92"/>
     </row>
     <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B624" s="140"/>
+      <c r="B624" s="92"/>
     </row>
     <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B625" s="140"/>
+      <c r="B625" s="92"/>
     </row>
     <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B626" s="140"/>
+      <c r="B626" s="92"/>
     </row>
     <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B627" s="140"/>
+      <c r="B627" s="92"/>
     </row>
     <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B628" s="140"/>
+      <c r="B628" s="92"/>
     </row>
     <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B629" s="140"/>
+      <c r="B629" s="92"/>
     </row>
     <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B630" s="140"/>
+      <c r="B630" s="92"/>
     </row>
     <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B631" s="140"/>
+      <c r="B631" s="92"/>
     </row>
     <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B632" s="140"/>
+      <c r="B632" s="92"/>
     </row>
     <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B633" s="140"/>
+      <c r="B633" s="92"/>
     </row>
     <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B634" s="140"/>
+      <c r="B634" s="92"/>
     </row>
     <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B635" s="140"/>
+      <c r="B635" s="92"/>
     </row>
     <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B636" s="140"/>
+      <c r="B636" s="92"/>
     </row>
     <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B637" s="140"/>
+      <c r="B637" s="92"/>
     </row>
     <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B638" s="140"/>
+      <c r="B638" s="92"/>
     </row>
     <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B639" s="140"/>
+      <c r="B639" s="92"/>
     </row>
     <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B640" s="140"/>
+      <c r="B640" s="92"/>
     </row>
     <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B641" s="140"/>
+      <c r="B641" s="92"/>
     </row>
     <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B642" s="140"/>
+      <c r="B642" s="92"/>
     </row>
     <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B643" s="140"/>
+      <c r="B643" s="92"/>
     </row>
     <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B644" s="140"/>
+      <c r="B644" s="92"/>
     </row>
     <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B645" s="140"/>
+      <c r="B645" s="92"/>
     </row>
     <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B646" s="140"/>
+      <c r="B646" s="92"/>
     </row>
     <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B647" s="140"/>
+      <c r="B647" s="92"/>
     </row>
     <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B648" s="140"/>
+      <c r="B648" s="92"/>
     </row>
     <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B649" s="140"/>
+      <c r="B649" s="92"/>
     </row>
     <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B650" s="140"/>
+      <c r="B650" s="92"/>
     </row>
     <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B651" s="140"/>
+      <c r="B651" s="92"/>
     </row>
     <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B652" s="140"/>
+      <c r="B652" s="92"/>
     </row>
     <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B653" s="140"/>
+      <c r="B653" s="92"/>
     </row>
     <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B654" s="140"/>
+      <c r="B654" s="92"/>
     </row>
     <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B655" s="140"/>
+      <c r="B655" s="92"/>
     </row>
     <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B656" s="140"/>
+      <c r="B656" s="92"/>
     </row>
     <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B657" s="140"/>
+      <c r="B657" s="92"/>
     </row>
     <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B658" s="140"/>
+      <c r="B658" s="92"/>
     </row>
     <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B659" s="140"/>
+      <c r="B659" s="92"/>
     </row>
     <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B660" s="140"/>
+      <c r="B660" s="92"/>
     </row>
     <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B661" s="140"/>
+      <c r="B661" s="92"/>
     </row>
     <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B662" s="140"/>
+      <c r="B662" s="92"/>
     </row>
     <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B663" s="140"/>
+      <c r="B663" s="92"/>
     </row>
     <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B664" s="140"/>
+      <c r="B664" s="92"/>
     </row>
     <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B665" s="140"/>
+      <c r="B665" s="92"/>
     </row>
     <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B666" s="140"/>
+      <c r="B666" s="92"/>
     </row>
     <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B667" s="140"/>
+      <c r="B667" s="92"/>
     </row>
     <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B668" s="140"/>
+      <c r="B668" s="92"/>
     </row>
     <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B669" s="140"/>
+      <c r="B669" s="92"/>
     </row>
     <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B670" s="140"/>
+      <c r="B670" s="92"/>
     </row>
     <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B671" s="140"/>
+      <c r="B671" s="92"/>
     </row>
     <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B672" s="140"/>
+      <c r="B672" s="92"/>
     </row>
     <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B673" s="140"/>
+      <c r="B673" s="92"/>
     </row>
     <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B674" s="140"/>
+      <c r="B674" s="92"/>
     </row>
     <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B675" s="140"/>
+      <c r="B675" s="92"/>
     </row>
     <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B676" s="140"/>
+      <c r="B676" s="92"/>
     </row>
     <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B677" s="140"/>
+      <c r="B677" s="92"/>
     </row>
     <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B678" s="140"/>
+      <c r="B678" s="92"/>
     </row>
     <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B679" s="140"/>
+      <c r="B679" s="92"/>
     </row>
     <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B680" s="140"/>
+      <c r="B680" s="92"/>
     </row>
     <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B681" s="140"/>
+      <c r="B681" s="92"/>
     </row>
     <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B682" s="140"/>
+      <c r="B682" s="92"/>
     </row>
     <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B683" s="140"/>
+      <c r="B683" s="92"/>
     </row>
     <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B684" s="140"/>
+      <c r="B684" s="92"/>
     </row>
     <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B685" s="140"/>
+      <c r="B685" s="92"/>
     </row>
     <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B686" s="140"/>
+      <c r="B686" s="92"/>
     </row>
     <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B687" s="140"/>
+      <c r="B687" s="92"/>
     </row>
     <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B688" s="140"/>
+      <c r="B688" s="92"/>
     </row>
     <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B689" s="140"/>
+      <c r="B689" s="92"/>
     </row>
     <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B690" s="140"/>
+      <c r="B690" s="92"/>
     </row>
     <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B691" s="140"/>
+      <c r="B691" s="92"/>
     </row>
     <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B692" s="140"/>
+      <c r="B692" s="92"/>
     </row>
     <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B693" s="140"/>
+      <c r="B693" s="92"/>
     </row>
     <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B694" s="140"/>
+      <c r="B694" s="92"/>
     </row>
     <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B695" s="140"/>
+      <c r="B695" s="92"/>
     </row>
     <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B696" s="140"/>
+      <c r="B696" s="92"/>
     </row>
     <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B697" s="140"/>
+      <c r="B697" s="92"/>
     </row>
     <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B698" s="140"/>
+      <c r="B698" s="92"/>
     </row>
     <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B699" s="140"/>
+      <c r="B699" s="92"/>
     </row>
     <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B700" s="140"/>
+      <c r="B700" s="92"/>
     </row>
     <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B701" s="140"/>
+      <c r="B701" s="92"/>
     </row>
     <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B702" s="140"/>
+      <c r="B702" s="92"/>
     </row>
     <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B703" s="140"/>
+      <c r="B703" s="92"/>
     </row>
     <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B704" s="140"/>
+      <c r="B704" s="92"/>
     </row>
     <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B705" s="140"/>
+      <c r="B705" s="92"/>
     </row>
     <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B706" s="140"/>
+      <c r="B706" s="92"/>
     </row>
     <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B707" s="140"/>
+      <c r="B707" s="92"/>
     </row>
     <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B708" s="140"/>
+      <c r="B708" s="92"/>
     </row>
     <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B709" s="140"/>
+      <c r="B709" s="92"/>
     </row>
     <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B710" s="140"/>
+      <c r="B710" s="92"/>
     </row>
     <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B711" s="140"/>
+      <c r="B711" s="92"/>
     </row>
     <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B712" s="140"/>
+      <c r="B712" s="92"/>
     </row>
     <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B713" s="140"/>
+      <c r="B713" s="92"/>
     </row>
     <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B714" s="140"/>
+      <c r="B714" s="92"/>
     </row>
     <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B715" s="140"/>
+      <c r="B715" s="92"/>
     </row>
     <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B716" s="140"/>
+      <c r="B716" s="92"/>
     </row>
     <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B717" s="140"/>
+      <c r="B717" s="92"/>
     </row>
     <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B718" s="140"/>
+      <c r="B718" s="92"/>
     </row>
     <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B719" s="140"/>
+      <c r="B719" s="92"/>
     </row>
     <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B720" s="140"/>
+      <c r="B720" s="92"/>
     </row>
     <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B721" s="140"/>
+      <c r="B721" s="92"/>
     </row>
     <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B722" s="140"/>
+      <c r="B722" s="92"/>
     </row>
     <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B723" s="140"/>
+      <c r="B723" s="92"/>
     </row>
     <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B724" s="140"/>
+      <c r="B724" s="92"/>
     </row>
     <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B725" s="140"/>
+      <c r="B725" s="92"/>
     </row>
     <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B726" s="140"/>
+      <c r="B726" s="92"/>
     </row>
     <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B727" s="140"/>
+      <c r="B727" s="92"/>
     </row>
     <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B728" s="140"/>
+      <c r="B728" s="92"/>
     </row>
     <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B729" s="140"/>
+      <c r="B729" s="92"/>
     </row>
     <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B730" s="140"/>
+      <c r="B730" s="92"/>
     </row>
     <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B731" s="140"/>
+      <c r="B731" s="92"/>
     </row>
     <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B732" s="140"/>
+      <c r="B732" s="92"/>
     </row>
     <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B733" s="140"/>
+      <c r="B733" s="92"/>
     </row>
     <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B734" s="140"/>
+      <c r="B734" s="92"/>
     </row>
     <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B735" s="140"/>
+      <c r="B735" s="92"/>
     </row>
     <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B736" s="140"/>
+      <c r="B736" s="92"/>
     </row>
     <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B737" s="140"/>
+      <c r="B737" s="92"/>
     </row>
     <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B738" s="140"/>
+      <c r="B738" s="92"/>
     </row>
     <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B739" s="140"/>
+      <c r="B739" s="92"/>
     </row>
     <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B740" s="140"/>
+      <c r="B740" s="92"/>
     </row>
     <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B741" s="140"/>
+      <c r="B741" s="92"/>
     </row>
     <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B742" s="140"/>
+      <c r="B742" s="92"/>
     </row>
     <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B743" s="140"/>
+      <c r="B743" s="92"/>
     </row>
     <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B744" s="140"/>
+      <c r="B744" s="92"/>
     </row>
     <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B745" s="140"/>
+      <c r="B745" s="92"/>
     </row>
     <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B746" s="140"/>
+      <c r="B746" s="92"/>
     </row>
     <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B747" s="140"/>
+      <c r="B747" s="92"/>
     </row>
     <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B748" s="140"/>
+      <c r="B748" s="92"/>
     </row>
     <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B749" s="140"/>
+      <c r="B749" s="92"/>
     </row>
     <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B750" s="140"/>
+      <c r="B750" s="92"/>
     </row>
     <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B751" s="140"/>
+      <c r="B751" s="92"/>
     </row>
     <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B752" s="140"/>
+      <c r="B752" s="92"/>
     </row>
     <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B753" s="140"/>
+      <c r="B753" s="92"/>
     </row>
     <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B754" s="140"/>
+      <c r="B754" s="92"/>
     </row>
     <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B755" s="140"/>
+      <c r="B755" s="92"/>
     </row>
     <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B756" s="140"/>
+      <c r="B756" s="92"/>
     </row>
     <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B757" s="140"/>
+      <c r="B757" s="92"/>
     </row>
     <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B758" s="140"/>
+      <c r="B758" s="92"/>
     </row>
     <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B759" s="140"/>
+      <c r="B759" s="92"/>
     </row>
     <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B760" s="140"/>
+      <c r="B760" s="92"/>
     </row>
     <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B761" s="140"/>
+      <c r="B761" s="92"/>
     </row>
     <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B762" s="140"/>
+      <c r="B762" s="92"/>
     </row>
     <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B763" s="140"/>
+      <c r="B763" s="92"/>
     </row>
     <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B764" s="140"/>
+      <c r="B764" s="92"/>
     </row>
     <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B765" s="140"/>
+      <c r="B765" s="92"/>
     </row>
     <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B766" s="140"/>
+      <c r="B766" s="92"/>
     </row>
     <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B767" s="140"/>
+      <c r="B767" s="92"/>
     </row>
     <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B768" s="140"/>
+      <c r="B768" s="92"/>
     </row>
     <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B769" s="140"/>
+      <c r="B769" s="92"/>
     </row>
     <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B770" s="140"/>
+      <c r="B770" s="92"/>
     </row>
     <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B771" s="140"/>
+      <c r="B771" s="92"/>
     </row>
     <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B772" s="140"/>
+      <c r="B772" s="92"/>
     </row>
     <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B773" s="140"/>
+      <c r="B773" s="92"/>
     </row>
     <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B774" s="140"/>
+      <c r="B774" s="92"/>
     </row>
     <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B775" s="140"/>
+      <c r="B775" s="92"/>
     </row>
     <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B776" s="140"/>
+      <c r="B776" s="92"/>
     </row>
     <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B777" s="140"/>
+      <c r="B777" s="92"/>
     </row>
     <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B778" s="140"/>
+      <c r="B778" s="92"/>
     </row>
     <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B779" s="140"/>
+      <c r="B779" s="92"/>
     </row>
     <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B780" s="140"/>
+      <c r="B780" s="92"/>
     </row>
     <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B781" s="140"/>
+      <c r="B781" s="92"/>
     </row>
     <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B782" s="140"/>
+      <c r="B782" s="92"/>
     </row>
     <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B783" s="140"/>
+      <c r="B783" s="92"/>
     </row>
     <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B784" s="140"/>
+      <c r="B784" s="92"/>
     </row>
     <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B785" s="140"/>
+      <c r="B785" s="92"/>
     </row>
     <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B786" s="140"/>
+      <c r="B786" s="92"/>
     </row>
     <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B787" s="140"/>
+      <c r="B787" s="92"/>
     </row>
     <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B788" s="140"/>
+      <c r="B788" s="92"/>
     </row>
     <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B789" s="140"/>
+      <c r="B789" s="92"/>
     </row>
     <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B790" s="140"/>
+      <c r="B790" s="92"/>
     </row>
     <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B791" s="140"/>
+      <c r="B791" s="92"/>
     </row>
     <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B792" s="140"/>
+      <c r="B792" s="92"/>
     </row>
     <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B793" s="140"/>
+      <c r="B793" s="92"/>
     </row>
     <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B794" s="140"/>
+      <c r="B794" s="92"/>
     </row>
     <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B795" s="140"/>
+      <c r="B795" s="92"/>
     </row>
     <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B796" s="140"/>
+      <c r="B796" s="92"/>
     </row>
     <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B797" s="140"/>
+      <c r="B797" s="92"/>
     </row>
     <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B798" s="140"/>
+      <c r="B798" s="92"/>
     </row>
     <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B799" s="140"/>
+      <c r="B799" s="92"/>
     </row>
     <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B800" s="140"/>
+      <c r="B800" s="92"/>
     </row>
     <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B801" s="140"/>
+      <c r="B801" s="92"/>
     </row>
     <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B802" s="140"/>
+      <c r="B802" s="92"/>
     </row>
     <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B803" s="140"/>
+      <c r="B803" s="92"/>
     </row>
     <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B804" s="140"/>
+      <c r="B804" s="92"/>
     </row>
     <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B805" s="140"/>
+      <c r="B805" s="92"/>
     </row>
     <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B806" s="140"/>
+      <c r="B806" s="92"/>
     </row>
     <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B807" s="140"/>
+      <c r="B807" s="92"/>
     </row>
     <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B808" s="140"/>
+      <c r="B808" s="92"/>
     </row>
     <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B809" s="140"/>
+      <c r="B809" s="92"/>
     </row>
     <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B810" s="140"/>
+      <c r="B810" s="92"/>
     </row>
     <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B811" s="140"/>
+      <c r="B811" s="92"/>
     </row>
     <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B812" s="140"/>
+      <c r="B812" s="92"/>
     </row>
     <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B813" s="140"/>
+      <c r="B813" s="92"/>
     </row>
     <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B814" s="140"/>
+      <c r="B814" s="92"/>
     </row>
     <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B815" s="140"/>
+      <c r="B815" s="92"/>
     </row>
     <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B816" s="140"/>
+      <c r="B816" s="92"/>
     </row>
     <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B817" s="140"/>
+      <c r="B817" s="92"/>
     </row>
     <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B818" s="140"/>
+      <c r="B818" s="92"/>
     </row>
     <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B819" s="140"/>
+      <c r="B819" s="92"/>
     </row>
     <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B820" s="140"/>
+      <c r="B820" s="92"/>
     </row>
     <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B821" s="140"/>
+      <c r="B821" s="92"/>
     </row>
     <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B822" s="140"/>
+      <c r="B822" s="92"/>
     </row>
     <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B823" s="140"/>
+      <c r="B823" s="92"/>
     </row>
     <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B824" s="140"/>
+      <c r="B824" s="92"/>
     </row>
     <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B825" s="140"/>
+      <c r="B825" s="92"/>
     </row>
     <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B826" s="140"/>
+      <c r="B826" s="92"/>
     </row>
     <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B827" s="140"/>
+      <c r="B827" s="92"/>
     </row>
     <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B828" s="140"/>
+      <c r="B828" s="92"/>
     </row>
     <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B829" s="140"/>
+      <c r="B829" s="92"/>
     </row>
     <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B830" s="140"/>
+      <c r="B830" s="92"/>
     </row>
     <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B831" s="140"/>
+      <c r="B831" s="92"/>
     </row>
     <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B832" s="140"/>
+      <c r="B832" s="92"/>
     </row>
     <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B833" s="140"/>
+      <c r="B833" s="92"/>
     </row>
     <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B834" s="140"/>
+      <c r="B834" s="92"/>
     </row>
     <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B835" s="140"/>
+      <c r="B835" s="92"/>
     </row>
     <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B836" s="140"/>
+      <c r="B836" s="92"/>
     </row>
     <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B837" s="140"/>
+      <c r="B837" s="92"/>
     </row>
     <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B838" s="140"/>
+      <c r="B838" s="92"/>
     </row>
     <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B839" s="140"/>
+      <c r="B839" s="92"/>
     </row>
     <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B840" s="140"/>
+      <c r="B840" s="92"/>
     </row>
     <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B841" s="140"/>
+      <c r="B841" s="92"/>
     </row>
     <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B842" s="140"/>
+      <c r="B842" s="92"/>
     </row>
     <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B843" s="140"/>
+      <c r="B843" s="92"/>
     </row>
     <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B844" s="140"/>
+      <c r="B844" s="92"/>
     </row>
     <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B845" s="140"/>
+      <c r="B845" s="92"/>
     </row>
     <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B846" s="140"/>
+      <c r="B846" s="92"/>
     </row>
     <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B847" s="140"/>
+      <c r="B847" s="92"/>
     </row>
     <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B848" s="140"/>
+      <c r="B848" s="92"/>
     </row>
     <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B849" s="140"/>
+      <c r="B849" s="92"/>
     </row>
     <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B850" s="140"/>
+      <c r="B850" s="92"/>
     </row>
     <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B851" s="140"/>
+      <c r="B851" s="92"/>
     </row>
     <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B852" s="140"/>
+      <c r="B852" s="92"/>
     </row>
     <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B853" s="140"/>
+      <c r="B853" s="92"/>
     </row>
     <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B854" s="140"/>
+      <c r="B854" s="92"/>
     </row>
     <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B855" s="140"/>
+      <c r="B855" s="92"/>
     </row>
     <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B856" s="140"/>
+      <c r="B856" s="92"/>
     </row>
     <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B857" s="140"/>
+      <c r="B857" s="92"/>
     </row>
     <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B858" s="140"/>
+      <c r="B858" s="92"/>
     </row>
     <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B859" s="140"/>
+      <c r="B859" s="92"/>
     </row>
     <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B860" s="140"/>
+      <c r="B860" s="92"/>
     </row>
     <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B861" s="140"/>
+      <c r="B861" s="92"/>
     </row>
     <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B862" s="140"/>
+      <c r="B862" s="92"/>
     </row>
     <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B863" s="140"/>
+      <c r="B863" s="92"/>
     </row>
     <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B864" s="140"/>
+      <c r="B864" s="92"/>
     </row>
     <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B865" s="140"/>
+      <c r="B865" s="92"/>
     </row>
     <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B866" s="140"/>
+      <c r="B866" s="92"/>
     </row>
     <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B867" s="140"/>
+      <c r="B867" s="92"/>
     </row>
     <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B868" s="140"/>
+      <c r="B868" s="92"/>
     </row>
     <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B869" s="140"/>
+      <c r="B869" s="92"/>
     </row>
     <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B870" s="140"/>
+      <c r="B870" s="92"/>
     </row>
     <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B871" s="140"/>
+      <c r="B871" s="92"/>
     </row>
     <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B872" s="140"/>
+      <c r="B872" s="92"/>
     </row>
     <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B873" s="140"/>
+      <c r="B873" s="92"/>
     </row>
     <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B874" s="140"/>
+      <c r="B874" s="92"/>
     </row>
     <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B875" s="140"/>
+      <c r="B875" s="92"/>
     </row>
     <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B876" s="140"/>
+      <c r="B876" s="92"/>
     </row>
     <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B877" s="140"/>
+      <c r="B877" s="92"/>
     </row>
     <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B878" s="140"/>
+      <c r="B878" s="92"/>
     </row>
     <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B879" s="140"/>
+      <c r="B879" s="92"/>
     </row>
     <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B880" s="140"/>
+      <c r="B880" s="92"/>
     </row>
     <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B881" s="140"/>
+      <c r="B881" s="92"/>
     </row>
     <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B882" s="140"/>
+      <c r="B882" s="92"/>
     </row>
     <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B883" s="140"/>
+      <c r="B883" s="92"/>
     </row>
     <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B884" s="140"/>
+      <c r="B884" s="92"/>
     </row>
     <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B885" s="140"/>
+      <c r="B885" s="92"/>
     </row>
     <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B886" s="140"/>
+      <c r="B886" s="92"/>
     </row>
     <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B887" s="140"/>
+      <c r="B887" s="92"/>
     </row>
     <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B888" s="140"/>
+      <c r="B888" s="92"/>
     </row>
     <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B889" s="140"/>
+      <c r="B889" s="92"/>
     </row>
     <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B890" s="140"/>
+      <c r="B890" s="92"/>
     </row>
     <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B891" s="140"/>
+      <c r="B891" s="92"/>
     </row>
     <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B892" s="140"/>
+      <c r="B892" s="92"/>
     </row>
     <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B893" s="140"/>
+      <c r="B893" s="92"/>
     </row>
     <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B894" s="140"/>
+      <c r="B894" s="92"/>
     </row>
     <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B895" s="140"/>
+      <c r="B895" s="92"/>
     </row>
     <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B896" s="140"/>
+      <c r="B896" s="92"/>
     </row>
     <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B897" s="140"/>
+      <c r="B897" s="92"/>
     </row>
     <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B898" s="140"/>
+      <c r="B898" s="92"/>
     </row>
     <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B899" s="140"/>
+      <c r="B899" s="92"/>
     </row>
     <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B900" s="140"/>
+      <c r="B900" s="92"/>
     </row>
     <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B901" s="140"/>
+      <c r="B901" s="92"/>
     </row>
     <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B902" s="140"/>
+      <c r="B902" s="92"/>
     </row>
     <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B903" s="140"/>
+      <c r="B903" s="92"/>
     </row>
     <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B904" s="140"/>
+      <c r="B904" s="92"/>
     </row>
     <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B905" s="140"/>
+      <c r="B905" s="92"/>
     </row>
     <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B906" s="140"/>
+      <c r="B906" s="92"/>
     </row>
     <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B907" s="140"/>
+      <c r="B907" s="92"/>
     </row>
     <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B908" s="140"/>
+      <c r="B908" s="92"/>
     </row>
     <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B909" s="140"/>
+      <c r="B909" s="92"/>
     </row>
     <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B910" s="140"/>
+      <c r="B910" s="92"/>
     </row>
     <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B911" s="140"/>
+      <c r="B911" s="92"/>
     </row>
     <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B912" s="140"/>
+      <c r="B912" s="92"/>
     </row>
     <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B913" s="140"/>
+      <c r="B913" s="92"/>
     </row>
     <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B914" s="140"/>
+      <c r="B914" s="92"/>
     </row>
     <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B915" s="140"/>
+      <c r="B915" s="92"/>
     </row>
     <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B916" s="140"/>
+      <c r="B916" s="92"/>
     </row>
     <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B917" s="140"/>
+      <c r="B917" s="92"/>
     </row>
     <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B918" s="140"/>
+      <c r="B918" s="92"/>
     </row>
     <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B919" s="140"/>
+      <c r="B919" s="92"/>
     </row>
     <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B920" s="140"/>
+      <c r="B920" s="92"/>
     </row>
     <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B921" s="140"/>
+      <c r="B921" s="92"/>
     </row>
     <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B922" s="140"/>
+      <c r="B922" s="92"/>
     </row>
     <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B923" s="140"/>
+      <c r="B923" s="92"/>
     </row>
     <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B924" s="140"/>
+      <c r="B924" s="92"/>
     </row>
     <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B925" s="140"/>
+      <c r="B925" s="92"/>
     </row>
     <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B926" s="140"/>
+      <c r="B926" s="92"/>
     </row>
     <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B927" s="140"/>
+      <c r="B927" s="92"/>
     </row>
     <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B928" s="140"/>
+      <c r="B928" s="92"/>
     </row>
     <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B929" s="140"/>
+      <c r="B929" s="92"/>
     </row>
     <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B930" s="140"/>
+      <c r="B930" s="92"/>
     </row>
     <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B931" s="140"/>
+      <c r="B931" s="92"/>
     </row>
     <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B932" s="140"/>
+      <c r="B932" s="92"/>
     </row>
     <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B933" s="140"/>
+      <c r="B933" s="92"/>
     </row>
     <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B934" s="140"/>
+      <c r="B934" s="92"/>
     </row>
     <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B935" s="140"/>
+      <c r="B935" s="92"/>
     </row>
     <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B936" s="140"/>
+      <c r="B936" s="92"/>
     </row>
     <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B937" s="140"/>
+      <c r="B937" s="92"/>
     </row>
     <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B938" s="140"/>
+      <c r="B938" s="92"/>
     </row>
     <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B939" s="140"/>
+      <c r="B939" s="92"/>
     </row>
     <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B940" s="140"/>
+      <c r="B940" s="92"/>
     </row>
     <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B941" s="140"/>
+      <c r="B941" s="92"/>
     </row>
     <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B942" s="140"/>
+      <c r="B942" s="92"/>
     </row>
     <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B943" s="140"/>
+      <c r="B943" s="92"/>
     </row>
     <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B944" s="140"/>
+      <c r="B944" s="92"/>
     </row>
     <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B945" s="140"/>
+      <c r="B945" s="92"/>
     </row>
     <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B946" s="140"/>
+      <c r="B946" s="92"/>
     </row>
     <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B947" s="140"/>
+      <c r="B947" s="92"/>
     </row>
     <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B948" s="140"/>
+      <c r="B948" s="92"/>
     </row>
     <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B949" s="140"/>
+      <c r="B949" s="92"/>
     </row>
     <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B950" s="140"/>
+      <c r="B950" s="92"/>
     </row>
     <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B951" s="140"/>
+      <c r="B951" s="92"/>
     </row>
     <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B952" s="140"/>
+      <c r="B952" s="92"/>
     </row>
     <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B953" s="140"/>
+      <c r="B953" s="92"/>
     </row>
     <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B954" s="140"/>
+      <c r="B954" s="92"/>
     </row>
     <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B955" s="140"/>
+      <c r="B955" s="92"/>
     </row>
     <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B956" s="140"/>
+      <c r="B956" s="92"/>
     </row>
     <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B957" s="140"/>
+      <c r="B957" s="92"/>
     </row>
     <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B958" s="140"/>
+      <c r="B958" s="92"/>
     </row>
     <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B959" s="140"/>
+      <c r="B959" s="92"/>
     </row>
     <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B960" s="140"/>
+      <c r="B960" s="92"/>
     </row>
     <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B961" s="140"/>
+      <c r="B961" s="92"/>
     </row>
     <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B962" s="140"/>
+      <c r="B962" s="92"/>
     </row>
     <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B963" s="140"/>
+      <c r="B963" s="92"/>
     </row>
     <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B964" s="140"/>
+      <c r="B964" s="92"/>
     </row>
     <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B965" s="140"/>
+      <c r="B965" s="92"/>
     </row>
     <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B966" s="140"/>
+      <c r="B966" s="92"/>
     </row>
     <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B967" s="140"/>
+      <c r="B967" s="92"/>
     </row>
     <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B968" s="140"/>
+      <c r="B968" s="92"/>
     </row>
     <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B969" s="140"/>
+      <c r="B969" s="92"/>
     </row>
     <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B970" s="140"/>
+      <c r="B970" s="92"/>
     </row>
     <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B971" s="140"/>
+      <c r="B971" s="92"/>
     </row>
     <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B972" s="140"/>
+      <c r="B972" s="92"/>
     </row>
     <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B973" s="140"/>
+      <c r="B973" s="92"/>
     </row>
     <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B974" s="140"/>
+      <c r="B974" s="92"/>
     </row>
     <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B975" s="140"/>
+      <c r="B975" s="92"/>
     </row>
     <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B976" s="140"/>
+      <c r="B976" s="92"/>
     </row>
     <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B977" s="140"/>
+      <c r="B977" s="92"/>
     </row>
     <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B978" s="140"/>
+      <c r="B978" s="92"/>
     </row>
     <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B979" s="140"/>
+      <c r="B979" s="92"/>
     </row>
     <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B980" s="140"/>
+      <c r="B980" s="92"/>
     </row>
     <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B981" s="140"/>
+      <c r="B981" s="92"/>
     </row>
     <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B982" s="140"/>
+      <c r="B982" s="92"/>
     </row>
     <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B983" s="140"/>
+      <c r="B983" s="92"/>
     </row>
     <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B984" s="140"/>
+      <c r="B984" s="92"/>
     </row>
     <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B985" s="140"/>
+      <c r="B985" s="92"/>
     </row>
     <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B986" s="140"/>
+      <c r="B986" s="92"/>
     </row>
     <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B987" s="140"/>
+      <c r="B987" s="92"/>
     </row>
     <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B988" s="140"/>
+      <c r="B988" s="92"/>
     </row>
     <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B989" s="140"/>
+      <c r="B989" s="92"/>
     </row>
     <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B990" s="140"/>
+      <c r="B990" s="92"/>
     </row>
     <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B991" s="140"/>
+      <c r="B991" s="92"/>
     </row>
     <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B992" s="140"/>
+      <c r="B992" s="92"/>
     </row>
     <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B993" s="140"/>
+      <c r="B993" s="92"/>
     </row>
     <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B994" s="140"/>
+      <c r="B994" s="92"/>
     </row>
     <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B995" s="140"/>
+      <c r="B995" s="92"/>
     </row>
     <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B996" s="140"/>
+      <c r="B996" s="92"/>
     </row>
     <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B997" s="140"/>
+      <c r="B997" s="92"/>
     </row>
     <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B998" s="140"/>
+      <c r="B998" s="92"/>
     </row>
     <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B999" s="140"/>
+      <c r="B999" s="92"/>
     </row>
     <row r="1000" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1000" s="140"/>
+      <c r="B1000" s="92"/>
     </row>
     <row r="1001" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1001" s="140"/>
+      <c r="B1001" s="92"/>
     </row>
     <row r="1002" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1002" s="140"/>
+      <c r="B1002" s="92"/>
     </row>
     <row r="1003" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1003" s="140"/>
+      <c r="B1003" s="92"/>
     </row>
     <row r="1004" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1004" s="140"/>
+      <c r="B1004" s="92"/>
     </row>
     <row r="1005" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1005" s="140"/>
+      <c r="B1005" s="92"/>
     </row>
     <row r="1006" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1006" s="140"/>
+      <c r="B1006" s="92"/>
     </row>
     <row r="1007" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1007" s="140"/>
+      <c r="B1007" s="92"/>
     </row>
     <row r="1008" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1008" s="140"/>
+      <c r="B1008" s="92"/>
     </row>
     <row r="1009" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1009" s="140"/>
+      <c r="B1009" s="92"/>
     </row>
     <row r="1010" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1010" s="140"/>
+      <c r="B1010" s="92"/>
     </row>
     <row r="1011" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1011" s="140"/>
+      <c r="B1011" s="92"/>
     </row>
     <row r="1012" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1012" s="140"/>
+      <c r="B1012" s="92"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H28" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="36">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="H4:H7"/>
@@ -8235,6 +8220,26 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8267,50 +8272,50 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="58" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="60" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="60" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="60" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="60" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="60" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8347,74 +8352,74 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>92</v>
       </c>
     </row>
@@ -9434,147 +9439,147 @@
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>93</v>
       </c>
     </row>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c95b7b4a9a622975/Dokumentumok/GitHub/jht52_squash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D5FD43F-F139-4D54-916A-A2008F27720A}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2473386-1B3F-419E-81BF-433DBEB96FB3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,11 +478,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1260,490 +1268,479 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3492,10 +3489,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="113" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3511,8 +3508,8 @@
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="106"/>
-      <c r="B3" s="109"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
@@ -3526,8 +3523,8 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="106"/>
-      <c r="B4" s="109"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
@@ -3541,8 +3538,8 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="106"/>
-      <c r="B5" s="110"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
@@ -3556,8 +3553,8 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="106"/>
-      <c r="B6" s="110"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="115"/>
       <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
@@ -3571,8 +3568,8 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="106"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
@@ -3586,7 +3583,7 @@
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="106"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3597,8 +3594,8 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="106"/>
-      <c r="B9" s="112" t="s">
+      <c r="A9" s="111"/>
+      <c r="B9" s="117" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -3614,8 +3611,8 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="106"/>
-      <c r="B10" s="113"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="118"/>
       <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
@@ -3629,8 +3626,8 @@
       <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
-      <c r="B11" s="113"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
@@ -3644,8 +3641,8 @@
       <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="106"/>
-      <c r="B12" s="114"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="29" t="s">
         <v>34</v>
       </c>
@@ -3659,7 +3656,7 @@
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="106"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="32"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -3670,8 +3667,8 @@
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="115" t="s">
+      <c r="A14" s="111"/>
+      <c r="B14" s="120" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="33" t="s">
@@ -3687,8 +3684,8 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="111"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="36" t="s">
         <v>36</v>
       </c>
@@ -3704,8 +3701,8 @@
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106"/>
-      <c r="B16" s="116"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="121"/>
       <c r="C16" s="36" t="s">
         <v>37</v>
       </c>
@@ -3721,8 +3718,8 @@
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106"/>
-      <c r="B17" s="116"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="121"/>
       <c r="C17" s="36" t="s">
         <v>38</v>
       </c>
@@ -3736,8 +3733,8 @@
       <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="106"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="36" t="s">
         <v>39</v>
       </c>
@@ -3751,8 +3748,8 @@
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="106"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="121"/>
       <c r="C19" s="40" t="s">
         <v>40</v>
       </c>
@@ -3768,8 +3765,8 @@
       <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="42" t="s">
         <v>41</v>
       </c>
@@ -4760,14 +4757,14 @@
   <dimension ref="A1:H1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="93" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="92" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" style="45" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" style="45" customWidth="1"/>
@@ -4781,7 +4778,7 @@
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="70" t="s">
@@ -4807,7 +4804,7 @@
       <c r="A2" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="62" t="s">
@@ -4819,7 +4816,7 @@
       <c r="E2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="93" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="62" t="s">
@@ -4831,7 +4828,7 @@
     </row>
     <row r="3" spans="1:8" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="72"/>
-      <c r="B3" s="88"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="56"/>
       <c r="D3" s="64"/>
       <c r="E3" s="56"/>
@@ -4840,76 +4837,76 @@
       <c r="H3" s="73"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="150" t="s">
+      <c r="H4" s="127" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="158" t="s">
+      <c r="A5" s="131"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="159" t="s">
+      <c r="G5" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="160"/>
+      <c r="H5" s="128"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="154"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="161" t="s">
+      <c r="A6" s="131"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="160"/>
+      <c r="H6" s="128"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="162"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="163" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="151"/>
+      <c r="H7" s="129"/>
     </row>
     <row r="8" spans="1:8" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74"/>
-      <c r="B8" s="89"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="47"/>
       <c r="D8" s="48"/>
       <c r="E8" s="47"/>
@@ -4918,10 +4915,10 @@
       <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -4930,10 +4927,10 @@
       <c r="D9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="95" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="62" t="s">
@@ -4945,7 +4942,7 @@
     </row>
     <row r="10" spans="1:8" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="76"/>
-      <c r="B10" s="89"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="47"/>
       <c r="D10" s="48"/>
       <c r="E10" s="47"/>
@@ -4954,48 +4951,48 @@
       <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="146" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="98" t="s">
+      <c r="F11" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="150" t="s">
+      <c r="H11" s="127" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="145"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="133"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="96" t="s">
+      <c r="A12" s="134"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="85" t="s">
+      <c r="G12" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="151"/>
+      <c r="H12" s="129"/>
     </row>
     <row r="13" spans="1:8" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="76"/>
-      <c r="B13" s="89"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
       <c r="E13" s="47"/>
@@ -5003,49 +5000,49 @@
       <c r="G13" s="47"/>
       <c r="H13" s="75"/>
     </row>
-    <row r="14" spans="1:8" s="57" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="146" t="s">
+    <row r="14" spans="1:8" s="165" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="120" t="s">
+      <c r="C14" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="136" t="s">
+      <c r="D14" s="166" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="122" t="s">
+      <c r="E14" s="149" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="148" t="s">
+      <c r="H14" s="127" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="57" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="147"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="95" t="s">
+    <row r="15" spans="1:8" s="165" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="134"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="149"/>
+      <c r="H15" s="129"/>
     </row>
     <row r="16" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="74"/>
-      <c r="B16" s="89"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="47"/>
       <c r="D16" s="48"/>
       <c r="E16" s="49"/>
@@ -5054,10 +5051,10 @@
       <c r="H16" s="75"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="86" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="62" t="s">
@@ -5069,7 +5066,7 @@
       <c r="E17" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="93" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="62" t="s">
@@ -5081,7 +5078,7 @@
     </row>
     <row r="18" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="77"/>
-      <c r="B18" s="90"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="78"/>
       <c r="D18" s="79"/>
       <c r="E18" s="78"/>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="81"/>
-      <c r="B19" s="91"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="50"/>
@@ -5101,7 +5098,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="77"/>
-      <c r="B20" s="90"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="78"/>
       <c r="D20" s="79"/>
       <c r="E20" s="78"/>
@@ -5110,48 +5107,48 @@
       <c r="H20" s="80"/>
     </row>
     <row r="21" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138" t="s">
+      <c r="A21" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="158" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="126" t="s">
+      <c r="C21" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="D21" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="128" t="s">
+      <c r="E21" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="99" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="142" t="s">
+      <c r="H21" s="141" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="139"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="101" t="s">
+      <c r="A22" s="136"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="98" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="143"/>
+      <c r="H22" s="142"/>
     </row>
     <row r="23" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="76"/>
-      <c r="B23" s="89"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="47"/>
       <c r="D23" s="48"/>
       <c r="E23" s="49"/>
@@ -5160,48 +5157,48 @@
       <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="164" t="s">
+      <c r="A24" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="130" t="s">
+      <c r="B24" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="132" t="s">
+      <c r="C24" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="132" t="s">
+      <c r="D24" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="134" t="s">
+      <c r="E24" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="165" t="s">
+      <c r="F24" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="166" t="s">
+      <c r="G24" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="167" t="s">
+      <c r="H24" s="139" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="168"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="96" t="s">
+      <c r="A25" s="124"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="169" t="s">
+      <c r="G25" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="170"/>
+      <c r="H25" s="140"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="76"/>
-      <c r="B26" s="89"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="47"/>
       <c r="D26" s="48"/>
       <c r="E26" s="49"/>
@@ -5210,3000 +5207,3020 @@
       <c r="H26" s="75"/>
     </row>
     <row r="27" spans="1:8" s="57" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="122" t="s">
+      <c r="E27" s="156" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="103" t="s">
+      <c r="F27" s="100" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="148" t="s">
+      <c r="H27" s="137" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="57" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="141"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="101" t="s">
+      <c r="A28" s="126"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="98" t="s">
         <v>47</v>
       </c>
       <c r="G28" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="149"/>
+      <c r="H28" s="138"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="92"/>
+      <c r="B29" s="91"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="92"/>
+      <c r="B30" s="91"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="92"/>
+      <c r="B31" s="91"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="92"/>
+      <c r="B32" s="91"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="92"/>
+      <c r="B33" s="91"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="92"/>
+      <c r="B34" s="91"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="92"/>
+      <c r="B35" s="91"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="92"/>
+      <c r="B36" s="91"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="92"/>
+      <c r="B37" s="91"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="92"/>
+      <c r="B38" s="91"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="92"/>
+      <c r="B39" s="91"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="92"/>
+      <c r="B40" s="91"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="92"/>
+      <c r="B41" s="91"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="92"/>
+      <c r="B42" s="91"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="92"/>
+      <c r="B43" s="91"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="92"/>
+      <c r="B44" s="91"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="92"/>
+      <c r="B45" s="91"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="92"/>
+      <c r="B46" s="91"/>
     </row>
     <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="92"/>
+      <c r="B47" s="91"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="92"/>
+      <c r="B48" s="91"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="92"/>
+      <c r="B49" s="91"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="92"/>
+      <c r="B50" s="91"/>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="92"/>
+      <c r="B51" s="91"/>
     </row>
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="92"/>
+      <c r="B52" s="91"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="92"/>
+      <c r="B53" s="91"/>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="92"/>
+      <c r="B54" s="91"/>
     </row>
     <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="92"/>
+      <c r="B55" s="91"/>
     </row>
     <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="92"/>
+      <c r="B56" s="91"/>
     </row>
     <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="92"/>
+      <c r="B57" s="91"/>
     </row>
     <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="92"/>
+      <c r="B58" s="91"/>
     </row>
     <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="92"/>
+      <c r="B59" s="91"/>
     </row>
     <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="92"/>
+      <c r="B60" s="91"/>
     </row>
     <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="92"/>
+      <c r="B61" s="91"/>
     </row>
     <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="92"/>
+      <c r="B62" s="91"/>
     </row>
     <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="92"/>
+      <c r="B63" s="91"/>
     </row>
     <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="92"/>
+      <c r="B64" s="91"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="92"/>
+      <c r="B65" s="91"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="92"/>
+      <c r="B66" s="91"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="92"/>
+      <c r="B67" s="91"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="92"/>
+      <c r="B68" s="91"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="92"/>
+      <c r="B69" s="91"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="92"/>
+      <c r="B70" s="91"/>
     </row>
     <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="92"/>
+      <c r="B71" s="91"/>
     </row>
     <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="92"/>
+      <c r="B72" s="91"/>
     </row>
     <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="92"/>
+      <c r="B73" s="91"/>
     </row>
     <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="92"/>
+      <c r="B74" s="91"/>
     </row>
     <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="92"/>
+      <c r="B75" s="91"/>
     </row>
     <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="92"/>
+      <c r="B76" s="91"/>
     </row>
     <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="92"/>
+      <c r="B77" s="91"/>
     </row>
     <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="92"/>
+      <c r="B78" s="91"/>
     </row>
     <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="92"/>
+      <c r="B79" s="91"/>
     </row>
     <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="92"/>
+      <c r="B80" s="91"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="92"/>
+      <c r="B81" s="91"/>
     </row>
     <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="92"/>
+      <c r="B82" s="91"/>
     </row>
     <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="92"/>
+      <c r="B83" s="91"/>
     </row>
     <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="92"/>
+      <c r="B84" s="91"/>
     </row>
     <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="92"/>
+      <c r="B85" s="91"/>
     </row>
     <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="92"/>
+      <c r="B86" s="91"/>
     </row>
     <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="92"/>
+      <c r="B87" s="91"/>
     </row>
     <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="92"/>
+      <c r="B88" s="91"/>
     </row>
     <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="92"/>
+      <c r="B89" s="91"/>
     </row>
     <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="92"/>
+      <c r="B90" s="91"/>
     </row>
     <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="92"/>
+      <c r="B91" s="91"/>
     </row>
     <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="92"/>
+      <c r="B92" s="91"/>
     </row>
     <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="92"/>
+      <c r="B93" s="91"/>
     </row>
     <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="92"/>
+      <c r="B94" s="91"/>
     </row>
     <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="92"/>
+      <c r="B95" s="91"/>
     </row>
     <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="92"/>
+      <c r="B96" s="91"/>
     </row>
     <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="92"/>
+      <c r="B97" s="91"/>
     </row>
     <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="92"/>
+      <c r="B98" s="91"/>
     </row>
     <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="92"/>
+      <c r="B99" s="91"/>
     </row>
     <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="92"/>
+      <c r="B100" s="91"/>
     </row>
     <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="92"/>
+      <c r="B101" s="91"/>
     </row>
     <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="92"/>
+      <c r="B102" s="91"/>
     </row>
     <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="92"/>
+      <c r="B103" s="91"/>
     </row>
     <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="92"/>
+      <c r="B104" s="91"/>
     </row>
     <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="92"/>
+      <c r="B105" s="91"/>
     </row>
     <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="92"/>
+      <c r="B106" s="91"/>
     </row>
     <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="92"/>
+      <c r="B107" s="91"/>
     </row>
     <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="92"/>
+      <c r="B108" s="91"/>
     </row>
     <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="92"/>
+      <c r="B109" s="91"/>
     </row>
     <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="92"/>
+      <c r="B110" s="91"/>
     </row>
     <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="92"/>
+      <c r="B111" s="91"/>
     </row>
     <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="92"/>
+      <c r="B112" s="91"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="92"/>
+      <c r="B113" s="91"/>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="92"/>
+      <c r="B114" s="91"/>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="92"/>
+      <c r="B115" s="91"/>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="92"/>
+      <c r="B116" s="91"/>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="92"/>
+      <c r="B117" s="91"/>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="92"/>
+      <c r="B118" s="91"/>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="92"/>
+      <c r="B119" s="91"/>
     </row>
     <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="92"/>
+      <c r="B120" s="91"/>
     </row>
     <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="92"/>
+      <c r="B121" s="91"/>
     </row>
     <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="92"/>
+      <c r="B122" s="91"/>
     </row>
     <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="92"/>
+      <c r="B123" s="91"/>
     </row>
     <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="92"/>
+      <c r="B124" s="91"/>
     </row>
     <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="92"/>
+      <c r="B125" s="91"/>
     </row>
     <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="92"/>
+      <c r="B126" s="91"/>
     </row>
     <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="92"/>
+      <c r="B127" s="91"/>
     </row>
     <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="92"/>
+      <c r="B128" s="91"/>
     </row>
     <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="92"/>
+      <c r="B129" s="91"/>
     </row>
     <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="92"/>
+      <c r="B130" s="91"/>
     </row>
     <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="92"/>
+      <c r="B131" s="91"/>
     </row>
     <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="92"/>
+      <c r="B132" s="91"/>
     </row>
     <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="92"/>
+      <c r="B133" s="91"/>
     </row>
     <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="92"/>
+      <c r="B134" s="91"/>
     </row>
     <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="92"/>
+      <c r="B135" s="91"/>
     </row>
     <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="92"/>
+      <c r="B136" s="91"/>
     </row>
     <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="92"/>
+      <c r="B137" s="91"/>
     </row>
     <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="92"/>
+      <c r="B138" s="91"/>
     </row>
     <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="92"/>
+      <c r="B139" s="91"/>
     </row>
     <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="92"/>
+      <c r="B140" s="91"/>
     </row>
     <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="92"/>
+      <c r="B141" s="91"/>
     </row>
     <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="92"/>
+      <c r="B142" s="91"/>
     </row>
     <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="92"/>
+      <c r="B143" s="91"/>
     </row>
     <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="92"/>
+      <c r="B144" s="91"/>
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="92"/>
+      <c r="B145" s="91"/>
     </row>
     <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="92"/>
+      <c r="B146" s="91"/>
     </row>
     <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="92"/>
+      <c r="B147" s="91"/>
     </row>
     <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="92"/>
+      <c r="B148" s="91"/>
     </row>
     <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="92"/>
+      <c r="B149" s="91"/>
     </row>
     <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="92"/>
+      <c r="B150" s="91"/>
     </row>
     <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="92"/>
+      <c r="B151" s="91"/>
     </row>
     <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="92"/>
+      <c r="B152" s="91"/>
     </row>
     <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="92"/>
+      <c r="B153" s="91"/>
     </row>
     <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="92"/>
+      <c r="B154" s="91"/>
     </row>
     <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="92"/>
+      <c r="B155" s="91"/>
     </row>
     <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="92"/>
+      <c r="B156" s="91"/>
     </row>
     <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="92"/>
+      <c r="B157" s="91"/>
     </row>
     <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="92"/>
+      <c r="B158" s="91"/>
     </row>
     <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="92"/>
+      <c r="B159" s="91"/>
     </row>
     <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="92"/>
+      <c r="B160" s="91"/>
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="92"/>
+      <c r="B161" s="91"/>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="92"/>
+      <c r="B162" s="91"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="92"/>
+      <c r="B163" s="91"/>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="92"/>
+      <c r="B164" s="91"/>
     </row>
     <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="92"/>
+      <c r="B165" s="91"/>
     </row>
     <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="92"/>
+      <c r="B166" s="91"/>
     </row>
     <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="92"/>
+      <c r="B167" s="91"/>
     </row>
     <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="92"/>
+      <c r="B168" s="91"/>
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="92"/>
+      <c r="B169" s="91"/>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="92"/>
+      <c r="B170" s="91"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="92"/>
+      <c r="B171" s="91"/>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="92"/>
+      <c r="B172" s="91"/>
     </row>
     <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="92"/>
+      <c r="B173" s="91"/>
     </row>
     <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="92"/>
+      <c r="B174" s="91"/>
     </row>
     <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="92"/>
+      <c r="B175" s="91"/>
     </row>
     <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="92"/>
+      <c r="B176" s="91"/>
     </row>
     <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="92"/>
+      <c r="B177" s="91"/>
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="92"/>
+      <c r="B178" s="91"/>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="92"/>
+      <c r="B179" s="91"/>
     </row>
     <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="92"/>
+      <c r="B180" s="91"/>
     </row>
     <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="92"/>
+      <c r="B181" s="91"/>
     </row>
     <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="92"/>
+      <c r="B182" s="91"/>
     </row>
     <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="92"/>
+      <c r="B183" s="91"/>
     </row>
     <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="92"/>
+      <c r="B184" s="91"/>
     </row>
     <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="92"/>
+      <c r="B185" s="91"/>
     </row>
     <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="92"/>
+      <c r="B186" s="91"/>
     </row>
     <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="92"/>
+      <c r="B187" s="91"/>
     </row>
     <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="92"/>
+      <c r="B188" s="91"/>
     </row>
     <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="92"/>
+      <c r="B189" s="91"/>
     </row>
     <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="92"/>
+      <c r="B190" s="91"/>
     </row>
     <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="92"/>
+      <c r="B191" s="91"/>
     </row>
     <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="92"/>
+      <c r="B192" s="91"/>
     </row>
     <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="92"/>
+      <c r="B193" s="91"/>
     </row>
     <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="92"/>
+      <c r="B194" s="91"/>
     </row>
     <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="92"/>
+      <c r="B195" s="91"/>
     </row>
     <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="92"/>
+      <c r="B196" s="91"/>
     </row>
     <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="92"/>
+      <c r="B197" s="91"/>
     </row>
     <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="92"/>
+      <c r="B198" s="91"/>
     </row>
     <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="92"/>
+      <c r="B199" s="91"/>
     </row>
     <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="92"/>
+      <c r="B200" s="91"/>
     </row>
     <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="92"/>
+      <c r="B201" s="91"/>
     </row>
     <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="92"/>
+      <c r="B202" s="91"/>
     </row>
     <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="92"/>
+      <c r="B203" s="91"/>
     </row>
     <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="92"/>
+      <c r="B204" s="91"/>
     </row>
     <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="92"/>
+      <c r="B205" s="91"/>
     </row>
     <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="92"/>
+      <c r="B206" s="91"/>
     </row>
     <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="92"/>
+      <c r="B207" s="91"/>
     </row>
     <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="92"/>
+      <c r="B208" s="91"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="92"/>
+      <c r="B209" s="91"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="92"/>
+      <c r="B210" s="91"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="92"/>
+      <c r="B211" s="91"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="92"/>
+      <c r="B212" s="91"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="92"/>
+      <c r="B213" s="91"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="92"/>
+      <c r="B214" s="91"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="92"/>
+      <c r="B215" s="91"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="92"/>
+      <c r="B216" s="91"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="92"/>
+      <c r="B217" s="91"/>
     </row>
     <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="92"/>
+      <c r="B218" s="91"/>
     </row>
     <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="92"/>
+      <c r="B219" s="91"/>
     </row>
     <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="92"/>
+      <c r="B220" s="91"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="92"/>
+      <c r="B221" s="91"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="92"/>
+      <c r="B222" s="91"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="92"/>
+      <c r="B223" s="91"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="92"/>
+      <c r="B224" s="91"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="92"/>
+      <c r="B225" s="91"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="92"/>
+      <c r="B226" s="91"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="92"/>
+      <c r="B227" s="91"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="92"/>
+      <c r="B228" s="91"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="92"/>
+      <c r="B229" s="91"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="92"/>
+      <c r="B230" s="91"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="92"/>
+      <c r="B231" s="91"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="92"/>
+      <c r="B232" s="91"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="92"/>
+      <c r="B233" s="91"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="92"/>
+      <c r="B234" s="91"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="92"/>
+      <c r="B235" s="91"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="92"/>
+      <c r="B236" s="91"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="92"/>
+      <c r="B237" s="91"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="92"/>
+      <c r="B238" s="91"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="92"/>
+      <c r="B239" s="91"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="92"/>
+      <c r="B240" s="91"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="92"/>
+      <c r="B241" s="91"/>
     </row>
     <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="92"/>
+      <c r="B242" s="91"/>
     </row>
     <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="92"/>
+      <c r="B243" s="91"/>
     </row>
     <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="92"/>
+      <c r="B244" s="91"/>
     </row>
     <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="92"/>
+      <c r="B245" s="91"/>
     </row>
     <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="92"/>
+      <c r="B246" s="91"/>
     </row>
     <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="92"/>
+      <c r="B247" s="91"/>
     </row>
     <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="92"/>
+      <c r="B248" s="91"/>
     </row>
     <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="92"/>
+      <c r="B249" s="91"/>
     </row>
     <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="92"/>
+      <c r="B250" s="91"/>
     </row>
     <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="92"/>
+      <c r="B251" s="91"/>
     </row>
     <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="92"/>
+      <c r="B252" s="91"/>
     </row>
     <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="92"/>
+      <c r="B253" s="91"/>
     </row>
     <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="92"/>
+      <c r="B254" s="91"/>
     </row>
     <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="92"/>
+      <c r="B255" s="91"/>
     </row>
     <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="92"/>
+      <c r="B256" s="91"/>
     </row>
     <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="92"/>
+      <c r="B257" s="91"/>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="92"/>
+      <c r="B258" s="91"/>
     </row>
     <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="92"/>
+      <c r="B259" s="91"/>
     </row>
     <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="92"/>
+      <c r="B260" s="91"/>
     </row>
     <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="92"/>
+      <c r="B261" s="91"/>
     </row>
     <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="92"/>
+      <c r="B262" s="91"/>
     </row>
     <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="92"/>
+      <c r="B263" s="91"/>
     </row>
     <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="92"/>
+      <c r="B264" s="91"/>
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="92"/>
+      <c r="B265" s="91"/>
     </row>
     <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="92"/>
+      <c r="B266" s="91"/>
     </row>
     <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="92"/>
+      <c r="B267" s="91"/>
     </row>
     <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="92"/>
+      <c r="B268" s="91"/>
     </row>
     <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="92"/>
+      <c r="B269" s="91"/>
     </row>
     <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="92"/>
+      <c r="B270" s="91"/>
     </row>
     <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="92"/>
+      <c r="B271" s="91"/>
     </row>
     <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="92"/>
+      <c r="B272" s="91"/>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="92"/>
+      <c r="B273" s="91"/>
     </row>
     <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="92"/>
+      <c r="B274" s="91"/>
     </row>
     <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="92"/>
+      <c r="B275" s="91"/>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="92"/>
+      <c r="B276" s="91"/>
     </row>
     <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="92"/>
+      <c r="B277" s="91"/>
     </row>
     <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="92"/>
+      <c r="B278" s="91"/>
     </row>
     <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="92"/>
+      <c r="B279" s="91"/>
     </row>
     <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="92"/>
+      <c r="B280" s="91"/>
     </row>
     <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="92"/>
+      <c r="B281" s="91"/>
     </row>
     <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="92"/>
+      <c r="B282" s="91"/>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="92"/>
+      <c r="B283" s="91"/>
     </row>
     <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="92"/>
+      <c r="B284" s="91"/>
     </row>
     <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="92"/>
+      <c r="B285" s="91"/>
     </row>
     <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="92"/>
+      <c r="B286" s="91"/>
     </row>
     <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="92"/>
+      <c r="B287" s="91"/>
     </row>
     <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="92"/>
+      <c r="B288" s="91"/>
     </row>
     <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="92"/>
+      <c r="B289" s="91"/>
     </row>
     <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B290" s="92"/>
+      <c r="B290" s="91"/>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="92"/>
+      <c r="B291" s="91"/>
     </row>
     <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="92"/>
+      <c r="B292" s="91"/>
     </row>
     <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="92"/>
+      <c r="B293" s="91"/>
     </row>
     <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="92"/>
+      <c r="B294" s="91"/>
     </row>
     <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="92"/>
+      <c r="B295" s="91"/>
     </row>
     <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="92"/>
+      <c r="B296" s="91"/>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="92"/>
+      <c r="B297" s="91"/>
     </row>
     <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="92"/>
+      <c r="B298" s="91"/>
     </row>
     <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="92"/>
+      <c r="B299" s="91"/>
     </row>
     <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B300" s="92"/>
+      <c r="B300" s="91"/>
     </row>
     <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="92"/>
+      <c r="B301" s="91"/>
     </row>
     <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B302" s="92"/>
+      <c r="B302" s="91"/>
     </row>
     <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="92"/>
+      <c r="B303" s="91"/>
     </row>
     <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B304" s="92"/>
+      <c r="B304" s="91"/>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B305" s="92"/>
+      <c r="B305" s="91"/>
     </row>
     <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="92"/>
+      <c r="B306" s="91"/>
     </row>
     <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B307" s="92"/>
+      <c r="B307" s="91"/>
     </row>
     <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B308" s="92"/>
+      <c r="B308" s="91"/>
     </row>
     <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B309" s="92"/>
+      <c r="B309" s="91"/>
     </row>
     <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="92"/>
+      <c r="B310" s="91"/>
     </row>
     <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B311" s="92"/>
+      <c r="B311" s="91"/>
     </row>
     <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="92"/>
+      <c r="B312" s="91"/>
     </row>
     <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B313" s="92"/>
+      <c r="B313" s="91"/>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B314" s="92"/>
+      <c r="B314" s="91"/>
     </row>
     <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B315" s="92"/>
+      <c r="B315" s="91"/>
     </row>
     <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B316" s="92"/>
+      <c r="B316" s="91"/>
     </row>
     <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B317" s="92"/>
+      <c r="B317" s="91"/>
     </row>
     <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="92"/>
+      <c r="B318" s="91"/>
     </row>
     <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B319" s="92"/>
+      <c r="B319" s="91"/>
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B320" s="92"/>
+      <c r="B320" s="91"/>
     </row>
     <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B321" s="92"/>
+      <c r="B321" s="91"/>
     </row>
     <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B322" s="92"/>
+      <c r="B322" s="91"/>
     </row>
     <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B323" s="92"/>
+      <c r="B323" s="91"/>
     </row>
     <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B324" s="92"/>
+      <c r="B324" s="91"/>
     </row>
     <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B325" s="92"/>
+      <c r="B325" s="91"/>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B326" s="92"/>
+      <c r="B326" s="91"/>
     </row>
     <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B327" s="92"/>
+      <c r="B327" s="91"/>
     </row>
     <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B328" s="92"/>
+      <c r="B328" s="91"/>
     </row>
     <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B329" s="92"/>
+      <c r="B329" s="91"/>
     </row>
     <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="92"/>
+      <c r="B330" s="91"/>
     </row>
     <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="92"/>
+      <c r="B331" s="91"/>
     </row>
     <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B332" s="92"/>
+      <c r="B332" s="91"/>
     </row>
     <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B333" s="92"/>
+      <c r="B333" s="91"/>
     </row>
     <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B334" s="92"/>
+      <c r="B334" s="91"/>
     </row>
     <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B335" s="92"/>
+      <c r="B335" s="91"/>
     </row>
     <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B336" s="92"/>
+      <c r="B336" s="91"/>
     </row>
     <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B337" s="92"/>
+      <c r="B337" s="91"/>
     </row>
     <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B338" s="92"/>
+      <c r="B338" s="91"/>
     </row>
     <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B339" s="92"/>
+      <c r="B339" s="91"/>
     </row>
     <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B340" s="92"/>
+      <c r="B340" s="91"/>
     </row>
     <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B341" s="92"/>
+      <c r="B341" s="91"/>
     </row>
     <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B342" s="92"/>
+      <c r="B342" s="91"/>
     </row>
     <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B343" s="92"/>
+      <c r="B343" s="91"/>
     </row>
     <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B344" s="92"/>
+      <c r="B344" s="91"/>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B345" s="92"/>
+      <c r="B345" s="91"/>
     </row>
     <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B346" s="92"/>
+      <c r="B346" s="91"/>
     </row>
     <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B347" s="92"/>
+      <c r="B347" s="91"/>
     </row>
     <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="92"/>
+      <c r="B348" s="91"/>
     </row>
     <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B349" s="92"/>
+      <c r="B349" s="91"/>
     </row>
     <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B350" s="92"/>
+      <c r="B350" s="91"/>
     </row>
     <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B351" s="92"/>
+      <c r="B351" s="91"/>
     </row>
     <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B352" s="92"/>
+      <c r="B352" s="91"/>
     </row>
     <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B353" s="92"/>
+      <c r="B353" s="91"/>
     </row>
     <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B354" s="92"/>
+      <c r="B354" s="91"/>
     </row>
     <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B355" s="92"/>
+      <c r="B355" s="91"/>
     </row>
     <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="92"/>
+      <c r="B356" s="91"/>
     </row>
     <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B357" s="92"/>
+      <c r="B357" s="91"/>
     </row>
     <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="92"/>
+      <c r="B358" s="91"/>
     </row>
     <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="92"/>
+      <c r="B359" s="91"/>
     </row>
     <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B360" s="92"/>
+      <c r="B360" s="91"/>
     </row>
     <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B361" s="92"/>
+      <c r="B361" s="91"/>
     </row>
     <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="92"/>
+      <c r="B362" s="91"/>
     </row>
     <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="92"/>
+      <c r="B363" s="91"/>
     </row>
     <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="92"/>
+      <c r="B364" s="91"/>
     </row>
     <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B365" s="92"/>
+      <c r="B365" s="91"/>
     </row>
     <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="92"/>
+      <c r="B366" s="91"/>
     </row>
     <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="92"/>
+      <c r="B367" s="91"/>
     </row>
     <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="92"/>
+      <c r="B368" s="91"/>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="92"/>
+      <c r="B369" s="91"/>
     </row>
     <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="92"/>
+      <c r="B370" s="91"/>
     </row>
     <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B371" s="92"/>
+      <c r="B371" s="91"/>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="92"/>
+      <c r="B372" s="91"/>
     </row>
     <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="92"/>
+      <c r="B373" s="91"/>
     </row>
     <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B374" s="92"/>
+      <c r="B374" s="91"/>
     </row>
     <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B375" s="92"/>
+      <c r="B375" s="91"/>
     </row>
     <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B376" s="92"/>
+      <c r="B376" s="91"/>
     </row>
     <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B377" s="92"/>
+      <c r="B377" s="91"/>
     </row>
     <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B378" s="92"/>
+      <c r="B378" s="91"/>
     </row>
     <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B379" s="92"/>
+      <c r="B379" s="91"/>
     </row>
     <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B380" s="92"/>
+      <c r="B380" s="91"/>
     </row>
     <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B381" s="92"/>
+      <c r="B381" s="91"/>
     </row>
     <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B382" s="92"/>
+      <c r="B382" s="91"/>
     </row>
     <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B383" s="92"/>
+      <c r="B383" s="91"/>
     </row>
     <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B384" s="92"/>
+      <c r="B384" s="91"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B385" s="92"/>
+      <c r="B385" s="91"/>
     </row>
     <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B386" s="92"/>
+      <c r="B386" s="91"/>
     </row>
     <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B387" s="92"/>
+      <c r="B387" s="91"/>
     </row>
     <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B388" s="92"/>
+      <c r="B388" s="91"/>
     </row>
     <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B389" s="92"/>
+      <c r="B389" s="91"/>
     </row>
     <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="92"/>
+      <c r="B390" s="91"/>
     </row>
     <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B391" s="92"/>
+      <c r="B391" s="91"/>
     </row>
     <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B392" s="92"/>
+      <c r="B392" s="91"/>
     </row>
     <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B393" s="92"/>
+      <c r="B393" s="91"/>
     </row>
     <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B394" s="92"/>
+      <c r="B394" s="91"/>
     </row>
     <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B395" s="92"/>
+      <c r="B395" s="91"/>
     </row>
     <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B396" s="92"/>
+      <c r="B396" s="91"/>
     </row>
     <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="92"/>
+      <c r="B397" s="91"/>
     </row>
     <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B398" s="92"/>
+      <c r="B398" s="91"/>
     </row>
     <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B399" s="92"/>
+      <c r="B399" s="91"/>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B400" s="92"/>
+      <c r="B400" s="91"/>
     </row>
     <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B401" s="92"/>
+      <c r="B401" s="91"/>
     </row>
     <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B402" s="92"/>
+      <c r="B402" s="91"/>
     </row>
     <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B403" s="92"/>
+      <c r="B403" s="91"/>
     </row>
     <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B404" s="92"/>
+      <c r="B404" s="91"/>
     </row>
     <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B405" s="92"/>
+      <c r="B405" s="91"/>
     </row>
     <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B406" s="92"/>
+      <c r="B406" s="91"/>
     </row>
     <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B407" s="92"/>
+      <c r="B407" s="91"/>
     </row>
     <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B408" s="92"/>
+      <c r="B408" s="91"/>
     </row>
     <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B409" s="92"/>
+      <c r="B409" s="91"/>
     </row>
     <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B410" s="92"/>
+      <c r="B410" s="91"/>
     </row>
     <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B411" s="92"/>
+      <c r="B411" s="91"/>
     </row>
     <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B412" s="92"/>
+      <c r="B412" s="91"/>
     </row>
     <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B413" s="92"/>
+      <c r="B413" s="91"/>
     </row>
     <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B414" s="92"/>
+      <c r="B414" s="91"/>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B415" s="92"/>
+      <c r="B415" s="91"/>
     </row>
     <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B416" s="92"/>
+      <c r="B416" s="91"/>
     </row>
     <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B417" s="92"/>
+      <c r="B417" s="91"/>
     </row>
     <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B418" s="92"/>
+      <c r="B418" s="91"/>
     </row>
     <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B419" s="92"/>
+      <c r="B419" s="91"/>
     </row>
     <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B420" s="92"/>
+      <c r="B420" s="91"/>
     </row>
     <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B421" s="92"/>
+      <c r="B421" s="91"/>
     </row>
     <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B422" s="92"/>
+      <c r="B422" s="91"/>
     </row>
     <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B423" s="92"/>
+      <c r="B423" s="91"/>
     </row>
     <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B424" s="92"/>
+      <c r="B424" s="91"/>
     </row>
     <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B425" s="92"/>
+      <c r="B425" s="91"/>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B426" s="92"/>
+      <c r="B426" s="91"/>
     </row>
     <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B427" s="92"/>
+      <c r="B427" s="91"/>
     </row>
     <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B428" s="92"/>
+      <c r="B428" s="91"/>
     </row>
     <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B429" s="92"/>
+      <c r="B429" s="91"/>
     </row>
     <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B430" s="92"/>
+      <c r="B430" s="91"/>
     </row>
     <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B431" s="92"/>
+      <c r="B431" s="91"/>
     </row>
     <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B432" s="92"/>
+      <c r="B432" s="91"/>
     </row>
     <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B433" s="92"/>
+      <c r="B433" s="91"/>
     </row>
     <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B434" s="92"/>
+      <c r="B434" s="91"/>
     </row>
     <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B435" s="92"/>
+      <c r="B435" s="91"/>
     </row>
     <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B436" s="92"/>
+      <c r="B436" s="91"/>
     </row>
     <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B437" s="92"/>
+      <c r="B437" s="91"/>
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B438" s="92"/>
+      <c r="B438" s="91"/>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B439" s="92"/>
+      <c r="B439" s="91"/>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B440" s="92"/>
+      <c r="B440" s="91"/>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B441" s="92"/>
+      <c r="B441" s="91"/>
     </row>
     <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B442" s="92"/>
+      <c r="B442" s="91"/>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B443" s="92"/>
+      <c r="B443" s="91"/>
     </row>
     <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B444" s="92"/>
+      <c r="B444" s="91"/>
     </row>
     <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B445" s="92"/>
+      <c r="B445" s="91"/>
     </row>
     <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B446" s="92"/>
+      <c r="B446" s="91"/>
     </row>
     <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B447" s="92"/>
+      <c r="B447" s="91"/>
     </row>
     <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B448" s="92"/>
+      <c r="B448" s="91"/>
     </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B449" s="92"/>
+      <c r="B449" s="91"/>
     </row>
     <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B450" s="92"/>
+      <c r="B450" s="91"/>
     </row>
     <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B451" s="92"/>
+      <c r="B451" s="91"/>
     </row>
     <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B452" s="92"/>
+      <c r="B452" s="91"/>
     </row>
     <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B453" s="92"/>
+      <c r="B453" s="91"/>
     </row>
     <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B454" s="92"/>
+      <c r="B454" s="91"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B455" s="92"/>
+      <c r="B455" s="91"/>
     </row>
     <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B456" s="92"/>
+      <c r="B456" s="91"/>
     </row>
     <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B457" s="92"/>
+      <c r="B457" s="91"/>
     </row>
     <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B458" s="92"/>
+      <c r="B458" s="91"/>
     </row>
     <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B459" s="92"/>
+      <c r="B459" s="91"/>
     </row>
     <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B460" s="92"/>
+      <c r="B460" s="91"/>
     </row>
     <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B461" s="92"/>
+      <c r="B461" s="91"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B462" s="92"/>
+      <c r="B462" s="91"/>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B463" s="92"/>
+      <c r="B463" s="91"/>
     </row>
     <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B464" s="92"/>
+      <c r="B464" s="91"/>
     </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B465" s="92"/>
+      <c r="B465" s="91"/>
     </row>
     <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B466" s="92"/>
+      <c r="B466" s="91"/>
     </row>
     <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B467" s="92"/>
+      <c r="B467" s="91"/>
     </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B468" s="92"/>
+      <c r="B468" s="91"/>
     </row>
     <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B469" s="92"/>
+      <c r="B469" s="91"/>
     </row>
     <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B470" s="92"/>
+      <c r="B470" s="91"/>
     </row>
     <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B471" s="92"/>
+      <c r="B471" s="91"/>
     </row>
     <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B472" s="92"/>
+      <c r="B472" s="91"/>
     </row>
     <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B473" s="92"/>
+      <c r="B473" s="91"/>
     </row>
     <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B474" s="92"/>
+      <c r="B474" s="91"/>
     </row>
     <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B475" s="92"/>
+      <c r="B475" s="91"/>
     </row>
     <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B476" s="92"/>
+      <c r="B476" s="91"/>
     </row>
     <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B477" s="92"/>
+      <c r="B477" s="91"/>
     </row>
     <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B478" s="92"/>
+      <c r="B478" s="91"/>
     </row>
     <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B479" s="92"/>
+      <c r="B479" s="91"/>
     </row>
     <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B480" s="92"/>
+      <c r="B480" s="91"/>
     </row>
     <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B481" s="92"/>
+      <c r="B481" s="91"/>
     </row>
     <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B482" s="92"/>
+      <c r="B482" s="91"/>
     </row>
     <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B483" s="92"/>
+      <c r="B483" s="91"/>
     </row>
     <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B484" s="92"/>
+      <c r="B484" s="91"/>
     </row>
     <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B485" s="92"/>
+      <c r="B485" s="91"/>
     </row>
     <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B486" s="92"/>
+      <c r="B486" s="91"/>
     </row>
     <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B487" s="92"/>
+      <c r="B487" s="91"/>
     </row>
     <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B488" s="92"/>
+      <c r="B488" s="91"/>
     </row>
     <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B489" s="92"/>
+      <c r="B489" s="91"/>
     </row>
     <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B490" s="92"/>
+      <c r="B490" s="91"/>
     </row>
     <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B491" s="92"/>
+      <c r="B491" s="91"/>
     </row>
     <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B492" s="92"/>
+      <c r="B492" s="91"/>
     </row>
     <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B493" s="92"/>
+      <c r="B493" s="91"/>
     </row>
     <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B494" s="92"/>
+      <c r="B494" s="91"/>
     </row>
     <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B495" s="92"/>
+      <c r="B495" s="91"/>
     </row>
     <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B496" s="92"/>
+      <c r="B496" s="91"/>
     </row>
     <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B497" s="92"/>
+      <c r="B497" s="91"/>
     </row>
     <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B498" s="92"/>
+      <c r="B498" s="91"/>
     </row>
     <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B499" s="92"/>
+      <c r="B499" s="91"/>
     </row>
     <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B500" s="92"/>
+      <c r="B500" s="91"/>
     </row>
     <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B501" s="92"/>
+      <c r="B501" s="91"/>
     </row>
     <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B502" s="92"/>
+      <c r="B502" s="91"/>
     </row>
     <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B503" s="92"/>
+      <c r="B503" s="91"/>
     </row>
     <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B504" s="92"/>
+      <c r="B504" s="91"/>
     </row>
     <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B505" s="92"/>
+      <c r="B505" s="91"/>
     </row>
     <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B506" s="92"/>
+      <c r="B506" s="91"/>
     </row>
     <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B507" s="92"/>
+      <c r="B507" s="91"/>
     </row>
     <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B508" s="92"/>
+      <c r="B508" s="91"/>
     </row>
     <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B509" s="92"/>
+      <c r="B509" s="91"/>
     </row>
     <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B510" s="92"/>
+      <c r="B510" s="91"/>
     </row>
     <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B511" s="92"/>
+      <c r="B511" s="91"/>
     </row>
     <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B512" s="92"/>
+      <c r="B512" s="91"/>
     </row>
     <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B513" s="92"/>
+      <c r="B513" s="91"/>
     </row>
     <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B514" s="92"/>
+      <c r="B514" s="91"/>
     </row>
     <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B515" s="92"/>
+      <c r="B515" s="91"/>
     </row>
     <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B516" s="92"/>
+      <c r="B516" s="91"/>
     </row>
     <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B517" s="92"/>
+      <c r="B517" s="91"/>
     </row>
     <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B518" s="92"/>
+      <c r="B518" s="91"/>
     </row>
     <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B519" s="92"/>
+      <c r="B519" s="91"/>
     </row>
     <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B520" s="92"/>
+      <c r="B520" s="91"/>
     </row>
     <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B521" s="92"/>
+      <c r="B521" s="91"/>
     </row>
     <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B522" s="92"/>
+      <c r="B522" s="91"/>
     </row>
     <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B523" s="92"/>
+      <c r="B523" s="91"/>
     </row>
     <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B524" s="92"/>
+      <c r="B524" s="91"/>
     </row>
     <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B525" s="92"/>
+      <c r="B525" s="91"/>
     </row>
     <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B526" s="92"/>
+      <c r="B526" s="91"/>
     </row>
     <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B527" s="92"/>
+      <c r="B527" s="91"/>
     </row>
     <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B528" s="92"/>
+      <c r="B528" s="91"/>
     </row>
     <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B529" s="92"/>
+      <c r="B529" s="91"/>
     </row>
     <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B530" s="92"/>
+      <c r="B530" s="91"/>
     </row>
     <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B531" s="92"/>
+      <c r="B531" s="91"/>
     </row>
     <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B532" s="92"/>
+      <c r="B532" s="91"/>
     </row>
     <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B533" s="92"/>
+      <c r="B533" s="91"/>
     </row>
     <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B534" s="92"/>
+      <c r="B534" s="91"/>
     </row>
     <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B535" s="92"/>
+      <c r="B535" s="91"/>
     </row>
     <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B536" s="92"/>
+      <c r="B536" s="91"/>
     </row>
     <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B537" s="92"/>
+      <c r="B537" s="91"/>
     </row>
     <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B538" s="92"/>
+      <c r="B538" s="91"/>
     </row>
     <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B539" s="92"/>
+      <c r="B539" s="91"/>
     </row>
     <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B540" s="92"/>
+      <c r="B540" s="91"/>
     </row>
     <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B541" s="92"/>
+      <c r="B541" s="91"/>
     </row>
     <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B542" s="92"/>
+      <c r="B542" s="91"/>
     </row>
     <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B543" s="92"/>
+      <c r="B543" s="91"/>
     </row>
     <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B544" s="92"/>
+      <c r="B544" s="91"/>
     </row>
     <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B545" s="92"/>
+      <c r="B545" s="91"/>
     </row>
     <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B546" s="92"/>
+      <c r="B546" s="91"/>
     </row>
     <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B547" s="92"/>
+      <c r="B547" s="91"/>
     </row>
     <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B548" s="92"/>
+      <c r="B548" s="91"/>
     </row>
     <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B549" s="92"/>
+      <c r="B549" s="91"/>
     </row>
     <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B550" s="92"/>
+      <c r="B550" s="91"/>
     </row>
     <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B551" s="92"/>
+      <c r="B551" s="91"/>
     </row>
     <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B552" s="92"/>
+      <c r="B552" s="91"/>
     </row>
     <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B553" s="92"/>
+      <c r="B553" s="91"/>
     </row>
     <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B554" s="92"/>
+      <c r="B554" s="91"/>
     </row>
     <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B555" s="92"/>
+      <c r="B555" s="91"/>
     </row>
     <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B556" s="92"/>
+      <c r="B556" s="91"/>
     </row>
     <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B557" s="92"/>
+      <c r="B557" s="91"/>
     </row>
     <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B558" s="92"/>
+      <c r="B558" s="91"/>
     </row>
     <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B559" s="92"/>
+      <c r="B559" s="91"/>
     </row>
     <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B560" s="92"/>
+      <c r="B560" s="91"/>
     </row>
     <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B561" s="92"/>
+      <c r="B561" s="91"/>
     </row>
     <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B562" s="92"/>
+      <c r="B562" s="91"/>
     </row>
     <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B563" s="92"/>
+      <c r="B563" s="91"/>
     </row>
     <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B564" s="92"/>
+      <c r="B564" s="91"/>
     </row>
     <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B565" s="92"/>
+      <c r="B565" s="91"/>
     </row>
     <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B566" s="92"/>
+      <c r="B566" s="91"/>
     </row>
     <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B567" s="92"/>
+      <c r="B567" s="91"/>
     </row>
     <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B568" s="92"/>
+      <c r="B568" s="91"/>
     </row>
     <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B569" s="92"/>
+      <c r="B569" s="91"/>
     </row>
     <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B570" s="92"/>
+      <c r="B570" s="91"/>
     </row>
     <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B571" s="92"/>
+      <c r="B571" s="91"/>
     </row>
     <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B572" s="92"/>
+      <c r="B572" s="91"/>
     </row>
     <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B573" s="92"/>
+      <c r="B573" s="91"/>
     </row>
     <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B574" s="92"/>
+      <c r="B574" s="91"/>
     </row>
     <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B575" s="92"/>
+      <c r="B575" s="91"/>
     </row>
     <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B576" s="92"/>
+      <c r="B576" s="91"/>
     </row>
     <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B577" s="92"/>
+      <c r="B577" s="91"/>
     </row>
     <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B578" s="92"/>
+      <c r="B578" s="91"/>
     </row>
     <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B579" s="92"/>
+      <c r="B579" s="91"/>
     </row>
     <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B580" s="92"/>
+      <c r="B580" s="91"/>
     </row>
     <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B581" s="92"/>
+      <c r="B581" s="91"/>
     </row>
     <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B582" s="92"/>
+      <c r="B582" s="91"/>
     </row>
     <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B583" s="92"/>
+      <c r="B583" s="91"/>
     </row>
     <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B584" s="92"/>
+      <c r="B584" s="91"/>
     </row>
     <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B585" s="92"/>
+      <c r="B585" s="91"/>
     </row>
     <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B586" s="92"/>
+      <c r="B586" s="91"/>
     </row>
     <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B587" s="92"/>
+      <c r="B587" s="91"/>
     </row>
     <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B588" s="92"/>
+      <c r="B588" s="91"/>
     </row>
     <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B589" s="92"/>
+      <c r="B589" s="91"/>
     </row>
     <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B590" s="92"/>
+      <c r="B590" s="91"/>
     </row>
     <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B591" s="92"/>
+      <c r="B591" s="91"/>
     </row>
     <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B592" s="92"/>
+      <c r="B592" s="91"/>
     </row>
     <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B593" s="92"/>
+      <c r="B593" s="91"/>
     </row>
     <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B594" s="92"/>
+      <c r="B594" s="91"/>
     </row>
     <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B595" s="92"/>
+      <c r="B595" s="91"/>
     </row>
     <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B596" s="92"/>
+      <c r="B596" s="91"/>
     </row>
     <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B597" s="92"/>
+      <c r="B597" s="91"/>
     </row>
     <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B598" s="92"/>
+      <c r="B598" s="91"/>
     </row>
     <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B599" s="92"/>
+      <c r="B599" s="91"/>
     </row>
     <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B600" s="92"/>
+      <c r="B600" s="91"/>
     </row>
     <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B601" s="92"/>
+      <c r="B601" s="91"/>
     </row>
     <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B602" s="92"/>
+      <c r="B602" s="91"/>
     </row>
     <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B603" s="92"/>
+      <c r="B603" s="91"/>
     </row>
     <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B604" s="92"/>
+      <c r="B604" s="91"/>
     </row>
     <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B605" s="92"/>
+      <c r="B605" s="91"/>
     </row>
     <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B606" s="92"/>
+      <c r="B606" s="91"/>
     </row>
     <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B607" s="92"/>
+      <c r="B607" s="91"/>
     </row>
     <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B608" s="92"/>
+      <c r="B608" s="91"/>
     </row>
     <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B609" s="92"/>
+      <c r="B609" s="91"/>
     </row>
     <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B610" s="92"/>
+      <c r="B610" s="91"/>
     </row>
     <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B611" s="92"/>
+      <c r="B611" s="91"/>
     </row>
     <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B612" s="92"/>
+      <c r="B612" s="91"/>
     </row>
     <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B613" s="92"/>
+      <c r="B613" s="91"/>
     </row>
     <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B614" s="92"/>
+      <c r="B614" s="91"/>
     </row>
     <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B615" s="92"/>
+      <c r="B615" s="91"/>
     </row>
     <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B616" s="92"/>
+      <c r="B616" s="91"/>
     </row>
     <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B617" s="92"/>
+      <c r="B617" s="91"/>
     </row>
     <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B618" s="92"/>
+      <c r="B618" s="91"/>
     </row>
     <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B619" s="92"/>
+      <c r="B619" s="91"/>
     </row>
     <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B620" s="92"/>
+      <c r="B620" s="91"/>
     </row>
     <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B621" s="92"/>
+      <c r="B621" s="91"/>
     </row>
     <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B622" s="92"/>
+      <c r="B622" s="91"/>
     </row>
     <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B623" s="92"/>
+      <c r="B623" s="91"/>
     </row>
     <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B624" s="92"/>
+      <c r="B624" s="91"/>
     </row>
     <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B625" s="92"/>
+      <c r="B625" s="91"/>
     </row>
     <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B626" s="92"/>
+      <c r="B626" s="91"/>
     </row>
     <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B627" s="92"/>
+      <c r="B627" s="91"/>
     </row>
     <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B628" s="92"/>
+      <c r="B628" s="91"/>
     </row>
     <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B629" s="92"/>
+      <c r="B629" s="91"/>
     </row>
     <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B630" s="92"/>
+      <c r="B630" s="91"/>
     </row>
     <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B631" s="92"/>
+      <c r="B631" s="91"/>
     </row>
     <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B632" s="92"/>
+      <c r="B632" s="91"/>
     </row>
     <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B633" s="92"/>
+      <c r="B633" s="91"/>
     </row>
     <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B634" s="92"/>
+      <c r="B634" s="91"/>
     </row>
     <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B635" s="92"/>
+      <c r="B635" s="91"/>
     </row>
     <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B636" s="92"/>
+      <c r="B636" s="91"/>
     </row>
     <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B637" s="92"/>
+      <c r="B637" s="91"/>
     </row>
     <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B638" s="92"/>
+      <c r="B638" s="91"/>
     </row>
     <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B639" s="92"/>
+      <c r="B639" s="91"/>
     </row>
     <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B640" s="92"/>
+      <c r="B640" s="91"/>
     </row>
     <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B641" s="92"/>
+      <c r="B641" s="91"/>
     </row>
     <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B642" s="92"/>
+      <c r="B642" s="91"/>
     </row>
     <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B643" s="92"/>
+      <c r="B643" s="91"/>
     </row>
     <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B644" s="92"/>
+      <c r="B644" s="91"/>
     </row>
     <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B645" s="92"/>
+      <c r="B645" s="91"/>
     </row>
     <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B646" s="92"/>
+      <c r="B646" s="91"/>
     </row>
     <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B647" s="92"/>
+      <c r="B647" s="91"/>
     </row>
     <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B648" s="92"/>
+      <c r="B648" s="91"/>
     </row>
     <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B649" s="92"/>
+      <c r="B649" s="91"/>
     </row>
     <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B650" s="92"/>
+      <c r="B650" s="91"/>
     </row>
     <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B651" s="92"/>
+      <c r="B651" s="91"/>
     </row>
     <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B652" s="92"/>
+      <c r="B652" s="91"/>
     </row>
     <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B653" s="92"/>
+      <c r="B653" s="91"/>
     </row>
     <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B654" s="92"/>
+      <c r="B654" s="91"/>
     </row>
     <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B655" s="92"/>
+      <c r="B655" s="91"/>
     </row>
     <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B656" s="92"/>
+      <c r="B656" s="91"/>
     </row>
     <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B657" s="92"/>
+      <c r="B657" s="91"/>
     </row>
     <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B658" s="92"/>
+      <c r="B658" s="91"/>
     </row>
     <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B659" s="92"/>
+      <c r="B659" s="91"/>
     </row>
     <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B660" s="92"/>
+      <c r="B660" s="91"/>
     </row>
     <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B661" s="92"/>
+      <c r="B661" s="91"/>
     </row>
     <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B662" s="92"/>
+      <c r="B662" s="91"/>
     </row>
     <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B663" s="92"/>
+      <c r="B663" s="91"/>
     </row>
     <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B664" s="92"/>
+      <c r="B664" s="91"/>
     </row>
     <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B665" s="92"/>
+      <c r="B665" s="91"/>
     </row>
     <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B666" s="92"/>
+      <c r="B666" s="91"/>
     </row>
     <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B667" s="92"/>
+      <c r="B667" s="91"/>
     </row>
     <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B668" s="92"/>
+      <c r="B668" s="91"/>
     </row>
     <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B669" s="92"/>
+      <c r="B669" s="91"/>
     </row>
     <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B670" s="92"/>
+      <c r="B670" s="91"/>
     </row>
     <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B671" s="92"/>
+      <c r="B671" s="91"/>
     </row>
     <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B672" s="92"/>
+      <c r="B672" s="91"/>
     </row>
     <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B673" s="92"/>
+      <c r="B673" s="91"/>
     </row>
     <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B674" s="92"/>
+      <c r="B674" s="91"/>
     </row>
     <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B675" s="92"/>
+      <c r="B675" s="91"/>
     </row>
     <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B676" s="92"/>
+      <c r="B676" s="91"/>
     </row>
     <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B677" s="92"/>
+      <c r="B677" s="91"/>
     </row>
     <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B678" s="92"/>
+      <c r="B678" s="91"/>
     </row>
     <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B679" s="92"/>
+      <c r="B679" s="91"/>
     </row>
     <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B680" s="92"/>
+      <c r="B680" s="91"/>
     </row>
     <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B681" s="92"/>
+      <c r="B681" s="91"/>
     </row>
     <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B682" s="92"/>
+      <c r="B682" s="91"/>
     </row>
     <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B683" s="92"/>
+      <c r="B683" s="91"/>
     </row>
     <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B684" s="92"/>
+      <c r="B684" s="91"/>
     </row>
     <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B685" s="92"/>
+      <c r="B685" s="91"/>
     </row>
     <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B686" s="92"/>
+      <c r="B686" s="91"/>
     </row>
     <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B687" s="92"/>
+      <c r="B687" s="91"/>
     </row>
     <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B688" s="92"/>
+      <c r="B688" s="91"/>
     </row>
     <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B689" s="92"/>
+      <c r="B689" s="91"/>
     </row>
     <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B690" s="92"/>
+      <c r="B690" s="91"/>
     </row>
     <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B691" s="92"/>
+      <c r="B691" s="91"/>
     </row>
     <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B692" s="92"/>
+      <c r="B692" s="91"/>
     </row>
     <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B693" s="92"/>
+      <c r="B693" s="91"/>
     </row>
     <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B694" s="92"/>
+      <c r="B694" s="91"/>
     </row>
     <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B695" s="92"/>
+      <c r="B695" s="91"/>
     </row>
     <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B696" s="92"/>
+      <c r="B696" s="91"/>
     </row>
     <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B697" s="92"/>
+      <c r="B697" s="91"/>
     </row>
     <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B698" s="92"/>
+      <c r="B698" s="91"/>
     </row>
     <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B699" s="92"/>
+      <c r="B699" s="91"/>
     </row>
     <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B700" s="92"/>
+      <c r="B700" s="91"/>
     </row>
     <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B701" s="92"/>
+      <c r="B701" s="91"/>
     </row>
     <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B702" s="92"/>
+      <c r="B702" s="91"/>
     </row>
     <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B703" s="92"/>
+      <c r="B703" s="91"/>
     </row>
     <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B704" s="92"/>
+      <c r="B704" s="91"/>
     </row>
     <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B705" s="92"/>
+      <c r="B705" s="91"/>
     </row>
     <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B706" s="92"/>
+      <c r="B706" s="91"/>
     </row>
     <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B707" s="92"/>
+      <c r="B707" s="91"/>
     </row>
     <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B708" s="92"/>
+      <c r="B708" s="91"/>
     </row>
     <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B709" s="92"/>
+      <c r="B709" s="91"/>
     </row>
     <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B710" s="92"/>
+      <c r="B710" s="91"/>
     </row>
     <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B711" s="92"/>
+      <c r="B711" s="91"/>
     </row>
     <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B712" s="92"/>
+      <c r="B712" s="91"/>
     </row>
     <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B713" s="92"/>
+      <c r="B713" s="91"/>
     </row>
     <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B714" s="92"/>
+      <c r="B714" s="91"/>
     </row>
     <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B715" s="92"/>
+      <c r="B715" s="91"/>
     </row>
     <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B716" s="92"/>
+      <c r="B716" s="91"/>
     </row>
     <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B717" s="92"/>
+      <c r="B717" s="91"/>
     </row>
     <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B718" s="92"/>
+      <c r="B718" s="91"/>
     </row>
     <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B719" s="92"/>
+      <c r="B719" s="91"/>
     </row>
     <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B720" s="92"/>
+      <c r="B720" s="91"/>
     </row>
     <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B721" s="92"/>
+      <c r="B721" s="91"/>
     </row>
     <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B722" s="92"/>
+      <c r="B722" s="91"/>
     </row>
     <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B723" s="92"/>
+      <c r="B723" s="91"/>
     </row>
     <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B724" s="92"/>
+      <c r="B724" s="91"/>
     </row>
     <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B725" s="92"/>
+      <c r="B725" s="91"/>
     </row>
     <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B726" s="92"/>
+      <c r="B726" s="91"/>
     </row>
     <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B727" s="92"/>
+      <c r="B727" s="91"/>
     </row>
     <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B728" s="92"/>
+      <c r="B728" s="91"/>
     </row>
     <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B729" s="92"/>
+      <c r="B729" s="91"/>
     </row>
     <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B730" s="92"/>
+      <c r="B730" s="91"/>
     </row>
     <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B731" s="92"/>
+      <c r="B731" s="91"/>
     </row>
     <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B732" s="92"/>
+      <c r="B732" s="91"/>
     </row>
     <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B733" s="92"/>
+      <c r="B733" s="91"/>
     </row>
     <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B734" s="92"/>
+      <c r="B734" s="91"/>
     </row>
     <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B735" s="92"/>
+      <c r="B735" s="91"/>
     </row>
     <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B736" s="92"/>
+      <c r="B736" s="91"/>
     </row>
     <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B737" s="92"/>
+      <c r="B737" s="91"/>
     </row>
     <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B738" s="92"/>
+      <c r="B738" s="91"/>
     </row>
     <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B739" s="92"/>
+      <c r="B739" s="91"/>
     </row>
     <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B740" s="92"/>
+      <c r="B740" s="91"/>
     </row>
     <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B741" s="92"/>
+      <c r="B741" s="91"/>
     </row>
     <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B742" s="92"/>
+      <c r="B742" s="91"/>
     </row>
     <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B743" s="92"/>
+      <c r="B743" s="91"/>
     </row>
     <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B744" s="92"/>
+      <c r="B744" s="91"/>
     </row>
     <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B745" s="92"/>
+      <c r="B745" s="91"/>
     </row>
     <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B746" s="92"/>
+      <c r="B746" s="91"/>
     </row>
     <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B747" s="92"/>
+      <c r="B747" s="91"/>
     </row>
     <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B748" s="92"/>
+      <c r="B748" s="91"/>
     </row>
     <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B749" s="92"/>
+      <c r="B749" s="91"/>
     </row>
     <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B750" s="92"/>
+      <c r="B750" s="91"/>
     </row>
     <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B751" s="92"/>
+      <c r="B751" s="91"/>
     </row>
     <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B752" s="92"/>
+      <c r="B752" s="91"/>
     </row>
     <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B753" s="92"/>
+      <c r="B753" s="91"/>
     </row>
     <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B754" s="92"/>
+      <c r="B754" s="91"/>
     </row>
     <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B755" s="92"/>
+      <c r="B755" s="91"/>
     </row>
     <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B756" s="92"/>
+      <c r="B756" s="91"/>
     </row>
     <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B757" s="92"/>
+      <c r="B757" s="91"/>
     </row>
     <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B758" s="92"/>
+      <c r="B758" s="91"/>
     </row>
     <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B759" s="92"/>
+      <c r="B759" s="91"/>
     </row>
     <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B760" s="92"/>
+      <c r="B760" s="91"/>
     </row>
     <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B761" s="92"/>
+      <c r="B761" s="91"/>
     </row>
     <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B762" s="92"/>
+      <c r="B762" s="91"/>
     </row>
     <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B763" s="92"/>
+      <c r="B763" s="91"/>
     </row>
     <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B764" s="92"/>
+      <c r="B764" s="91"/>
     </row>
     <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B765" s="92"/>
+      <c r="B765" s="91"/>
     </row>
     <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B766" s="92"/>
+      <c r="B766" s="91"/>
     </row>
     <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B767" s="92"/>
+      <c r="B767" s="91"/>
     </row>
     <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B768" s="92"/>
+      <c r="B768" s="91"/>
     </row>
     <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B769" s="92"/>
+      <c r="B769" s="91"/>
     </row>
     <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B770" s="92"/>
+      <c r="B770" s="91"/>
     </row>
     <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B771" s="92"/>
+      <c r="B771" s="91"/>
     </row>
     <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B772" s="92"/>
+      <c r="B772" s="91"/>
     </row>
     <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B773" s="92"/>
+      <c r="B773" s="91"/>
     </row>
     <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B774" s="92"/>
+      <c r="B774" s="91"/>
     </row>
     <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B775" s="92"/>
+      <c r="B775" s="91"/>
     </row>
     <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B776" s="92"/>
+      <c r="B776" s="91"/>
     </row>
     <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B777" s="92"/>
+      <c r="B777" s="91"/>
     </row>
     <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B778" s="92"/>
+      <c r="B778" s="91"/>
     </row>
     <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B779" s="92"/>
+      <c r="B779" s="91"/>
     </row>
     <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B780" s="92"/>
+      <c r="B780" s="91"/>
     </row>
     <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B781" s="92"/>
+      <c r="B781" s="91"/>
     </row>
     <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B782" s="92"/>
+      <c r="B782" s="91"/>
     </row>
     <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B783" s="92"/>
+      <c r="B783" s="91"/>
     </row>
     <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B784" s="92"/>
+      <c r="B784" s="91"/>
     </row>
     <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B785" s="92"/>
+      <c r="B785" s="91"/>
     </row>
     <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B786" s="92"/>
+      <c r="B786" s="91"/>
     </row>
     <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B787" s="92"/>
+      <c r="B787" s="91"/>
     </row>
     <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B788" s="92"/>
+      <c r="B788" s="91"/>
     </row>
     <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B789" s="92"/>
+      <c r="B789" s="91"/>
     </row>
     <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B790" s="92"/>
+      <c r="B790" s="91"/>
     </row>
     <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B791" s="92"/>
+      <c r="B791" s="91"/>
     </row>
     <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B792" s="92"/>
+      <c r="B792" s="91"/>
     </row>
     <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B793" s="92"/>
+      <c r="B793" s="91"/>
     </row>
     <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B794" s="92"/>
+      <c r="B794" s="91"/>
     </row>
     <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B795" s="92"/>
+      <c r="B795" s="91"/>
     </row>
     <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B796" s="92"/>
+      <c r="B796" s="91"/>
     </row>
     <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B797" s="92"/>
+      <c r="B797" s="91"/>
     </row>
     <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B798" s="92"/>
+      <c r="B798" s="91"/>
     </row>
     <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B799" s="92"/>
+      <c r="B799" s="91"/>
     </row>
     <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B800" s="92"/>
+      <c r="B800" s="91"/>
     </row>
     <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B801" s="92"/>
+      <c r="B801" s="91"/>
     </row>
     <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B802" s="92"/>
+      <c r="B802" s="91"/>
     </row>
     <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B803" s="92"/>
+      <c r="B803" s="91"/>
     </row>
     <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B804" s="92"/>
+      <c r="B804" s="91"/>
     </row>
     <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B805" s="92"/>
+      <c r="B805" s="91"/>
     </row>
     <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B806" s="92"/>
+      <c r="B806" s="91"/>
     </row>
     <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B807" s="92"/>
+      <c r="B807" s="91"/>
     </row>
     <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B808" s="92"/>
+      <c r="B808" s="91"/>
     </row>
     <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B809" s="92"/>
+      <c r="B809" s="91"/>
     </row>
     <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B810" s="92"/>
+      <c r="B810" s="91"/>
     </row>
     <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B811" s="92"/>
+      <c r="B811" s="91"/>
     </row>
     <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B812" s="92"/>
+      <c r="B812" s="91"/>
     </row>
     <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B813" s="92"/>
+      <c r="B813" s="91"/>
     </row>
     <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B814" s="92"/>
+      <c r="B814" s="91"/>
     </row>
     <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B815" s="92"/>
+      <c r="B815" s="91"/>
     </row>
     <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B816" s="92"/>
+      <c r="B816" s="91"/>
     </row>
     <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B817" s="92"/>
+      <c r="B817" s="91"/>
     </row>
     <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B818" s="92"/>
+      <c r="B818" s="91"/>
     </row>
     <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B819" s="92"/>
+      <c r="B819" s="91"/>
     </row>
     <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B820" s="92"/>
+      <c r="B820" s="91"/>
     </row>
     <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B821" s="92"/>
+      <c r="B821" s="91"/>
     </row>
     <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B822" s="92"/>
+      <c r="B822" s="91"/>
     </row>
     <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B823" s="92"/>
+      <c r="B823" s="91"/>
     </row>
     <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B824" s="92"/>
+      <c r="B824" s="91"/>
     </row>
     <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B825" s="92"/>
+      <c r="B825" s="91"/>
     </row>
     <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B826" s="92"/>
+      <c r="B826" s="91"/>
     </row>
     <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B827" s="92"/>
+      <c r="B827" s="91"/>
     </row>
     <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B828" s="92"/>
+      <c r="B828" s="91"/>
     </row>
     <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B829" s="92"/>
+      <c r="B829" s="91"/>
     </row>
     <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B830" s="92"/>
+      <c r="B830" s="91"/>
     </row>
     <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B831" s="92"/>
+      <c r="B831" s="91"/>
     </row>
     <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B832" s="92"/>
+      <c r="B832" s="91"/>
     </row>
     <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B833" s="92"/>
+      <c r="B833" s="91"/>
     </row>
     <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B834" s="92"/>
+      <c r="B834" s="91"/>
     </row>
     <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B835" s="92"/>
+      <c r="B835" s="91"/>
     </row>
     <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B836" s="92"/>
+      <c r="B836" s="91"/>
     </row>
     <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B837" s="92"/>
+      <c r="B837" s="91"/>
     </row>
     <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B838" s="92"/>
+      <c r="B838" s="91"/>
     </row>
     <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B839" s="92"/>
+      <c r="B839" s="91"/>
     </row>
     <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B840" s="92"/>
+      <c r="B840" s="91"/>
     </row>
     <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B841" s="92"/>
+      <c r="B841" s="91"/>
     </row>
     <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B842" s="92"/>
+      <c r="B842" s="91"/>
     </row>
     <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B843" s="92"/>
+      <c r="B843" s="91"/>
     </row>
     <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B844" s="92"/>
+      <c r="B844" s="91"/>
     </row>
     <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B845" s="92"/>
+      <c r="B845" s="91"/>
     </row>
     <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B846" s="92"/>
+      <c r="B846" s="91"/>
     </row>
     <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B847" s="92"/>
+      <c r="B847" s="91"/>
     </row>
     <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B848" s="92"/>
+      <c r="B848" s="91"/>
     </row>
     <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B849" s="92"/>
+      <c r="B849" s="91"/>
     </row>
     <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B850" s="92"/>
+      <c r="B850" s="91"/>
     </row>
     <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B851" s="92"/>
+      <c r="B851" s="91"/>
     </row>
     <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B852" s="92"/>
+      <c r="B852" s="91"/>
     </row>
     <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B853" s="92"/>
+      <c r="B853" s="91"/>
     </row>
     <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B854" s="92"/>
+      <c r="B854" s="91"/>
     </row>
     <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B855" s="92"/>
+      <c r="B855" s="91"/>
     </row>
     <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B856" s="92"/>
+      <c r="B856" s="91"/>
     </row>
     <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B857" s="92"/>
+      <c r="B857" s="91"/>
     </row>
     <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B858" s="92"/>
+      <c r="B858" s="91"/>
     </row>
     <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B859" s="92"/>
+      <c r="B859" s="91"/>
     </row>
     <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B860" s="92"/>
+      <c r="B860" s="91"/>
     </row>
     <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B861" s="92"/>
+      <c r="B861" s="91"/>
     </row>
     <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B862" s="92"/>
+      <c r="B862" s="91"/>
     </row>
     <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B863" s="92"/>
+      <c r="B863" s="91"/>
     </row>
     <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B864" s="92"/>
+      <c r="B864" s="91"/>
     </row>
     <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B865" s="92"/>
+      <c r="B865" s="91"/>
     </row>
     <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B866" s="92"/>
+      <c r="B866" s="91"/>
     </row>
     <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B867" s="92"/>
+      <c r="B867" s="91"/>
     </row>
     <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B868" s="92"/>
+      <c r="B868" s="91"/>
     </row>
     <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B869" s="92"/>
+      <c r="B869" s="91"/>
     </row>
     <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B870" s="92"/>
+      <c r="B870" s="91"/>
     </row>
     <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B871" s="92"/>
+      <c r="B871" s="91"/>
     </row>
     <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B872" s="92"/>
+      <c r="B872" s="91"/>
     </row>
     <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B873" s="92"/>
+      <c r="B873" s="91"/>
     </row>
     <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B874" s="92"/>
+      <c r="B874" s="91"/>
     </row>
     <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B875" s="92"/>
+      <c r="B875" s="91"/>
     </row>
     <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B876" s="92"/>
+      <c r="B876" s="91"/>
     </row>
     <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B877" s="92"/>
+      <c r="B877" s="91"/>
     </row>
     <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B878" s="92"/>
+      <c r="B878" s="91"/>
     </row>
     <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B879" s="92"/>
+      <c r="B879" s="91"/>
     </row>
     <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B880" s="92"/>
+      <c r="B880" s="91"/>
     </row>
     <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B881" s="92"/>
+      <c r="B881" s="91"/>
     </row>
     <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B882" s="92"/>
+      <c r="B882" s="91"/>
     </row>
     <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B883" s="92"/>
+      <c r="B883" s="91"/>
     </row>
     <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B884" s="92"/>
+      <c r="B884" s="91"/>
     </row>
     <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B885" s="92"/>
+      <c r="B885" s="91"/>
     </row>
     <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B886" s="92"/>
+      <c r="B886" s="91"/>
     </row>
     <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B887" s="92"/>
+      <c r="B887" s="91"/>
     </row>
     <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B888" s="92"/>
+      <c r="B888" s="91"/>
     </row>
     <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B889" s="92"/>
+      <c r="B889" s="91"/>
     </row>
     <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B890" s="92"/>
+      <c r="B890" s="91"/>
     </row>
     <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B891" s="92"/>
+      <c r="B891" s="91"/>
     </row>
     <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B892" s="92"/>
+      <c r="B892" s="91"/>
     </row>
     <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B893" s="92"/>
+      <c r="B893" s="91"/>
     </row>
     <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B894" s="92"/>
+      <c r="B894" s="91"/>
     </row>
     <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B895" s="92"/>
+      <c r="B895" s="91"/>
     </row>
     <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B896" s="92"/>
+      <c r="B896" s="91"/>
     </row>
     <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B897" s="92"/>
+      <c r="B897" s="91"/>
     </row>
     <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B898" s="92"/>
+      <c r="B898" s="91"/>
     </row>
     <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B899" s="92"/>
+      <c r="B899" s="91"/>
     </row>
     <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B900" s="92"/>
+      <c r="B900" s="91"/>
     </row>
     <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B901" s="92"/>
+      <c r="B901" s="91"/>
     </row>
     <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B902" s="92"/>
+      <c r="B902" s="91"/>
     </row>
     <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B903" s="92"/>
+      <c r="B903" s="91"/>
     </row>
     <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B904" s="92"/>
+      <c r="B904" s="91"/>
     </row>
     <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B905" s="92"/>
+      <c r="B905" s="91"/>
     </row>
     <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B906" s="92"/>
+      <c r="B906" s="91"/>
     </row>
     <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B907" s="92"/>
+      <c r="B907" s="91"/>
     </row>
     <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B908" s="92"/>
+      <c r="B908" s="91"/>
     </row>
     <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B909" s="92"/>
+      <c r="B909" s="91"/>
     </row>
     <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B910" s="92"/>
+      <c r="B910" s="91"/>
     </row>
     <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B911" s="92"/>
+      <c r="B911" s="91"/>
     </row>
     <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B912" s="92"/>
+      <c r="B912" s="91"/>
     </row>
     <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B913" s="92"/>
+      <c r="B913" s="91"/>
     </row>
     <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B914" s="92"/>
+      <c r="B914" s="91"/>
     </row>
     <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B915" s="92"/>
+      <c r="B915" s="91"/>
     </row>
     <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B916" s="92"/>
+      <c r="B916" s="91"/>
     </row>
     <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B917" s="92"/>
+      <c r="B917" s="91"/>
     </row>
     <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B918" s="92"/>
+      <c r="B918" s="91"/>
     </row>
     <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B919" s="92"/>
+      <c r="B919" s="91"/>
     </row>
     <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B920" s="92"/>
+      <c r="B920" s="91"/>
     </row>
     <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B921" s="92"/>
+      <c r="B921" s="91"/>
     </row>
     <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B922" s="92"/>
+      <c r="B922" s="91"/>
     </row>
     <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B923" s="92"/>
+      <c r="B923" s="91"/>
     </row>
     <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B924" s="92"/>
+      <c r="B924" s="91"/>
     </row>
     <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B925" s="92"/>
+      <c r="B925" s="91"/>
     </row>
     <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B926" s="92"/>
+      <c r="B926" s="91"/>
     </row>
     <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B927" s="92"/>
+      <c r="B927" s="91"/>
     </row>
     <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B928" s="92"/>
+      <c r="B928" s="91"/>
     </row>
     <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B929" s="92"/>
+      <c r="B929" s="91"/>
     </row>
     <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B930" s="92"/>
+      <c r="B930" s="91"/>
     </row>
     <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B931" s="92"/>
+      <c r="B931" s="91"/>
     </row>
     <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B932" s="92"/>
+      <c r="B932" s="91"/>
     </row>
     <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B933" s="92"/>
+      <c r="B933" s="91"/>
     </row>
     <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B934" s="92"/>
+      <c r="B934" s="91"/>
     </row>
     <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B935" s="92"/>
+      <c r="B935" s="91"/>
     </row>
     <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B936" s="92"/>
+      <c r="B936" s="91"/>
     </row>
     <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B937" s="92"/>
+      <c r="B937" s="91"/>
     </row>
     <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B938" s="92"/>
+      <c r="B938" s="91"/>
     </row>
     <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B939" s="92"/>
+      <c r="B939" s="91"/>
     </row>
     <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B940" s="92"/>
+      <c r="B940" s="91"/>
     </row>
     <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B941" s="92"/>
+      <c r="B941" s="91"/>
     </row>
     <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B942" s="92"/>
+      <c r="B942" s="91"/>
     </row>
     <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B943" s="92"/>
+      <c r="B943" s="91"/>
     </row>
     <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B944" s="92"/>
+      <c r="B944" s="91"/>
     </row>
     <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B945" s="92"/>
+      <c r="B945" s="91"/>
     </row>
     <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B946" s="92"/>
+      <c r="B946" s="91"/>
     </row>
     <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B947" s="92"/>
+      <c r="B947" s="91"/>
     </row>
     <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B948" s="92"/>
+      <c r="B948" s="91"/>
     </row>
     <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B949" s="92"/>
+      <c r="B949" s="91"/>
     </row>
     <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B950" s="92"/>
+      <c r="B950" s="91"/>
     </row>
     <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B951" s="92"/>
+      <c r="B951" s="91"/>
     </row>
     <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B952" s="92"/>
+      <c r="B952" s="91"/>
     </row>
     <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B953" s="92"/>
+      <c r="B953" s="91"/>
     </row>
     <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B954" s="92"/>
+      <c r="B954" s="91"/>
     </row>
     <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B955" s="92"/>
+      <c r="B955" s="91"/>
     </row>
     <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B956" s="92"/>
+      <c r="B956" s="91"/>
     </row>
     <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B957" s="92"/>
+      <c r="B957" s="91"/>
     </row>
     <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B958" s="92"/>
+      <c r="B958" s="91"/>
     </row>
     <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B959" s="92"/>
+      <c r="B959" s="91"/>
     </row>
     <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B960" s="92"/>
+      <c r="B960" s="91"/>
     </row>
     <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B961" s="92"/>
+      <c r="B961" s="91"/>
     </row>
     <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B962" s="92"/>
+      <c r="B962" s="91"/>
     </row>
     <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B963" s="92"/>
+      <c r="B963" s="91"/>
     </row>
     <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B964" s="92"/>
+      <c r="B964" s="91"/>
     </row>
     <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B965" s="92"/>
+      <c r="B965" s="91"/>
     </row>
     <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B966" s="92"/>
+      <c r="B966" s="91"/>
     </row>
     <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B967" s="92"/>
+      <c r="B967" s="91"/>
     </row>
     <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B968" s="92"/>
+      <c r="B968" s="91"/>
     </row>
     <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B969" s="92"/>
+      <c r="B969" s="91"/>
     </row>
     <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B970" s="92"/>
+      <c r="B970" s="91"/>
     </row>
     <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B971" s="92"/>
+      <c r="B971" s="91"/>
     </row>
     <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B972" s="92"/>
+      <c r="B972" s="91"/>
     </row>
     <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B973" s="92"/>
+      <c r="B973" s="91"/>
     </row>
     <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B974" s="92"/>
+      <c r="B974" s="91"/>
     </row>
     <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B975" s="92"/>
+      <c r="B975" s="91"/>
     </row>
     <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B976" s="92"/>
+      <c r="B976" s="91"/>
     </row>
     <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B977" s="92"/>
+      <c r="B977" s="91"/>
     </row>
     <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B978" s="92"/>
+      <c r="B978" s="91"/>
     </row>
     <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B979" s="92"/>
+      <c r="B979" s="91"/>
     </row>
     <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B980" s="92"/>
+      <c r="B980" s="91"/>
     </row>
     <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B981" s="92"/>
+      <c r="B981" s="91"/>
     </row>
     <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B982" s="92"/>
+      <c r="B982" s="91"/>
     </row>
     <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B983" s="92"/>
+      <c r="B983" s="91"/>
     </row>
     <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B984" s="92"/>
+      <c r="B984" s="91"/>
     </row>
     <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B985" s="92"/>
+      <c r="B985" s="91"/>
     </row>
     <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B986" s="92"/>
+      <c r="B986" s="91"/>
     </row>
     <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B987" s="92"/>
+      <c r="B987" s="91"/>
     </row>
     <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B988" s="92"/>
+      <c r="B988" s="91"/>
     </row>
     <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B989" s="92"/>
+      <c r="B989" s="91"/>
     </row>
     <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B990" s="92"/>
+      <c r="B990" s="91"/>
     </row>
     <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B991" s="92"/>
+      <c r="B991" s="91"/>
     </row>
     <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B992" s="92"/>
+      <c r="B992" s="91"/>
     </row>
     <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B993" s="92"/>
+      <c r="B993" s="91"/>
     </row>
     <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B994" s="92"/>
+      <c r="B994" s="91"/>
     </row>
     <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B995" s="92"/>
+      <c r="B995" s="91"/>
     </row>
     <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B996" s="92"/>
+      <c r="B996" s="91"/>
     </row>
     <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B997" s="92"/>
+      <c r="B997" s="91"/>
     </row>
     <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B998" s="92"/>
+      <c r="B998" s="91"/>
     </row>
     <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B999" s="92"/>
+      <c r="B999" s="91"/>
     </row>
     <row r="1000" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1000" s="92"/>
+      <c r="B1000" s="91"/>
     </row>
     <row r="1001" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1001" s="92"/>
+      <c r="B1001" s="91"/>
     </row>
     <row r="1002" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1002" s="92"/>
+      <c r="B1002" s="91"/>
     </row>
     <row r="1003" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1003" s="92"/>
+      <c r="B1003" s="91"/>
     </row>
     <row r="1004" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1004" s="92"/>
+      <c r="B1004" s="91"/>
     </row>
     <row r="1005" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1005" s="92"/>
+      <c r="B1005" s="91"/>
     </row>
     <row r="1006" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1006" s="92"/>
+      <c r="B1006" s="91"/>
     </row>
     <row r="1007" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1007" s="92"/>
+      <c r="B1007" s="91"/>
     </row>
     <row r="1008" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1008" s="92"/>
+      <c r="B1008" s="91"/>
     </row>
     <row r="1009" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1009" s="92"/>
+      <c r="B1009" s="91"/>
     </row>
     <row r="1010" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1010" s="92"/>
+      <c r="B1010" s="91"/>
     </row>
     <row r="1011" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1011" s="92"/>
+      <c r="B1011" s="91"/>
     </row>
     <row r="1012" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1012" s="92"/>
+      <c r="B1012" s="91"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H28" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="36">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="H4:H7"/>
@@ -8220,26 +8237,6 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9417,7 +9414,7 @@
   <dimension ref="A1:D991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/SquashPlanner.xlsx
+++ b/SquashPlanner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c95b7b4a9a622975/Dokumentumok/GitHub/jht52_squash/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2473386-1B3F-419E-81BF-433DBEB96FB3}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="11_E36A330BB19B79D01B63D66792F9F8B2B845A4FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3262AACD-9269-4FCE-B68E-FC7F4A067607}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1270,7 +1270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1454,12 +1454,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1541,9 +1535,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1571,6 +1562,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1610,18 +1604,54 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1652,12 +1682,6 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1670,79 +1694,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -3238,6 +3199,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -3489,10 +3454,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="111" t="s">
         <v>67</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -3508,8 +3473,8 @@
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="114"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
@@ -3523,8 +3488,8 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
-      <c r="B4" s="114"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
@@ -3538,8 +3503,8 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
@@ -3553,8 +3518,8 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="111"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
@@ -3568,8 +3533,8 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="111"/>
-      <c r="B7" s="116"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
@@ -3583,7 +3548,7 @@
       <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="111"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3594,8 +3559,8 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="117" t="s">
+      <c r="A9" s="109"/>
+      <c r="B9" s="115" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -3611,8 +3576,8 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="118"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="26" t="s">
         <v>24</v>
       </c>
@@ -3626,8 +3591,8 @@
       <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="118"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="26" t="s">
         <v>33</v>
       </c>
@@ -3641,8 +3606,8 @@
       <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="111"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="29" t="s">
         <v>34</v>
       </c>
@@ -3656,7 +3621,7 @@
       <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="111"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="32"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -3667,8 +3632,8 @@
       <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="120" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="118" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="33" t="s">
@@ -3684,8 +3649,8 @@
       <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
-      <c r="B15" s="121"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="36" t="s">
         <v>36</v>
       </c>
@@ -3701,8 +3666,8 @@
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="121"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="36" t="s">
         <v>37</v>
       </c>
@@ -3718,8 +3683,8 @@
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="36" t="s">
         <v>38</v>
       </c>
@@ -3733,8 +3698,8 @@
       <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="121"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="36" t="s">
         <v>39</v>
       </c>
@@ -3748,8 +3713,8 @@
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="121"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="40" t="s">
         <v>40</v>
       </c>
@@ -3765,8 +3730,8 @@
       <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="112"/>
-      <c r="B20" s="122"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="120"/>
       <c r="C20" s="42" t="s">
         <v>41</v>
       </c>
@@ -4757,14 +4722,14 @@
   <dimension ref="A1:H1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C7"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" style="92" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="90" customWidth="1"/>
     <col min="3" max="3" width="15.88671875" style="45" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" style="45" customWidth="1"/>
@@ -4775,28 +4740,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="69" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4804,7 +4769,7 @@
       <c r="A2" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="62" t="s">
@@ -4816,7 +4781,7 @@
       <c r="E2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="91" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="62" t="s">
@@ -4827,98 +4792,98 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="10.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72"/>
-      <c r="B3" s="87"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="56"/>
       <c r="D3" s="64"/>
       <c r="E3" s="56"/>
       <c r="F3" s="64"/>
       <c r="G3" s="56"/>
-      <c r="H3" s="73"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="149" t="s">
+      <c r="E4" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="127" t="s">
+      <c r="H4" s="137" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="131"/>
-      <c r="B5" s="144"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="103" t="s">
+      <c r="A5" s="141"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="128"/>
+      <c r="H5" s="138"/>
     </row>
     <row r="6" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="105" t="s">
+      <c r="A6" s="141"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="128"/>
+      <c r="H6" s="138"/>
     </row>
     <row r="7" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="132"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="106" t="s">
+      <c r="A7" s="142"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="129"/>
+      <c r="H7" s="139"/>
     </row>
     <row r="8" spans="1:8" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="47"/>
       <c r="D8" s="48"/>
       <c r="E8" s="47"/>
       <c r="F8" s="48"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="75"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="84" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="62" t="s">
@@ -4927,10 +4892,10 @@
       <c r="D9" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="93" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="62" t="s">
@@ -4941,120 +4906,120 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="76"/>
-      <c r="B10" s="88"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="47"/>
       <c r="D10" s="48"/>
       <c r="E10" s="47"/>
       <c r="F10" s="48"/>
       <c r="G10" s="47"/>
-      <c r="H10" s="75"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="143" t="s">
+      <c r="B11" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="149" t="s">
+      <c r="E11" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="127" t="s">
+      <c r="H11" s="137" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="134"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="94" t="s">
+      <c r="A12" s="144"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="129"/>
+      <c r="H12" s="139"/>
     </row>
     <row r="13" spans="1:8" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="86"/>
       <c r="C13" s="47"/>
       <c r="D13" s="48"/>
       <c r="E13" s="47"/>
       <c r="F13" s="48"/>
       <c r="G13" s="47"/>
-      <c r="H13" s="75"/>
-    </row>
-    <row r="14" spans="1:8" s="165" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="133" t="s">
+      <c r="H13" s="73"/>
+    </row>
+    <row r="14" spans="1:8" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="96" t="s">
+      <c r="F14" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="127" t="s">
+      <c r="H14" s="137" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="165" customFormat="1" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="134"/>
-      <c r="B15" s="145"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="94" t="s">
+    <row r="15" spans="1:8" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="144"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="129"/>
+      <c r="H15" s="139"/>
     </row>
     <row r="16" spans="1:8" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="74"/>
-      <c r="B16" s="88"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="47"/>
       <c r="D16" s="48"/>
       <c r="E16" s="49"/>
       <c r="F16" s="48"/>
       <c r="G16" s="47"/>
-      <c r="H16" s="75"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="84" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="62" t="s">
@@ -5066,7 +5031,7 @@
       <c r="E17" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="93" t="s">
+      <c r="F17" s="91" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="62" t="s">
@@ -5077,155 +5042,155 @@
       </c>
     </row>
     <row r="18" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="77"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="80"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="78"/>
     </row>
     <row r="19" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="81"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="50"/>
       <c r="F19" s="51"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="82"/>
+      <c r="H19" s="80"/>
     </row>
     <row r="20" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="77"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="80"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="78"/>
     </row>
     <row r="21" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="121" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="160" t="s">
+      <c r="C21" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="160" t="s">
+      <c r="D21" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="162" t="s">
+      <c r="E21" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="97" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="141" t="s">
+      <c r="H21" s="149" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="136"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="98" t="s">
+      <c r="A22" s="146"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="96" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="142"/>
+      <c r="H22" s="150"/>
     </row>
     <row r="23" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="76"/>
-      <c r="B23" s="88"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="47"/>
       <c r="D23" s="48"/>
       <c r="E23" s="49"/>
       <c r="F23" s="48"/>
       <c r="G23" s="47"/>
-      <c r="H23" s="75"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="149" t="s">
+      <c r="E24" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="107" t="s">
+      <c r="F24" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="139" t="s">
+      <c r="H24" s="147" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="124"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="94" t="s">
+      <c r="A25" s="136"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="109" t="s">
+      <c r="G25" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="140"/>
+      <c r="H25" s="148"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="76"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="47"/>
       <c r="D26" s="48"/>
       <c r="E26" s="49"/>
       <c r="F26" s="48"/>
       <c r="G26" s="47"/>
-      <c r="H26" s="75"/>
-    </row>
-    <row r="27" spans="1:8" s="57" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="125" t="s">
+      <c r="H26" s="73"/>
+    </row>
+    <row r="27" spans="1:8" s="154" customFormat="1" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="154" t="s">
+      <c r="C27" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="154" t="s">
+      <c r="D27" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="156" t="s">
+      <c r="E27" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="100" t="s">
+      <c r="F27" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="81" t="s">
         <v>83</v>
       </c>
       <c r="H27" s="137" t="s">
@@ -5233,2994 +5198,2974 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="57" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="126"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="98" t="s">
+      <c r="A28" s="136"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="68" t="s">
+      <c r="G28" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="138"/>
+      <c r="H28" s="139"/>
     </row>
     <row r="29" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="91"/>
+      <c r="B29" s="89"/>
     </row>
     <row r="30" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="91"/>
+      <c r="B30" s="89"/>
     </row>
     <row r="31" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="91"/>
+      <c r="B31" s="89"/>
     </row>
     <row r="32" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="91"/>
+      <c r="B32" s="89"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="91"/>
+      <c r="B33" s="89"/>
     </row>
     <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="91"/>
+      <c r="B34" s="89"/>
     </row>
     <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="91"/>
+      <c r="B35" s="89"/>
     </row>
     <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="91"/>
+      <c r="B36" s="89"/>
     </row>
     <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="91"/>
+      <c r="B37" s="89"/>
     </row>
     <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="91"/>
+      <c r="B38" s="89"/>
     </row>
     <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="91"/>
+      <c r="B39" s="89"/>
     </row>
     <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="91"/>
+      <c r="B40" s="89"/>
     </row>
     <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="91"/>
+      <c r="B41" s="89"/>
     </row>
     <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="91"/>
+      <c r="B42" s="89"/>
     </row>
     <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="91"/>
+      <c r="B43" s="89"/>
     </row>
     <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="91"/>
+      <c r="B44" s="89"/>
     </row>
     <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="91"/>
+      <c r="B45" s="89"/>
     </row>
     <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="91"/>
+      <c r="B46" s="89"/>
     </row>
     <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="91"/>
+      <c r="B47" s="89"/>
     </row>
     <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="91"/>
+      <c r="B48" s="89"/>
     </row>
     <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="91"/>
+      <c r="B49" s="89"/>
     </row>
     <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="91"/>
+      <c r="B50" s="89"/>
     </row>
     <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="91"/>
+      <c r="B51" s="89"/>
     </row>
     <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="91"/>
+      <c r="B52" s="89"/>
     </row>
     <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="91"/>
+      <c r="B53" s="89"/>
     </row>
     <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="91"/>
+      <c r="B54" s="89"/>
     </row>
     <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="91"/>
+      <c r="B55" s="89"/>
     </row>
     <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="91"/>
+      <c r="B56" s="89"/>
     </row>
     <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="91"/>
+      <c r="B57" s="89"/>
     </row>
     <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="91"/>
+      <c r="B58" s="89"/>
     </row>
     <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="91"/>
+      <c r="B59" s="89"/>
     </row>
     <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="91"/>
+      <c r="B60" s="89"/>
     </row>
     <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="91"/>
+      <c r="B61" s="89"/>
     </row>
     <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="91"/>
+      <c r="B62" s="89"/>
     </row>
     <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="91"/>
+      <c r="B63" s="89"/>
     </row>
     <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="91"/>
+      <c r="B64" s="89"/>
     </row>
     <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="91"/>
+      <c r="B65" s="89"/>
     </row>
     <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="91"/>
+      <c r="B66" s="89"/>
     </row>
     <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="91"/>
+      <c r="B67" s="89"/>
     </row>
     <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="91"/>
+      <c r="B68" s="89"/>
     </row>
     <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="91"/>
+      <c r="B69" s="89"/>
     </row>
     <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="91"/>
+      <c r="B70" s="89"/>
     </row>
     <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="91"/>
+      <c r="B71" s="89"/>
     </row>
     <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="91"/>
+      <c r="B72" s="89"/>
     </row>
     <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="91"/>
+      <c r="B73" s="89"/>
     </row>
     <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="91"/>
+      <c r="B74" s="89"/>
     </row>
     <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="91"/>
+      <c r="B75" s="89"/>
     </row>
     <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="91"/>
+      <c r="B76" s="89"/>
     </row>
     <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="91"/>
+      <c r="B77" s="89"/>
     </row>
     <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="91"/>
+      <c r="B78" s="89"/>
     </row>
     <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="91"/>
+      <c r="B79" s="89"/>
     </row>
     <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="91"/>
+      <c r="B80" s="89"/>
     </row>
     <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="91"/>
+      <c r="B81" s="89"/>
     </row>
     <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="91"/>
+      <c r="B82" s="89"/>
     </row>
     <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="91"/>
+      <c r="B83" s="89"/>
     </row>
     <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="91"/>
+      <c r="B84" s="89"/>
     </row>
     <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="91"/>
+      <c r="B85" s="89"/>
     </row>
     <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="91"/>
+      <c r="B86" s="89"/>
     </row>
     <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="91"/>
+      <c r="B87" s="89"/>
     </row>
     <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="91"/>
+      <c r="B88" s="89"/>
     </row>
     <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="91"/>
+      <c r="B89" s="89"/>
     </row>
     <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="91"/>
+      <c r="B90" s="89"/>
     </row>
     <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="91"/>
+      <c r="B91" s="89"/>
     </row>
     <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="91"/>
+      <c r="B92" s="89"/>
     </row>
     <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="91"/>
+      <c r="B93" s="89"/>
     </row>
     <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="91"/>
+      <c r="B94" s="89"/>
     </row>
     <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="91"/>
+      <c r="B95" s="89"/>
     </row>
     <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="91"/>
+      <c r="B96" s="89"/>
     </row>
     <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="91"/>
+      <c r="B97" s="89"/>
     </row>
     <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="91"/>
+      <c r="B98" s="89"/>
     </row>
     <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="91"/>
+      <c r="B99" s="89"/>
     </row>
     <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="91"/>
+      <c r="B100" s="89"/>
     </row>
     <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="91"/>
+      <c r="B101" s="89"/>
     </row>
     <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="91"/>
+      <c r="B102" s="89"/>
     </row>
     <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="91"/>
+      <c r="B103" s="89"/>
     </row>
     <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="91"/>
+      <c r="B104" s="89"/>
     </row>
     <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="91"/>
+      <c r="B105" s="89"/>
     </row>
     <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="91"/>
+      <c r="B106" s="89"/>
     </row>
     <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="91"/>
+      <c r="B107" s="89"/>
     </row>
     <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="91"/>
+      <c r="B108" s="89"/>
     </row>
     <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="91"/>
+      <c r="B109" s="89"/>
     </row>
     <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="91"/>
+      <c r="B110" s="89"/>
     </row>
     <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="91"/>
+      <c r="B111" s="89"/>
     </row>
     <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="91"/>
+      <c r="B112" s="89"/>
     </row>
     <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="91"/>
+      <c r="B113" s="89"/>
     </row>
     <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="91"/>
+      <c r="B114" s="89"/>
     </row>
     <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="91"/>
+      <c r="B115" s="89"/>
     </row>
     <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="91"/>
+      <c r="B116" s="89"/>
     </row>
     <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="91"/>
+      <c r="B117" s="89"/>
     </row>
     <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="91"/>
+      <c r="B118" s="89"/>
     </row>
     <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="91"/>
+      <c r="B119" s="89"/>
     </row>
     <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="91"/>
+      <c r="B120" s="89"/>
     </row>
     <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="91"/>
+      <c r="B121" s="89"/>
     </row>
     <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="91"/>
+      <c r="B122" s="89"/>
     </row>
     <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="91"/>
+      <c r="B123" s="89"/>
     </row>
     <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="91"/>
+      <c r="B124" s="89"/>
     </row>
     <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="91"/>
+      <c r="B125" s="89"/>
     </row>
     <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="91"/>
+      <c r="B126" s="89"/>
     </row>
     <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="91"/>
+      <c r="B127" s="89"/>
     </row>
     <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="91"/>
+      <c r="B128" s="89"/>
     </row>
     <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="91"/>
+      <c r="B129" s="89"/>
     </row>
     <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="91"/>
+      <c r="B130" s="89"/>
     </row>
     <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="91"/>
+      <c r="B131" s="89"/>
     </row>
     <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="91"/>
+      <c r="B132" s="89"/>
     </row>
     <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="91"/>
+      <c r="B133" s="89"/>
     </row>
     <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="91"/>
+      <c r="B134" s="89"/>
     </row>
     <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="91"/>
+      <c r="B135" s="89"/>
     </row>
     <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="91"/>
+      <c r="B136" s="89"/>
     </row>
     <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="91"/>
+      <c r="B137" s="89"/>
     </row>
     <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="91"/>
+      <c r="B138" s="89"/>
     </row>
     <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="91"/>
+      <c r="B139" s="89"/>
     </row>
     <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="91"/>
+      <c r="B140" s="89"/>
     </row>
     <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="91"/>
+      <c r="B141" s="89"/>
     </row>
     <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="91"/>
+      <c r="B142" s="89"/>
     </row>
     <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="91"/>
+      <c r="B143" s="89"/>
     </row>
     <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="91"/>
+      <c r="B144" s="89"/>
     </row>
     <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="91"/>
+      <c r="B145" s="89"/>
     </row>
     <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="91"/>
+      <c r="B146" s="89"/>
     </row>
     <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="91"/>
+      <c r="B147" s="89"/>
     </row>
     <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="91"/>
+      <c r="B148" s="89"/>
     </row>
     <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="91"/>
+      <c r="B149" s="89"/>
     </row>
     <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="91"/>
+      <c r="B150" s="89"/>
     </row>
     <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="91"/>
+      <c r="B151" s="89"/>
     </row>
     <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="91"/>
+      <c r="B152" s="89"/>
     </row>
     <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="91"/>
+      <c r="B153" s="89"/>
     </row>
     <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="91"/>
+      <c r="B154" s="89"/>
     </row>
     <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="91"/>
+      <c r="B155" s="89"/>
     </row>
     <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="91"/>
+      <c r="B156" s="89"/>
     </row>
     <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="91"/>
+      <c r="B157" s="89"/>
     </row>
     <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="91"/>
+      <c r="B158" s="89"/>
     </row>
     <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="91"/>
+      <c r="B159" s="89"/>
     </row>
     <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="91"/>
+      <c r="B160" s="89"/>
     </row>
     <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="91"/>
+      <c r="B161" s="89"/>
     </row>
     <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="91"/>
+      <c r="B162" s="89"/>
     </row>
     <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="91"/>
+      <c r="B163" s="89"/>
     </row>
     <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="91"/>
+      <c r="B164" s="89"/>
     </row>
     <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="91"/>
+      <c r="B165" s="89"/>
     </row>
     <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="91"/>
+      <c r="B166" s="89"/>
     </row>
     <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="91"/>
+      <c r="B167" s="89"/>
     </row>
     <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="91"/>
+      <c r="B168" s="89"/>
     </row>
     <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="91"/>
+      <c r="B169" s="89"/>
     </row>
     <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="91"/>
+      <c r="B170" s="89"/>
     </row>
     <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="91"/>
+      <c r="B171" s="89"/>
     </row>
     <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="91"/>
+      <c r="B172" s="89"/>
     </row>
     <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="91"/>
+      <c r="B173" s="89"/>
     </row>
     <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="91"/>
+      <c r="B174" s="89"/>
     </row>
     <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="91"/>
+      <c r="B175" s="89"/>
     </row>
     <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="91"/>
+      <c r="B176" s="89"/>
     </row>
     <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="91"/>
+      <c r="B177" s="89"/>
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="91"/>
+      <c r="B178" s="89"/>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="91"/>
+      <c r="B179" s="89"/>
     </row>
     <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="91"/>
+      <c r="B180" s="89"/>
     </row>
     <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="91"/>
+      <c r="B181" s="89"/>
     </row>
     <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="91"/>
+      <c r="B182" s="89"/>
     </row>
     <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="91"/>
+      <c r="B183" s="89"/>
     </row>
     <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="91"/>
+      <c r="B184" s="89"/>
     </row>
     <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="91"/>
+      <c r="B185" s="89"/>
     </row>
     <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="91"/>
+      <c r="B186" s="89"/>
     </row>
     <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="91"/>
+      <c r="B187" s="89"/>
     </row>
     <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="91"/>
+      <c r="B188" s="89"/>
     </row>
     <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="91"/>
+      <c r="B189" s="89"/>
     </row>
     <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="91"/>
+      <c r="B190" s="89"/>
     </row>
     <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="91"/>
+      <c r="B191" s="89"/>
     </row>
     <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="91"/>
+      <c r="B192" s="89"/>
     </row>
     <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="91"/>
+      <c r="B193" s="89"/>
     </row>
     <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="91"/>
+      <c r="B194" s="89"/>
     </row>
     <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="91"/>
+      <c r="B195" s="89"/>
     </row>
     <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="91"/>
+      <c r="B196" s="89"/>
     </row>
     <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="91"/>
+      <c r="B197" s="89"/>
     </row>
     <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="91"/>
+      <c r="B198" s="89"/>
     </row>
     <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="91"/>
+      <c r="B199" s="89"/>
     </row>
     <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="91"/>
+      <c r="B200" s="89"/>
     </row>
     <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="91"/>
+      <c r="B201" s="89"/>
     </row>
     <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="91"/>
+      <c r="B202" s="89"/>
     </row>
     <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="91"/>
+      <c r="B203" s="89"/>
     </row>
     <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="91"/>
+      <c r="B204" s="89"/>
     </row>
     <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="91"/>
+      <c r="B205" s="89"/>
     </row>
     <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="91"/>
+      <c r="B206" s="89"/>
     </row>
     <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="91"/>
+      <c r="B207" s="89"/>
     </row>
     <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="91"/>
+      <c r="B208" s="89"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="91"/>
+      <c r="B209" s="89"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="91"/>
+      <c r="B210" s="89"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="91"/>
+      <c r="B211" s="89"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="91"/>
+      <c r="B212" s="89"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="91"/>
+      <c r="B213" s="89"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="91"/>
+      <c r="B214" s="89"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="91"/>
+      <c r="B215" s="89"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="91"/>
+      <c r="B216" s="89"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="91"/>
+      <c r="B217" s="89"/>
     </row>
     <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="91"/>
+      <c r="B218" s="89"/>
     </row>
     <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="91"/>
+      <c r="B219" s="89"/>
     </row>
     <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="91"/>
+      <c r="B220" s="89"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="91"/>
+      <c r="B221" s="89"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="91"/>
+      <c r="B222" s="89"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="91"/>
+      <c r="B223" s="89"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="91"/>
+      <c r="B224" s="89"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="91"/>
+      <c r="B225" s="89"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="91"/>
+      <c r="B226" s="89"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="91"/>
+      <c r="B227" s="89"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="91"/>
+      <c r="B228" s="89"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="91"/>
+      <c r="B229" s="89"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="91"/>
+      <c r="B230" s="89"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="91"/>
+      <c r="B231" s="89"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="91"/>
+      <c r="B232" s="89"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="91"/>
+      <c r="B233" s="89"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="91"/>
+      <c r="B234" s="89"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="91"/>
+      <c r="B235" s="89"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="91"/>
+      <c r="B236" s="89"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="91"/>
+      <c r="B237" s="89"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="91"/>
+      <c r="B238" s="89"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="91"/>
+      <c r="B239" s="89"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="91"/>
+      <c r="B240" s="89"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="91"/>
+      <c r="B241" s="89"/>
     </row>
     <row r="242" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="91"/>
+      <c r="B242" s="89"/>
     </row>
     <row r="243" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="91"/>
+      <c r="B243" s="89"/>
     </row>
     <row r="244" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="91"/>
+      <c r="B244" s="89"/>
     </row>
     <row r="245" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="91"/>
+      <c r="B245" s="89"/>
     </row>
     <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="91"/>
+      <c r="B246" s="89"/>
     </row>
     <row r="247" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="91"/>
+      <c r="B247" s="89"/>
     </row>
     <row r="248" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="91"/>
+      <c r="B248" s="89"/>
     </row>
     <row r="249" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="91"/>
+      <c r="B249" s="89"/>
     </row>
     <row r="250" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="91"/>
+      <c r="B250" s="89"/>
     </row>
     <row r="251" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="91"/>
+      <c r="B251" s="89"/>
     </row>
     <row r="252" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="91"/>
+      <c r="B252" s="89"/>
     </row>
     <row r="253" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="91"/>
+      <c r="B253" s="89"/>
     </row>
     <row r="254" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="91"/>
+      <c r="B254" s="89"/>
     </row>
     <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="91"/>
+      <c r="B255" s="89"/>
     </row>
     <row r="256" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="91"/>
+      <c r="B256" s="89"/>
     </row>
     <row r="257" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="91"/>
+      <c r="B257" s="89"/>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="91"/>
+      <c r="B258" s="89"/>
     </row>
     <row r="259" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="91"/>
+      <c r="B259" s="89"/>
     </row>
     <row r="260" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="91"/>
+      <c r="B260" s="89"/>
     </row>
     <row r="261" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="91"/>
+      <c r="B261" s="89"/>
     </row>
     <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="91"/>
+      <c r="B262" s="89"/>
     </row>
     <row r="263" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="91"/>
+      <c r="B263" s="89"/>
     </row>
     <row r="264" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="91"/>
+      <c r="B264" s="89"/>
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="91"/>
+      <c r="B265" s="89"/>
     </row>
     <row r="266" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="91"/>
+      <c r="B266" s="89"/>
     </row>
     <row r="267" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="91"/>
+      <c r="B267" s="89"/>
     </row>
     <row r="268" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="91"/>
+      <c r="B268" s="89"/>
     </row>
     <row r="269" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="91"/>
+      <c r="B269" s="89"/>
     </row>
     <row r="270" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="91"/>
+      <c r="B270" s="89"/>
     </row>
     <row r="271" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="91"/>
+      <c r="B271" s="89"/>
     </row>
     <row r="272" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="91"/>
+      <c r="B272" s="89"/>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="91"/>
+      <c r="B273" s="89"/>
     </row>
     <row r="274" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="91"/>
+      <c r="B274" s="89"/>
     </row>
     <row r="275" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="91"/>
+      <c r="B275" s="89"/>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="91"/>
+      <c r="B276" s="89"/>
     </row>
     <row r="277" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="91"/>
+      <c r="B277" s="89"/>
     </row>
     <row r="278" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="91"/>
+      <c r="B278" s="89"/>
     </row>
     <row r="279" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="91"/>
+      <c r="B279" s="89"/>
     </row>
     <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="91"/>
+      <c r="B280" s="89"/>
     </row>
     <row r="281" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="91"/>
+      <c r="B281" s="89"/>
     </row>
     <row r="282" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="91"/>
+      <c r="B282" s="89"/>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="91"/>
+      <c r="B283" s="89"/>
     </row>
     <row r="284" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="91"/>
+      <c r="B284" s="89"/>
     </row>
     <row r="285" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="91"/>
+      <c r="B285" s="89"/>
     </row>
     <row r="286" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="91"/>
+      <c r="B286" s="89"/>
     </row>
     <row r="287" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="91"/>
+      <c r="B287" s="89"/>
     </row>
     <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="91"/>
+      <c r="B288" s="89"/>
     </row>
     <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="91"/>
+      <c r="B289" s="89"/>
     </row>
     <row r="290" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B290" s="91"/>
+      <c r="B290" s="89"/>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="91"/>
+      <c r="B291" s="89"/>
     </row>
     <row r="292" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="91"/>
+      <c r="B292" s="89"/>
     </row>
     <row r="293" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="91"/>
+      <c r="B293" s="89"/>
     </row>
     <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="91"/>
+      <c r="B294" s="89"/>
     </row>
     <row r="295" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="91"/>
+      <c r="B295" s="89"/>
     </row>
     <row r="296" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="91"/>
+      <c r="B296" s="89"/>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="91"/>
+      <c r="B297" s="89"/>
     </row>
     <row r="298" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="91"/>
+      <c r="B298" s="89"/>
     </row>
     <row r="299" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="91"/>
+      <c r="B299" s="89"/>
     </row>
     <row r="300" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B300" s="91"/>
+      <c r="B300" s="89"/>
     </row>
     <row r="301" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="91"/>
+      <c r="B301" s="89"/>
     </row>
     <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B302" s="91"/>
+      <c r="B302" s="89"/>
     </row>
     <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="91"/>
+      <c r="B303" s="89"/>
     </row>
     <row r="304" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B304" s="91"/>
+      <c r="B304" s="89"/>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B305" s="91"/>
+      <c r="B305" s="89"/>
     </row>
     <row r="306" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B306" s="91"/>
+      <c r="B306" s="89"/>
     </row>
     <row r="307" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B307" s="91"/>
+      <c r="B307" s="89"/>
     </row>
     <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B308" s="91"/>
+      <c r="B308" s="89"/>
     </row>
     <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B309" s="91"/>
+      <c r="B309" s="89"/>
     </row>
     <row r="310" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B310" s="91"/>
+      <c r="B310" s="89"/>
     </row>
     <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B311" s="91"/>
+      <c r="B311" s="89"/>
     </row>
     <row r="312" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B312" s="91"/>
+      <c r="B312" s="89"/>
     </row>
     <row r="313" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B313" s="91"/>
+      <c r="B313" s="89"/>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B314" s="91"/>
+      <c r="B314" s="89"/>
     </row>
     <row r="315" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B315" s="91"/>
+      <c r="B315" s="89"/>
     </row>
     <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B316" s="91"/>
+      <c r="B316" s="89"/>
     </row>
     <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B317" s="91"/>
+      <c r="B317" s="89"/>
     </row>
     <row r="318" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B318" s="91"/>
+      <c r="B318" s="89"/>
     </row>
     <row r="319" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B319" s="91"/>
+      <c r="B319" s="89"/>
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B320" s="91"/>
+      <c r="B320" s="89"/>
     </row>
     <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B321" s="91"/>
+      <c r="B321" s="89"/>
     </row>
     <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B322" s="91"/>
+      <c r="B322" s="89"/>
     </row>
     <row r="323" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B323" s="91"/>
+      <c r="B323" s="89"/>
     </row>
     <row r="324" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B324" s="91"/>
+      <c r="B324" s="89"/>
     </row>
     <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B325" s="91"/>
+      <c r="B325" s="89"/>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B326" s="91"/>
+      <c r="B326" s="89"/>
     </row>
     <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B327" s="91"/>
+      <c r="B327" s="89"/>
     </row>
     <row r="328" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B328" s="91"/>
+      <c r="B328" s="89"/>
     </row>
     <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B329" s="91"/>
+      <c r="B329" s="89"/>
     </row>
     <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="91"/>
+      <c r="B330" s="89"/>
     </row>
     <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="91"/>
+      <c r="B331" s="89"/>
     </row>
     <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B332" s="91"/>
+      <c r="B332" s="89"/>
     </row>
     <row r="333" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B333" s="91"/>
+      <c r="B333" s="89"/>
     </row>
     <row r="334" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B334" s="91"/>
+      <c r="B334" s="89"/>
     </row>
     <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B335" s="91"/>
+      <c r="B335" s="89"/>
     </row>
     <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B336" s="91"/>
+      <c r="B336" s="89"/>
     </row>
     <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B337" s="91"/>
+      <c r="B337" s="89"/>
     </row>
     <row r="338" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B338" s="91"/>
+      <c r="B338" s="89"/>
     </row>
     <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B339" s="91"/>
+      <c r="B339" s="89"/>
     </row>
     <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B340" s="91"/>
+      <c r="B340" s="89"/>
     </row>
     <row r="341" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B341" s="91"/>
+      <c r="B341" s="89"/>
     </row>
     <row r="342" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B342" s="91"/>
+      <c r="B342" s="89"/>
     </row>
     <row r="343" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B343" s="91"/>
+      <c r="B343" s="89"/>
     </row>
     <row r="344" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B344" s="91"/>
+      <c r="B344" s="89"/>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B345" s="91"/>
+      <c r="B345" s="89"/>
     </row>
     <row r="346" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B346" s="91"/>
+      <c r="B346" s="89"/>
     </row>
     <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B347" s="91"/>
+      <c r="B347" s="89"/>
     </row>
     <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B348" s="91"/>
+      <c r="B348" s="89"/>
     </row>
     <row r="349" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B349" s="91"/>
+      <c r="B349" s="89"/>
     </row>
     <row r="350" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B350" s="91"/>
+      <c r="B350" s="89"/>
     </row>
     <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B351" s="91"/>
+      <c r="B351" s="89"/>
     </row>
     <row r="352" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B352" s="91"/>
+      <c r="B352" s="89"/>
     </row>
     <row r="353" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B353" s="91"/>
+      <c r="B353" s="89"/>
     </row>
     <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B354" s="91"/>
+      <c r="B354" s="89"/>
     </row>
     <row r="355" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B355" s="91"/>
+      <c r="B355" s="89"/>
     </row>
     <row r="356" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B356" s="91"/>
+      <c r="B356" s="89"/>
     </row>
     <row r="357" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B357" s="91"/>
+      <c r="B357" s="89"/>
     </row>
     <row r="358" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B358" s="91"/>
+      <c r="B358" s="89"/>
     </row>
     <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B359" s="91"/>
+      <c r="B359" s="89"/>
     </row>
     <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B360" s="91"/>
+      <c r="B360" s="89"/>
     </row>
     <row r="361" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B361" s="91"/>
+      <c r="B361" s="89"/>
     </row>
     <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="91"/>
+      <c r="B362" s="89"/>
     </row>
     <row r="363" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B363" s="91"/>
+      <c r="B363" s="89"/>
     </row>
     <row r="364" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B364" s="91"/>
+      <c r="B364" s="89"/>
     </row>
     <row r="365" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B365" s="91"/>
+      <c r="B365" s="89"/>
     </row>
     <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B366" s="91"/>
+      <c r="B366" s="89"/>
     </row>
     <row r="367" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B367" s="91"/>
+      <c r="B367" s="89"/>
     </row>
     <row r="368" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B368" s="91"/>
+      <c r="B368" s="89"/>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B369" s="91"/>
+      <c r="B369" s="89"/>
     </row>
     <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B370" s="91"/>
+      <c r="B370" s="89"/>
     </row>
     <row r="371" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B371" s="91"/>
+      <c r="B371" s="89"/>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="91"/>
+      <c r="B372" s="89"/>
     </row>
     <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B373" s="91"/>
+      <c r="B373" s="89"/>
     </row>
     <row r="374" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B374" s="91"/>
+      <c r="B374" s="89"/>
     </row>
     <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B375" s="91"/>
+      <c r="B375" s="89"/>
     </row>
     <row r="376" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B376" s="91"/>
+      <c r="B376" s="89"/>
     </row>
     <row r="377" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B377" s="91"/>
+      <c r="B377" s="89"/>
     </row>
     <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B378" s="91"/>
+      <c r="B378" s="89"/>
     </row>
     <row r="379" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B379" s="91"/>
+      <c r="B379" s="89"/>
     </row>
     <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B380" s="91"/>
+      <c r="B380" s="89"/>
     </row>
     <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B381" s="91"/>
+      <c r="B381" s="89"/>
     </row>
     <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B382" s="91"/>
+      <c r="B382" s="89"/>
     </row>
     <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B383" s="91"/>
+      <c r="B383" s="89"/>
     </row>
     <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B384" s="91"/>
+      <c r="B384" s="89"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B385" s="91"/>
+      <c r="B385" s="89"/>
     </row>
     <row r="386" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B386" s="91"/>
+      <c r="B386" s="89"/>
     </row>
     <row r="387" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B387" s="91"/>
+      <c r="B387" s="89"/>
     </row>
     <row r="388" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B388" s="91"/>
+      <c r="B388" s="89"/>
     </row>
     <row r="389" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B389" s="91"/>
+      <c r="B389" s="89"/>
     </row>
     <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="91"/>
+      <c r="B390" s="89"/>
     </row>
     <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B391" s="91"/>
+      <c r="B391" s="89"/>
     </row>
     <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B392" s="91"/>
+      <c r="B392" s="89"/>
     </row>
     <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B393" s="91"/>
+      <c r="B393" s="89"/>
     </row>
     <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B394" s="91"/>
+      <c r="B394" s="89"/>
     </row>
     <row r="395" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B395" s="91"/>
+      <c r="B395" s="89"/>
     </row>
     <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B396" s="91"/>
+      <c r="B396" s="89"/>
     </row>
     <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B397" s="91"/>
+      <c r="B397" s="89"/>
     </row>
     <row r="398" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B398" s="91"/>
+      <c r="B398" s="89"/>
     </row>
     <row r="399" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B399" s="91"/>
+      <c r="B399" s="89"/>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B400" s="91"/>
+      <c r="B400" s="89"/>
     </row>
     <row r="401" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B401" s="91"/>
+      <c r="B401" s="89"/>
     </row>
     <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B402" s="91"/>
+      <c r="B402" s="89"/>
     </row>
     <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B403" s="91"/>
+      <c r="B403" s="89"/>
     </row>
     <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B404" s="91"/>
+      <c r="B404" s="89"/>
     </row>
     <row r="405" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B405" s="91"/>
+      <c r="B405" s="89"/>
     </row>
     <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B406" s="91"/>
+      <c r="B406" s="89"/>
     </row>
     <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B407" s="91"/>
+      <c r="B407" s="89"/>
     </row>
     <row r="408" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B408" s="91"/>
+      <c r="B408" s="89"/>
     </row>
     <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B409" s="91"/>
+      <c r="B409" s="89"/>
     </row>
     <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B410" s="91"/>
+      <c r="B410" s="89"/>
     </row>
     <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B411" s="91"/>
+      <c r="B411" s="89"/>
     </row>
     <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B412" s="91"/>
+      <c r="B412" s="89"/>
     </row>
     <row r="413" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B413" s="91"/>
+      <c r="B413" s="89"/>
     </row>
     <row r="414" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B414" s="91"/>
+      <c r="B414" s="89"/>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B415" s="91"/>
+      <c r="B415" s="89"/>
     </row>
     <row r="416" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B416" s="91"/>
+      <c r="B416" s="89"/>
     </row>
     <row r="417" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B417" s="91"/>
+      <c r="B417" s="89"/>
     </row>
     <row r="418" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B418" s="91"/>
+      <c r="B418" s="89"/>
     </row>
     <row r="419" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B419" s="91"/>
+      <c r="B419" s="89"/>
     </row>
     <row r="420" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B420" s="91"/>
+      <c r="B420" s="89"/>
     </row>
     <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B421" s="91"/>
+      <c r="B421" s="89"/>
     </row>
     <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B422" s="91"/>
+      <c r="B422" s="89"/>
     </row>
     <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B423" s="91"/>
+      <c r="B423" s="89"/>
     </row>
     <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B424" s="91"/>
+      <c r="B424" s="89"/>
     </row>
     <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B425" s="91"/>
+      <c r="B425" s="89"/>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B426" s="91"/>
+      <c r="B426" s="89"/>
     </row>
     <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B427" s="91"/>
+      <c r="B427" s="89"/>
     </row>
     <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B428" s="91"/>
+      <c r="B428" s="89"/>
     </row>
     <row r="429" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B429" s="91"/>
+      <c r="B429" s="89"/>
     </row>
     <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B430" s="91"/>
+      <c r="B430" s="89"/>
     </row>
     <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B431" s="91"/>
+      <c r="B431" s="89"/>
     </row>
     <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B432" s="91"/>
+      <c r="B432" s="89"/>
     </row>
     <row r="433" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B433" s="91"/>
+      <c r="B433" s="89"/>
     </row>
     <row r="434" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B434" s="91"/>
+      <c r="B434" s="89"/>
     </row>
     <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B435" s="91"/>
+      <c r="B435" s="89"/>
     </row>
     <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B436" s="91"/>
+      <c r="B436" s="89"/>
     </row>
     <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B437" s="91"/>
+      <c r="B437" s="89"/>
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B438" s="91"/>
+      <c r="B438" s="89"/>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B439" s="91"/>
+      <c r="B439" s="89"/>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B440" s="91"/>
+      <c r="B440" s="89"/>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B441" s="91"/>
+      <c r="B441" s="89"/>
     </row>
     <row r="442" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B442" s="91"/>
+      <c r="B442" s="89"/>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B443" s="91"/>
+      <c r="B443" s="89"/>
     </row>
     <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B444" s="91"/>
+      <c r="B444" s="89"/>
     </row>
     <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B445" s="91"/>
+      <c r="B445" s="89"/>
     </row>
     <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B446" s="91"/>
+      <c r="B446" s="89"/>
     </row>
     <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B447" s="91"/>
+      <c r="B447" s="89"/>
     </row>
     <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B448" s="91"/>
+      <c r="B448" s="89"/>
     </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B449" s="91"/>
+      <c r="B449" s="89"/>
     </row>
     <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B450" s="91"/>
+      <c r="B450" s="89"/>
     </row>
     <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B451" s="91"/>
+      <c r="B451" s="89"/>
     </row>
     <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B452" s="91"/>
+      <c r="B452" s="89"/>
     </row>
     <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B453" s="91"/>
+      <c r="B453" s="89"/>
     </row>
     <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B454" s="91"/>
+      <c r="B454" s="89"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B455" s="91"/>
+      <c r="B455" s="89"/>
     </row>
     <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B456" s="91"/>
+      <c r="B456" s="89"/>
     </row>
     <row r="457" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B457" s="91"/>
+      <c r="B457" s="89"/>
     </row>
     <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B458" s="91"/>
+      <c r="B458" s="89"/>
     </row>
     <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B459" s="91"/>
+      <c r="B459" s="89"/>
     </row>
     <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B460" s="91"/>
+      <c r="B460" s="89"/>
     </row>
     <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B461" s="91"/>
+      <c r="B461" s="89"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B462" s="91"/>
+      <c r="B462" s="89"/>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B463" s="91"/>
+      <c r="B463" s="89"/>
     </row>
     <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B464" s="91"/>
+      <c r="B464" s="89"/>
     </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B465" s="91"/>
+      <c r="B465" s="89"/>
     </row>
     <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B466" s="91"/>
+      <c r="B466" s="89"/>
     </row>
     <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B467" s="91"/>
+      <c r="B467" s="89"/>
     </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B468" s="91"/>
+      <c r="B468" s="89"/>
     </row>
     <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B469" s="91"/>
+      <c r="B469" s="89"/>
     </row>
     <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B470" s="91"/>
+      <c r="B470" s="89"/>
     </row>
     <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B471" s="91"/>
+      <c r="B471" s="89"/>
     </row>
     <row r="472" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B472" s="91"/>
+      <c r="B472" s="89"/>
     </row>
     <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B473" s="91"/>
+      <c r="B473" s="89"/>
     </row>
     <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B474" s="91"/>
+      <c r="B474" s="89"/>
     </row>
     <row r="475" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B475" s="91"/>
+      <c r="B475" s="89"/>
     </row>
     <row r="476" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B476" s="91"/>
+      <c r="B476" s="89"/>
     </row>
     <row r="477" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B477" s="91"/>
+      <c r="B477" s="89"/>
     </row>
     <row r="478" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B478" s="91"/>
+      <c r="B478" s="89"/>
     </row>
     <row r="479" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B479" s="91"/>
+      <c r="B479" s="89"/>
     </row>
     <row r="480" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B480" s="91"/>
+      <c r="B480" s="89"/>
     </row>
     <row r="481" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B481" s="91"/>
+      <c r="B481" s="89"/>
     </row>
     <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B482" s="91"/>
+      <c r="B482" s="89"/>
     </row>
     <row r="483" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B483" s="91"/>
+      <c r="B483" s="89"/>
     </row>
     <row r="484" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B484" s="91"/>
+      <c r="B484" s="89"/>
     </row>
     <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B485" s="91"/>
+      <c r="B485" s="89"/>
     </row>
     <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B486" s="91"/>
+      <c r="B486" s="89"/>
     </row>
     <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B487" s="91"/>
+      <c r="B487" s="89"/>
     </row>
     <row r="488" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B488" s="91"/>
+      <c r="B488" s="89"/>
     </row>
     <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B489" s="91"/>
+      <c r="B489" s="89"/>
     </row>
     <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B490" s="91"/>
+      <c r="B490" s="89"/>
     </row>
     <row r="491" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B491" s="91"/>
+      <c r="B491" s="89"/>
     </row>
     <row r="492" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B492" s="91"/>
+      <c r="B492" s="89"/>
     </row>
     <row r="493" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B493" s="91"/>
+      <c r="B493" s="89"/>
     </row>
     <row r="494" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B494" s="91"/>
+      <c r="B494" s="89"/>
     </row>
     <row r="495" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B495" s="91"/>
+      <c r="B495" s="89"/>
     </row>
     <row r="496" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B496" s="91"/>
+      <c r="B496" s="89"/>
     </row>
     <row r="497" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B497" s="91"/>
+      <c r="B497" s="89"/>
     </row>
     <row r="498" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B498" s="91"/>
+      <c r="B498" s="89"/>
     </row>
     <row r="499" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B499" s="91"/>
+      <c r="B499" s="89"/>
     </row>
     <row r="500" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B500" s="91"/>
+      <c r="B500" s="89"/>
     </row>
     <row r="501" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B501" s="91"/>
+      <c r="B501" s="89"/>
     </row>
     <row r="502" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B502" s="91"/>
+      <c r="B502" s="89"/>
     </row>
     <row r="503" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B503" s="91"/>
+      <c r="B503" s="89"/>
     </row>
     <row r="504" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B504" s="91"/>
+      <c r="B504" s="89"/>
     </row>
     <row r="505" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B505" s="91"/>
+      <c r="B505" s="89"/>
     </row>
     <row r="506" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B506" s="91"/>
+      <c r="B506" s="89"/>
     </row>
     <row r="507" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B507" s="91"/>
+      <c r="B507" s="89"/>
     </row>
     <row r="508" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B508" s="91"/>
+      <c r="B508" s="89"/>
     </row>
     <row r="509" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B509" s="91"/>
+      <c r="B509" s="89"/>
     </row>
     <row r="510" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B510" s="91"/>
+      <c r="B510" s="89"/>
     </row>
     <row r="511" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B511" s="91"/>
+      <c r="B511" s="89"/>
     </row>
     <row r="512" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B512" s="91"/>
+      <c r="B512" s="89"/>
     </row>
     <row r="513" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B513" s="91"/>
+      <c r="B513" s="89"/>
     </row>
     <row r="514" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B514" s="91"/>
+      <c r="B514" s="89"/>
     </row>
     <row r="515" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B515" s="91"/>
+      <c r="B515" s="89"/>
     </row>
     <row r="516" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B516" s="91"/>
+      <c r="B516" s="89"/>
     </row>
     <row r="517" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B517" s="91"/>
+      <c r="B517" s="89"/>
     </row>
     <row r="518" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B518" s="91"/>
+      <c r="B518" s="89"/>
     </row>
     <row r="519" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B519" s="91"/>
+      <c r="B519" s="89"/>
     </row>
     <row r="520" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B520" s="91"/>
+      <c r="B520" s="89"/>
     </row>
     <row r="521" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B521" s="91"/>
+      <c r="B521" s="89"/>
     </row>
     <row r="522" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B522" s="91"/>
+      <c r="B522" s="89"/>
     </row>
     <row r="523" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B523" s="91"/>
+      <c r="B523" s="89"/>
     </row>
     <row r="524" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B524" s="91"/>
+      <c r="B524" s="89"/>
     </row>
     <row r="525" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B525" s="91"/>
+      <c r="B525" s="89"/>
     </row>
     <row r="526" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B526" s="91"/>
+      <c r="B526" s="89"/>
     </row>
     <row r="527" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B527" s="91"/>
+      <c r="B527" s="89"/>
     </row>
     <row r="528" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B528" s="91"/>
+      <c r="B528" s="89"/>
     </row>
     <row r="529" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B529" s="91"/>
+      <c r="B529" s="89"/>
     </row>
     <row r="530" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B530" s="91"/>
+      <c r="B530" s="89"/>
     </row>
     <row r="531" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B531" s="91"/>
+      <c r="B531" s="89"/>
     </row>
     <row r="532" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B532" s="91"/>
+      <c r="B532" s="89"/>
     </row>
     <row r="533" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B533" s="91"/>
+      <c r="B533" s="89"/>
     </row>
     <row r="534" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B534" s="91"/>
+      <c r="B534" s="89"/>
     </row>
     <row r="535" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B535" s="91"/>
+      <c r="B535" s="89"/>
     </row>
     <row r="536" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B536" s="91"/>
+      <c r="B536" s="89"/>
     </row>
     <row r="537" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B537" s="91"/>
+      <c r="B537" s="89"/>
     </row>
     <row r="538" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B538" s="91"/>
+      <c r="B538" s="89"/>
     </row>
     <row r="539" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B539" s="91"/>
+      <c r="B539" s="89"/>
     </row>
     <row r="540" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B540" s="91"/>
+      <c r="B540" s="89"/>
     </row>
     <row r="541" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B541" s="91"/>
+      <c r="B541" s="89"/>
     </row>
     <row r="542" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B542" s="91"/>
+      <c r="B542" s="89"/>
     </row>
     <row r="543" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B543" s="91"/>
+      <c r="B543" s="89"/>
     </row>
     <row r="544" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B544" s="91"/>
+      <c r="B544" s="89"/>
     </row>
     <row r="545" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B545" s="91"/>
+      <c r="B545" s="89"/>
     </row>
     <row r="546" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B546" s="91"/>
+      <c r="B546" s="89"/>
     </row>
     <row r="547" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B547" s="91"/>
+      <c r="B547" s="89"/>
     </row>
     <row r="548" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B548" s="91"/>
+      <c r="B548" s="89"/>
     </row>
     <row r="549" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B549" s="91"/>
+      <c r="B549" s="89"/>
     </row>
     <row r="550" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B550" s="91"/>
+      <c r="B550" s="89"/>
     </row>
     <row r="551" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B551" s="91"/>
+      <c r="B551" s="89"/>
     </row>
     <row r="552" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B552" s="91"/>
+      <c r="B552" s="89"/>
     </row>
     <row r="553" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B553" s="91"/>
+      <c r="B553" s="89"/>
     </row>
     <row r="554" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B554" s="91"/>
+      <c r="B554" s="89"/>
     </row>
     <row r="555" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B555" s="91"/>
+      <c r="B555" s="89"/>
     </row>
     <row r="556" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B556" s="91"/>
+      <c r="B556" s="89"/>
     </row>
     <row r="557" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B557" s="91"/>
+      <c r="B557" s="89"/>
     </row>
     <row r="558" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B558" s="91"/>
+      <c r="B558" s="89"/>
     </row>
     <row r="559" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B559" s="91"/>
+      <c r="B559" s="89"/>
     </row>
     <row r="560" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B560" s="91"/>
+      <c r="B560" s="89"/>
     </row>
     <row r="561" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B561" s="91"/>
+      <c r="B561" s="89"/>
     </row>
     <row r="562" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B562" s="91"/>
+      <c r="B562" s="89"/>
     </row>
     <row r="563" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B563" s="91"/>
+      <c r="B563" s="89"/>
     </row>
     <row r="564" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B564" s="91"/>
+      <c r="B564" s="89"/>
     </row>
     <row r="565" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B565" s="91"/>
+      <c r="B565" s="89"/>
     </row>
     <row r="566" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B566" s="91"/>
+      <c r="B566" s="89"/>
     </row>
     <row r="567" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B567" s="91"/>
+      <c r="B567" s="89"/>
     </row>
     <row r="568" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B568" s="91"/>
+      <c r="B568" s="89"/>
     </row>
     <row r="569" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B569" s="91"/>
+      <c r="B569" s="89"/>
     </row>
     <row r="570" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B570" s="91"/>
+      <c r="B570" s="89"/>
     </row>
     <row r="571" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B571" s="91"/>
+      <c r="B571" s="89"/>
     </row>
     <row r="572" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B572" s="91"/>
+      <c r="B572" s="89"/>
     </row>
     <row r="573" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B573" s="91"/>
+      <c r="B573" s="89"/>
     </row>
     <row r="574" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B574" s="91"/>
+      <c r="B574" s="89"/>
     </row>
     <row r="575" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B575" s="91"/>
+      <c r="B575" s="89"/>
     </row>
     <row r="576" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B576" s="91"/>
+      <c r="B576" s="89"/>
     </row>
     <row r="577" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B577" s="91"/>
+      <c r="B577" s="89"/>
     </row>
     <row r="578" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B578" s="91"/>
+      <c r="B578" s="89"/>
     </row>
     <row r="579" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B579" s="91"/>
+      <c r="B579" s="89"/>
     </row>
     <row r="580" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B580" s="91"/>
+      <c r="B580" s="89"/>
     </row>
     <row r="581" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B581" s="91"/>
+      <c r="B581" s="89"/>
     </row>
     <row r="582" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B582" s="91"/>
+      <c r="B582" s="89"/>
     </row>
     <row r="583" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B583" s="91"/>
+      <c r="B583" s="89"/>
     </row>
     <row r="584" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B584" s="91"/>
+      <c r="B584" s="89"/>
     </row>
     <row r="585" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B585" s="91"/>
+      <c r="B585" s="89"/>
     </row>
     <row r="586" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B586" s="91"/>
+      <c r="B586" s="89"/>
     </row>
     <row r="587" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B587" s="91"/>
+      <c r="B587" s="89"/>
     </row>
     <row r="588" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B588" s="91"/>
+      <c r="B588" s="89"/>
     </row>
     <row r="589" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B589" s="91"/>
+      <c r="B589" s="89"/>
     </row>
     <row r="590" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B590" s="91"/>
+      <c r="B590" s="89"/>
     </row>
     <row r="591" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B591" s="91"/>
+      <c r="B591" s="89"/>
     </row>
     <row r="592" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B592" s="91"/>
+      <c r="B592" s="89"/>
     </row>
     <row r="593" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B593" s="91"/>
+      <c r="B593" s="89"/>
     </row>
     <row r="594" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B594" s="91"/>
+      <c r="B594" s="89"/>
     </row>
     <row r="595" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B595" s="91"/>
+      <c r="B595" s="89"/>
     </row>
     <row r="596" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B596" s="91"/>
+      <c r="B596" s="89"/>
     </row>
     <row r="597" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B597" s="91"/>
+      <c r="B597" s="89"/>
     </row>
     <row r="598" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B598" s="91"/>
+      <c r="B598" s="89"/>
     </row>
     <row r="599" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B599" s="91"/>
+      <c r="B599" s="89"/>
     </row>
     <row r="600" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B600" s="91"/>
+      <c r="B600" s="89"/>
     </row>
     <row r="601" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B601" s="91"/>
+      <c r="B601" s="89"/>
     </row>
     <row r="602" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B602" s="91"/>
+      <c r="B602" s="89"/>
     </row>
     <row r="603" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B603" s="91"/>
+      <c r="B603" s="89"/>
     </row>
     <row r="604" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B604" s="91"/>
+      <c r="B604" s="89"/>
     </row>
     <row r="605" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B605" s="91"/>
+      <c r="B605" s="89"/>
     </row>
     <row r="606" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B606" s="91"/>
+      <c r="B606" s="89"/>
     </row>
     <row r="607" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B607" s="91"/>
+      <c r="B607" s="89"/>
     </row>
     <row r="608" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B608" s="91"/>
+      <c r="B608" s="89"/>
     </row>
     <row r="609" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B609" s="91"/>
+      <c r="B609" s="89"/>
     </row>
     <row r="610" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B610" s="91"/>
+      <c r="B610" s="89"/>
     </row>
     <row r="611" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B611" s="91"/>
+      <c r="B611" s="89"/>
     </row>
     <row r="612" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B612" s="91"/>
+      <c r="B612" s="89"/>
     </row>
     <row r="613" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B613" s="91"/>
+      <c r="B613" s="89"/>
     </row>
     <row r="614" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B614" s="91"/>
+      <c r="B614" s="89"/>
     </row>
     <row r="615" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B615" s="91"/>
+      <c r="B615" s="89"/>
     </row>
     <row r="616" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B616" s="91"/>
+      <c r="B616" s="89"/>
     </row>
     <row r="617" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B617" s="91"/>
+      <c r="B617" s="89"/>
     </row>
     <row r="618" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B618" s="91"/>
+      <c r="B618" s="89"/>
     </row>
     <row r="619" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B619" s="91"/>
+      <c r="B619" s="89"/>
     </row>
     <row r="620" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B620" s="91"/>
+      <c r="B620" s="89"/>
     </row>
     <row r="621" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B621" s="91"/>
+      <c r="B621" s="89"/>
     </row>
     <row r="622" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B622" s="91"/>
+      <c r="B622" s="89"/>
     </row>
     <row r="623" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B623" s="91"/>
+      <c r="B623" s="89"/>
     </row>
     <row r="624" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B624" s="91"/>
+      <c r="B624" s="89"/>
     </row>
     <row r="625" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B625" s="91"/>
+      <c r="B625" s="89"/>
     </row>
     <row r="626" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B626" s="91"/>
+      <c r="B626" s="89"/>
     </row>
     <row r="627" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B627" s="91"/>
+      <c r="B627" s="89"/>
     </row>
     <row r="628" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B628" s="91"/>
+      <c r="B628" s="89"/>
     </row>
     <row r="629" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B629" s="91"/>
+      <c r="B629" s="89"/>
     </row>
     <row r="630" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B630" s="91"/>
+      <c r="B630" s="89"/>
     </row>
     <row r="631" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B631" s="91"/>
+      <c r="B631" s="89"/>
     </row>
     <row r="632" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B632" s="91"/>
+      <c r="B632" s="89"/>
     </row>
     <row r="633" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B633" s="91"/>
+      <c r="B633" s="89"/>
     </row>
     <row r="634" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B634" s="91"/>
+      <c r="B634" s="89"/>
     </row>
     <row r="635" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B635" s="91"/>
+      <c r="B635" s="89"/>
     </row>
     <row r="636" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B636" s="91"/>
+      <c r="B636" s="89"/>
     </row>
     <row r="637" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B637" s="91"/>
+      <c r="B637" s="89"/>
     </row>
     <row r="638" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B638" s="91"/>
+      <c r="B638" s="89"/>
     </row>
     <row r="639" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B639" s="91"/>
+      <c r="B639" s="89"/>
     </row>
     <row r="640" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B640" s="91"/>
+      <c r="B640" s="89"/>
     </row>
     <row r="641" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B641" s="91"/>
+      <c r="B641" s="89"/>
     </row>
     <row r="642" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B642" s="91"/>
+      <c r="B642" s="89"/>
     </row>
     <row r="643" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B643" s="91"/>
+      <c r="B643" s="89"/>
     </row>
     <row r="644" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B644" s="91"/>
+      <c r="B644" s="89"/>
     </row>
     <row r="645" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B645" s="91"/>
+      <c r="B645" s="89"/>
     </row>
     <row r="646" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B646" s="91"/>
+      <c r="B646" s="89"/>
     </row>
     <row r="647" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B647" s="91"/>
+      <c r="B647" s="89"/>
     </row>
     <row r="648" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B648" s="91"/>
+      <c r="B648" s="89"/>
     </row>
     <row r="649" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B649" s="91"/>
+      <c r="B649" s="89"/>
     </row>
     <row r="650" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B650" s="91"/>
+      <c r="B650" s="89"/>
     </row>
     <row r="651" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B651" s="91"/>
+      <c r="B651" s="89"/>
     </row>
     <row r="652" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B652" s="91"/>
+      <c r="B652" s="89"/>
     </row>
     <row r="653" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B653" s="91"/>
+      <c r="B653" s="89"/>
     </row>
     <row r="654" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B654" s="91"/>
+      <c r="B654" s="89"/>
     </row>
     <row r="655" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B655" s="91"/>
+      <c r="B655" s="89"/>
     </row>
     <row r="656" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B656" s="91"/>
+      <c r="B656" s="89"/>
     </row>
     <row r="657" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B657" s="91"/>
+      <c r="B657" s="89"/>
     </row>
     <row r="658" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B658" s="91"/>
+      <c r="B658" s="89"/>
     </row>
     <row r="659" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B659" s="91"/>
+      <c r="B659" s="89"/>
     </row>
     <row r="660" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B660" s="91"/>
+      <c r="B660" s="89"/>
     </row>
     <row r="661" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B661" s="91"/>
+      <c r="B661" s="89"/>
     </row>
     <row r="662" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B662" s="91"/>
+      <c r="B662" s="89"/>
     </row>
     <row r="663" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B663" s="91"/>
+      <c r="B663" s="89"/>
     </row>
     <row r="664" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B664" s="91"/>
+      <c r="B664" s="89"/>
     </row>
     <row r="665" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B665" s="91"/>
+      <c r="B665" s="89"/>
     </row>
     <row r="666" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B666" s="91"/>
+      <c r="B666" s="89"/>
     </row>
     <row r="667" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B667" s="91"/>
+      <c r="B667" s="89"/>
     </row>
     <row r="668" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B668" s="91"/>
+      <c r="B668" s="89"/>
     </row>
     <row r="669" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B669" s="91"/>
+      <c r="B669" s="89"/>
     </row>
     <row r="670" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B670" s="91"/>
+      <c r="B670" s="89"/>
     </row>
     <row r="671" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B671" s="91"/>
+      <c r="B671" s="89"/>
     </row>
     <row r="672" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B672" s="91"/>
+      <c r="B672" s="89"/>
     </row>
     <row r="673" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B673" s="91"/>
+      <c r="B673" s="89"/>
     </row>
     <row r="674" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B674" s="91"/>
+      <c r="B674" s="89"/>
     </row>
     <row r="675" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B675" s="91"/>
+      <c r="B675" s="89"/>
     </row>
     <row r="676" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B676" s="91"/>
+      <c r="B676" s="89"/>
     </row>
     <row r="677" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B677" s="91"/>
+      <c r="B677" s="89"/>
     </row>
     <row r="678" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B678" s="91"/>
+      <c r="B678" s="89"/>
     </row>
     <row r="679" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B679" s="91"/>
+      <c r="B679" s="89"/>
     </row>
     <row r="680" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B680" s="91"/>
+      <c r="B680" s="89"/>
     </row>
     <row r="681" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B681" s="91"/>
+      <c r="B681" s="89"/>
     </row>
     <row r="682" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B682" s="91"/>
+      <c r="B682" s="89"/>
     </row>
     <row r="683" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B683" s="91"/>
+      <c r="B683" s="89"/>
     </row>
     <row r="684" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B684" s="91"/>
+      <c r="B684" s="89"/>
     </row>
     <row r="685" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B685" s="91"/>
+      <c r="B685" s="89"/>
     </row>
     <row r="686" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B686" s="91"/>
+      <c r="B686" s="89"/>
     </row>
     <row r="687" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B687" s="91"/>
+      <c r="B687" s="89"/>
     </row>
     <row r="688" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B688" s="91"/>
+      <c r="B688" s="89"/>
     </row>
     <row r="689" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B689" s="91"/>
+      <c r="B689" s="89"/>
     </row>
     <row r="690" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B690" s="91"/>
+      <c r="B690" s="89"/>
     </row>
     <row r="691" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B691" s="91"/>
+      <c r="B691" s="89"/>
     </row>
     <row r="692" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B692" s="91"/>
+      <c r="B692" s="89"/>
     </row>
     <row r="693" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B693" s="91"/>
+      <c r="B693" s="89"/>
     </row>
     <row r="694" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B694" s="91"/>
+      <c r="B694" s="89"/>
     </row>
     <row r="695" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B695" s="91"/>
+      <c r="B695" s="89"/>
     </row>
     <row r="696" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B696" s="91"/>
+      <c r="B696" s="89"/>
     </row>
     <row r="697" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B697" s="91"/>
+      <c r="B697" s="89"/>
     </row>
     <row r="698" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B698" s="91"/>
+      <c r="B698" s="89"/>
     </row>
     <row r="699" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B699" s="91"/>
+      <c r="B699" s="89"/>
     </row>
     <row r="700" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B700" s="91"/>
+      <c r="B700" s="89"/>
     </row>
     <row r="701" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B701" s="91"/>
+      <c r="B701" s="89"/>
     </row>
     <row r="702" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B702" s="91"/>
+      <c r="B702" s="89"/>
     </row>
     <row r="703" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B703" s="91"/>
+      <c r="B703" s="89"/>
     </row>
     <row r="704" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B704" s="91"/>
+      <c r="B704" s="89"/>
     </row>
     <row r="705" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B705" s="91"/>
+      <c r="B705" s="89"/>
     </row>
     <row r="706" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B706" s="91"/>
+      <c r="B706" s="89"/>
     </row>
     <row r="707" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B707" s="91"/>
+      <c r="B707" s="89"/>
     </row>
     <row r="708" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B708" s="91"/>
+      <c r="B708" s="89"/>
     </row>
     <row r="709" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B709" s="91"/>
+      <c r="B709" s="89"/>
     </row>
     <row r="710" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B710" s="91"/>
+      <c r="B710" s="89"/>
     </row>
     <row r="711" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B711" s="91"/>
+      <c r="B711" s="89"/>
     </row>
     <row r="712" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B712" s="91"/>
+      <c r="B712" s="89"/>
     </row>
     <row r="713" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B713" s="91"/>
+      <c r="B713" s="89"/>
     </row>
     <row r="714" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B714" s="91"/>
+      <c r="B714" s="89"/>
     </row>
     <row r="715" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B715" s="91"/>
+      <c r="B715" s="89"/>
     </row>
     <row r="716" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B716" s="91"/>
+      <c r="B716" s="89"/>
     </row>
     <row r="717" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B717" s="91"/>
+      <c r="B717" s="89"/>
     </row>
     <row r="718" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B718" s="91"/>
+      <c r="B718" s="89"/>
     </row>
     <row r="719" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B719" s="91"/>
+      <c r="B719" s="89"/>
     </row>
     <row r="720" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B720" s="91"/>
+      <c r="B720" s="89"/>
     </row>
     <row r="721" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B721" s="91"/>
+      <c r="B721" s="89"/>
     </row>
     <row r="722" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B722" s="91"/>
+      <c r="B722" s="89"/>
     </row>
     <row r="723" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B723" s="91"/>
+      <c r="B723" s="89"/>
     </row>
     <row r="724" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B724" s="91"/>
+      <c r="B724" s="89"/>
     </row>
     <row r="725" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B725" s="91"/>
+      <c r="B725" s="89"/>
     </row>
     <row r="726" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B726" s="91"/>
+      <c r="B726" s="89"/>
     </row>
     <row r="727" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B727" s="91"/>
+      <c r="B727" s="89"/>
     </row>
     <row r="728" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B728" s="91"/>
+      <c r="B728" s="89"/>
     </row>
     <row r="729" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B729" s="91"/>
+      <c r="B729" s="89"/>
     </row>
     <row r="730" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B730" s="91"/>
+      <c r="B730" s="89"/>
     </row>
     <row r="731" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B731" s="91"/>
+      <c r="B731" s="89"/>
     </row>
     <row r="732" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B732" s="91"/>
+      <c r="B732" s="89"/>
     </row>
     <row r="733" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B733" s="91"/>
+      <c r="B733" s="89"/>
     </row>
     <row r="734" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B734" s="91"/>
+      <c r="B734" s="89"/>
     </row>
     <row r="735" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B735" s="91"/>
+      <c r="B735" s="89"/>
     </row>
     <row r="736" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B736" s="91"/>
+      <c r="B736" s="89"/>
     </row>
     <row r="737" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B737" s="91"/>
+      <c r="B737" s="89"/>
     </row>
     <row r="738" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B738" s="91"/>
+      <c r="B738" s="89"/>
     </row>
     <row r="739" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B739" s="91"/>
+      <c r="B739" s="89"/>
     </row>
     <row r="740" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B740" s="91"/>
+      <c r="B740" s="89"/>
     </row>
     <row r="741" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B741" s="91"/>
+      <c r="B741" s="89"/>
     </row>
     <row r="742" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B742" s="91"/>
+      <c r="B742" s="89"/>
     </row>
     <row r="743" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B743" s="91"/>
+      <c r="B743" s="89"/>
     </row>
     <row r="744" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B744" s="91"/>
+      <c r="B744" s="89"/>
     </row>
     <row r="745" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B745" s="91"/>
+      <c r="B745" s="89"/>
     </row>
     <row r="746" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B746" s="91"/>
+      <c r="B746" s="89"/>
     </row>
     <row r="747" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B747" s="91"/>
+      <c r="B747" s="89"/>
     </row>
     <row r="748" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B748" s="91"/>
+      <c r="B748" s="89"/>
     </row>
     <row r="749" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B749" s="91"/>
+      <c r="B749" s="89"/>
     </row>
     <row r="750" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B750" s="91"/>
+      <c r="B750" s="89"/>
     </row>
     <row r="751" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B751" s="91"/>
+      <c r="B751" s="89"/>
     </row>
     <row r="752" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B752" s="91"/>
+      <c r="B752" s="89"/>
     </row>
     <row r="753" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B753" s="91"/>
+      <c r="B753" s="89"/>
     </row>
     <row r="754" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B754" s="91"/>
+      <c r="B754" s="89"/>
     </row>
     <row r="755" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B755" s="91"/>
+      <c r="B755" s="89"/>
     </row>
     <row r="756" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B756" s="91"/>
+      <c r="B756" s="89"/>
     </row>
     <row r="757" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B757" s="91"/>
+      <c r="B757" s="89"/>
     </row>
     <row r="758" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B758" s="91"/>
+      <c r="B758" s="89"/>
     </row>
     <row r="759" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B759" s="91"/>
+      <c r="B759" s="89"/>
     </row>
     <row r="760" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B760" s="91"/>
+      <c r="B760" s="89"/>
     </row>
     <row r="761" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B761" s="91"/>
+      <c r="B761" s="89"/>
     </row>
     <row r="762" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B762" s="91"/>
+      <c r="B762" s="89"/>
     </row>
     <row r="763" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B763" s="91"/>
+      <c r="B763" s="89"/>
     </row>
     <row r="764" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B764" s="91"/>
+      <c r="B764" s="89"/>
     </row>
     <row r="765" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B765" s="91"/>
+      <c r="B765" s="89"/>
     </row>
     <row r="766" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B766" s="91"/>
+      <c r="B766" s="89"/>
     </row>
     <row r="767" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B767" s="91"/>
+      <c r="B767" s="89"/>
     </row>
     <row r="768" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B768" s="91"/>
+      <c r="B768" s="89"/>
     </row>
     <row r="769" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B769" s="91"/>
+      <c r="B769" s="89"/>
     </row>
     <row r="770" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B770" s="91"/>
+      <c r="B770" s="89"/>
     </row>
     <row r="771" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B771" s="91"/>
+      <c r="B771" s="89"/>
     </row>
     <row r="772" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B772" s="91"/>
+      <c r="B772" s="89"/>
     </row>
     <row r="773" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B773" s="91"/>
+      <c r="B773" s="89"/>
     </row>
     <row r="774" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B774" s="91"/>
+      <c r="B774" s="89"/>
     </row>
     <row r="775" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B775" s="91"/>
+      <c r="B775" s="89"/>
     </row>
     <row r="776" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B776" s="91"/>
+      <c r="B776" s="89"/>
     </row>
     <row r="777" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B777" s="91"/>
+      <c r="B777" s="89"/>
     </row>
     <row r="778" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B778" s="91"/>
+      <c r="B778" s="89"/>
     </row>
     <row r="779" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B779" s="91"/>
+      <c r="B779" s="89"/>
     </row>
     <row r="780" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B780" s="91"/>
+      <c r="B780" s="89"/>
     </row>
     <row r="781" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B781" s="91"/>
+      <c r="B781" s="89"/>
     </row>
     <row r="782" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B782" s="91"/>
+      <c r="B782" s="89"/>
     </row>
     <row r="783" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B783" s="91"/>
+      <c r="B783" s="89"/>
     </row>
     <row r="784" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B784" s="91"/>
+      <c r="B784" s="89"/>
     </row>
     <row r="785" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B785" s="91"/>
+      <c r="B785" s="89"/>
     </row>
     <row r="786" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B786" s="91"/>
+      <c r="B786" s="89"/>
     </row>
     <row r="787" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B787" s="91"/>
+      <c r="B787" s="89"/>
     </row>
     <row r="788" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B788" s="91"/>
+      <c r="B788" s="89"/>
     </row>
     <row r="789" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B789" s="91"/>
+      <c r="B789" s="89"/>
     </row>
     <row r="790" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B790" s="91"/>
+      <c r="B790" s="89"/>
     </row>
     <row r="791" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B791" s="91"/>
+      <c r="B791" s="89"/>
     </row>
     <row r="792" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B792" s="91"/>
+      <c r="B792" s="89"/>
     </row>
     <row r="793" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B793" s="91"/>
+      <c r="B793" s="89"/>
     </row>
     <row r="794" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B794" s="91"/>
+      <c r="B794" s="89"/>
     </row>
     <row r="795" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B795" s="91"/>
+      <c r="B795" s="89"/>
     </row>
     <row r="796" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B796" s="91"/>
+      <c r="B796" s="89"/>
     </row>
     <row r="797" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B797" s="91"/>
+      <c r="B797" s="89"/>
     </row>
     <row r="798" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B798" s="91"/>
+      <c r="B798" s="89"/>
     </row>
     <row r="799" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B799" s="91"/>
+      <c r="B799" s="89"/>
     </row>
     <row r="800" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B800" s="91"/>
+      <c r="B800" s="89"/>
     </row>
     <row r="801" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B801" s="91"/>
+      <c r="B801" s="89"/>
     </row>
     <row r="802" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B802" s="91"/>
+      <c r="B802" s="89"/>
     </row>
     <row r="803" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B803" s="91"/>
+      <c r="B803" s="89"/>
     </row>
     <row r="804" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B804" s="91"/>
+      <c r="B804" s="89"/>
     </row>
     <row r="805" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B805" s="91"/>
+      <c r="B805" s="89"/>
     </row>
     <row r="806" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B806" s="91"/>
+      <c r="B806" s="89"/>
     </row>
     <row r="807" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B807" s="91"/>
+      <c r="B807" s="89"/>
     </row>
     <row r="808" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B808" s="91"/>
+      <c r="B808" s="89"/>
     </row>
     <row r="809" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B809" s="91"/>
+      <c r="B809" s="89"/>
     </row>
     <row r="810" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B810" s="91"/>
+      <c r="B810" s="89"/>
     </row>
     <row r="811" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B811" s="91"/>
+      <c r="B811" s="89"/>
     </row>
     <row r="812" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B812" s="91"/>
+      <c r="B812" s="89"/>
     </row>
     <row r="813" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B813" s="91"/>
+      <c r="B813" s="89"/>
     </row>
     <row r="814" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B814" s="91"/>
+      <c r="B814" s="89"/>
     </row>
     <row r="815" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B815" s="91"/>
+      <c r="B815" s="89"/>
     </row>
     <row r="816" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B816" s="91"/>
+      <c r="B816" s="89"/>
     </row>
     <row r="817" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B817" s="91"/>
+      <c r="B817" s="89"/>
     </row>
     <row r="818" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B818" s="91"/>
+      <c r="B818" s="89"/>
     </row>
     <row r="819" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B819" s="91"/>
+      <c r="B819" s="89"/>
     </row>
     <row r="820" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B820" s="91"/>
+      <c r="B820" s="89"/>
     </row>
     <row r="821" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B821" s="91"/>
+      <c r="B821" s="89"/>
     </row>
     <row r="822" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B822" s="91"/>
+      <c r="B822" s="89"/>
     </row>
     <row r="823" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B823" s="91"/>
+      <c r="B823" s="89"/>
     </row>
     <row r="824" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B824" s="91"/>
+      <c r="B824" s="89"/>
     </row>
     <row r="825" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B825" s="91"/>
+      <c r="B825" s="89"/>
     </row>
     <row r="826" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B826" s="91"/>
+      <c r="B826" s="89"/>
     </row>
     <row r="827" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B827" s="91"/>
+      <c r="B827" s="89"/>
     </row>
     <row r="828" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B828" s="91"/>
+      <c r="B828" s="89"/>
     </row>
     <row r="829" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B829" s="91"/>
+      <c r="B829" s="89"/>
     </row>
     <row r="830" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B830" s="91"/>
+      <c r="B830" s="89"/>
     </row>
     <row r="831" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B831" s="91"/>
+      <c r="B831" s="89"/>
     </row>
     <row r="832" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B832" s="91"/>
+      <c r="B832" s="89"/>
     </row>
     <row r="833" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B833" s="91"/>
+      <c r="B833" s="89"/>
     </row>
     <row r="834" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B834" s="91"/>
+      <c r="B834" s="89"/>
     </row>
     <row r="835" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B835" s="91"/>
+      <c r="B835" s="89"/>
     </row>
     <row r="836" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B836" s="91"/>
+      <c r="B836" s="89"/>
     </row>
     <row r="837" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B837" s="91"/>
+      <c r="B837" s="89"/>
     </row>
     <row r="838" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B838" s="91"/>
+      <c r="B838" s="89"/>
     </row>
     <row r="839" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B839" s="91"/>
+      <c r="B839" s="89"/>
     </row>
     <row r="840" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B840" s="91"/>
+      <c r="B840" s="89"/>
     </row>
     <row r="841" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B841" s="91"/>
+      <c r="B841" s="89"/>
     </row>
     <row r="842" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B842" s="91"/>
+      <c r="B842" s="89"/>
     </row>
     <row r="843" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B843" s="91"/>
+      <c r="B843" s="89"/>
     </row>
     <row r="844" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B844" s="91"/>
+      <c r="B844" s="89"/>
     </row>
     <row r="845" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B845" s="91"/>
+      <c r="B845" s="89"/>
     </row>
     <row r="846" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B846" s="91"/>
+      <c r="B846" s="89"/>
     </row>
     <row r="847" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B847" s="91"/>
+      <c r="B847" s="89"/>
     </row>
     <row r="848" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B848" s="91"/>
+      <c r="B848" s="89"/>
     </row>
     <row r="849" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B849" s="91"/>
+      <c r="B849" s="89"/>
     </row>
     <row r="850" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B850" s="91"/>
+      <c r="B850" s="89"/>
     </row>
     <row r="851" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B851" s="91"/>
+      <c r="B851" s="89"/>
     </row>
     <row r="852" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B852" s="91"/>
+      <c r="B852" s="89"/>
     </row>
     <row r="853" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B853" s="91"/>
+      <c r="B853" s="89"/>
     </row>
     <row r="854" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B854" s="91"/>
+      <c r="B854" s="89"/>
     </row>
     <row r="855" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B855" s="91"/>
+      <c r="B855" s="89"/>
     </row>
     <row r="856" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B856" s="91"/>
+      <c r="B856" s="89"/>
     </row>
     <row r="857" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B857" s="91"/>
+      <c r="B857" s="89"/>
     </row>
     <row r="858" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B858" s="91"/>
+      <c r="B858" s="89"/>
     </row>
     <row r="859" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B859" s="91"/>
+      <c r="B859" s="89"/>
     </row>
     <row r="860" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B860" s="91"/>
+      <c r="B860" s="89"/>
     </row>
     <row r="861" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B861" s="91"/>
+      <c r="B861" s="89"/>
     </row>
     <row r="862" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B862" s="91"/>
+      <c r="B862" s="89"/>
     </row>
     <row r="863" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B863" s="91"/>
+      <c r="B863" s="89"/>
     </row>
     <row r="864" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B864" s="91"/>
+      <c r="B864" s="89"/>
     </row>
     <row r="865" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B865" s="91"/>
+      <c r="B865" s="89"/>
     </row>
     <row r="866" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B866" s="91"/>
+      <c r="B866" s="89"/>
     </row>
     <row r="867" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B867" s="91"/>
+      <c r="B867" s="89"/>
     </row>
     <row r="868" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B868" s="91"/>
+      <c r="B868" s="89"/>
     </row>
     <row r="869" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B869" s="91"/>
+      <c r="B869" s="89"/>
     </row>
     <row r="870" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B870" s="91"/>
+      <c r="B870" s="89"/>
     </row>
     <row r="871" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B871" s="91"/>
+      <c r="B871" s="89"/>
     </row>
     <row r="872" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B872" s="91"/>
+      <c r="B872" s="89"/>
     </row>
     <row r="873" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B873" s="91"/>
+      <c r="B873" s="89"/>
     </row>
     <row r="874" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B874" s="91"/>
+      <c r="B874" s="89"/>
     </row>
     <row r="875" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B875" s="91"/>
+      <c r="B875" s="89"/>
     </row>
     <row r="876" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B876" s="91"/>
+      <c r="B876" s="89"/>
     </row>
     <row r="877" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B877" s="91"/>
+      <c r="B877" s="89"/>
     </row>
     <row r="878" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B878" s="91"/>
+      <c r="B878" s="89"/>
     </row>
     <row r="879" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B879" s="91"/>
+      <c r="B879" s="89"/>
     </row>
     <row r="880" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B880" s="91"/>
+      <c r="B880" s="89"/>
     </row>
     <row r="881" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B881" s="91"/>
+      <c r="B881" s="89"/>
     </row>
     <row r="882" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B882" s="91"/>
+      <c r="B882" s="89"/>
     </row>
     <row r="883" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B883" s="91"/>
+      <c r="B883" s="89"/>
     </row>
     <row r="884" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B884" s="91"/>
+      <c r="B884" s="89"/>
     </row>
     <row r="885" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B885" s="91"/>
+      <c r="B885" s="89"/>
     </row>
     <row r="886" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B886" s="91"/>
+      <c r="B886" s="89"/>
     </row>
     <row r="887" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B887" s="91"/>
+      <c r="B887" s="89"/>
     </row>
     <row r="888" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B888" s="91"/>
+      <c r="B888" s="89"/>
     </row>
     <row r="889" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B889" s="91"/>
+      <c r="B889" s="89"/>
     </row>
     <row r="890" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B890" s="91"/>
+      <c r="B890" s="89"/>
     </row>
     <row r="891" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B891" s="91"/>
+      <c r="B891" s="89"/>
     </row>
     <row r="892" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B892" s="91"/>
+      <c r="B892" s="89"/>
     </row>
     <row r="893" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B893" s="91"/>
+      <c r="B893" s="89"/>
     </row>
     <row r="894" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B894" s="91"/>
+      <c r="B894" s="89"/>
     </row>
     <row r="895" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B895" s="91"/>
+      <c r="B895" s="89"/>
     </row>
     <row r="896" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B896" s="91"/>
+      <c r="B896" s="89"/>
     </row>
     <row r="897" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B897" s="91"/>
+      <c r="B897" s="89"/>
     </row>
     <row r="898" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B898" s="91"/>
+      <c r="B898" s="89"/>
     </row>
     <row r="899" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B899" s="91"/>
+      <c r="B899" s="89"/>
     </row>
     <row r="900" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B900" s="91"/>
+      <c r="B900" s="89"/>
     </row>
     <row r="901" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B901" s="91"/>
+      <c r="B901" s="89"/>
     </row>
     <row r="902" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B902" s="91"/>
+      <c r="B902" s="89"/>
     </row>
     <row r="903" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B903" s="91"/>
+      <c r="B903" s="89"/>
     </row>
     <row r="904" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B904" s="91"/>
+      <c r="B904" s="89"/>
     </row>
     <row r="905" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B905" s="91"/>
+      <c r="B905" s="89"/>
     </row>
     <row r="906" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B906" s="91"/>
+      <c r="B906" s="89"/>
     </row>
     <row r="907" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B907" s="91"/>
+      <c r="B907" s="89"/>
     </row>
     <row r="908" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B908" s="91"/>
+      <c r="B908" s="89"/>
     </row>
     <row r="909" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B909" s="91"/>
+      <c r="B909" s="89"/>
     </row>
     <row r="910" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B910" s="91"/>
+      <c r="B910" s="89"/>
     </row>
     <row r="911" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B911" s="91"/>
+      <c r="B911" s="89"/>
     </row>
     <row r="912" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B912" s="91"/>
+      <c r="B912" s="89"/>
     </row>
     <row r="913" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B913" s="91"/>
+      <c r="B913" s="89"/>
     </row>
     <row r="914" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B914" s="91"/>
+      <c r="B914" s="89"/>
     </row>
     <row r="915" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B915" s="91"/>
+      <c r="B915" s="89"/>
     </row>
     <row r="916" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B916" s="91"/>
+      <c r="B916" s="89"/>
     </row>
     <row r="917" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B917" s="91"/>
+      <c r="B917" s="89"/>
     </row>
     <row r="918" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B918" s="91"/>
+      <c r="B918" s="89"/>
     </row>
     <row r="919" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B919" s="91"/>
+      <c r="B919" s="89"/>
     </row>
     <row r="920" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B920" s="91"/>
+      <c r="B920" s="89"/>
     </row>
     <row r="921" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B921" s="91"/>
+      <c r="B921" s="89"/>
     </row>
     <row r="922" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B922" s="91"/>
+      <c r="B922" s="89"/>
     </row>
     <row r="923" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B923" s="91"/>
+      <c r="B923" s="89"/>
     </row>
     <row r="924" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B924" s="91"/>
+      <c r="B924" s="89"/>
     </row>
     <row r="925" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B925" s="91"/>
+      <c r="B925" s="89"/>
     </row>
     <row r="926" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B926" s="91"/>
+      <c r="B926" s="89"/>
     </row>
     <row r="927" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B927" s="91"/>
+      <c r="B927" s="89"/>
     </row>
     <row r="928" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B928" s="91"/>
+      <c r="B928" s="89"/>
     </row>
     <row r="929" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B929" s="91"/>
+      <c r="B929" s="89"/>
     </row>
     <row r="930" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B930" s="91"/>
+      <c r="B930" s="89"/>
     </row>
     <row r="931" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B931" s="91"/>
+      <c r="B931" s="89"/>
     </row>
     <row r="932" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B932" s="91"/>
+      <c r="B932" s="89"/>
     </row>
     <row r="933" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B933" s="91"/>
+      <c r="B933" s="89"/>
     </row>
     <row r="934" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B934" s="91"/>
+      <c r="B934" s="89"/>
     </row>
     <row r="935" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B935" s="91"/>
+      <c r="B935" s="89"/>
     </row>
     <row r="936" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B936" s="91"/>
+      <c r="B936" s="89"/>
     </row>
     <row r="937" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B937" s="91"/>
+      <c r="B937" s="89"/>
     </row>
     <row r="938" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B938" s="91"/>
+      <c r="B938" s="89"/>
     </row>
     <row r="939" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B939" s="91"/>
+      <c r="B939" s="89"/>
     </row>
     <row r="940" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B940" s="91"/>
+      <c r="B940" s="89"/>
     </row>
     <row r="941" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B941" s="91"/>
+      <c r="B941" s="89"/>
     </row>
     <row r="942" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B942" s="91"/>
+      <c r="B942" s="89"/>
     </row>
     <row r="943" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B943" s="91"/>
+      <c r="B943" s="89"/>
     </row>
     <row r="944" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B944" s="91"/>
+      <c r="B944" s="89"/>
     </row>
     <row r="945" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B945" s="91"/>
+      <c r="B945" s="89"/>
     </row>
     <row r="946" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B946" s="91"/>
+      <c r="B946" s="89"/>
     </row>
     <row r="947" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B947" s="91"/>
+      <c r="B947" s="89"/>
     </row>
     <row r="948" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B948" s="91"/>
+      <c r="B948" s="89"/>
     </row>
     <row r="949" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B949" s="91"/>
+      <c r="B949" s="89"/>
     </row>
     <row r="950" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B950" s="91"/>
+      <c r="B950" s="89"/>
     </row>
     <row r="951" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B951" s="91"/>
+      <c r="B951" s="89"/>
     </row>
     <row r="952" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B952" s="91"/>
+      <c r="B952" s="89"/>
     </row>
     <row r="953" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B953" s="91"/>
+      <c r="B953" s="89"/>
     </row>
     <row r="954" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B954" s="91"/>
+      <c r="B954" s="89"/>
     </row>
     <row r="955" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B955" s="91"/>
+      <c r="B955" s="89"/>
     </row>
     <row r="956" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B956" s="91"/>
+      <c r="B956" s="89"/>
     </row>
     <row r="957" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B957" s="91"/>
+      <c r="B957" s="89"/>
     </row>
     <row r="958" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B958" s="91"/>
+      <c r="B958" s="89"/>
     </row>
     <row r="959" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B959" s="91"/>
+      <c r="B959" s="89"/>
     </row>
     <row r="960" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B960" s="91"/>
+      <c r="B960" s="89"/>
     </row>
     <row r="961" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B961" s="91"/>
+      <c r="B961" s="89"/>
     </row>
     <row r="962" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B962" s="91"/>
+      <c r="B962" s="89"/>
     </row>
     <row r="963" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B963" s="91"/>
+      <c r="B963" s="89"/>
     </row>
     <row r="964" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B964" s="91"/>
+      <c r="B964" s="89"/>
     </row>
     <row r="965" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B965" s="91"/>
+      <c r="B965" s="89"/>
     </row>
     <row r="966" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B966" s="91"/>
+      <c r="B966" s="89"/>
     </row>
     <row r="967" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B967" s="91"/>
+      <c r="B967" s="89"/>
     </row>
     <row r="968" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B968" s="91"/>
+      <c r="B968" s="89"/>
     </row>
     <row r="969" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B969" s="91"/>
+      <c r="B969" s="89"/>
     </row>
     <row r="970" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B970" s="91"/>
+      <c r="B970" s="89"/>
     </row>
     <row r="971" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B971" s="91"/>
+      <c r="B971" s="89"/>
     </row>
     <row r="972" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B972" s="91"/>
+      <c r="B972" s="89"/>
     </row>
     <row r="973" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B973" s="91"/>
+      <c r="B973" s="89"/>
     </row>
     <row r="974" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B974" s="91"/>
+      <c r="B974" s="89"/>
     </row>
     <row r="975" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B975" s="91"/>
+      <c r="B975" s="89"/>
     </row>
     <row r="976" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B976" s="91"/>
+      <c r="B976" s="89"/>
     </row>
     <row r="977" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B977" s="91"/>
+      <c r="B977" s="89"/>
     </row>
     <row r="978" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B978" s="91"/>
+      <c r="B978" s="89"/>
     </row>
     <row r="979" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B979" s="91"/>
+      <c r="B979" s="89"/>
     </row>
     <row r="980" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B980" s="91"/>
+      <c r="B980" s="89"/>
     </row>
     <row r="981" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B981" s="91"/>
+      <c r="B981" s="89"/>
     </row>
     <row r="982" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B982" s="91"/>
+      <c r="B982" s="89"/>
     </row>
     <row r="983" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B983" s="91"/>
+      <c r="B983" s="89"/>
     </row>
     <row r="984" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B984" s="91"/>
+      <c r="B984" s="89"/>
     </row>
     <row r="985" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B985" s="91"/>
+      <c r="B985" s="89"/>
     </row>
     <row r="986" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B986" s="91"/>
+      <c r="B986" s="89"/>
     </row>
     <row r="987" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B987" s="91"/>
+      <c r="B987" s="89"/>
     </row>
     <row r="988" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B988" s="91"/>
+      <c r="B988" s="89"/>
     </row>
     <row r="989" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B989" s="91"/>
+      <c r="B989" s="89"/>
     </row>
     <row r="990" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B990" s="91"/>
+      <c r="B990" s="89"/>
     </row>
     <row r="991" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B991" s="91"/>
+      <c r="B991" s="89"/>
     </row>
     <row r="992" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B992" s="91"/>
+      <c r="B992" s="89"/>
     </row>
     <row r="993" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B993" s="91"/>
+      <c r="B993" s="89"/>
     </row>
     <row r="994" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B994" s="91"/>
+      <c r="B994" s="89"/>
     </row>
     <row r="995" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B995" s="91"/>
+      <c r="B995" s="89"/>
     </row>
     <row r="996" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B996" s="91"/>
+      <c r="B996" s="89"/>
     </row>
     <row r="997" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B997" s="91"/>
+      <c r="B997" s="89"/>
     </row>
     <row r="998" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B998" s="91"/>
+      <c r="B998" s="89"/>
     </row>
     <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B999" s="91"/>
+      <c r="B999" s="89"/>
     </row>
     <row r="1000" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1000" s="91"/>
+      <c r="B1000" s="89"/>
     </row>
     <row r="1001" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1001" s="91"/>
+      <c r="B1001" s="89"/>
     </row>
     <row r="1002" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1002" s="91"/>
+      <c r="B1002" s="89"/>
     </row>
     <row r="1003" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1003" s="91"/>
+      <c r="B1003" s="89"/>
     </row>
     <row r="1004" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1004" s="91"/>
+      <c r="B1004" s="89"/>
     </row>
     <row r="1005" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1005" s="91"/>
+      <c r="B1005" s="89"/>
     </row>
     <row r="1006" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1006" s="91"/>
+      <c r="B1006" s="89"/>
     </row>
     <row r="1007" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1007" s="91"/>
+      <c r="B1007" s="89"/>
     </row>
     <row r="1008" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1008" s="91"/>
+      <c r="B1008" s="89"/>
     </row>
     <row r="1009" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1009" s="91"/>
+      <c r="B1009" s="89"/>
     </row>
     <row r="1010" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1010" s="91"/>
+      <c r="B1010" s="89"/>
     </row>
     <row r="1011" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1011" s="91"/>
+      <c r="B1011" s="89"/>
     </row>
     <row r="1012" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1012" s="91"/>
+      <c r="B1012" s="89"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H28" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="36">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="H4:H7"/>
@@ -8237,6 +8182,26 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
